--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="499">
   <si>
     <t>bank_name</t>
   </si>
@@ -152,6 +152,36 @@
     <t>АТ "Укрексімбанк"</t>
   </si>
   <si>
+    <t>Фiлiя - Закарпатське обласне управлiння публічного акцiонерного товариства "Державний ощадний банк України"</t>
+  </si>
+  <si>
+    <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
+  </si>
+  <si>
+    <t>Івано-Франківська Філія АТ КБ "Приватбанк"</t>
+  </si>
+  <si>
+    <t>АТ АКБ "Львів"</t>
+  </si>
+  <si>
+    <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
+  </si>
+  <si>
+    <t>ПАТ АБ УКРГАЗБАНК</t>
+  </si>
+  <si>
+    <t>АТ КБ "Приват банк"</t>
+  </si>
+  <si>
+    <t>АТ Мегабанк</t>
+  </si>
+  <si>
+    <t>АТ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -179,6 +209,15 @@
     <t>09325703</t>
   </si>
   <si>
+    <t>09312190</t>
+  </si>
+  <si>
+    <t>09322277</t>
+  </si>
+  <si>
+    <t>09801546</t>
+  </si>
+  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -266,6 +305,39 @@
     <t>UA933223130000026005000045227</t>
   </si>
   <si>
+    <t>UA613123560000026002300713705</t>
+  </si>
+  <si>
+    <t>UA693226690000026003300196863</t>
+  </si>
+  <si>
+    <t>UA473223130000026003000042534</t>
+  </si>
+  <si>
+    <t>UA853366770000026005052517967</t>
+  </si>
+  <si>
+    <t>UA113252680000000002600477437</t>
+  </si>
+  <si>
+    <t>UA503348510000000026008137708</t>
+  </si>
+  <si>
+    <t>UA463052990000026003016807628</t>
+  </si>
+  <si>
+    <t>UA503204780000026003924882927</t>
+  </si>
+  <si>
+    <t>UA633052990000026200672595702</t>
+  </si>
+  <si>
+    <t>UA663516290000000002600805183</t>
+  </si>
+  <si>
+    <t>UA363154050000026001052317039</t>
+  </si>
+  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -398,6 +470,48 @@
     <t>11.03.2021</t>
   </si>
   <si>
+    <t>18.02.2022</t>
+  </si>
+  <si>
+    <t>28.10.2021</t>
+  </si>
+  <si>
+    <t>13.08.2021</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>02.04.2021</t>
+  </si>
+  <si>
+    <t>19.02.2021</t>
+  </si>
+  <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -524,6 +638,48 @@
     <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
   </si>
   <si>
+    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
+  </si>
+  <si>
+    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ПП "СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРИВАТБАНК</t>
+  </si>
+  <si>
+    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -533,6 +689,15 @@
     <t>40235645</t>
   </si>
   <si>
+    <t>00044351</t>
+  </si>
+  <si>
+    <t>33308363</t>
+  </si>
+  <si>
+    <t>02472453</t>
+  </si>
+  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -554,9 +719,6 @@
     <t>27.01.2021</t>
   </si>
   <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
     <t>22.09.2021</t>
   </si>
   <si>
@@ -629,6 +791,45 @@
     <t>12.03.2021</t>
   </si>
   <si>
+    <t>29.10.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>19.04.2021</t>
+  </si>
+  <si>
+    <t>03.03.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -725,7 +926,58 @@
     <t>ФОП Сароян Азат Абрамович</t>
   </si>
   <si>
+    <t>Головко Наталія Романівна</t>
+  </si>
+  <si>
+    <t>Данильченко Віталій Іванович</t>
+  </si>
+  <si>
+    <t>Панченко Костянтин Володимирович</t>
+  </si>
+  <si>
+    <t>Філонський Валерій Вікторович</t>
+  </si>
+  <si>
+    <t>Барнецький Назар Михайлович</t>
+  </si>
+  <si>
+    <t>Соловій Віра Зіновіївна</t>
+  </si>
+  <si>
+    <t>Заболітна Олена Юріївна</t>
+  </si>
+  <si>
+    <t>Одноріг Валентина Мар'янівна</t>
+  </si>
+  <si>
+    <t>Литовченко Олексій Сергійович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>Гриць Віталій Юрійович</t>
+  </si>
+  <si>
+    <t>Павлович Євгеній Володимирович</t>
+  </si>
+  <si>
+    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t>Бобров Олексій Анатолійович</t>
+  </si>
+  <si>
     <t>2980415485</t>
+  </si>
+  <si>
+    <t>2908717238</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>39298466</t>
   </si>
   <si>
     <t>Повернення помилкових грошових надходжень</t>
@@ -780,6 +1032,9 @@
     <t>неналежний платник</t>
   </si>
   <si>
+    <t xml:space="preserve">Вказані неповні дані для ідентифікації </t>
+  </si>
+  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -900,6 +1155,36 @@
     <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
   </si>
   <si>
+    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
+  </si>
+  <si>
+    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
+  </si>
+  <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
+  </si>
+  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -981,6 +1266,33 @@
     <t>36681991</t>
   </si>
   <si>
+    <t>43777954</t>
+  </si>
+  <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>36894166</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1026,6 +1338,12 @@
     <t>Закарпатська обл.</t>
   </si>
   <si>
+    <t>Івано-Франківська обл.</t>
+  </si>
+  <si>
+    <t>Миколаївська обл.</t>
+  </si>
+  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1056,6 +1374,33 @@
     <t>ЗА МАЙБУТНЄ</t>
   </si>
   <si>
+    <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
+  </si>
+  <si>
+    <t>СИЛА І ЧЕСТЬ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
+  </si>
+  <si>
+    <t>МАЙБУТНЄ КРАЇНИ</t>
+  </si>
+  <si>
+    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
+  </si>
+  <si>
+    <t>РІДНИЙ ДІМ</t>
+  </si>
+  <si>
+    <t>ПРОПОЗИЦІЯ</t>
+  </si>
+  <si>
+    <t>НАШ КРАЙ</t>
+  </si>
+  <si>
+    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
+  </si>
+  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -1068,6 +1413,24 @@
     <t>36088708</t>
   </si>
   <si>
+    <t>39610682</t>
+  </si>
+  <si>
+    <t>39481037</t>
+  </si>
+  <si>
+    <t>33547558</t>
+  </si>
+  <si>
+    <t>39550414</t>
+  </si>
+  <si>
+    <t>37724082</t>
+  </si>
+  <si>
+    <t>33492420</t>
+  </si>
+  <si>
     <t>78043b70-d48b-11ee-a5cc-0f6c6369ddf7</t>
   </si>
   <si>
@@ -1123,6 +1486,36 @@
   </si>
   <si>
     <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1568,28 +1961,28 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -1598,40 +1991,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R2" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S2" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T2" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="U2" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="V2" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="W2" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="X2" t="s">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="Y2" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1639,28 +2032,28 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -1669,40 +2062,40 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O3" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q3" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R3" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S3" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T3" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="U3" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="V3" t="s">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="W3" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X3" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y3" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1710,28 +2103,28 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="K4" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -1740,40 +2133,40 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O4" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R4" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S4" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T4" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="U4" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="V4" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="W4" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X4" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y4" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1781,28 +2174,28 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="K5" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -1811,40 +2204,40 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O5" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q5" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R5" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S5" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T5" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="U5" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="V5" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="W5" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X5" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y5" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1852,28 +2245,28 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="K6" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -1882,40 +2275,40 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O6" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q6" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R6" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S6" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="U6" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="V6" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="W6" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X6" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y6" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1923,28 +2316,28 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -1953,40 +2346,40 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O7" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S7" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T7" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="U7" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="V7" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="W7" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X7" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y7" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1994,28 +2387,28 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G8">
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="L8">
         <v>60376.24</v>
@@ -2024,40 +2417,40 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O8" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R8" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S8" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T8" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="U8" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="V8" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="W8" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X8" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y8" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2065,28 +2458,28 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G9">
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="L9">
         <v>17524.75</v>
@@ -2095,40 +2488,40 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O9" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P9" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R9" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S9" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T9" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="U9" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="V9" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="W9" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X9" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y9" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2136,28 +2529,28 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -2166,40 +2559,40 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O10" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q10" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R10" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S10" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T10" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="U10" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="V10" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="W10" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X10" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y10" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2207,28 +2600,28 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="G11">
         <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="K11" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L11">
         <v>7.17</v>
@@ -2237,40 +2630,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O11" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P11" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q11" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R11" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S11" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T11" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="U11" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="V11" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="W11" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="X11" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="Y11" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2278,34 +2671,34 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="G12">
         <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="K12" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L12">
         <v>100000</v>
@@ -2314,40 +2707,40 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O12" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q12" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R12" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S12" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T12" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="U12" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="V12" t="s">
-        <v>328</v>
+        <v>432</v>
       </c>
       <c r="W12" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="X12" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="Y12" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2355,28 +2748,28 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="G13">
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L13">
         <v>1600</v>
@@ -2385,40 +2778,40 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O13" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P13" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q13" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R13" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S13" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T13" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="U13" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="V13" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W13" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="X13" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="Y13" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2426,28 +2819,28 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="G14">
         <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="K14" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L14">
         <v>5020</v>
@@ -2456,40 +2849,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O14" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R14" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="S14" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T14" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="U14" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="V14" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="W14" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="Y14" t="s">
-        <v>355</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2497,28 +2890,28 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="G15">
         <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L15">
         <v>150000</v>
@@ -2527,40 +2920,40 @@
         <v>150000</v>
       </c>
       <c r="N15" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O15" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q15" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R15" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S15" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T15" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U15" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V15" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W15" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X15" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y15" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2568,28 +2961,28 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G16">
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -2598,40 +2991,40 @@
         <v>100000</v>
       </c>
       <c r="N16" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O16" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q16" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R16" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S16" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T16" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U16" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V16" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W16" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X16" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y16" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2639,28 +3032,28 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G17">
         <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="K17" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L17">
         <v>150000</v>
@@ -2669,40 +3062,40 @@
         <v>150000</v>
       </c>
       <c r="N17" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O17" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P17" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q17" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R17" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S17" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T17" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U17" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V17" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W17" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X17" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y17" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2710,28 +3103,28 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="G18">
         <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="K18" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L18">
         <v>160000</v>
@@ -2740,40 +3133,40 @@
         <v>160000</v>
       </c>
       <c r="N18" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O18" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q18" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R18" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S18" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T18" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U18" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V18" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W18" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X18" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y18" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2781,28 +3174,28 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="G19">
         <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L19">
         <v>950000</v>
@@ -2811,40 +3204,40 @@
         <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O19" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P19" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q19" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R19" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S19" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T19" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U19" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V19" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W19" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X19" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y19" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2852,28 +3245,28 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="G20">
         <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="K20" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L20">
         <v>950000</v>
@@ -2882,40 +3275,40 @@
         <v>950000</v>
       </c>
       <c r="N20" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O20" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q20" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R20" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S20" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T20" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U20" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V20" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W20" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X20" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y20" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2923,28 +3316,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="G21">
         <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="K21" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L21">
         <v>97396.8</v>
@@ -2953,40 +3346,40 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O21" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q21" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R21" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S21" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T21" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="U21" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="V21" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W21" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="X21" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2994,34 +3387,34 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -3030,40 +3423,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O22" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q22" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R22" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S22" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T22" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="U22" t="s">
-        <v>305</v>
+        <v>400</v>
       </c>
       <c r="V22" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="W22" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="X22" t="s">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="Y22" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -3071,28 +3464,28 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="G23">
         <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L23">
         <v>5600</v>
@@ -3101,40 +3494,40 @@
         <v>5600</v>
       </c>
       <c r="N23" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O23" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q23" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R23" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S23" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T23" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="U23" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="V23" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W23" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="X23" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="Y23" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -3142,28 +3535,28 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -3172,40 +3565,40 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O24" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q24" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R24" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S24" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T24" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="U24" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="V24" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W24" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="X24" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="Y24" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3213,28 +3606,28 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="G25">
         <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="L25">
         <v>10500</v>
@@ -3243,40 +3636,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O25" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q25" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R25" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S25" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T25" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="U25" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="V25" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W25" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="X25" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3284,28 +3677,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3314,40 +3707,40 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O26" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P26" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q26" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R26" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S26" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T26" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="U26" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="V26" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W26" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X26" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y26" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3355,28 +3748,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="G27">
         <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3385,40 +3778,40 @@
         <v>1500</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O27" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q27" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R27" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S27" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T27" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="U27" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="V27" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W27" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X27" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y27" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3426,28 +3819,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3456,40 +3849,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O28" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q28" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R28" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S28" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T28" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="U28" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="V28" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W28" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X28" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y28" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3497,28 +3890,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="G29">
         <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L29">
         <v>400</v>
@@ -3527,40 +3920,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O29" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R29" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S29" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T29" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="U29" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="V29" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W29" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X29" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y29" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3568,28 +3961,28 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -3598,40 +3991,40 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O30" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q30" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R30" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S30" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T30" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="U30" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="V30" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W30" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X30" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y30" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3639,28 +4032,28 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -3669,40 +4062,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O31" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q31" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R31" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S31" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T31" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="U31" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="V31" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="W31" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X31" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y31" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3710,28 +4103,28 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L32">
         <v>300</v>
@@ -3740,40 +4133,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O32" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q32" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R32" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S32" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T32" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="U32" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="V32" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="W32" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X32" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y32" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3781,28 +4174,28 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G33">
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L33">
         <v>600</v>
@@ -3811,40 +4204,40 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q33" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R33" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S33" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T33" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="U33" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="V33" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="W33" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X33" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y33" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3852,28 +4245,28 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I34" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -3882,40 +4275,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R34" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S34" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T34" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="U34" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="V34" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="W34" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X34" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y34" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3923,28 +4316,28 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -3953,40 +4346,40 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O35" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P35" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q35" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R35" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S35" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T35" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="U35" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="V35" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="W35" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X35" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y35" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3994,28 +4387,28 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G36">
         <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L36">
         <v>700</v>
@@ -4024,40 +4417,40 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q36" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R36" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S36" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T36" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="U36" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="V36" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X36" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y36" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -4065,28 +4458,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="G37">
         <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="L37">
         <v>300</v>
@@ -4095,40 +4488,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q37" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R37" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S37" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T37" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="U37" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="V37" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="W37" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X37" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y37" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4136,28 +4529,28 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G38">
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="L38">
         <v>800</v>
@@ -4166,40 +4559,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P38" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R38" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S38" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T38" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="U38" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="V38" t="s">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="W38" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X38" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y38" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4207,28 +4600,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G39">
         <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="L39">
         <v>600</v>
@@ -4237,40 +4630,40 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q39" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R39" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="S39" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T39" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="U39" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="V39" t="s">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="X39" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4278,28 +4671,28 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I40" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="K40" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L40">
         <v>290800</v>
@@ -4308,40 +4701,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q40" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R40" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S40" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T40" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U40" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V40" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W40" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X40" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y40" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4349,28 +4742,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="G41">
         <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I41" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L41">
         <v>560000</v>
@@ -4379,40 +4772,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O41" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q41" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R41" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S41" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T41" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="U41" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="V41" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W41" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="X41" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4420,28 +4813,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="G42">
         <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4450,40 +4843,40 @@
         <v>200</v>
       </c>
       <c r="N42" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q42" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R42" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S42" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T42" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="U42" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="V42" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W42" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X42" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4491,28 +4884,28 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G43">
         <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="K43" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="L43">
         <v>5000</v>
@@ -4521,40 +4914,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R43" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S43" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T43" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="U43" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="V43" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="W43" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X43" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y43" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -4562,28 +4955,28 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="G44">
         <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="I44" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="K44" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="L44">
         <v>200</v>
@@ -4592,40 +4985,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O44" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q44" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R44" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S44" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T44" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="U44" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
       <c r="V44" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="W44" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X44" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4633,28 +5026,28 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="G45">
         <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="I45" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="L45">
         <v>6110</v>
@@ -4663,40 +5056,40 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O45" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q45" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R45" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S45" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T45" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="U45" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="V45" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="W45" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X45" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y45" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -4704,28 +5097,28 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="G46">
         <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I46" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -4734,40 +5127,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q46" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R46" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S46" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T46" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="U46" t="s">
-        <v>316</v>
+        <v>411</v>
       </c>
       <c r="V46" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="W46" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X46" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y46" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4775,28 +5168,28 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="G47">
         <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I47" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L47">
         <v>4372</v>
@@ -4805,40 +5198,40 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O47" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q47" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R47" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S47" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T47" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="U47" t="s">
-        <v>316</v>
+        <v>411</v>
       </c>
       <c r="V47" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="W47" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="X47" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4846,28 +5239,28 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="G48">
         <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I48" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="K48" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L48">
         <v>34000</v>
@@ -4876,40 +5269,40 @@
         <v>34000</v>
       </c>
       <c r="N48" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O48" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="Q48" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R48" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S48" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="T48" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="U48" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="V48" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="W48" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="X48" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="Y48" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4917,34 +5310,34 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="G49">
         <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="J49" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="K49" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L49">
         <v>6500000</v>
@@ -4953,40 +5346,40 @@
         <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O49" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R49" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="S49" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="T49" t="s">
-        <v>290</v>
+        <v>375</v>
       </c>
       <c r="U49" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="V49" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="W49" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="X49" t="s">
-        <v>347</v>
+        <v>462</v>
       </c>
       <c r="Y49" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4994,28 +5387,28 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="I50" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="K50" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -5024,40 +5417,40 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O50" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q50" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R50" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S50" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T50" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="U50" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="V50" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="W50" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X50" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y50" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5065,28 +5458,28 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="G51">
         <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="K51" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L51">
         <v>269900</v>
@@ -5095,40 +5488,40 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q51" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R51" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S51" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T51" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="U51" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="V51" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="W51" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X51" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y51" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5136,34 +5529,34 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="G52">
         <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I52" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="K52" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L52">
         <v>130100</v>
@@ -5172,40 +5565,40 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O52" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q52" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R52" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S52" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T52" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="U52" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="V52" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="W52" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X52" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y52" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -5213,34 +5606,34 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="G53">
         <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I53" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="K53" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L53">
         <v>52300</v>
@@ -5249,40 +5642,40 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O53" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q53" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R53" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S53" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T53" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="U53" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="V53" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="W53" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X53" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5290,34 +5683,34 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="G54">
         <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I54" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="K54" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L54">
         <v>127300</v>
@@ -5326,40 +5719,40 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O54" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q54" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R54" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S54" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T54" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="U54" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="V54" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="W54" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X54" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y54" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5367,34 +5760,34 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="G55">
         <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I55" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J55" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="K55" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L55">
         <v>10000</v>
@@ -5403,40 +5796,40 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O55" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q55" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R55" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S55" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T55" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="U55" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="V55" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="W55" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X55" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y55" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5444,34 +5837,34 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="I56" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -5480,40 +5873,40 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="O56" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q56" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R56" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="S56" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="T56" t="s">
-        <v>292</v>
+        <v>377</v>
       </c>
       <c r="U56" t="s">
-        <v>319</v>
+        <v>414</v>
       </c>
       <c r="V56" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="W56" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="X56" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="Y56" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5521,28 +5914,28 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="G57">
         <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="I57" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="K57" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L57">
         <v>20000</v>
@@ -5551,40 +5944,1360 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="O57" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q57" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="R57" t="s">
+        <v>343</v>
+      </c>
+      <c r="S57" t="s">
+        <v>347</v>
+      </c>
+      <c r="T57" t="s">
+        <v>377</v>
+      </c>
+      <c r="U57" t="s">
+        <v>414</v>
+      </c>
+      <c r="V57" t="s">
+        <v>431</v>
+      </c>
+      <c r="W57" t="s">
+        <v>450</v>
+      </c>
+      <c r="X57" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58">
+        <v>3100</v>
+      </c>
+      <c r="H58" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58" t="s">
+        <v>321</v>
+      </c>
+      <c r="L58">
+        <v>3100</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>338</v>
+      </c>
+      <c r="O58" t="s">
+        <v>338</v>
+      </c>
+      <c r="P58" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>342</v>
+      </c>
+      <c r="R58" t="s">
+        <v>344</v>
+      </c>
+      <c r="S58" t="s">
+        <v>348</v>
+      </c>
+      <c r="T58" t="s">
+        <v>378</v>
+      </c>
+      <c r="U58" t="s">
+        <v>415</v>
+      </c>
+      <c r="V58" t="s">
+        <v>438</v>
+      </c>
+      <c r="W58" t="s">
+        <v>451</v>
+      </c>
+      <c r="X58" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59">
+        <v>12000</v>
+      </c>
+      <c r="H59" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" t="s">
+        <v>303</v>
+      </c>
+      <c r="K59" t="s">
+        <v>321</v>
+      </c>
+      <c r="L59">
+        <v>12000</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>338</v>
+      </c>
+      <c r="O59" t="s">
+        <v>338</v>
+      </c>
+      <c r="P59" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>342</v>
+      </c>
+      <c r="R59" t="s">
+        <v>344</v>
+      </c>
+      <c r="S59" t="s">
+        <v>348</v>
+      </c>
+      <c r="T59" t="s">
+        <v>378</v>
+      </c>
+      <c r="U59" t="s">
+        <v>415</v>
+      </c>
+      <c r="V59" t="s">
+        <v>438</v>
+      </c>
+      <c r="W59" t="s">
+        <v>451</v>
+      </c>
+      <c r="X59" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60">
+        <v>2500</v>
+      </c>
+      <c r="H60" t="s">
         <v>258</v>
       </c>
-      <c r="S57" t="s">
+      <c r="I60" t="s">
+        <v>304</v>
+      </c>
+      <c r="J60" t="s">
+        <v>318</v>
+      </c>
+      <c r="K60" t="s">
+        <v>321</v>
+      </c>
+      <c r="L60">
+        <v>2500</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>339</v>
+      </c>
+      <c r="O60" t="s">
+        <v>338</v>
+      </c>
+      <c r="P60" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>342</v>
+      </c>
+      <c r="R60" t="s">
+        <v>344</v>
+      </c>
+      <c r="S60" t="s">
+        <v>347</v>
+      </c>
+      <c r="T60" t="s">
+        <v>208</v>
+      </c>
+      <c r="U60" t="s">
+        <v>224</v>
+      </c>
+      <c r="V60" t="s">
+        <v>435</v>
+      </c>
+      <c r="W60" t="s">
+        <v>208</v>
+      </c>
+      <c r="X60" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>259</v>
+      </c>
+      <c r="I61" t="s">
+        <v>305</v>
+      </c>
+      <c r="J61" t="s">
+        <v>319</v>
+      </c>
+      <c r="K61" t="s">
+        <v>337</v>
+      </c>
+      <c r="L61">
+        <v>40</v>
+      </c>
+      <c r="M61">
+        <v>40</v>
+      </c>
+      <c r="N61" t="s">
+        <v>339</v>
+      </c>
+      <c r="O61" t="s">
+        <v>338</v>
+      </c>
+      <c r="P61" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>342</v>
+      </c>
+      <c r="R61" t="s">
+        <v>344</v>
+      </c>
+      <c r="S61" t="s">
+        <v>347</v>
+      </c>
+      <c r="T61" t="s">
+        <v>379</v>
+      </c>
+      <c r="U61" t="s">
+        <v>225</v>
+      </c>
+      <c r="V61" t="s">
+        <v>435</v>
+      </c>
+      <c r="W61" t="s">
+        <v>452</v>
+      </c>
+      <c r="X61" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>260</v>
+      </c>
+      <c r="I62" t="s">
+        <v>306</v>
+      </c>
+      <c r="J62" t="s">
+        <v>319</v>
+      </c>
+      <c r="K62" t="s">
+        <v>337</v>
+      </c>
+      <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="M62">
+        <v>100</v>
+      </c>
+      <c r="N62" t="s">
+        <v>339</v>
+      </c>
+      <c r="O62" t="s">
+        <v>338</v>
+      </c>
+      <c r="P62" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>342</v>
+      </c>
+      <c r="R62" t="s">
+        <v>344</v>
+      </c>
+      <c r="S62" t="s">
+        <v>347</v>
+      </c>
+      <c r="T62" t="s">
+        <v>379</v>
+      </c>
+      <c r="U62" t="s">
+        <v>225</v>
+      </c>
+      <c r="V62" t="s">
+        <v>435</v>
+      </c>
+      <c r="W62" t="s">
+        <v>452</v>
+      </c>
+      <c r="X62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" t="s">
+        <v>306</v>
+      </c>
+      <c r="J63" t="s">
+        <v>319</v>
+      </c>
+      <c r="K63" t="s">
+        <v>337</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="N63" t="s">
+        <v>339</v>
+      </c>
+      <c r="O63" t="s">
+        <v>338</v>
+      </c>
+      <c r="P63" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>342</v>
+      </c>
+      <c r="R63" t="s">
+        <v>344</v>
+      </c>
+      <c r="S63" t="s">
+        <v>347</v>
+      </c>
+      <c r="T63" t="s">
+        <v>379</v>
+      </c>
+      <c r="U63" t="s">
+        <v>225</v>
+      </c>
+      <c r="V63" t="s">
+        <v>435</v>
+      </c>
+      <c r="W63" t="s">
+        <v>452</v>
+      </c>
+      <c r="X63" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64">
+        <v>386</v>
+      </c>
+      <c r="H64" t="s">
+        <v>155</v>
+      </c>
+      <c r="I64" t="s">
+        <v>307</v>
+      </c>
+      <c r="K64" t="s">
+        <v>327</v>
+      </c>
+      <c r="L64">
+        <v>386</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>338</v>
+      </c>
+      <c r="O64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P64" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>342</v>
+      </c>
+      <c r="R64" t="s">
+        <v>344</v>
+      </c>
+      <c r="S64" t="s">
+        <v>347</v>
+      </c>
+      <c r="T64" t="s">
+        <v>380</v>
+      </c>
+      <c r="U64" t="s">
+        <v>416</v>
+      </c>
+      <c r="V64" t="s">
+        <v>439</v>
+      </c>
+      <c r="W64" t="s">
+        <v>453</v>
+      </c>
+      <c r="X64" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65">
+        <v>120</v>
+      </c>
+      <c r="H65" t="s">
         <v>262</v>
       </c>
-      <c r="T57" t="s">
-        <v>292</v>
-      </c>
-      <c r="U57" t="s">
-        <v>319</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" t="s">
         <v>327</v>
       </c>
-      <c r="W57" t="s">
+      <c r="L65">
+        <v>120</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>339</v>
+      </c>
+      <c r="O65" t="s">
+        <v>339</v>
+      </c>
+      <c r="P65" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>342</v>
+      </c>
+      <c r="R65" t="s">
         <v>344</v>
       </c>
-      <c r="X57" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>367</v>
+      <c r="S65" t="s">
+        <v>347</v>
+      </c>
+      <c r="T65" t="s">
+        <v>380</v>
+      </c>
+      <c r="U65" t="s">
+        <v>416</v>
+      </c>
+      <c r="V65" t="s">
+        <v>439</v>
+      </c>
+      <c r="W65" t="s">
+        <v>453</v>
+      </c>
+      <c r="X65" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66">
+        <v>350</v>
+      </c>
+      <c r="H66" t="s">
+        <v>263</v>
+      </c>
+      <c r="I66" t="s">
+        <v>308</v>
+      </c>
+      <c r="K66" t="s">
+        <v>327</v>
+      </c>
+      <c r="L66">
+        <v>350</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>338</v>
+      </c>
+      <c r="O66" t="s">
+        <v>338</v>
+      </c>
+      <c r="P66" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>342</v>
+      </c>
+      <c r="R66" t="s">
+        <v>344</v>
+      </c>
+      <c r="S66" t="s">
+        <v>347</v>
+      </c>
+      <c r="T66" t="s">
+        <v>380</v>
+      </c>
+      <c r="U66" t="s">
+        <v>416</v>
+      </c>
+      <c r="V66" t="s">
+        <v>439</v>
+      </c>
+      <c r="W66" t="s">
+        <v>453</v>
+      </c>
+      <c r="X66" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="G67">
+        <v>500</v>
+      </c>
+      <c r="H67" t="s">
+        <v>264</v>
+      </c>
+      <c r="I67" t="s">
+        <v>309</v>
+      </c>
+      <c r="K67" t="s">
+        <v>327</v>
+      </c>
+      <c r="L67">
+        <v>500</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>338</v>
+      </c>
+      <c r="O67" t="s">
+        <v>338</v>
+      </c>
+      <c r="P67" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>342</v>
+      </c>
+      <c r="R67" t="s">
+        <v>344</v>
+      </c>
+      <c r="S67" t="s">
+        <v>347</v>
+      </c>
+      <c r="T67" t="s">
+        <v>381</v>
+      </c>
+      <c r="U67" t="s">
+        <v>417</v>
+      </c>
+      <c r="V67" t="s">
+        <v>433</v>
+      </c>
+      <c r="W67" t="s">
+        <v>453</v>
+      </c>
+      <c r="X67" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68">
+        <v>1200</v>
+      </c>
+      <c r="H68" t="s">
+        <v>264</v>
+      </c>
+      <c r="I68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K68" t="s">
+        <v>327</v>
+      </c>
+      <c r="L68">
+        <v>1200</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>338</v>
+      </c>
+      <c r="O68" t="s">
+        <v>338</v>
+      </c>
+      <c r="P68" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>342</v>
+      </c>
+      <c r="R68" t="s">
+        <v>344</v>
+      </c>
+      <c r="S68" t="s">
+        <v>347</v>
+      </c>
+      <c r="T68" t="s">
+        <v>381</v>
+      </c>
+      <c r="U68" t="s">
+        <v>417</v>
+      </c>
+      <c r="V68" t="s">
+        <v>433</v>
+      </c>
+      <c r="W68" t="s">
+        <v>453</v>
+      </c>
+      <c r="X68" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69">
+        <v>60000</v>
+      </c>
+      <c r="H69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I69" t="s">
+        <v>311</v>
+      </c>
+      <c r="K69" t="s">
+        <v>321</v>
+      </c>
+      <c r="L69">
+        <v>60000</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>338</v>
+      </c>
+      <c r="O69" t="s">
+        <v>338</v>
+      </c>
+      <c r="P69" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>342</v>
+      </c>
+      <c r="R69" t="s">
+        <v>344</v>
+      </c>
+      <c r="S69" t="s">
+        <v>347</v>
+      </c>
+      <c r="T69" t="s">
+        <v>382</v>
+      </c>
+      <c r="U69" t="s">
+        <v>418</v>
+      </c>
+      <c r="V69" t="s">
+        <v>435</v>
+      </c>
+      <c r="W69" t="s">
+        <v>454</v>
+      </c>
+      <c r="X69" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70">
+        <v>500</v>
+      </c>
+      <c r="H70" t="s">
+        <v>160</v>
+      </c>
+      <c r="I70" t="s">
+        <v>312</v>
+      </c>
+      <c r="J70" t="s">
+        <v>226</v>
+      </c>
+      <c r="K70" t="s">
+        <v>321</v>
+      </c>
+      <c r="L70">
+        <v>500</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>339</v>
+      </c>
+      <c r="O70" t="s">
+        <v>339</v>
+      </c>
+      <c r="P70" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>342</v>
+      </c>
+      <c r="R70" t="s">
+        <v>346</v>
+      </c>
+      <c r="S70" t="s">
+        <v>347</v>
+      </c>
+      <c r="T70" t="s">
+        <v>383</v>
+      </c>
+      <c r="U70" t="s">
+        <v>419</v>
+      </c>
+      <c r="V70" t="s">
+        <v>431</v>
+      </c>
+      <c r="W70" t="s">
+        <v>455</v>
+      </c>
+      <c r="X70" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71">
+        <v>369500</v>
+      </c>
+      <c r="H71" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" t="s">
+        <v>313</v>
+      </c>
+      <c r="K71" t="s">
+        <v>327</v>
+      </c>
+      <c r="L71">
+        <v>369500</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>338</v>
+      </c>
+      <c r="O71" t="s">
+        <v>338</v>
+      </c>
+      <c r="P71" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R71" t="s">
+        <v>344</v>
+      </c>
+      <c r="S71" t="s">
+        <v>347</v>
+      </c>
+      <c r="T71" t="s">
+        <v>384</v>
+      </c>
+      <c r="U71" t="s">
+        <v>420</v>
+      </c>
+      <c r="V71" t="s">
+        <v>435</v>
+      </c>
+      <c r="W71" t="s">
+        <v>456</v>
+      </c>
+      <c r="X71" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72">
+        <v>387000</v>
+      </c>
+      <c r="H72" t="s">
+        <v>267</v>
+      </c>
+      <c r="I72" t="s">
+        <v>313</v>
+      </c>
+      <c r="K72" t="s">
+        <v>327</v>
+      </c>
+      <c r="L72">
+        <v>387000</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>338</v>
+      </c>
+      <c r="O72" t="s">
+        <v>338</v>
+      </c>
+      <c r="P72" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>342</v>
+      </c>
+      <c r="R72" t="s">
+        <v>344</v>
+      </c>
+      <c r="S72" t="s">
+        <v>347</v>
+      </c>
+      <c r="T72" t="s">
+        <v>384</v>
+      </c>
+      <c r="U72" t="s">
+        <v>420</v>
+      </c>
+      <c r="V72" t="s">
+        <v>435</v>
+      </c>
+      <c r="W72" t="s">
+        <v>456</v>
+      </c>
+      <c r="X72" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
+        <v>218</v>
+      </c>
+      <c r="G73">
+        <v>16000</v>
+      </c>
+      <c r="H73" t="s">
+        <v>268</v>
+      </c>
+      <c r="I73" t="s">
+        <v>314</v>
+      </c>
+      <c r="K73" t="s">
+        <v>327</v>
+      </c>
+      <c r="L73">
+        <v>16000</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>338</v>
+      </c>
+      <c r="O73" t="s">
+        <v>338</v>
+      </c>
+      <c r="P73" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>342</v>
+      </c>
+      <c r="R73" t="s">
+        <v>345</v>
+      </c>
+      <c r="S73" t="s">
+        <v>347</v>
+      </c>
+      <c r="T73" t="s">
+        <v>385</v>
+      </c>
+      <c r="U73" t="s">
+        <v>421</v>
+      </c>
+      <c r="V73" t="s">
+        <v>440</v>
+      </c>
+      <c r="W73" t="s">
+        <v>457</v>
+      </c>
+      <c r="X73" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74">
+        <v>5400</v>
+      </c>
+      <c r="H74" t="s">
+        <v>269</v>
+      </c>
+      <c r="I74" t="s">
+        <v>315</v>
+      </c>
+      <c r="J74" t="s">
+        <v>320</v>
+      </c>
+      <c r="K74" t="s">
+        <v>321</v>
+      </c>
+      <c r="L74">
+        <v>5400</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>339</v>
+      </c>
+      <c r="O74" t="s">
+        <v>339</v>
+      </c>
+      <c r="P74" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>342</v>
+      </c>
+      <c r="R74" t="s">
+        <v>344</v>
+      </c>
+      <c r="S74" t="s">
+        <v>347</v>
+      </c>
+      <c r="T74" t="s">
+        <v>386</v>
+      </c>
+      <c r="U74" t="s">
+        <v>422</v>
+      </c>
+      <c r="V74" t="s">
+        <v>431</v>
+      </c>
+      <c r="W74" t="s">
+        <v>458</v>
+      </c>
+      <c r="X74" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75">
+        <v>6200</v>
+      </c>
+      <c r="H75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" t="s">
+        <v>316</v>
+      </c>
+      <c r="K75" t="s">
+        <v>327</v>
+      </c>
+      <c r="L75">
+        <v>6100</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>338</v>
+      </c>
+      <c r="O75" t="s">
+        <v>338</v>
+      </c>
+      <c r="P75" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>342</v>
+      </c>
+      <c r="R75" t="s">
+        <v>344</v>
+      </c>
+      <c r="S75" t="s">
+        <v>347</v>
+      </c>
+      <c r="T75" t="s">
+        <v>387</v>
+      </c>
+      <c r="U75" t="s">
+        <v>423</v>
+      </c>
+      <c r="V75" t="s">
+        <v>429</v>
+      </c>
+      <c r="W75" t="s">
+        <v>459</v>
+      </c>
+      <c r="X75" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="453">
   <si>
     <t>bank_name</t>
   </si>
@@ -130,7 +130,7 @@
     <t>АТ "Райффайзен Банк Аваль"</t>
   </si>
   <si>
-    <t>АТ "РАЙФФАЙЗЕН БАНК_x000D_
+    <t>АТ "РАЙФФАЙЗЕН БАНК_x005F_x000D_
 АВАЛЬ"</t>
   </si>
   <si>
@@ -182,42 +182,12 @@
     <t>АТ "ПРИВАТБАНК"</t>
   </si>
   <si>
-    <t>14360570</t>
-  </si>
-  <si>
-    <t>00032112</t>
+    <t>35591059</t>
   </si>
   <si>
     <t>14305909</t>
   </si>
   <si>
-    <t>35810511</t>
-  </si>
-  <si>
-    <t>23697280</t>
-  </si>
-  <si>
-    <t>14282829</t>
-  </si>
-  <si>
-    <t>09804119</t>
-  </si>
-  <si>
-    <t>35591059</t>
-  </si>
-  <si>
-    <t>09325703</t>
-  </si>
-  <si>
-    <t>09312190</t>
-  </si>
-  <si>
-    <t>09322277</t>
-  </si>
-  <si>
-    <t>09801546</t>
-  </si>
-  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -338,6 +308,9 @@
     <t>UA363154050000026001052317039</t>
   </si>
   <si>
+    <t>UA693808050000000026004671091</t>
+  </si>
+  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -512,6 +485,15 @@
     <t>22.12.2021</t>
   </si>
   <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -680,22 +662,13 @@
     <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
   </si>
   <si>
-    <t>21715714</t>
-  </si>
-  <si>
-    <t>20806283</t>
-  </si>
-  <si>
-    <t>40235645</t>
-  </si>
-  <si>
-    <t>00044351</t>
-  </si>
-  <si>
-    <t>33308363</t>
-  </si>
-  <si>
-    <t>02472453</t>
+    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
+  </si>
+  <si>
+    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
   </si>
   <si>
     <t>12.02.2021</t>
@@ -830,6 +803,18 @@
     <t>21.01.2021</t>
   </si>
   <si>
+    <t>22.03.2024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
+    <t>28.03.2024</t>
+  </si>
+  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -968,16 +953,7 @@
     <t>Бобров Олексій Анатолійович</t>
   </si>
   <si>
-    <t>2980415485</t>
-  </si>
-  <si>
-    <t>2908717238</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>39298466</t>
+    <t>Нездолій Григорій Григорович</t>
   </si>
   <si>
     <t>Повернення помилкових грошових надходжень</t>
@@ -1016,13 +992,13 @@
     <t>Повернення помилково здійсненого внеску, згідно рішення Ради Київської обласної територіальної організації Політичної Партії "ГОЛОС" №1 від 08.06.2021 р.</t>
   </si>
   <si>
-    <t>повернення помилково сплачених_x000D_
-коштів док №107344471 від_x000D_
+    <t>повернення помилково сплачених_x005F_x000D_
+коштів док №107344471 від_x005F_x000D_
 31.03.2021 р.</t>
   </si>
   <si>
-    <t>повернення помилково сплачених_x000D_
-коштів док №107352223 від_x000D_
+    <t>повернення помилково сплачених_x005F_x000D_
+коштів док №107352223 від_x005F_x000D_
 13.04.2021 р.</t>
   </si>
   <si>
@@ -1035,6 +1011,15 @@
     <t xml:space="preserve">Вказані неповні дані для ідентифікації </t>
   </si>
   <si>
+    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL838134, оплаченого як Добровільний внесок Джан Нангялай 3507313217 вул.Ільфа і Петрова, б.6, кв.9,м.Одеса (внескодавець не є громадянином України)</t>
+  </si>
+  <si>
+    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL335251, оплаченого як Добровільний внесок Барчук Данило Вікторович 3880708711 вул. Чорновола В'ячеслава, буд. 6  (внескодавець не досяг 18-річного віку)</t>
+  </si>
+  <si>
+    <t>повернення коштів у зв'язку з неможливістю ідентифікувати платника</t>
+  </si>
+  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -1062,13 +1047,7 @@
     <t>3 квартал</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
+    <t>2024</t>
   </si>
   <si>
     <t>ТЕРНОПІЛЬСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
@@ -1185,252 +1164,129 @@
     <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
   </si>
   <si>
-    <t>40053063</t>
-  </si>
-  <si>
-    <t>43692731</t>
-  </si>
-  <si>
-    <t>43678249</t>
-  </si>
-  <si>
-    <t>43655001</t>
-  </si>
-  <si>
-    <t>43671311</t>
-  </si>
-  <si>
-    <t>43675248</t>
-  </si>
-  <si>
-    <t>43676765</t>
-  </si>
-  <si>
-    <t>33864810</t>
-  </si>
-  <si>
-    <t>39495516</t>
-  </si>
-  <si>
-    <t>39702118</t>
-  </si>
-  <si>
-    <t>39508645</t>
-  </si>
-  <si>
-    <t>40419357</t>
-  </si>
-  <si>
-    <t>39921438</t>
-  </si>
-  <si>
-    <t>39479782</t>
+    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>43379734</t>
+  </si>
+  <si>
+    <t>Тернопільська обл.</t>
+  </si>
+  <si>
+    <t>Херсонська обл.</t>
+  </si>
+  <si>
+    <t>Сумська обл.</t>
+  </si>
+  <si>
+    <t>Рівненська обл.</t>
+  </si>
+  <si>
+    <t>Чернівецька обл.</t>
+  </si>
+  <si>
+    <t>Хмельницька обл.</t>
+  </si>
+  <si>
+    <t>Одеська обл.</t>
+  </si>
+  <si>
+    <t>Житомирська обл.</t>
+  </si>
+  <si>
+    <t>м.Київ</t>
+  </si>
+  <si>
+    <t>Львівська обл.</t>
+  </si>
+  <si>
+    <t>Вінницька обл.</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>Київська обл.</t>
+  </si>
+  <si>
+    <t>Дніпропетровська обл.</t>
+  </si>
+  <si>
+    <t>Закарпатська обл.</t>
+  </si>
+  <si>
+    <t>Івано-Франківська обл.</t>
+  </si>
+  <si>
+    <t>Миколаївська обл.</t>
+  </si>
+  <si>
+    <t>Черкаська обл.</t>
+  </si>
+  <si>
+    <t>СИЛА ЛЮДЕЙ</t>
+  </si>
+  <si>
+    <t>СЛУГА НАРОДУ</t>
+  </si>
+  <si>
+    <t>БАТЬКІВЩИНА</t>
+  </si>
+  <si>
+    <t>ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ</t>
+  </si>
+  <si>
+    <t>БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП</t>
+  </si>
+  <si>
+    <t>ГОЛОС</t>
+  </si>
+  <si>
+    <t>БДЖОЛА</t>
+  </si>
+  <si>
+    <t>НАРОДНИЙ РУХ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
+  </si>
+  <si>
+    <t>СИЛА І ЧЕСТЬ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
+  </si>
+  <si>
+    <t>МАЙБУТНЄ КРАЇНИ</t>
+  </si>
+  <si>
+    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
+  </si>
+  <si>
+    <t>РІДНИЙ ДІМ</t>
+  </si>
+  <si>
+    <t>ПРОПОЗИЦІЯ</t>
+  </si>
+  <si>
+    <t>НАШ КРАЙ</t>
+  </si>
+  <si>
+    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
   </si>
   <si>
     <t>39651598</t>
   </si>
   <si>
-    <t>43311440</t>
-  </si>
-  <si>
-    <t>43527082</t>
-  </si>
-  <si>
-    <t>43428147</t>
-  </si>
-  <si>
-    <t>43307785</t>
-  </si>
-  <si>
-    <t>43449722</t>
-  </si>
-  <si>
-    <t>40422142</t>
-  </si>
-  <si>
-    <t>43945782</t>
-  </si>
-  <si>
-    <t>43671044</t>
-  </si>
-  <si>
-    <t>43721791</t>
-  </si>
-  <si>
-    <t>38010759</t>
-  </si>
-  <si>
-    <t>36658318</t>
-  </si>
-  <si>
-    <t>36681991</t>
-  </si>
-  <si>
-    <t>43777954</t>
-  </si>
-  <si>
-    <t>40026836</t>
-  </si>
-  <si>
-    <t>40014820</t>
-  </si>
-  <si>
-    <t>40000865</t>
-  </si>
-  <si>
-    <t>36894166</t>
-  </si>
-  <si>
-    <t>39765623</t>
-  </si>
-  <si>
-    <t>43626410</t>
-  </si>
-  <si>
-    <t>40006563</t>
-  </si>
-  <si>
-    <t>37263887</t>
-  </si>
-  <si>
-    <t>Тернопільська обл.</t>
-  </si>
-  <si>
-    <t>Херсонська обл.</t>
-  </si>
-  <si>
-    <t>Сумська обл.</t>
-  </si>
-  <si>
-    <t>Рівненська обл.</t>
-  </si>
-  <si>
-    <t>Чернівецька обл.</t>
-  </si>
-  <si>
-    <t>Хмельницька обл.</t>
-  </si>
-  <si>
-    <t>Одеська обл.</t>
-  </si>
-  <si>
-    <t>Житомирська обл.</t>
-  </si>
-  <si>
-    <t>м.Київ</t>
-  </si>
-  <si>
-    <t>Львівська обл.</t>
-  </si>
-  <si>
-    <t>Вінницька обл.</t>
-  </si>
-  <si>
-    <t>Україна</t>
-  </si>
-  <si>
-    <t>Київська обл.</t>
-  </si>
-  <si>
-    <t>Дніпропетровська обл.</t>
-  </si>
-  <si>
-    <t>Закарпатська обл.</t>
-  </si>
-  <si>
-    <t>Івано-Франківська обл.</t>
-  </si>
-  <si>
-    <t>Миколаївська обл.</t>
-  </si>
-  <si>
-    <t>СИЛА ЛЮДЕЙ</t>
-  </si>
-  <si>
-    <t>СЛУГА НАРОДУ</t>
-  </si>
-  <si>
-    <t>БАТЬКІВЩИНА</t>
-  </si>
-  <si>
-    <t>ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ</t>
-  </si>
-  <si>
-    <t>БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!</t>
-  </si>
-  <si>
-    <t>УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП</t>
-  </si>
-  <si>
-    <t>ГОЛОС</t>
-  </si>
-  <si>
-    <t>БДЖОЛА</t>
-  </si>
-  <si>
-    <t>НАРОДНИЙ РУХ УКРАЇНИ</t>
-  </si>
-  <si>
-    <t>ЗА МАЙБУТНЄ</t>
-  </si>
-  <si>
-    <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
-  </si>
-  <si>
-    <t>СИЛА І ЧЕСТЬ</t>
-  </si>
-  <si>
-    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
-  </si>
-  <si>
-    <t>МАЙБУТНЄ КРАЇНИ</t>
-  </si>
-  <si>
-    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
-  </si>
-  <si>
-    <t>РІДНИЙ ДІМ</t>
-  </si>
-  <si>
-    <t>ПРОПОЗИЦІЯ</t>
-  </si>
-  <si>
-    <t>НАШ КРАЙ</t>
-  </si>
-  <si>
-    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
-  </si>
-  <si>
-    <t>39378656</t>
-  </si>
-  <si>
-    <t>20069956</t>
-  </si>
-  <si>
-    <t>00013209</t>
-  </si>
-  <si>
-    <t>36088708</t>
-  </si>
-  <si>
-    <t>39610682</t>
-  </si>
-  <si>
-    <t>39481037</t>
-  </si>
-  <si>
-    <t>33547558</t>
-  </si>
-  <si>
-    <t>39550414</t>
-  </si>
-  <si>
-    <t>37724082</t>
-  </si>
-  <si>
-    <t>33492420</t>
-  </si>
-  <si>
     <t>78043b70-d48b-11ee-a5cc-0f6c6369ddf7</t>
   </si>
   <si>
@@ -1516,6 +1372,12 @@
   </si>
   <si>
     <t>4f853a40-042f-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,29 +1822,29 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
+      <c r="B2">
+        <v>14360570</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -1991,69 +1853,69 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R2" t="s">
         <v>338</v>
       </c>
-      <c r="O2" t="s">
-        <v>338</v>
-      </c>
-      <c r="P2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>342</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2">
+        <v>2021</v>
+      </c>
+      <c r="T2" t="s">
         <v>343</v>
       </c>
-      <c r="S2" t="s">
-        <v>347</v>
-      </c>
-      <c r="T2" t="s">
-        <v>350</v>
-      </c>
-      <c r="U2" t="s">
-        <v>388</v>
+      <c r="U2">
+        <v>40053063</v>
       </c>
       <c r="V2" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="W2" t="s">
-        <v>441</v>
-      </c>
-      <c r="X2" t="s">
-        <v>460</v>
+        <v>402</v>
+      </c>
+      <c r="X2">
+        <v>39378656</v>
       </c>
       <c r="Y2" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
+      <c r="B3">
+        <v>32112</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -2062,69 +1924,69 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R3" t="s">
+        <v>339</v>
+      </c>
+      <c r="S3">
+        <v>2021</v>
+      </c>
+      <c r="T3" t="s">
         <v>344</v>
       </c>
-      <c r="S3" t="s">
-        <v>347</v>
-      </c>
-      <c r="T3" t="s">
-        <v>351</v>
-      </c>
-      <c r="U3" t="s">
-        <v>389</v>
+      <c r="U3">
+        <v>43692731</v>
       </c>
       <c r="V3" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="W3" t="s">
-        <v>442</v>
-      </c>
-      <c r="X3" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X3">
+        <v>40422142</v>
       </c>
       <c r="Y3" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
+      <c r="B4">
+        <v>32112</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -2133,69 +1995,69 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R4" t="s">
-        <v>344</v>
-      </c>
-      <c r="S4" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S4">
+        <v>2021</v>
       </c>
       <c r="T4" t="s">
-        <v>352</v>
-      </c>
-      <c r="U4" t="s">
-        <v>390</v>
+        <v>345</v>
+      </c>
+      <c r="U4">
+        <v>43678249</v>
       </c>
       <c r="V4" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="W4" t="s">
-        <v>442</v>
-      </c>
-      <c r="X4" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X4">
+        <v>40422142</v>
       </c>
       <c r="Y4" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
+      <c r="B5">
+        <v>32112</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2204,69 +2066,69 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R5" t="s">
-        <v>344</v>
-      </c>
-      <c r="S5" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S5">
+        <v>2021</v>
       </c>
       <c r="T5" t="s">
-        <v>353</v>
-      </c>
-      <c r="U5" t="s">
-        <v>391</v>
+        <v>346</v>
+      </c>
+      <c r="U5">
+        <v>43655001</v>
       </c>
       <c r="V5" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="W5" t="s">
-        <v>442</v>
-      </c>
-      <c r="X5" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X5">
+        <v>40422142</v>
       </c>
       <c r="Y5" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="B6">
+        <v>32112</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -2275,69 +2137,69 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R6" t="s">
-        <v>344</v>
-      </c>
-      <c r="S6" t="s">
+        <v>339</v>
+      </c>
+      <c r="S6">
+        <v>2021</v>
+      </c>
+      <c r="T6" t="s">
         <v>347</v>
       </c>
-      <c r="T6" t="s">
-        <v>354</v>
-      </c>
-      <c r="U6" t="s">
-        <v>392</v>
+      <c r="U6">
+        <v>43671311</v>
       </c>
       <c r="V6" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="W6" t="s">
-        <v>442</v>
-      </c>
-      <c r="X6" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X6">
+        <v>40422142</v>
       </c>
       <c r="Y6" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
+      <c r="B7">
+        <v>32112</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -2346,69 +2208,69 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R7" t="s">
-        <v>344</v>
-      </c>
-      <c r="S7" t="s">
+        <v>339</v>
+      </c>
+      <c r="S7">
+        <v>2021</v>
+      </c>
+      <c r="T7" t="s">
         <v>347</v>
       </c>
-      <c r="T7" t="s">
-        <v>354</v>
-      </c>
-      <c r="U7" t="s">
-        <v>392</v>
+      <c r="U7">
+        <v>43671311</v>
       </c>
       <c r="V7" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="W7" t="s">
-        <v>442</v>
-      </c>
-      <c r="X7" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X7">
+        <v>40422142</v>
       </c>
       <c r="Y7" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
+      <c r="B8">
+        <v>32112</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G8">
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L8">
         <v>60376.24</v>
@@ -2417,69 +2279,69 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S8" t="s">
+        <v>339</v>
+      </c>
+      <c r="S8">
+        <v>2022</v>
+      </c>
+      <c r="T8" t="s">
         <v>348</v>
       </c>
-      <c r="T8" t="s">
-        <v>355</v>
-      </c>
-      <c r="U8" t="s">
-        <v>393</v>
+      <c r="U8">
+        <v>43675248</v>
       </c>
       <c r="V8" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="W8" t="s">
-        <v>442</v>
-      </c>
-      <c r="X8" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X8">
+        <v>40422142</v>
       </c>
       <c r="Y8" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
+      <c r="B9">
+        <v>32112</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G9">
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L9">
         <v>17524.75</v>
@@ -2488,69 +2350,69 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R9" t="s">
-        <v>344</v>
-      </c>
-      <c r="S9" t="s">
+        <v>339</v>
+      </c>
+      <c r="S9">
+        <v>2022</v>
+      </c>
+      <c r="T9" t="s">
         <v>348</v>
       </c>
-      <c r="T9" t="s">
-        <v>355</v>
-      </c>
-      <c r="U9" t="s">
-        <v>393</v>
+      <c r="U9">
+        <v>43675248</v>
       </c>
       <c r="V9" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="W9" t="s">
-        <v>442</v>
-      </c>
-      <c r="X9" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X9">
+        <v>40422142</v>
       </c>
       <c r="Y9" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
+      <c r="B10">
+        <v>32112</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -2559,69 +2421,69 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R10" t="s">
-        <v>344</v>
-      </c>
-      <c r="S10" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="S10">
+        <v>2022</v>
       </c>
       <c r="T10" t="s">
-        <v>356</v>
-      </c>
-      <c r="U10" t="s">
-        <v>394</v>
+        <v>349</v>
+      </c>
+      <c r="U10">
+        <v>43676765</v>
       </c>
       <c r="V10" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="W10" t="s">
-        <v>442</v>
-      </c>
-      <c r="X10" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X10">
+        <v>40422142</v>
       </c>
       <c r="Y10" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
+      <c r="B11">
+        <v>14305909</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G11">
         <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L11">
         <v>7.17</v>
@@ -2630,75 +2492,75 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
+        <v>333</v>
+      </c>
+      <c r="O11" t="s">
+        <v>333</v>
+      </c>
+      <c r="P11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>337</v>
+      </c>
+      <c r="R11" t="s">
         <v>338</v>
       </c>
-      <c r="O11" t="s">
-        <v>338</v>
-      </c>
-      <c r="P11" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>342</v>
-      </c>
-      <c r="R11" t="s">
-        <v>343</v>
-      </c>
-      <c r="S11" t="s">
-        <v>347</v>
+      <c r="S11">
+        <v>2021</v>
       </c>
       <c r="T11" t="s">
-        <v>357</v>
-      </c>
-      <c r="U11" t="s">
-        <v>395</v>
+        <v>350</v>
+      </c>
+      <c r="U11">
+        <v>33864810</v>
       </c>
       <c r="V11" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W11" t="s">
-        <v>443</v>
-      </c>
-      <c r="X11" t="s">
-        <v>461</v>
+        <v>404</v>
+      </c>
+      <c r="X11">
+        <v>20069956</v>
       </c>
       <c r="Y11" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
+      <c r="B12">
+        <v>35810511</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
+        <v>167</v>
+      </c>
+      <c r="F12">
+        <v>21715714</v>
       </c>
       <c r="G12">
         <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
-      </c>
-      <c r="J12" t="s">
-        <v>221</v>
+        <v>269</v>
+      </c>
+      <c r="J12">
+        <v>21715714</v>
       </c>
       <c r="K12" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L12">
         <v>100000</v>
@@ -2707,69 +2569,69 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R12" t="s">
-        <v>343</v>
-      </c>
-      <c r="S12" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="S12">
+        <v>2021</v>
       </c>
       <c r="T12" t="s">
-        <v>358</v>
-      </c>
-      <c r="U12" t="s">
-        <v>396</v>
+        <v>351</v>
+      </c>
+      <c r="U12">
+        <v>39495516</v>
       </c>
       <c r="V12" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="W12" t="s">
-        <v>444</v>
-      </c>
-      <c r="X12" t="s">
-        <v>221</v>
+        <v>405</v>
+      </c>
+      <c r="X12">
+        <v>21715714</v>
       </c>
       <c r="Y12" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
+      <c r="B13">
+        <v>35810511</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G13">
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L13">
         <v>1600</v>
@@ -2778,69 +2640,69 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P13" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>337</v>
+      </c>
+      <c r="R13" t="s">
         <v>340</v>
       </c>
-      <c r="Q13" t="s">
-        <v>342</v>
-      </c>
-      <c r="R13" t="s">
-        <v>345</v>
-      </c>
-      <c r="S13" t="s">
-        <v>347</v>
+      <c r="S13">
+        <v>2021</v>
       </c>
       <c r="T13" t="s">
-        <v>359</v>
-      </c>
-      <c r="U13" t="s">
-        <v>397</v>
+        <v>352</v>
+      </c>
+      <c r="U13">
+        <v>39702118</v>
       </c>
       <c r="V13" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W13" t="s">
-        <v>444</v>
-      </c>
-      <c r="X13" t="s">
-        <v>221</v>
+        <v>405</v>
+      </c>
+      <c r="X13">
+        <v>21715714</v>
       </c>
       <c r="Y13" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
+      <c r="B14">
+        <v>35810511</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G14">
         <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K14" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L14">
         <v>5020</v>
@@ -2849,69 +2711,69 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R14" t="s">
-        <v>346</v>
-      </c>
-      <c r="S14" t="s">
-        <v>347</v>
+        <v>341</v>
+      </c>
+      <c r="S14">
+        <v>2021</v>
       </c>
       <c r="T14" t="s">
-        <v>360</v>
-      </c>
-      <c r="U14" t="s">
-        <v>398</v>
+        <v>353</v>
+      </c>
+      <c r="U14">
+        <v>39508645</v>
       </c>
       <c r="V14" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W14" t="s">
-        <v>444</v>
-      </c>
-      <c r="X14" t="s">
-        <v>221</v>
+        <v>405</v>
+      </c>
+      <c r="X14">
+        <v>21715714</v>
       </c>
       <c r="Y14" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
+      <c r="B15">
+        <v>23697280</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G15">
         <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L15">
         <v>150000</v>
@@ -2920,69 +2782,69 @@
         <v>150000</v>
       </c>
       <c r="N15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q15" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R15" t="s">
-        <v>344</v>
-      </c>
-      <c r="S15" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S15">
+        <v>2021</v>
       </c>
       <c r="T15" t="s">
-        <v>361</v>
-      </c>
-      <c r="U15" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U15">
+        <v>40419357</v>
       </c>
       <c r="V15" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W15" t="s">
-        <v>445</v>
-      </c>
-      <c r="X15" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X15">
+        <v>40419357</v>
       </c>
       <c r="Y15" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>59</v>
+      <c r="B16">
+        <v>23697280</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G16">
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -2991,69 +2853,69 @@
         <v>100000</v>
       </c>
       <c r="N16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R16" t="s">
-        <v>344</v>
-      </c>
-      <c r="S16" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S16">
+        <v>2021</v>
       </c>
       <c r="T16" t="s">
-        <v>361</v>
-      </c>
-      <c r="U16" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U16">
+        <v>40419357</v>
       </c>
       <c r="V16" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W16" t="s">
-        <v>445</v>
-      </c>
-      <c r="X16" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X16">
+        <v>40419357</v>
       </c>
       <c r="Y16" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
+      <c r="B17">
+        <v>23697280</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G17">
         <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K17" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L17">
         <v>150000</v>
@@ -3062,69 +2924,69 @@
         <v>150000</v>
       </c>
       <c r="N17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R17" t="s">
-        <v>344</v>
-      </c>
-      <c r="S17" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S17">
+        <v>2021</v>
       </c>
       <c r="T17" t="s">
-        <v>361</v>
-      </c>
-      <c r="U17" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U17">
+        <v>40419357</v>
       </c>
       <c r="V17" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W17" t="s">
-        <v>445</v>
-      </c>
-      <c r="X17" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X17">
+        <v>40419357</v>
       </c>
       <c r="Y17" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>59</v>
+      <c r="B18">
+        <v>23697280</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G18">
         <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I18" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L18">
         <v>160000</v>
@@ -3133,69 +2995,69 @@
         <v>160000</v>
       </c>
       <c r="N18" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O18" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P18" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R18" t="s">
-        <v>344</v>
-      </c>
-      <c r="S18" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S18">
+        <v>2021</v>
       </c>
       <c r="T18" t="s">
-        <v>361</v>
-      </c>
-      <c r="U18" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U18">
+        <v>40419357</v>
       </c>
       <c r="V18" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W18" t="s">
-        <v>445</v>
-      </c>
-      <c r="X18" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X18">
+        <v>40419357</v>
       </c>
       <c r="Y18" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
+      <c r="B19">
+        <v>23697280</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G19">
         <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L19">
         <v>950000</v>
@@ -3204,69 +3066,69 @@
         <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R19" t="s">
-        <v>344</v>
-      </c>
-      <c r="S19" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S19">
+        <v>2021</v>
       </c>
       <c r="T19" t="s">
-        <v>361</v>
-      </c>
-      <c r="U19" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U19">
+        <v>40419357</v>
       </c>
       <c r="V19" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W19" t="s">
-        <v>445</v>
-      </c>
-      <c r="X19" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X19">
+        <v>40419357</v>
       </c>
       <c r="Y19" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>59</v>
+      <c r="B20">
+        <v>23697280</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G20">
         <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I20" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K20" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L20">
         <v>950000</v>
@@ -3275,69 +3137,69 @@
         <v>950000</v>
       </c>
       <c r="N20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R20" t="s">
-        <v>344</v>
-      </c>
-      <c r="S20" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S20">
+        <v>2021</v>
       </c>
       <c r="T20" t="s">
-        <v>361</v>
-      </c>
-      <c r="U20" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U20">
+        <v>40419357</v>
       </c>
       <c r="V20" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W20" t="s">
-        <v>445</v>
-      </c>
-      <c r="X20" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X20">
+        <v>40419357</v>
       </c>
       <c r="Y20" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
+      <c r="B21">
+        <v>35810511</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G21">
         <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L21">
         <v>97396.8</v>
@@ -3346,75 +3208,75 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
+        <v>333</v>
+      </c>
+      <c r="O21" t="s">
+        <v>333</v>
+      </c>
+      <c r="P21" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>337</v>
+      </c>
+      <c r="R21" t="s">
         <v>338</v>
       </c>
-      <c r="O21" t="s">
-        <v>338</v>
-      </c>
-      <c r="P21" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>342</v>
-      </c>
-      <c r="R21" t="s">
-        <v>343</v>
-      </c>
-      <c r="S21" t="s">
-        <v>348</v>
+      <c r="S21">
+        <v>2022</v>
       </c>
       <c r="T21" t="s">
-        <v>359</v>
-      </c>
-      <c r="U21" t="s">
-        <v>397</v>
+        <v>352</v>
+      </c>
+      <c r="U21">
+        <v>39702118</v>
       </c>
       <c r="V21" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W21" t="s">
-        <v>444</v>
-      </c>
-      <c r="X21" t="s">
-        <v>221</v>
+        <v>405</v>
+      </c>
+      <c r="X21">
+        <v>21715714</v>
       </c>
       <c r="Y21" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>55</v>
+      <c r="B22">
+        <v>14360570</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
+        <v>176</v>
+      </c>
+      <c r="F22">
+        <v>14360570</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
-      <c r="J22" t="s">
-        <v>55</v>
+      <c r="J22">
+        <v>14360570</v>
       </c>
       <c r="K22" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -3423,69 +3285,69 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P22" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>337</v>
+      </c>
+      <c r="R22" t="s">
         <v>340</v>
       </c>
-      <c r="Q22" t="s">
-        <v>342</v>
-      </c>
-      <c r="R22" t="s">
-        <v>345</v>
-      </c>
-      <c r="S22" t="s">
-        <v>347</v>
+      <c r="S22">
+        <v>2021</v>
       </c>
       <c r="T22" t="s">
-        <v>362</v>
-      </c>
-      <c r="U22" t="s">
-        <v>400</v>
+        <v>355</v>
+      </c>
+      <c r="U22">
+        <v>39921438</v>
       </c>
       <c r="V22" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="W22" t="s">
-        <v>441</v>
-      </c>
-      <c r="X22" t="s">
-        <v>460</v>
+        <v>402</v>
+      </c>
+      <c r="X22">
+        <v>39378656</v>
       </c>
       <c r="Y22" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>60</v>
+      <c r="B23">
+        <v>14282829</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G23">
         <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L23">
         <v>5600</v>
@@ -3494,69 +3356,69 @@
         <v>5600</v>
       </c>
       <c r="N23" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O23" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P23" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q23" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R23" t="s">
-        <v>344</v>
-      </c>
-      <c r="S23" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S23">
+        <v>2023</v>
       </c>
       <c r="T23" t="s">
-        <v>363</v>
-      </c>
-      <c r="U23" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="U23">
+        <v>39479782</v>
       </c>
       <c r="V23" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W23" t="s">
-        <v>446</v>
-      </c>
-      <c r="X23" t="s">
-        <v>401</v>
+        <v>407</v>
+      </c>
+      <c r="X23">
+        <v>39479782</v>
       </c>
       <c r="Y23" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
-        <v>60</v>
+      <c r="B24">
+        <v>14282829</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K24" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -3565,69 +3427,69 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P24" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R24" t="s">
-        <v>344</v>
-      </c>
-      <c r="S24" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S24">
+        <v>2023</v>
       </c>
       <c r="T24" t="s">
-        <v>363</v>
-      </c>
-      <c r="U24" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="U24">
+        <v>39479782</v>
       </c>
       <c r="V24" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W24" t="s">
-        <v>446</v>
-      </c>
-      <c r="X24" t="s">
-        <v>401</v>
+        <v>407</v>
+      </c>
+      <c r="X24">
+        <v>39479782</v>
       </c>
       <c r="Y24" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
+      <c r="B25">
+        <v>35810511</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G25">
         <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L25">
         <v>10500</v>
@@ -3636,69 +3498,69 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O25" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P25" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>337</v>
+      </c>
+      <c r="R25" t="s">
         <v>340</v>
       </c>
-      <c r="Q25" t="s">
-        <v>342</v>
-      </c>
-      <c r="R25" t="s">
-        <v>345</v>
-      </c>
-      <c r="S25" t="s">
-        <v>348</v>
+      <c r="S25">
+        <v>2022</v>
       </c>
       <c r="T25" t="s">
-        <v>359</v>
-      </c>
-      <c r="U25" t="s">
-        <v>397</v>
+        <v>352</v>
+      </c>
+      <c r="U25">
+        <v>39702118</v>
       </c>
       <c r="V25" t="s">
+        <v>393</v>
+      </c>
+      <c r="W25" t="s">
+        <v>405</v>
+      </c>
+      <c r="X25">
+        <v>21715714</v>
+      </c>
+      <c r="Y25" t="s">
         <v>433</v>
-      </c>
-      <c r="W25" t="s">
-        <v>444</v>
-      </c>
-      <c r="X25" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
+      <c r="B26">
+        <v>14305909</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3707,69 +3569,69 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
+        <v>333</v>
+      </c>
+      <c r="O26" t="s">
+        <v>333</v>
+      </c>
+      <c r="P26" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>337</v>
+      </c>
+      <c r="R26" t="s">
         <v>338</v>
       </c>
-      <c r="O26" t="s">
-        <v>338</v>
-      </c>
-      <c r="P26" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>342</v>
-      </c>
-      <c r="R26" t="s">
-        <v>343</v>
-      </c>
-      <c r="S26" t="s">
-        <v>347</v>
+      <c r="S26">
+        <v>2021</v>
       </c>
       <c r="T26" t="s">
-        <v>364</v>
-      </c>
-      <c r="U26" t="s">
-        <v>402</v>
+        <v>357</v>
+      </c>
+      <c r="U26">
+        <v>39651598</v>
       </c>
       <c r="V26" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W26" t="s">
-        <v>447</v>
-      </c>
-      <c r="X26" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X26">
+        <v>39651598</v>
       </c>
       <c r="Y26" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
+      <c r="B27">
+        <v>14305909</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G27">
         <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I27" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3778,69 +3640,69 @@
         <v>1500</v>
       </c>
       <c r="N27" t="s">
+        <v>333</v>
+      </c>
+      <c r="O27" t="s">
+        <v>333</v>
+      </c>
+      <c r="P27" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>337</v>
+      </c>
+      <c r="R27" t="s">
         <v>338</v>
       </c>
-      <c r="O27" t="s">
-        <v>338</v>
-      </c>
-      <c r="P27" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>342</v>
-      </c>
-      <c r="R27" t="s">
-        <v>343</v>
-      </c>
-      <c r="S27" t="s">
-        <v>347</v>
+      <c r="S27">
+        <v>2021</v>
       </c>
       <c r="T27" t="s">
-        <v>364</v>
-      </c>
-      <c r="U27" t="s">
-        <v>402</v>
+        <v>357</v>
+      </c>
+      <c r="U27">
+        <v>39651598</v>
       </c>
       <c r="V27" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W27" t="s">
-        <v>447</v>
-      </c>
-      <c r="X27" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X27">
+        <v>39651598</v>
       </c>
       <c r="Y27" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
+      <c r="B28">
+        <v>14305909</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3849,69 +3711,69 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
+        <v>333</v>
+      </c>
+      <c r="O28" t="s">
+        <v>333</v>
+      </c>
+      <c r="P28" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>337</v>
+      </c>
+      <c r="R28" t="s">
         <v>338</v>
       </c>
-      <c r="O28" t="s">
-        <v>338</v>
-      </c>
-      <c r="P28" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>342</v>
-      </c>
-      <c r="R28" t="s">
-        <v>343</v>
-      </c>
-      <c r="S28" t="s">
-        <v>347</v>
+      <c r="S28">
+        <v>2021</v>
       </c>
       <c r="T28" t="s">
-        <v>365</v>
-      </c>
-      <c r="U28" t="s">
-        <v>403</v>
+        <v>358</v>
+      </c>
+      <c r="U28">
+        <v>43311440</v>
       </c>
       <c r="V28" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W28" t="s">
-        <v>447</v>
-      </c>
-      <c r="X28" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X28">
+        <v>39651598</v>
       </c>
       <c r="Y28" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
+      <c r="B29">
+        <v>14305909</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G29">
         <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L29">
         <v>400</v>
@@ -3920,69 +3782,69 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
+        <v>333</v>
+      </c>
+      <c r="O29" t="s">
+        <v>333</v>
+      </c>
+      <c r="P29" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>337</v>
+      </c>
+      <c r="R29" t="s">
         <v>338</v>
       </c>
-      <c r="O29" t="s">
-        <v>338</v>
-      </c>
-      <c r="P29" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>342</v>
-      </c>
-      <c r="R29" t="s">
-        <v>343</v>
-      </c>
-      <c r="S29" t="s">
-        <v>347</v>
+      <c r="S29">
+        <v>2021</v>
       </c>
       <c r="T29" t="s">
-        <v>365</v>
-      </c>
-      <c r="U29" t="s">
-        <v>403</v>
+        <v>358</v>
+      </c>
+      <c r="U29">
+        <v>43311440</v>
       </c>
       <c r="V29" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W29" t="s">
-        <v>447</v>
-      </c>
-      <c r="X29" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X29">
+        <v>39651598</v>
       </c>
       <c r="Y29" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>57</v>
+      <c r="B30">
+        <v>14305909</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -3991,69 +3853,69 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
+        <v>333</v>
+      </c>
+      <c r="O30" t="s">
+        <v>333</v>
+      </c>
+      <c r="P30" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>337</v>
+      </c>
+      <c r="R30" t="s">
         <v>338</v>
       </c>
-      <c r="O30" t="s">
-        <v>338</v>
-      </c>
-      <c r="P30" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>342</v>
-      </c>
-      <c r="R30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S30" t="s">
-        <v>347</v>
+      <c r="S30">
+        <v>2021</v>
       </c>
       <c r="T30" t="s">
-        <v>365</v>
-      </c>
-      <c r="U30" t="s">
-        <v>403</v>
+        <v>358</v>
+      </c>
+      <c r="U30">
+        <v>43311440</v>
       </c>
       <c r="V30" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W30" t="s">
-        <v>447</v>
-      </c>
-      <c r="X30" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X30">
+        <v>39651598</v>
       </c>
       <c r="Y30" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
+      <c r="B31">
+        <v>14305909</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -4062,69 +3924,69 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P31" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>337</v>
+      </c>
+      <c r="R31" t="s">
         <v>340</v>
       </c>
-      <c r="Q31" t="s">
-        <v>342</v>
-      </c>
-      <c r="R31" t="s">
-        <v>345</v>
-      </c>
-      <c r="S31" t="s">
-        <v>347</v>
+      <c r="S31">
+        <v>2021</v>
       </c>
       <c r="T31" t="s">
-        <v>366</v>
-      </c>
-      <c r="U31" t="s">
-        <v>404</v>
+        <v>359</v>
+      </c>
+      <c r="U31">
+        <v>43527082</v>
       </c>
       <c r="V31" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="W31" t="s">
-        <v>447</v>
-      </c>
-      <c r="X31" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X31">
+        <v>39651598</v>
       </c>
       <c r="Y31" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>57</v>
+      <c r="B32">
+        <v>14305909</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L32">
         <v>300</v>
@@ -4133,69 +3995,69 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P32" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>337</v>
+      </c>
+      <c r="R32" t="s">
         <v>340</v>
       </c>
-      <c r="Q32" t="s">
-        <v>342</v>
-      </c>
-      <c r="R32" t="s">
-        <v>345</v>
-      </c>
-      <c r="S32" t="s">
-        <v>347</v>
+      <c r="S32">
+        <v>2021</v>
       </c>
       <c r="T32" t="s">
-        <v>367</v>
-      </c>
-      <c r="U32" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="U32">
+        <v>43428147</v>
       </c>
       <c r="V32" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W32" t="s">
-        <v>447</v>
-      </c>
-      <c r="X32" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X32">
+        <v>39651598</v>
       </c>
       <c r="Y32" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>57</v>
+      <c r="B33">
+        <v>14305909</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G33">
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L33">
         <v>600</v>
@@ -4204,69 +4066,69 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P33" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>337</v>
+      </c>
+      <c r="R33" t="s">
         <v>340</v>
       </c>
-      <c r="Q33" t="s">
-        <v>342</v>
-      </c>
-      <c r="R33" t="s">
-        <v>345</v>
-      </c>
-      <c r="S33" t="s">
-        <v>347</v>
+      <c r="S33">
+        <v>2021</v>
       </c>
       <c r="T33" t="s">
-        <v>367</v>
-      </c>
-      <c r="U33" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="U33">
+        <v>43428147</v>
       </c>
       <c r="V33" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W33" t="s">
-        <v>447</v>
-      </c>
-      <c r="X33" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X33">
+        <v>39651598</v>
       </c>
       <c r="Y33" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>57</v>
+      <c r="B34">
+        <v>14305909</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -4275,69 +4137,69 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P34" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>337</v>
+      </c>
+      <c r="R34" t="s">
         <v>340</v>
       </c>
-      <c r="Q34" t="s">
-        <v>342</v>
-      </c>
-      <c r="R34" t="s">
-        <v>345</v>
-      </c>
-      <c r="S34" t="s">
-        <v>347</v>
+      <c r="S34">
+        <v>2021</v>
       </c>
       <c r="T34" t="s">
-        <v>367</v>
-      </c>
-      <c r="U34" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="U34">
+        <v>43428147</v>
       </c>
       <c r="V34" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W34" t="s">
-        <v>447</v>
-      </c>
-      <c r="X34" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X34">
+        <v>39651598</v>
       </c>
       <c r="Y34" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
-        <v>57</v>
+      <c r="B35">
+        <v>14305909</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4346,69 +4208,69 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O35" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P35" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>337</v>
+      </c>
+      <c r="R35" t="s">
         <v>340</v>
       </c>
-      <c r="Q35" t="s">
-        <v>342</v>
-      </c>
-      <c r="R35" t="s">
-        <v>345</v>
-      </c>
-      <c r="S35" t="s">
-        <v>347</v>
+      <c r="S35">
+        <v>2021</v>
       </c>
       <c r="T35" t="s">
-        <v>367</v>
-      </c>
-      <c r="U35" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="U35">
+        <v>43428147</v>
       </c>
       <c r="V35" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W35" t="s">
-        <v>447</v>
-      </c>
-      <c r="X35" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X35">
+        <v>39651598</v>
       </c>
       <c r="Y35" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>57</v>
+      <c r="B36">
+        <v>14305909</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G36">
         <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L36">
         <v>700</v>
@@ -4417,69 +4279,69 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O36" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>337</v>
+      </c>
+      <c r="R36" t="s">
         <v>340</v>
       </c>
-      <c r="Q36" t="s">
-        <v>342</v>
-      </c>
-      <c r="R36" t="s">
-        <v>345</v>
-      </c>
-      <c r="S36" t="s">
-        <v>347</v>
+      <c r="S36">
+        <v>2021</v>
       </c>
       <c r="T36" t="s">
-        <v>367</v>
-      </c>
-      <c r="U36" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="U36">
+        <v>43428147</v>
       </c>
       <c r="V36" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="W36" t="s">
-        <v>447</v>
-      </c>
-      <c r="X36" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X36">
+        <v>39651598</v>
       </c>
       <c r="Y36" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>57</v>
+      <c r="B37">
+        <v>14305909</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G37">
         <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L37">
         <v>300</v>
@@ -4488,69 +4350,69 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P37" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>337</v>
+      </c>
+      <c r="R37" t="s">
         <v>340</v>
       </c>
-      <c r="Q37" t="s">
-        <v>342</v>
-      </c>
-      <c r="R37" t="s">
-        <v>345</v>
-      </c>
-      <c r="S37" t="s">
-        <v>347</v>
+      <c r="S37">
+        <v>2021</v>
       </c>
       <c r="T37" t="s">
-        <v>368</v>
-      </c>
-      <c r="U37" t="s">
-        <v>406</v>
+        <v>361</v>
+      </c>
+      <c r="U37">
+        <v>43307785</v>
       </c>
       <c r="V37" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="W37" t="s">
-        <v>447</v>
-      </c>
-      <c r="X37" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X37">
+        <v>39651598</v>
       </c>
       <c r="Y37" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
+      <c r="B38">
+        <v>14305909</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G38">
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="I38" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L38">
         <v>800</v>
@@ -4559,69 +4421,69 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P38" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>337</v>
+      </c>
+      <c r="R38" t="s">
         <v>340</v>
       </c>
-      <c r="Q38" t="s">
-        <v>342</v>
-      </c>
-      <c r="R38" t="s">
-        <v>345</v>
-      </c>
-      <c r="S38" t="s">
-        <v>347</v>
+      <c r="S38">
+        <v>2021</v>
       </c>
       <c r="T38" t="s">
-        <v>369</v>
-      </c>
-      <c r="U38" t="s">
-        <v>407</v>
+        <v>362</v>
+      </c>
+      <c r="U38">
+        <v>43449722</v>
       </c>
       <c r="V38" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="W38" t="s">
-        <v>447</v>
-      </c>
-      <c r="X38" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X38">
+        <v>39651598</v>
       </c>
       <c r="Y38" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>57</v>
+      <c r="B39">
+        <v>14305909</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G39">
         <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L39">
         <v>600</v>
@@ -4630,69 +4492,69 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O39" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>337</v>
+      </c>
+      <c r="R39" t="s">
         <v>340</v>
       </c>
-      <c r="Q39" t="s">
-        <v>342</v>
-      </c>
-      <c r="R39" t="s">
-        <v>345</v>
-      </c>
-      <c r="S39" t="s">
-        <v>347</v>
+      <c r="S39">
+        <v>2021</v>
       </c>
       <c r="T39" t="s">
-        <v>369</v>
-      </c>
-      <c r="U39" t="s">
-        <v>407</v>
+        <v>362</v>
+      </c>
+      <c r="U39">
+        <v>43449722</v>
       </c>
       <c r="V39" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="W39" t="s">
-        <v>447</v>
-      </c>
-      <c r="X39" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="X39">
+        <v>39651598</v>
       </c>
       <c r="Y39" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
-        <v>61</v>
+      <c r="B40">
+        <v>9804119</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L40">
         <v>290800</v>
@@ -4701,69 +4563,69 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R40" t="s">
-        <v>344</v>
-      </c>
-      <c r="S40" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="S40">
+        <v>2022</v>
       </c>
       <c r="T40" t="s">
-        <v>361</v>
-      </c>
-      <c r="U40" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U40">
+        <v>40419357</v>
       </c>
       <c r="V40" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W40" t="s">
-        <v>445</v>
-      </c>
-      <c r="X40" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X40">
+        <v>40419357</v>
       </c>
       <c r="Y40" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>61</v>
+      <c r="B41">
+        <v>9804119</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G41">
         <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L41">
         <v>560000</v>
@@ -4772,69 +4634,69 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P41" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R41" t="s">
-        <v>344</v>
-      </c>
-      <c r="S41" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="S41">
+        <v>2022</v>
       </c>
       <c r="T41" t="s">
-        <v>361</v>
-      </c>
-      <c r="U41" t="s">
-        <v>399</v>
+        <v>354</v>
+      </c>
+      <c r="U41">
+        <v>40419357</v>
       </c>
       <c r="V41" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W41" t="s">
-        <v>445</v>
-      </c>
-      <c r="X41" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+      <c r="X41">
+        <v>40419357</v>
       </c>
       <c r="Y41" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
+      <c r="B42">
+        <v>35591059</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G42">
         <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4843,69 +4705,69 @@
         <v>200</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s">
+        <v>334</v>
+      </c>
+      <c r="P42" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>337</v>
+      </c>
+      <c r="R42" t="s">
         <v>339</v>
       </c>
-      <c r="P42" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>342</v>
-      </c>
-      <c r="R42" t="s">
-        <v>344</v>
-      </c>
-      <c r="S42" t="s">
-        <v>349</v>
+      <c r="S42">
+        <v>2023</v>
       </c>
       <c r="T42" t="s">
-        <v>370</v>
-      </c>
-      <c r="U42" t="s">
-        <v>408</v>
+        <v>363</v>
+      </c>
+      <c r="U42">
+        <v>40422142</v>
       </c>
       <c r="V42" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W42" t="s">
-        <v>442</v>
-      </c>
-      <c r="X42" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X42">
+        <v>40422142</v>
       </c>
       <c r="Y42" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
-      <c r="B43" t="s">
-        <v>56</v>
+      <c r="B43">
+        <v>32112</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G43">
         <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K43" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L43">
         <v>5000</v>
@@ -4914,69 +4776,69 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q43" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R43" t="s">
-        <v>344</v>
-      </c>
-      <c r="S43" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S43">
+        <v>2023</v>
       </c>
       <c r="T43" t="s">
-        <v>352</v>
-      </c>
-      <c r="U43" t="s">
-        <v>390</v>
+        <v>345</v>
+      </c>
+      <c r="U43">
+        <v>43678249</v>
       </c>
       <c r="V43" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="W43" t="s">
-        <v>442</v>
-      </c>
-      <c r="X43" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X43">
+        <v>40422142</v>
       </c>
       <c r="Y43" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44" t="s">
-        <v>56</v>
+      <c r="B44">
+        <v>32112</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G44">
         <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I44" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K44" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L44">
         <v>200</v>
@@ -4985,69 +4847,69 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P44" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q44" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R44" t="s">
-        <v>344</v>
-      </c>
-      <c r="S44" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S44">
+        <v>2023</v>
       </c>
       <c r="T44" t="s">
-        <v>371</v>
-      </c>
-      <c r="U44" t="s">
-        <v>409</v>
+        <v>364</v>
+      </c>
+      <c r="U44">
+        <v>43945782</v>
       </c>
       <c r="V44" t="s">
+        <v>397</v>
+      </c>
+      <c r="W44" t="s">
+        <v>403</v>
+      </c>
+      <c r="X44">
+        <v>40422142</v>
+      </c>
+      <c r="Y44" t="s">
         <v>437</v>
-      </c>
-      <c r="W44" t="s">
-        <v>442</v>
-      </c>
-      <c r="X44" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="B45" t="s">
-        <v>56</v>
+      <c r="B45">
+        <v>32112</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G45">
         <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L45">
         <v>6110</v>
@@ -5056,69 +4918,69 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O45" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P45" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q45" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R45" t="s">
-        <v>344</v>
-      </c>
-      <c r="S45" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S45">
+        <v>2023</v>
       </c>
       <c r="T45" t="s">
-        <v>372</v>
-      </c>
-      <c r="U45" t="s">
-        <v>410</v>
+        <v>365</v>
+      </c>
+      <c r="U45">
+        <v>43671044</v>
       </c>
       <c r="V45" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W45" t="s">
-        <v>442</v>
-      </c>
-      <c r="X45" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="X45">
+        <v>40422142</v>
       </c>
       <c r="Y45" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B46" t="s">
-        <v>56</v>
+      <c r="B46">
+        <v>32112</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G46">
         <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K46" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -5127,69 +4989,69 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O46" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P46" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q46" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R46" t="s">
-        <v>344</v>
-      </c>
-      <c r="S46" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S46">
+        <v>2023</v>
       </c>
       <c r="T46" t="s">
-        <v>373</v>
-      </c>
-      <c r="U46" t="s">
-        <v>411</v>
+        <v>366</v>
+      </c>
+      <c r="U46">
+        <v>43721791</v>
       </c>
       <c r="V46" t="s">
+        <v>397</v>
+      </c>
+      <c r="W46" t="s">
+        <v>403</v>
+      </c>
+      <c r="X46">
+        <v>40422142</v>
+      </c>
+      <c r="Y46" t="s">
         <v>437</v>
-      </c>
-      <c r="W46" t="s">
-        <v>442</v>
-      </c>
-      <c r="X46" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
-      <c r="B47" t="s">
-        <v>56</v>
+      <c r="B47">
+        <v>32112</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G47">
         <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K47" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L47">
         <v>4372</v>
@@ -5198,69 +5060,69 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P47" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q47" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R47" t="s">
-        <v>344</v>
-      </c>
-      <c r="S47" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="S47">
+        <v>2023</v>
       </c>
       <c r="T47" t="s">
-        <v>373</v>
-      </c>
-      <c r="U47" t="s">
-        <v>411</v>
+        <v>366</v>
+      </c>
+      <c r="U47">
+        <v>43721791</v>
       </c>
       <c r="V47" t="s">
+        <v>397</v>
+      </c>
+      <c r="W47" t="s">
+        <v>403</v>
+      </c>
+      <c r="X47">
+        <v>40422142</v>
+      </c>
+      <c r="Y47" t="s">
         <v>437</v>
-      </c>
-      <c r="W47" t="s">
-        <v>442</v>
-      </c>
-      <c r="X47" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
+      <c r="B48">
+        <v>14360570</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G48">
         <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K48" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L48">
         <v>34000</v>
@@ -5269,75 +5131,75 @@
         <v>34000</v>
       </c>
       <c r="N48" t="s">
+        <v>333</v>
+      </c>
+      <c r="O48" t="s">
+        <v>334</v>
+      </c>
+      <c r="P48" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>337</v>
+      </c>
+      <c r="R48" t="s">
         <v>338</v>
       </c>
-      <c r="O48" t="s">
-        <v>339</v>
-      </c>
-      <c r="P48" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>342</v>
-      </c>
-      <c r="R48" t="s">
-        <v>343</v>
-      </c>
-      <c r="S48" t="s">
-        <v>348</v>
+      <c r="S48">
+        <v>2022</v>
       </c>
       <c r="T48" t="s">
-        <v>374</v>
-      </c>
-      <c r="U48" t="s">
-        <v>412</v>
+        <v>367</v>
+      </c>
+      <c r="U48">
+        <v>38010759</v>
       </c>
       <c r="V48" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W48" t="s">
-        <v>448</v>
-      </c>
-      <c r="X48" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="X48">
+        <v>38010759</v>
       </c>
       <c r="Y48" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B49" t="s">
-        <v>63</v>
+      <c r="B49">
+        <v>9325703</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49" t="s">
-        <v>222</v>
+        <v>196</v>
+      </c>
+      <c r="F49">
+        <v>20806283</v>
       </c>
       <c r="G49">
         <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="I49" t="s">
-        <v>299</v>
-      </c>
-      <c r="J49" t="s">
-        <v>317</v>
+        <v>294</v>
+      </c>
+      <c r="J49">
+        <v>2980415485</v>
       </c>
       <c r="K49" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L49">
         <v>6500000</v>
@@ -5346,69 +5208,69 @@
         <v>6500000</v>
       </c>
       <c r="N49" t="s">
+        <v>334</v>
+      </c>
+      <c r="O49" t="s">
+        <v>333</v>
+      </c>
+      <c r="P49" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>337</v>
+      </c>
+      <c r="R49" t="s">
         <v>339</v>
       </c>
-      <c r="O49" t="s">
-        <v>338</v>
-      </c>
-      <c r="P49" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>342</v>
-      </c>
-      <c r="R49" t="s">
-        <v>344</v>
-      </c>
-      <c r="S49" t="s">
-        <v>349</v>
+      <c r="S49">
+        <v>2023</v>
       </c>
       <c r="T49" t="s">
-        <v>375</v>
-      </c>
-      <c r="U49" t="s">
-        <v>222</v>
+        <v>368</v>
+      </c>
+      <c r="U49">
+        <v>20806283</v>
       </c>
       <c r="V49" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W49" t="s">
-        <v>449</v>
-      </c>
-      <c r="X49" t="s">
-        <v>462</v>
+        <v>410</v>
+      </c>
+      <c r="X49">
+        <v>13209</v>
       </c>
       <c r="Y49" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B50" t="s">
-        <v>55</v>
+      <c r="B50">
+        <v>14360570</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I50" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K50" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -5417,69 +5279,69 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
+        <v>333</v>
+      </c>
+      <c r="O50" t="s">
+        <v>333</v>
+      </c>
+      <c r="P50" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>337</v>
+      </c>
+      <c r="R50" t="s">
         <v>338</v>
       </c>
-      <c r="O50" t="s">
-        <v>338</v>
-      </c>
-      <c r="P50" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>342</v>
-      </c>
-      <c r="R50" t="s">
-        <v>343</v>
-      </c>
-      <c r="S50" t="s">
-        <v>347</v>
+      <c r="S50">
+        <v>2021</v>
       </c>
       <c r="T50" t="s">
-        <v>376</v>
-      </c>
-      <c r="U50" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="U50">
+        <v>36658318</v>
       </c>
       <c r="V50" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W50" t="s">
-        <v>450</v>
-      </c>
-      <c r="X50" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X50">
+        <v>36088708</v>
       </c>
       <c r="Y50" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51" t="s">
-        <v>55</v>
+      <c r="B51">
+        <v>14360570</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G51">
         <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K51" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L51">
         <v>269900</v>
@@ -5488,75 +5350,75 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
+        <v>333</v>
+      </c>
+      <c r="O51" t="s">
+        <v>333</v>
+      </c>
+      <c r="P51" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>337</v>
+      </c>
+      <c r="R51" t="s">
         <v>338</v>
       </c>
-      <c r="O51" t="s">
-        <v>338</v>
-      </c>
-      <c r="P51" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>342</v>
-      </c>
-      <c r="R51" t="s">
-        <v>343</v>
-      </c>
-      <c r="S51" t="s">
-        <v>347</v>
+      <c r="S51">
+        <v>2021</v>
       </c>
       <c r="T51" t="s">
-        <v>376</v>
-      </c>
-      <c r="U51" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="U51">
+        <v>36658318</v>
       </c>
       <c r="V51" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W51" t="s">
-        <v>450</v>
-      </c>
-      <c r="X51" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X51">
+        <v>36088708</v>
       </c>
       <c r="Y51" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>55</v>
+      <c r="B52">
+        <v>14360570</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="F52">
+        <v>40235645</v>
       </c>
       <c r="G52">
         <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>204</v>
-      </c>
-      <c r="J52" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="J52">
+        <v>40235645</v>
       </c>
       <c r="K52" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L52">
         <v>130100</v>
@@ -5565,75 +5427,75 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O52" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P52" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q52" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R52" t="s">
-        <v>343</v>
-      </c>
-      <c r="S52" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="S52">
+        <v>2021</v>
       </c>
       <c r="T52" t="s">
-        <v>376</v>
-      </c>
-      <c r="U52" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="U52">
+        <v>36658318</v>
       </c>
       <c r="V52" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W52" t="s">
-        <v>450</v>
-      </c>
-      <c r="X52" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X52">
+        <v>36088708</v>
       </c>
       <c r="Y52" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B53" t="s">
-        <v>55</v>
+      <c r="B53">
+        <v>14360570</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="F53">
+        <v>40235645</v>
       </c>
       <c r="G53">
         <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
-        <v>204</v>
-      </c>
-      <c r="J53" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="J53">
+        <v>40235645</v>
       </c>
       <c r="K53" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L53">
         <v>52300</v>
@@ -5642,75 +5504,75 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O53" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P53" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q53" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R53" t="s">
-        <v>343</v>
-      </c>
-      <c r="S53" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="S53">
+        <v>2021</v>
       </c>
       <c r="T53" t="s">
-        <v>376</v>
-      </c>
-      <c r="U53" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="U53">
+        <v>36658318</v>
       </c>
       <c r="V53" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W53" t="s">
-        <v>450</v>
-      </c>
-      <c r="X53" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X53">
+        <v>36088708</v>
       </c>
       <c r="Y53" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
-      <c r="B54" t="s">
-        <v>55</v>
+      <c r="B54">
+        <v>14360570</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
-      </c>
-      <c r="F54" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="F54">
+        <v>40235645</v>
       </c>
       <c r="G54">
         <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I54" t="s">
-        <v>204</v>
-      </c>
-      <c r="J54" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="J54">
+        <v>40235645</v>
       </c>
       <c r="K54" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L54">
         <v>127300</v>
@@ -5719,75 +5581,75 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P54" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q54" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R54" t="s">
-        <v>343</v>
-      </c>
-      <c r="S54" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="S54">
+        <v>2021</v>
       </c>
       <c r="T54" t="s">
-        <v>376</v>
-      </c>
-      <c r="U54" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="U54">
+        <v>36658318</v>
       </c>
       <c r="V54" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W54" t="s">
-        <v>450</v>
-      </c>
-      <c r="X54" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X54">
+        <v>36088708</v>
       </c>
       <c r="Y54" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
+      <c r="B55">
+        <v>14360570</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="F55">
+        <v>40235645</v>
       </c>
       <c r="G55">
         <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>204</v>
-      </c>
-      <c r="J55" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="J55">
+        <v>40235645</v>
       </c>
       <c r="K55" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L55">
         <v>10000</v>
@@ -5796,75 +5658,75 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O55" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P55" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q55" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R55" t="s">
-        <v>343</v>
-      </c>
-      <c r="S55" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="S55">
+        <v>2021</v>
       </c>
       <c r="T55" t="s">
-        <v>376</v>
-      </c>
-      <c r="U55" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="U55">
+        <v>36658318</v>
       </c>
       <c r="V55" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W55" t="s">
-        <v>450</v>
-      </c>
-      <c r="X55" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X55">
+        <v>36088708</v>
       </c>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
+      <c r="B56">
+        <v>32112</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
+        <v>199</v>
+      </c>
+      <c r="F56">
+        <v>14360570</v>
       </c>
       <c r="G56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I56" t="s">
-        <v>301</v>
-      </c>
-      <c r="J56" t="s">
-        <v>55</v>
+        <v>296</v>
+      </c>
+      <c r="J56">
+        <v>14360570</v>
       </c>
       <c r="K56" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -5873,69 +5735,69 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O56" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P56" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R56" t="s">
-        <v>343</v>
-      </c>
-      <c r="S56" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="S56">
+        <v>2021</v>
       </c>
       <c r="T56" t="s">
-        <v>377</v>
-      </c>
-      <c r="U56" t="s">
-        <v>414</v>
+        <v>370</v>
+      </c>
+      <c r="U56">
+        <v>36681991</v>
       </c>
       <c r="V56" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W56" t="s">
-        <v>450</v>
-      </c>
-      <c r="X56" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X56">
+        <v>36088708</v>
       </c>
       <c r="Y56" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B57" t="s">
-        <v>56</v>
+      <c r="B57">
+        <v>32112</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G57">
         <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I57" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K57" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L57">
         <v>20000</v>
@@ -5944,69 +5806,69 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
+        <v>333</v>
+      </c>
+      <c r="O57" t="s">
+        <v>333</v>
+      </c>
+      <c r="P57" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>337</v>
+      </c>
+      <c r="R57" t="s">
         <v>338</v>
       </c>
-      <c r="O57" t="s">
-        <v>338</v>
-      </c>
-      <c r="P57" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>342</v>
-      </c>
-      <c r="R57" t="s">
-        <v>343</v>
-      </c>
-      <c r="S57" t="s">
-        <v>347</v>
+      <c r="S57">
+        <v>2021</v>
       </c>
       <c r="T57" t="s">
-        <v>377</v>
-      </c>
-      <c r="U57" t="s">
-        <v>414</v>
+        <v>370</v>
+      </c>
+      <c r="U57">
+        <v>36681991</v>
       </c>
       <c r="V57" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W57" t="s">
-        <v>450</v>
-      </c>
-      <c r="X57" t="s">
-        <v>463</v>
+        <v>411</v>
+      </c>
+      <c r="X57">
+        <v>36088708</v>
       </c>
       <c r="Y57" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
+      <c r="B58">
+        <v>9312190</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G58">
         <v>3100</v>
       </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I58" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K58" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L58">
         <v>3100</v>
@@ -6015,69 +5877,69 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O58" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P58" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q58" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R58" t="s">
-        <v>344</v>
-      </c>
-      <c r="S58" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="S58">
+        <v>2022</v>
       </c>
       <c r="T58" t="s">
-        <v>378</v>
-      </c>
-      <c r="U58" t="s">
-        <v>415</v>
+        <v>371</v>
+      </c>
+      <c r="U58">
+        <v>43777954</v>
       </c>
       <c r="V58" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W58" t="s">
-        <v>451</v>
-      </c>
-      <c r="X58" t="s">
-        <v>464</v>
+        <v>412</v>
+      </c>
+      <c r="X58">
+        <v>39610682</v>
       </c>
       <c r="Y58" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
-      <c r="B59" t="s">
-        <v>64</v>
+      <c r="B59">
+        <v>9312190</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G59">
         <v>12000</v>
       </c>
       <c r="H59" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K59" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L59">
         <v>12000</v>
@@ -6086,75 +5948,75 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O59" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P59" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q59" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R59" t="s">
-        <v>344</v>
-      </c>
-      <c r="S59" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="S59">
+        <v>2022</v>
       </c>
       <c r="T59" t="s">
-        <v>378</v>
-      </c>
-      <c r="U59" t="s">
-        <v>415</v>
+        <v>371</v>
+      </c>
+      <c r="U59">
+        <v>43777954</v>
       </c>
       <c r="V59" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="W59" t="s">
-        <v>451</v>
-      </c>
-      <c r="X59" t="s">
-        <v>464</v>
+        <v>412</v>
+      </c>
+      <c r="X59">
+        <v>39610682</v>
       </c>
       <c r="Y59" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
-      <c r="B60" t="s">
-        <v>65</v>
+      <c r="B60">
+        <v>9322277</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" t="s">
-        <v>224</v>
+        <v>202</v>
+      </c>
+      <c r="F60">
+        <v>44351</v>
       </c>
       <c r="G60">
         <v>2500</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
-      </c>
-      <c r="J60" t="s">
-        <v>318</v>
+        <v>299</v>
+      </c>
+      <c r="J60">
+        <v>2908717238</v>
       </c>
       <c r="K60" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L60">
         <v>2500</v>
@@ -6163,75 +6025,75 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
+        <v>334</v>
+      </c>
+      <c r="O60" t="s">
+        <v>333</v>
+      </c>
+      <c r="P60" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>337</v>
+      </c>
+      <c r="R60" t="s">
         <v>339</v>
       </c>
-      <c r="O60" t="s">
-        <v>338</v>
-      </c>
-      <c r="P60" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>342</v>
-      </c>
-      <c r="R60" t="s">
-        <v>344</v>
-      </c>
-      <c r="S60" t="s">
-        <v>347</v>
+      <c r="S60">
+        <v>2021</v>
       </c>
       <c r="T60" t="s">
-        <v>208</v>
-      </c>
-      <c r="U60" t="s">
-        <v>224</v>
+        <v>202</v>
+      </c>
+      <c r="U60">
+        <v>44351</v>
       </c>
       <c r="V60" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W60" t="s">
-        <v>208</v>
-      </c>
-      <c r="X60" t="s">
-        <v>224</v>
+        <v>202</v>
+      </c>
+      <c r="X60">
+        <v>44351</v>
       </c>
       <c r="Y60" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>44</v>
       </c>
-      <c r="B61" t="s">
-        <v>56</v>
+      <c r="B61">
+        <v>32112</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61" t="s">
-        <v>225</v>
+        <v>203</v>
+      </c>
+      <c r="F61">
+        <v>33308363</v>
       </c>
       <c r="G61">
         <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I61" t="s">
-        <v>305</v>
-      </c>
-      <c r="J61" t="s">
-        <v>319</v>
+        <v>300</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L61">
         <v>40</v>
@@ -6240,75 +6102,75 @@
         <v>40</v>
       </c>
       <c r="N61" t="s">
+        <v>334</v>
+      </c>
+      <c r="O61" t="s">
+        <v>333</v>
+      </c>
+      <c r="P61" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>337</v>
+      </c>
+      <c r="R61" t="s">
         <v>339</v>
       </c>
-      <c r="O61" t="s">
-        <v>338</v>
-      </c>
-      <c r="P61" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>342</v>
-      </c>
-      <c r="R61" t="s">
-        <v>344</v>
-      </c>
-      <c r="S61" t="s">
-        <v>347</v>
+      <c r="S61">
+        <v>2021</v>
       </c>
       <c r="T61" t="s">
-        <v>379</v>
-      </c>
-      <c r="U61" t="s">
-        <v>225</v>
+        <v>372</v>
+      </c>
+      <c r="U61">
+        <v>33308363</v>
       </c>
       <c r="V61" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W61" t="s">
-        <v>452</v>
-      </c>
-      <c r="X61" t="s">
-        <v>225</v>
+        <v>413</v>
+      </c>
+      <c r="X61">
+        <v>33308363</v>
       </c>
       <c r="Y61" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>44</v>
       </c>
-      <c r="B62" t="s">
-        <v>56</v>
+      <c r="B62">
+        <v>32112</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
-      </c>
-      <c r="F62" t="s">
-        <v>225</v>
+        <v>203</v>
+      </c>
+      <c r="F62">
+        <v>33308363</v>
       </c>
       <c r="G62">
         <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I62" t="s">
-        <v>306</v>
-      </c>
-      <c r="J62" t="s">
-        <v>319</v>
+        <v>301</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L62">
         <v>100</v>
@@ -6317,75 +6179,75 @@
         <v>100</v>
       </c>
       <c r="N62" t="s">
+        <v>334</v>
+      </c>
+      <c r="O62" t="s">
+        <v>333</v>
+      </c>
+      <c r="P62" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>337</v>
+      </c>
+      <c r="R62" t="s">
         <v>339</v>
       </c>
-      <c r="O62" t="s">
-        <v>338</v>
-      </c>
-      <c r="P62" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>342</v>
-      </c>
-      <c r="R62" t="s">
-        <v>344</v>
-      </c>
-      <c r="S62" t="s">
-        <v>347</v>
+      <c r="S62">
+        <v>2021</v>
       </c>
       <c r="T62" t="s">
-        <v>379</v>
-      </c>
-      <c r="U62" t="s">
-        <v>225</v>
+        <v>372</v>
+      </c>
+      <c r="U62">
+        <v>33308363</v>
       </c>
       <c r="V62" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W62" t="s">
-        <v>452</v>
-      </c>
-      <c r="X62" t="s">
-        <v>225</v>
+        <v>413</v>
+      </c>
+      <c r="X62">
+        <v>33308363</v>
       </c>
       <c r="Y62" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>44</v>
       </c>
-      <c r="B63" t="s">
-        <v>56</v>
+      <c r="B63">
+        <v>32112</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" t="s">
-        <v>225</v>
+        <v>203</v>
+      </c>
+      <c r="F63">
+        <v>33308363</v>
       </c>
       <c r="G63">
         <v>100</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I63" t="s">
-        <v>306</v>
-      </c>
-      <c r="J63" t="s">
-        <v>319</v>
+        <v>301</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L63">
         <v>100</v>
@@ -6394,69 +6256,69 @@
         <v>100</v>
       </c>
       <c r="N63" t="s">
+        <v>334</v>
+      </c>
+      <c r="O63" t="s">
+        <v>333</v>
+      </c>
+      <c r="P63" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>337</v>
+      </c>
+      <c r="R63" t="s">
         <v>339</v>
       </c>
-      <c r="O63" t="s">
-        <v>338</v>
-      </c>
-      <c r="P63" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>342</v>
-      </c>
-      <c r="R63" t="s">
-        <v>344</v>
-      </c>
-      <c r="S63" t="s">
-        <v>347</v>
+      <c r="S63">
+        <v>2021</v>
       </c>
       <c r="T63" t="s">
-        <v>379</v>
-      </c>
-      <c r="U63" t="s">
-        <v>225</v>
+        <v>372</v>
+      </c>
+      <c r="U63">
+        <v>33308363</v>
       </c>
       <c r="V63" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W63" t="s">
-        <v>452</v>
-      </c>
-      <c r="X63" t="s">
-        <v>225</v>
+        <v>413</v>
+      </c>
+      <c r="X63">
+        <v>33308363</v>
       </c>
       <c r="Y63" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
-      <c r="B64" t="s">
-        <v>55</v>
+      <c r="B64">
+        <v>14360570</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G64">
         <v>386</v>
       </c>
       <c r="H64" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I64" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K64" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L64">
         <v>386</v>
@@ -6465,75 +6327,75 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O64" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P64" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q64" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R64" t="s">
-        <v>344</v>
-      </c>
-      <c r="S64" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S64">
+        <v>2021</v>
       </c>
       <c r="T64" t="s">
-        <v>380</v>
-      </c>
-      <c r="U64" t="s">
-        <v>416</v>
+        <v>373</v>
+      </c>
+      <c r="U64">
+        <v>40026836</v>
       </c>
       <c r="V64" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="W64" t="s">
-        <v>453</v>
-      </c>
-      <c r="X64" t="s">
-        <v>465</v>
+        <v>414</v>
+      </c>
+      <c r="X64">
+        <v>39481037</v>
       </c>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
-      <c r="B65" t="s">
-        <v>55</v>
+      <c r="B65">
+        <v>14360570</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
-      </c>
-      <c r="F65" t="s">
-        <v>55</v>
+        <v>205</v>
+      </c>
+      <c r="F65">
+        <v>14360570</v>
       </c>
       <c r="G65">
         <v>120</v>
       </c>
       <c r="H65" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
       </c>
-      <c r="J65" t="s">
-        <v>55</v>
+      <c r="J65">
+        <v>14360570</v>
       </c>
       <c r="K65" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L65">
         <v>120</v>
@@ -6542,69 +6404,69 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
+        <v>334</v>
+      </c>
+      <c r="O65" t="s">
+        <v>334</v>
+      </c>
+      <c r="P65" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>337</v>
+      </c>
+      <c r="R65" t="s">
         <v>339</v>
       </c>
-      <c r="O65" t="s">
-        <v>339</v>
-      </c>
-      <c r="P65" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>342</v>
-      </c>
-      <c r="R65" t="s">
-        <v>344</v>
-      </c>
-      <c r="S65" t="s">
-        <v>347</v>
+      <c r="S65">
+        <v>2021</v>
       </c>
       <c r="T65" t="s">
-        <v>380</v>
-      </c>
-      <c r="U65" t="s">
-        <v>416</v>
+        <v>373</v>
+      </c>
+      <c r="U65">
+        <v>40026836</v>
       </c>
       <c r="V65" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="W65" t="s">
-        <v>453</v>
-      </c>
-      <c r="X65" t="s">
-        <v>465</v>
+        <v>414</v>
+      </c>
+      <c r="X65">
+        <v>39481037</v>
       </c>
       <c r="Y65" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="B66" t="s">
-        <v>55</v>
+      <c r="B66">
+        <v>14360570</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G66">
         <v>350</v>
       </c>
       <c r="H66" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K66" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L66">
         <v>350</v>
@@ -6613,69 +6475,69 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O66" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q66" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R66" t="s">
-        <v>344</v>
-      </c>
-      <c r="S66" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S66">
+        <v>2021</v>
       </c>
       <c r="T66" t="s">
-        <v>380</v>
-      </c>
-      <c r="U66" t="s">
-        <v>416</v>
+        <v>373</v>
+      </c>
+      <c r="U66">
+        <v>40026836</v>
       </c>
       <c r="V66" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="W66" t="s">
-        <v>453</v>
-      </c>
-      <c r="X66" t="s">
-        <v>465</v>
+        <v>414</v>
+      </c>
+      <c r="X66">
+        <v>39481037</v>
       </c>
       <c r="Y66" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
-      <c r="B67" t="s">
-        <v>66</v>
+      <c r="B67">
+        <v>9801546</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G67">
         <v>500</v>
       </c>
       <c r="H67" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I67" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K67" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L67">
         <v>500</v>
@@ -6684,69 +6546,69 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O67" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P67" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q67" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R67" t="s">
-        <v>344</v>
-      </c>
-      <c r="S67" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S67">
+        <v>2021</v>
       </c>
       <c r="T67" t="s">
-        <v>381</v>
-      </c>
-      <c r="U67" t="s">
-        <v>417</v>
+        <v>374</v>
+      </c>
+      <c r="U67">
+        <v>40014820</v>
       </c>
       <c r="V67" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W67" t="s">
-        <v>453</v>
-      </c>
-      <c r="X67" t="s">
-        <v>465</v>
+        <v>414</v>
+      </c>
+      <c r="X67">
+        <v>39481037</v>
       </c>
       <c r="Y67" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>48</v>
       </c>
-      <c r="B68" t="s">
-        <v>66</v>
+      <c r="B68">
+        <v>9801546</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G68">
         <v>1200</v>
       </c>
       <c r="H68" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I68" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K68" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L68">
         <v>1200</v>
@@ -6755,69 +6617,69 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O68" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P68" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q68" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R68" t="s">
-        <v>344</v>
-      </c>
-      <c r="S68" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S68">
+        <v>2021</v>
       </c>
       <c r="T68" t="s">
-        <v>381</v>
-      </c>
-      <c r="U68" t="s">
-        <v>417</v>
+        <v>374</v>
+      </c>
+      <c r="U68">
+        <v>40014820</v>
       </c>
       <c r="V68" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="W68" t="s">
-        <v>453</v>
-      </c>
-      <c r="X68" t="s">
-        <v>465</v>
+        <v>414</v>
+      </c>
+      <c r="X68">
+        <v>39481037</v>
       </c>
       <c r="Y68" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>49</v>
       </c>
-      <c r="B69" t="s">
-        <v>60</v>
+      <c r="B69">
+        <v>14282829</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G69">
         <v>60000</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I69" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K69" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L69">
         <v>60000</v>
@@ -6826,75 +6688,75 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O69" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P69" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q69" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R69" t="s">
-        <v>344</v>
-      </c>
-      <c r="S69" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S69">
+        <v>2021</v>
       </c>
       <c r="T69" t="s">
-        <v>382</v>
-      </c>
-      <c r="U69" t="s">
-        <v>418</v>
+        <v>375</v>
+      </c>
+      <c r="U69">
+        <v>40000865</v>
       </c>
       <c r="V69" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W69" t="s">
-        <v>454</v>
-      </c>
-      <c r="X69" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+      <c r="X69">
+        <v>40000865</v>
       </c>
       <c r="Y69" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
-      <c r="B70" t="s">
-        <v>55</v>
+      <c r="B70">
+        <v>14360570</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
-      </c>
-      <c r="F70" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="F70">
+        <v>2472453</v>
       </c>
       <c r="G70">
         <v>500</v>
       </c>
       <c r="H70" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I70" t="s">
-        <v>312</v>
-      </c>
-      <c r="J70" t="s">
-        <v>226</v>
+        <v>307</v>
+      </c>
+      <c r="J70">
+        <v>2472453</v>
       </c>
       <c r="K70" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L70">
         <v>500</v>
@@ -6903,69 +6765,69 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O70" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P70" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q70" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R70" t="s">
-        <v>346</v>
-      </c>
-      <c r="S70" t="s">
-        <v>347</v>
+        <v>341</v>
+      </c>
+      <c r="S70">
+        <v>2021</v>
       </c>
       <c r="T70" t="s">
-        <v>383</v>
-      </c>
-      <c r="U70" t="s">
-        <v>419</v>
+        <v>376</v>
+      </c>
+      <c r="U70">
+        <v>36894166</v>
       </c>
       <c r="V70" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W70" t="s">
-        <v>455</v>
-      </c>
-      <c r="X70" t="s">
-        <v>466</v>
+        <v>416</v>
+      </c>
+      <c r="X70">
+        <v>33547558</v>
       </c>
       <c r="Y70" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
-      <c r="B71" t="s">
-        <v>59</v>
+      <c r="B71">
+        <v>23697280</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G71">
         <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="I71" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K71" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L71">
         <v>369500</v>
@@ -6974,69 +6836,69 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O71" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P71" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q71" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R71" t="s">
-        <v>344</v>
-      </c>
-      <c r="S71" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S71">
+        <v>2021</v>
       </c>
       <c r="T71" t="s">
-        <v>384</v>
-      </c>
-      <c r="U71" t="s">
-        <v>420</v>
+        <v>377</v>
+      </c>
+      <c r="U71">
+        <v>39765623</v>
       </c>
       <c r="V71" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W71" t="s">
-        <v>456</v>
-      </c>
-      <c r="X71" t="s">
-        <v>420</v>
+        <v>417</v>
+      </c>
+      <c r="X71">
+        <v>39765623</v>
       </c>
       <c r="Y71" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
-      <c r="B72" t="s">
-        <v>59</v>
+      <c r="B72">
+        <v>23697280</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G72">
         <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K72" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L72">
         <v>387000</v>
@@ -7045,69 +6907,69 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O72" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P72" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q72" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R72" t="s">
-        <v>344</v>
-      </c>
-      <c r="S72" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="S72">
+        <v>2021</v>
       </c>
       <c r="T72" t="s">
-        <v>384</v>
-      </c>
-      <c r="U72" t="s">
-        <v>420</v>
+        <v>377</v>
+      </c>
+      <c r="U72">
+        <v>39765623</v>
       </c>
       <c r="V72" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="W72" t="s">
-        <v>456</v>
-      </c>
-      <c r="X72" t="s">
-        <v>420</v>
+        <v>417</v>
+      </c>
+      <c r="X72">
+        <v>39765623</v>
       </c>
       <c r="Y72" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
-      <c r="B73" t="s">
-        <v>55</v>
+      <c r="B73">
+        <v>14360570</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G73">
         <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I73" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K73" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L73">
         <v>16000</v>
@@ -7116,75 +6978,75 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O73" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P73" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>337</v>
+      </c>
+      <c r="R73" t="s">
         <v>340</v>
       </c>
-      <c r="Q73" t="s">
-        <v>342</v>
-      </c>
-      <c r="R73" t="s">
-        <v>345</v>
-      </c>
-      <c r="S73" t="s">
-        <v>347</v>
+      <c r="S73">
+        <v>2021</v>
       </c>
       <c r="T73" t="s">
-        <v>385</v>
-      </c>
-      <c r="U73" t="s">
-        <v>421</v>
+        <v>378</v>
+      </c>
+      <c r="U73">
+        <v>43626410</v>
       </c>
       <c r="V73" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="W73" t="s">
-        <v>457</v>
-      </c>
-      <c r="X73" t="s">
-        <v>467</v>
+        <v>418</v>
+      </c>
+      <c r="X73">
+        <v>39550414</v>
       </c>
       <c r="Y73" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>53</v>
       </c>
-      <c r="B74" t="s">
-        <v>61</v>
+      <c r="B74">
+        <v>9804119</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
-      </c>
-      <c r="F74" t="s">
-        <v>55</v>
+        <v>213</v>
+      </c>
+      <c r="F74">
+        <v>14360570</v>
       </c>
       <c r="G74">
         <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I74" t="s">
-        <v>315</v>
-      </c>
-      <c r="J74" t="s">
-        <v>320</v>
+        <v>310</v>
+      </c>
+      <c r="J74">
+        <v>39298466</v>
       </c>
       <c r="K74" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L74">
         <v>5400</v>
@@ -7193,69 +7055,69 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
+        <v>334</v>
+      </c>
+      <c r="O74" t="s">
+        <v>334</v>
+      </c>
+      <c r="P74" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>337</v>
+      </c>
+      <c r="R74" t="s">
         <v>339</v>
       </c>
-      <c r="O74" t="s">
-        <v>339</v>
-      </c>
-      <c r="P74" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>342</v>
-      </c>
-      <c r="R74" t="s">
-        <v>344</v>
-      </c>
-      <c r="S74" t="s">
-        <v>347</v>
+      <c r="S74">
+        <v>2021</v>
       </c>
       <c r="T74" t="s">
-        <v>386</v>
-      </c>
-      <c r="U74" t="s">
-        <v>422</v>
+        <v>379</v>
+      </c>
+      <c r="U74">
+        <v>40006563</v>
       </c>
       <c r="V74" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="W74" t="s">
-        <v>458</v>
-      </c>
-      <c r="X74" t="s">
-        <v>468</v>
+        <v>419</v>
+      </c>
+      <c r="X74">
+        <v>37724082</v>
       </c>
       <c r="Y74" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>54</v>
       </c>
-      <c r="B75" t="s">
-        <v>55</v>
+      <c r="B75">
+        <v>14360570</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G75">
         <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I75" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K75" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L75">
         <v>6100</v>
@@ -7264,40 +7126,324 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
+        <v>333</v>
+      </c>
+      <c r="O75" t="s">
+        <v>333</v>
+      </c>
+      <c r="P75" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>337</v>
+      </c>
+      <c r="R75" t="s">
+        <v>339</v>
+      </c>
+      <c r="S75">
+        <v>2021</v>
+      </c>
+      <c r="T75" t="s">
+        <v>380</v>
+      </c>
+      <c r="U75">
+        <v>37263887</v>
+      </c>
+      <c r="V75" t="s">
+        <v>389</v>
+      </c>
+      <c r="W75" t="s">
+        <v>420</v>
+      </c>
+      <c r="X75">
+        <v>33492420</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76">
+        <v>2800</v>
+      </c>
+      <c r="H76" t="s">
+        <v>262</v>
+      </c>
+      <c r="I76" t="s">
+        <v>289</v>
+      </c>
+      <c r="K76" t="s">
+        <v>330</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>2800</v>
+      </c>
+      <c r="N76" t="s">
+        <v>333</v>
+      </c>
+      <c r="O76" t="s">
+        <v>334</v>
+      </c>
+      <c r="P76" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>337</v>
+      </c>
+      <c r="R76" t="s">
         <v>338</v>
       </c>
-      <c r="O75" t="s">
+      <c r="S76" t="s">
+        <v>342</v>
+      </c>
+      <c r="T76" t="s">
+        <v>363</v>
+      </c>
+      <c r="U76" t="s">
+        <v>382</v>
+      </c>
+      <c r="V76" t="s">
+        <v>395</v>
+      </c>
+      <c r="W76" t="s">
+        <v>403</v>
+      </c>
+      <c r="X76" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>263</v>
+      </c>
+      <c r="I77" t="s">
+        <v>289</v>
+      </c>
+      <c r="K77" t="s">
+        <v>331</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>333</v>
+      </c>
+      <c r="O77" t="s">
+        <v>334</v>
+      </c>
+      <c r="P77" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>337</v>
+      </c>
+      <c r="R77" t="s">
         <v>338</v>
       </c>
-      <c r="P75" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q75" t="s">
+      <c r="S77" t="s">
         <v>342</v>
       </c>
-      <c r="R75" t="s">
-        <v>344</v>
-      </c>
-      <c r="S75" t="s">
-        <v>347</v>
-      </c>
-      <c r="T75" t="s">
-        <v>387</v>
-      </c>
-      <c r="U75" t="s">
-        <v>423</v>
-      </c>
-      <c r="V75" t="s">
-        <v>429</v>
-      </c>
-      <c r="W75" t="s">
-        <v>459</v>
-      </c>
-      <c r="X75" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>498</v>
+      <c r="T77" t="s">
+        <v>363</v>
+      </c>
+      <c r="U77" t="s">
+        <v>382</v>
+      </c>
+      <c r="V77" t="s">
+        <v>395</v>
+      </c>
+      <c r="W77" t="s">
+        <v>403</v>
+      </c>
+      <c r="X77" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>264</v>
+      </c>
+      <c r="I78" t="s">
+        <v>312</v>
+      </c>
+      <c r="K78" t="s">
+        <v>332</v>
+      </c>
+      <c r="L78">
+        <v>8</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>333</v>
+      </c>
+      <c r="O78" t="s">
+        <v>333</v>
+      </c>
+      <c r="P78" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>337</v>
+      </c>
+      <c r="R78" t="s">
+        <v>338</v>
+      </c>
+      <c r="S78" t="s">
+        <v>342</v>
+      </c>
+      <c r="T78" t="s">
+        <v>381</v>
+      </c>
+      <c r="U78" t="s">
+        <v>383</v>
+      </c>
+      <c r="V78" t="s">
+        <v>401</v>
+      </c>
+      <c r="W78" t="s">
+        <v>408</v>
+      </c>
+      <c r="X78" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>265</v>
+      </c>
+      <c r="I79" t="s">
+        <v>312</v>
+      </c>
+      <c r="K79" t="s">
+        <v>332</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>333</v>
+      </c>
+      <c r="O79" t="s">
+        <v>333</v>
+      </c>
+      <c r="P79" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>337</v>
+      </c>
+      <c r="R79" t="s">
+        <v>338</v>
+      </c>
+      <c r="S79" t="s">
+        <v>342</v>
+      </c>
+      <c r="T79" t="s">
+        <v>381</v>
+      </c>
+      <c r="U79" t="s">
+        <v>383</v>
+      </c>
+      <c r="V79" t="s">
+        <v>401</v>
+      </c>
+      <c r="W79" t="s">
+        <v>408</v>
+      </c>
+      <c r="X79" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="520">
   <si>
     <t>bank_name</t>
   </si>
@@ -130,7 +130,7 @@
     <t>АТ "Райффайзен Банк Аваль"</t>
   </si>
   <si>
-    <t>АТ "РАЙФФАЙЗЕН БАНК_x005F_x000D_
+    <t>АТ "РАЙФФАЙЗЕН БАНК_x000D_
 АВАЛЬ"</t>
   </si>
   <si>
@@ -182,10 +182,40 @@
     <t>АТ "ПРИВАТБАНК"</t>
   </si>
   <si>
+    <t>14360570</t>
+  </si>
+  <si>
+    <t>00032112</t>
+  </si>
+  <si>
+    <t>14305909</t>
+  </si>
+  <si>
+    <t>35810511</t>
+  </si>
+  <si>
+    <t>23697280</t>
+  </si>
+  <si>
+    <t>14282829</t>
+  </si>
+  <si>
+    <t>09804119</t>
+  </si>
+  <si>
     <t>35591059</t>
   </si>
   <si>
-    <t>14305909</t>
+    <t>09325703</t>
+  </si>
+  <si>
+    <t>09312190</t>
+  </si>
+  <si>
+    <t>09322277</t>
+  </si>
+  <si>
+    <t>09801546</t>
   </si>
   <si>
     <t>UA923387830000026005055131982</t>
@@ -671,6 +701,24 @@
     <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
   </si>
   <si>
+    <t>21715714</t>
+  </si>
+  <si>
+    <t>20806283</t>
+  </si>
+  <si>
+    <t>40235645</t>
+  </si>
+  <si>
+    <t>00044351</t>
+  </si>
+  <si>
+    <t>33308363</t>
+  </si>
+  <si>
+    <t>02472453</t>
+  </si>
+  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -956,6 +1004,18 @@
     <t>Нездолій Григорій Григорович</t>
   </si>
   <si>
+    <t>2980415485</t>
+  </si>
+  <si>
+    <t>2908717238</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>39298466</t>
+  </si>
+  <si>
     <t>Повернення помилкових грошових надходжень</t>
   </si>
   <si>
@@ -992,13 +1052,13 @@
     <t>Повернення помилково здійсненого внеску, згідно рішення Ради Київської обласної територіальної організації Політичної Партії "ГОЛОС" №1 від 08.06.2021 р.</t>
   </si>
   <si>
-    <t>повернення помилково сплачених_x005F_x000D_
-коштів док №107344471 від_x005F_x000D_
+    <t>повернення помилково сплачених_x000D_
+коштів док №107344471 від_x000D_
 31.03.2021 р.</t>
   </si>
   <si>
-    <t>повернення помилково сплачених_x005F_x000D_
-коштів док №107352223 від_x005F_x000D_
+    <t>повернення помилково сплачених_x000D_
+коштів док №107352223 від_x000D_
 13.04.2021 р.</t>
   </si>
   <si>
@@ -1047,6 +1107,15 @@
     <t>3 квартал</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
@@ -1167,9 +1236,114 @@
     <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
   </si>
   <si>
+    <t>40053063</t>
+  </si>
+  <si>
+    <t>43692731</t>
+  </si>
+  <si>
+    <t>43678249</t>
+  </si>
+  <si>
+    <t>43655001</t>
+  </si>
+  <si>
+    <t>43671311</t>
+  </si>
+  <si>
+    <t>43675248</t>
+  </si>
+  <si>
+    <t>43676765</t>
+  </si>
+  <si>
+    <t>33864810</t>
+  </si>
+  <si>
+    <t>39495516</t>
+  </si>
+  <si>
+    <t>39702118</t>
+  </si>
+  <si>
+    <t>39508645</t>
+  </si>
+  <si>
+    <t>40419357</t>
+  </si>
+  <si>
+    <t>39921438</t>
+  </si>
+  <si>
+    <t>39479782</t>
+  </si>
+  <si>
+    <t>39651598</t>
+  </si>
+  <si>
+    <t>43311440</t>
+  </si>
+  <si>
+    <t>43527082</t>
+  </si>
+  <si>
+    <t>43428147</t>
+  </si>
+  <si>
+    <t>43307785</t>
+  </si>
+  <si>
+    <t>43449722</t>
+  </si>
+  <si>
     <t>40422142</t>
   </si>
   <si>
+    <t>43945782</t>
+  </si>
+  <si>
+    <t>43671044</t>
+  </si>
+  <si>
+    <t>43721791</t>
+  </si>
+  <si>
+    <t>38010759</t>
+  </si>
+  <si>
+    <t>36658318</t>
+  </si>
+  <si>
+    <t>36681991</t>
+  </si>
+  <si>
+    <t>43777954</t>
+  </si>
+  <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>36894166</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
     <t>43379734</t>
   </si>
   <si>
@@ -1284,7 +1458,34 @@
     <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
   </si>
   <si>
-    <t>39651598</t>
+    <t>39378656</t>
+  </si>
+  <si>
+    <t>20069956</t>
+  </si>
+  <si>
+    <t>00013209</t>
+  </si>
+  <si>
+    <t>36088708</t>
+  </si>
+  <si>
+    <t>39610682</t>
+  </si>
+  <si>
+    <t>39481037</t>
+  </si>
+  <si>
+    <t>33547558</t>
+  </si>
+  <si>
+    <t>39550414</t>
+  </si>
+  <si>
+    <t>37724082</t>
+  </si>
+  <si>
+    <t>33492420</t>
   </si>
   <si>
     <t>78043b70-d48b-11ee-a5cc-0f6c6369ddf7</t>
@@ -1822,29 +2023,29 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>14360570</v>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="K2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -1853,69 +2054,69 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P2" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R2" t="s">
-        <v>338</v>
-      </c>
-      <c r="S2">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S2" t="s">
+        <v>362</v>
       </c>
       <c r="T2" t="s">
-        <v>343</v>
-      </c>
-      <c r="U2">
-        <v>40053063</v>
+        <v>366</v>
+      </c>
+      <c r="U2" t="s">
+        <v>405</v>
       </c>
       <c r="V2" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="W2" t="s">
-        <v>402</v>
-      </c>
-      <c r="X2">
-        <v>39378656</v>
+        <v>460</v>
+      </c>
+      <c r="X2" t="s">
+        <v>479</v>
       </c>
       <c r="Y2" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>32112</v>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K3" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -1924,69 +2125,69 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O3" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P3" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q3" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R3" t="s">
-        <v>339</v>
-      </c>
-      <c r="S3">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S3" t="s">
+        <v>362</v>
       </c>
       <c r="T3" t="s">
-        <v>344</v>
-      </c>
-      <c r="U3">
-        <v>43692731</v>
+        <v>367</v>
+      </c>
+      <c r="U3" t="s">
+        <v>406</v>
       </c>
       <c r="V3" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="W3" t="s">
-        <v>403</v>
-      </c>
-      <c r="X3">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X3" t="s">
+        <v>425</v>
       </c>
       <c r="Y3" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>32112</v>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -1995,69 +2196,69 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O4" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P4" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q4" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R4" t="s">
-        <v>339</v>
-      </c>
-      <c r="S4">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S4" t="s">
+        <v>362</v>
       </c>
       <c r="T4" t="s">
-        <v>345</v>
-      </c>
-      <c r="U4">
-        <v>43678249</v>
+        <v>368</v>
+      </c>
+      <c r="U4" t="s">
+        <v>407</v>
       </c>
       <c r="V4" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="W4" t="s">
-        <v>403</v>
-      </c>
-      <c r="X4">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X4" t="s">
+        <v>425</v>
       </c>
       <c r="Y4" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>32112</v>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2066,69 +2267,69 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O5" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P5" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q5" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R5" t="s">
-        <v>339</v>
-      </c>
-      <c r="S5">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S5" t="s">
+        <v>362</v>
       </c>
       <c r="T5" t="s">
-        <v>346</v>
-      </c>
-      <c r="U5">
-        <v>43655001</v>
+        <v>369</v>
+      </c>
+      <c r="U5" t="s">
+        <v>408</v>
       </c>
       <c r="V5" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="W5" t="s">
-        <v>403</v>
-      </c>
-      <c r="X5">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X5" t="s">
+        <v>425</v>
       </c>
       <c r="Y5" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>32112</v>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -2137,69 +2338,69 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O6" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P6" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q6" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R6" t="s">
-        <v>339</v>
-      </c>
-      <c r="S6">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S6" t="s">
+        <v>362</v>
       </c>
       <c r="T6" t="s">
-        <v>347</v>
-      </c>
-      <c r="U6">
-        <v>43671311</v>
+        <v>370</v>
+      </c>
+      <c r="U6" t="s">
+        <v>409</v>
       </c>
       <c r="V6" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="W6" t="s">
-        <v>403</v>
-      </c>
-      <c r="X6">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X6" t="s">
+        <v>425</v>
       </c>
       <c r="Y6" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>32112</v>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -2208,69 +2409,69 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P7" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q7" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R7" t="s">
-        <v>339</v>
-      </c>
-      <c r="S7">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S7" t="s">
+        <v>362</v>
       </c>
       <c r="T7" t="s">
-        <v>347</v>
-      </c>
-      <c r="U7">
-        <v>43671311</v>
+        <v>370</v>
+      </c>
+      <c r="U7" t="s">
+        <v>409</v>
       </c>
       <c r="V7" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="W7" t="s">
-        <v>403</v>
-      </c>
-      <c r="X7">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X7" t="s">
+        <v>425</v>
       </c>
       <c r="Y7" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>32112</v>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G8">
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="L8">
         <v>60376.24</v>
@@ -2279,69 +2480,69 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O8" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P8" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q8" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R8" t="s">
-        <v>339</v>
-      </c>
-      <c r="S8">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S8" t="s">
+        <v>363</v>
       </c>
       <c r="T8" t="s">
-        <v>348</v>
-      </c>
-      <c r="U8">
-        <v>43675248</v>
+        <v>371</v>
+      </c>
+      <c r="U8" t="s">
+        <v>410</v>
       </c>
       <c r="V8" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="W8" t="s">
-        <v>403</v>
-      </c>
-      <c r="X8">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X8" t="s">
+        <v>425</v>
       </c>
       <c r="Y8" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>32112</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G9">
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="L9">
         <v>17524.75</v>
@@ -2350,69 +2551,69 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O9" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P9" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q9" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R9" t="s">
-        <v>339</v>
-      </c>
-      <c r="S9">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S9" t="s">
+        <v>363</v>
       </c>
       <c r="T9" t="s">
-        <v>348</v>
-      </c>
-      <c r="U9">
-        <v>43675248</v>
+        <v>371</v>
+      </c>
+      <c r="U9" t="s">
+        <v>410</v>
       </c>
       <c r="V9" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="W9" t="s">
-        <v>403</v>
-      </c>
-      <c r="X9">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X9" t="s">
+        <v>425</v>
       </c>
       <c r="Y9" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>32112</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K10" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -2421,69 +2622,69 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O10" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P10" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q10" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R10" t="s">
-        <v>339</v>
-      </c>
-      <c r="S10">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S10" t="s">
+        <v>363</v>
       </c>
       <c r="T10" t="s">
-        <v>349</v>
-      </c>
-      <c r="U10">
-        <v>43676765</v>
+        <v>372</v>
+      </c>
+      <c r="U10" t="s">
+        <v>411</v>
       </c>
       <c r="V10" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="W10" t="s">
-        <v>403</v>
-      </c>
-      <c r="X10">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X10" t="s">
+        <v>425</v>
       </c>
       <c r="Y10" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>14305909</v>
+      <c r="B11" t="s">
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G11">
         <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="K11" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L11">
         <v>7.17</v>
@@ -2492,75 +2693,75 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O11" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P11" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q11" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R11" t="s">
-        <v>338</v>
-      </c>
-      <c r="S11">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S11" t="s">
+        <v>362</v>
       </c>
       <c r="T11" t="s">
-        <v>350</v>
-      </c>
-      <c r="U11">
-        <v>33864810</v>
+        <v>373</v>
+      </c>
+      <c r="U11" t="s">
+        <v>412</v>
       </c>
       <c r="V11" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W11" t="s">
-        <v>404</v>
-      </c>
-      <c r="X11">
-        <v>20069956</v>
+        <v>462</v>
+      </c>
+      <c r="X11" t="s">
+        <v>480</v>
       </c>
       <c r="Y11" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>35810511</v>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12">
-        <v>21715714</v>
+        <v>177</v>
+      </c>
+      <c r="F12" t="s">
+        <v>228</v>
       </c>
       <c r="G12">
         <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
-      </c>
-      <c r="J12">
-        <v>21715714</v>
+        <v>285</v>
+      </c>
+      <c r="J12" t="s">
+        <v>228</v>
       </c>
       <c r="K12" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L12">
         <v>100000</v>
@@ -2569,69 +2770,69 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O12" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P12" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q12" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R12" t="s">
-        <v>338</v>
-      </c>
-      <c r="S12">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S12" t="s">
+        <v>362</v>
       </c>
       <c r="T12" t="s">
-        <v>351</v>
-      </c>
-      <c r="U12">
-        <v>39495516</v>
+        <v>374</v>
+      </c>
+      <c r="U12" t="s">
+        <v>413</v>
       </c>
       <c r="V12" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="W12" t="s">
-        <v>405</v>
-      </c>
-      <c r="X12">
-        <v>21715714</v>
+        <v>463</v>
+      </c>
+      <c r="X12" t="s">
+        <v>228</v>
       </c>
       <c r="Y12" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <v>35810511</v>
+      <c r="B13" t="s">
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G13">
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K13" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L13">
         <v>1600</v>
@@ -2640,69 +2841,69 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O13" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P13" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q13" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R13" t="s">
-        <v>340</v>
-      </c>
-      <c r="S13">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S13" t="s">
+        <v>362</v>
       </c>
       <c r="T13" t="s">
-        <v>352</v>
-      </c>
-      <c r="U13">
-        <v>39702118</v>
+        <v>375</v>
+      </c>
+      <c r="U13" t="s">
+        <v>414</v>
       </c>
       <c r="V13" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W13" t="s">
-        <v>405</v>
-      </c>
-      <c r="X13">
-        <v>21715714</v>
+        <v>463</v>
+      </c>
+      <c r="X13" t="s">
+        <v>228</v>
       </c>
       <c r="Y13" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
-        <v>35810511</v>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G14">
         <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K14" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L14">
         <v>5020</v>
@@ -2711,69 +2912,69 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O14" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P14" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q14" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R14" t="s">
-        <v>341</v>
-      </c>
-      <c r="S14">
-        <v>2021</v>
+        <v>361</v>
+      </c>
+      <c r="S14" t="s">
+        <v>362</v>
       </c>
       <c r="T14" t="s">
-        <v>353</v>
-      </c>
-      <c r="U14">
-        <v>39508645</v>
+        <v>376</v>
+      </c>
+      <c r="U14" t="s">
+        <v>415</v>
       </c>
       <c r="V14" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="W14" t="s">
-        <v>405</v>
-      </c>
-      <c r="X14">
-        <v>21715714</v>
+        <v>463</v>
+      </c>
+      <c r="X14" t="s">
+        <v>228</v>
       </c>
       <c r="Y14" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
-        <v>23697280</v>
+      <c r="B15" t="s">
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G15">
         <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="K15" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L15">
         <v>150000</v>
@@ -2782,69 +2983,69 @@
         <v>150000</v>
       </c>
       <c r="N15" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O15" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P15" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q15" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R15" t="s">
-        <v>339</v>
-      </c>
-      <c r="S15">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S15" t="s">
+        <v>362</v>
       </c>
       <c r="T15" t="s">
-        <v>354</v>
-      </c>
-      <c r="U15">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U15" t="s">
+        <v>416</v>
       </c>
       <c r="V15" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W15" t="s">
-        <v>406</v>
-      </c>
-      <c r="X15">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X15" t="s">
+        <v>416</v>
       </c>
       <c r="Y15" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>23697280</v>
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G16">
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="K16" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -2853,69 +3054,69 @@
         <v>100000</v>
       </c>
       <c r="N16" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O16" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P16" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q16" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R16" t="s">
-        <v>339</v>
-      </c>
-      <c r="S16">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S16" t="s">
+        <v>362</v>
       </c>
       <c r="T16" t="s">
-        <v>354</v>
-      </c>
-      <c r="U16">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U16" t="s">
+        <v>416</v>
       </c>
       <c r="V16" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W16" t="s">
-        <v>406</v>
-      </c>
-      <c r="X16">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X16" t="s">
+        <v>416</v>
       </c>
       <c r="Y16" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>23697280</v>
+      <c r="B17" t="s">
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G17">
         <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="K17" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L17">
         <v>150000</v>
@@ -2924,69 +3125,69 @@
         <v>150000</v>
       </c>
       <c r="N17" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O17" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P17" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q17" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R17" t="s">
-        <v>339</v>
-      </c>
-      <c r="S17">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S17" t="s">
+        <v>362</v>
       </c>
       <c r="T17" t="s">
-        <v>354</v>
-      </c>
-      <c r="U17">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U17" t="s">
+        <v>416</v>
       </c>
       <c r="V17" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W17" t="s">
-        <v>406</v>
-      </c>
-      <c r="X17">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X17" t="s">
+        <v>416</v>
       </c>
       <c r="Y17" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18">
-        <v>23697280</v>
+      <c r="B18" t="s">
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G18">
         <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="I18" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L18">
         <v>160000</v>
@@ -2995,69 +3196,69 @@
         <v>160000</v>
       </c>
       <c r="N18" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O18" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P18" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q18" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R18" t="s">
-        <v>339</v>
-      </c>
-      <c r="S18">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S18" t="s">
+        <v>362</v>
       </c>
       <c r="T18" t="s">
-        <v>354</v>
-      </c>
-      <c r="U18">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U18" t="s">
+        <v>416</v>
       </c>
       <c r="V18" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W18" t="s">
-        <v>406</v>
-      </c>
-      <c r="X18">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X18" t="s">
+        <v>416</v>
       </c>
       <c r="Y18" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19">
-        <v>23697280</v>
+      <c r="B19" t="s">
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G19">
         <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="I19" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L19">
         <v>950000</v>
@@ -3066,69 +3267,69 @@
         <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O19" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P19" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q19" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R19" t="s">
-        <v>339</v>
-      </c>
-      <c r="S19">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S19" t="s">
+        <v>362</v>
       </c>
       <c r="T19" t="s">
-        <v>354</v>
-      </c>
-      <c r="U19">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U19" t="s">
+        <v>416</v>
       </c>
       <c r="V19" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W19" t="s">
-        <v>406</v>
-      </c>
-      <c r="X19">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X19" t="s">
+        <v>416</v>
       </c>
       <c r="Y19" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>23697280</v>
+      <c r="B20" t="s">
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G20">
         <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="K20" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L20">
         <v>950000</v>
@@ -3137,69 +3338,69 @@
         <v>950000</v>
       </c>
       <c r="N20" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O20" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P20" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q20" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R20" t="s">
-        <v>339</v>
-      </c>
-      <c r="S20">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S20" t="s">
+        <v>362</v>
       </c>
       <c r="T20" t="s">
-        <v>354</v>
-      </c>
-      <c r="U20">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U20" t="s">
+        <v>416</v>
       </c>
       <c r="V20" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W20" t="s">
-        <v>406</v>
-      </c>
-      <c r="X20">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X20" t="s">
+        <v>416</v>
       </c>
       <c r="Y20" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>35810511</v>
+      <c r="B21" t="s">
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G21">
         <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="K21" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L21">
         <v>97396.8</v>
@@ -3208,75 +3409,75 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O21" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P21" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q21" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R21" t="s">
-        <v>338</v>
-      </c>
-      <c r="S21">
-        <v>2022</v>
+        <v>358</v>
+      </c>
+      <c r="S21" t="s">
+        <v>363</v>
       </c>
       <c r="T21" t="s">
-        <v>352</v>
-      </c>
-      <c r="U21">
-        <v>39702118</v>
+        <v>375</v>
+      </c>
+      <c r="U21" t="s">
+        <v>414</v>
       </c>
       <c r="V21" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W21" t="s">
-        <v>405</v>
-      </c>
-      <c r="X21">
-        <v>21715714</v>
+        <v>463</v>
+      </c>
+      <c r="X21" t="s">
+        <v>228</v>
       </c>
       <c r="Y21" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
-        <v>14360570</v>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22">
-        <v>14360570</v>
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
-      <c r="J22">
-        <v>14360570</v>
+      <c r="J22" t="s">
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -3285,69 +3486,69 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O22" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P22" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q22" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R22" t="s">
-        <v>340</v>
-      </c>
-      <c r="S22">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S22" t="s">
+        <v>362</v>
       </c>
       <c r="T22" t="s">
-        <v>355</v>
-      </c>
-      <c r="U22">
-        <v>39921438</v>
+        <v>378</v>
+      </c>
+      <c r="U22" t="s">
+        <v>417</v>
       </c>
       <c r="V22" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="W22" t="s">
-        <v>402</v>
-      </c>
-      <c r="X22">
-        <v>39378656</v>
+        <v>460</v>
+      </c>
+      <c r="X22" t="s">
+        <v>479</v>
       </c>
       <c r="Y22" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
-        <v>14282829</v>
+      <c r="B23" t="s">
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G23">
         <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L23">
         <v>5600</v>
@@ -3356,69 +3557,69 @@
         <v>5600</v>
       </c>
       <c r="N23" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O23" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P23" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q23" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R23" t="s">
-        <v>339</v>
-      </c>
-      <c r="S23">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S23" t="s">
+        <v>364</v>
       </c>
       <c r="T23" t="s">
-        <v>356</v>
-      </c>
-      <c r="U23">
-        <v>39479782</v>
+        <v>379</v>
+      </c>
+      <c r="U23" t="s">
+        <v>418</v>
       </c>
       <c r="V23" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W23" t="s">
-        <v>407</v>
-      </c>
-      <c r="X23">
-        <v>39479782</v>
+        <v>465</v>
+      </c>
+      <c r="X23" t="s">
+        <v>418</v>
       </c>
       <c r="Y23" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
-        <v>14282829</v>
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="K24" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -3427,69 +3628,69 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O24" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P24" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q24" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R24" t="s">
-        <v>339</v>
-      </c>
-      <c r="S24">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S24" t="s">
+        <v>364</v>
       </c>
       <c r="T24" t="s">
-        <v>356</v>
-      </c>
-      <c r="U24">
-        <v>39479782</v>
+        <v>379</v>
+      </c>
+      <c r="U24" t="s">
+        <v>418</v>
       </c>
       <c r="V24" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W24" t="s">
-        <v>407</v>
-      </c>
-      <c r="X24">
-        <v>39479782</v>
+        <v>465</v>
+      </c>
+      <c r="X24" t="s">
+        <v>418</v>
       </c>
       <c r="Y24" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>35810511</v>
+      <c r="B25" t="s">
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G25">
         <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="K25" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="L25">
         <v>10500</v>
@@ -3498,69 +3699,69 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O25" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P25" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q25" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R25" t="s">
-        <v>340</v>
-      </c>
-      <c r="S25">
-        <v>2022</v>
+        <v>360</v>
+      </c>
+      <c r="S25" t="s">
+        <v>363</v>
       </c>
       <c r="T25" t="s">
-        <v>352</v>
-      </c>
-      <c r="U25">
-        <v>39702118</v>
+        <v>375</v>
+      </c>
+      <c r="U25" t="s">
+        <v>414</v>
       </c>
       <c r="V25" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W25" t="s">
-        <v>405</v>
-      </c>
-      <c r="X25">
-        <v>21715714</v>
+        <v>463</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
       </c>
       <c r="Y25" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
-        <v>14305909</v>
+      <c r="B26" t="s">
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="I26" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="K26" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3569,69 +3770,69 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O26" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P26" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q26" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R26" t="s">
-        <v>338</v>
-      </c>
-      <c r="S26">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S26" t="s">
+        <v>362</v>
       </c>
       <c r="T26" t="s">
-        <v>357</v>
-      </c>
-      <c r="U26">
-        <v>39651598</v>
+        <v>380</v>
+      </c>
+      <c r="U26" t="s">
+        <v>419</v>
       </c>
       <c r="V26" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W26" t="s">
-        <v>408</v>
-      </c>
-      <c r="X26">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X26" t="s">
+        <v>419</v>
       </c>
       <c r="Y26" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27">
-        <v>14305909</v>
+      <c r="B27" t="s">
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G27">
         <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="K27" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3640,69 +3841,69 @@
         <v>1500</v>
       </c>
       <c r="N27" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O27" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P27" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q27" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R27" t="s">
-        <v>338</v>
-      </c>
-      <c r="S27">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S27" t="s">
+        <v>362</v>
       </c>
       <c r="T27" t="s">
-        <v>357</v>
-      </c>
-      <c r="U27">
-        <v>39651598</v>
+        <v>380</v>
+      </c>
+      <c r="U27" t="s">
+        <v>419</v>
       </c>
       <c r="V27" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W27" t="s">
-        <v>408</v>
-      </c>
-      <c r="X27">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X27" t="s">
+        <v>419</v>
       </c>
       <c r="Y27" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28">
-        <v>14305909</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3711,69 +3912,69 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O28" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P28" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q28" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R28" t="s">
-        <v>338</v>
-      </c>
-      <c r="S28">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S28" t="s">
+        <v>362</v>
       </c>
       <c r="T28" t="s">
-        <v>358</v>
-      </c>
-      <c r="U28">
-        <v>43311440</v>
+        <v>381</v>
+      </c>
+      <c r="U28" t="s">
+        <v>420</v>
       </c>
       <c r="V28" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W28" t="s">
-        <v>408</v>
-      </c>
-      <c r="X28">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X28" t="s">
+        <v>419</v>
       </c>
       <c r="Y28" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
-        <v>14305909</v>
+      <c r="B29" t="s">
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G29">
         <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L29">
         <v>400</v>
@@ -3782,69 +3983,69 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O29" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P29" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q29" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R29" t="s">
-        <v>338</v>
-      </c>
-      <c r="S29">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S29" t="s">
+        <v>362</v>
       </c>
       <c r="T29" t="s">
-        <v>358</v>
-      </c>
-      <c r="U29">
-        <v>43311440</v>
+        <v>381</v>
+      </c>
+      <c r="U29" t="s">
+        <v>420</v>
       </c>
       <c r="V29" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W29" t="s">
-        <v>408</v>
-      </c>
-      <c r="X29">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X29" t="s">
+        <v>419</v>
       </c>
       <c r="Y29" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>14305909</v>
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -3853,69 +4054,69 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O30" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P30" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q30" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R30" t="s">
-        <v>338</v>
-      </c>
-      <c r="S30">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S30" t="s">
+        <v>362</v>
       </c>
       <c r="T30" t="s">
-        <v>358</v>
-      </c>
-      <c r="U30">
-        <v>43311440</v>
+        <v>381</v>
+      </c>
+      <c r="U30" t="s">
+        <v>420</v>
       </c>
       <c r="V30" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W30" t="s">
-        <v>408</v>
-      </c>
-      <c r="X30">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X30" t="s">
+        <v>419</v>
       </c>
       <c r="Y30" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>14305909</v>
+      <c r="B31" t="s">
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -3924,69 +4125,69 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O31" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P31" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q31" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R31" t="s">
-        <v>340</v>
-      </c>
-      <c r="S31">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S31" t="s">
+        <v>362</v>
       </c>
       <c r="T31" t="s">
-        <v>359</v>
-      </c>
-      <c r="U31">
-        <v>43527082</v>
+        <v>382</v>
+      </c>
+      <c r="U31" t="s">
+        <v>421</v>
       </c>
       <c r="V31" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="W31" t="s">
-        <v>408</v>
-      </c>
-      <c r="X31">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X31" t="s">
+        <v>419</v>
       </c>
       <c r="Y31" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>14305909</v>
+      <c r="B32" t="s">
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L32">
         <v>300</v>
@@ -3995,69 +4196,69 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O32" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P32" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q32" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R32" t="s">
-        <v>340</v>
-      </c>
-      <c r="S32">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S32" t="s">
+        <v>362</v>
       </c>
       <c r="T32" t="s">
-        <v>360</v>
-      </c>
-      <c r="U32">
-        <v>43428147</v>
+        <v>383</v>
+      </c>
+      <c r="U32" t="s">
+        <v>422</v>
       </c>
       <c r="V32" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="W32" t="s">
-        <v>408</v>
-      </c>
-      <c r="X32">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X32" t="s">
+        <v>419</v>
       </c>
       <c r="Y32" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>14305909</v>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G33">
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L33">
         <v>600</v>
@@ -4066,69 +4267,69 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O33" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P33" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q33" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R33" t="s">
-        <v>340</v>
-      </c>
-      <c r="S33">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S33" t="s">
+        <v>362</v>
       </c>
       <c r="T33" t="s">
-        <v>360</v>
-      </c>
-      <c r="U33">
-        <v>43428147</v>
+        <v>383</v>
+      </c>
+      <c r="U33" t="s">
+        <v>422</v>
       </c>
       <c r="V33" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="W33" t="s">
-        <v>408</v>
-      </c>
-      <c r="X33">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X33" t="s">
+        <v>419</v>
       </c>
       <c r="Y33" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
-        <v>14305909</v>
+      <c r="B34" t="s">
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -4137,69 +4338,69 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P34" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q34" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R34" t="s">
-        <v>340</v>
-      </c>
-      <c r="S34">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S34" t="s">
+        <v>362</v>
       </c>
       <c r="T34" t="s">
-        <v>360</v>
-      </c>
-      <c r="U34">
-        <v>43428147</v>
+        <v>383</v>
+      </c>
+      <c r="U34" t="s">
+        <v>422</v>
       </c>
       <c r="V34" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="W34" t="s">
-        <v>408</v>
-      </c>
-      <c r="X34">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X34" t="s">
+        <v>419</v>
       </c>
       <c r="Y34" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
-        <v>14305909</v>
+      <c r="B35" t="s">
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4208,69 +4409,69 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O35" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P35" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q35" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R35" t="s">
-        <v>340</v>
-      </c>
-      <c r="S35">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S35" t="s">
+        <v>362</v>
       </c>
       <c r="T35" t="s">
-        <v>360</v>
-      </c>
-      <c r="U35">
-        <v>43428147</v>
+        <v>383</v>
+      </c>
+      <c r="U35" t="s">
+        <v>422</v>
       </c>
       <c r="V35" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="W35" t="s">
-        <v>408</v>
-      </c>
-      <c r="X35">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X35" t="s">
+        <v>419</v>
       </c>
       <c r="Y35" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>14305909</v>
+      <c r="B36" t="s">
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G36">
         <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L36">
         <v>700</v>
@@ -4279,69 +4480,69 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P36" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q36" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R36" t="s">
-        <v>340</v>
-      </c>
-      <c r="S36">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S36" t="s">
+        <v>362</v>
       </c>
       <c r="T36" t="s">
-        <v>360</v>
-      </c>
-      <c r="U36">
-        <v>43428147</v>
+        <v>383</v>
+      </c>
+      <c r="U36" t="s">
+        <v>422</v>
       </c>
       <c r="V36" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="W36" t="s">
-        <v>408</v>
-      </c>
-      <c r="X36">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X36" t="s">
+        <v>419</v>
       </c>
       <c r="Y36" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>14305909</v>
+      <c r="B37" t="s">
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G37">
         <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="L37">
         <v>300</v>
@@ -4350,69 +4551,69 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P37" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q37" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R37" t="s">
-        <v>340</v>
-      </c>
-      <c r="S37">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S37" t="s">
+        <v>362</v>
       </c>
       <c r="T37" t="s">
-        <v>361</v>
-      </c>
-      <c r="U37">
-        <v>43307785</v>
+        <v>384</v>
+      </c>
+      <c r="U37" t="s">
+        <v>423</v>
       </c>
       <c r="V37" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="W37" t="s">
-        <v>408</v>
-      </c>
-      <c r="X37">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X37" t="s">
+        <v>419</v>
       </c>
       <c r="Y37" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>14305909</v>
+      <c r="B38" t="s">
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G38">
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L38">
         <v>800</v>
@@ -4421,69 +4622,69 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P38" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q38" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R38" t="s">
-        <v>340</v>
-      </c>
-      <c r="S38">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S38" t="s">
+        <v>362</v>
       </c>
       <c r="T38" t="s">
-        <v>362</v>
-      </c>
-      <c r="U38">
-        <v>43449722</v>
+        <v>385</v>
+      </c>
+      <c r="U38" t="s">
+        <v>424</v>
       </c>
       <c r="V38" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="W38" t="s">
-        <v>408</v>
-      </c>
-      <c r="X38">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X38" t="s">
+        <v>419</v>
       </c>
       <c r="Y38" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>14305909</v>
+      <c r="B39" t="s">
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G39">
         <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="L39">
         <v>600</v>
@@ -4492,69 +4693,69 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P39" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q39" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R39" t="s">
-        <v>340</v>
-      </c>
-      <c r="S39">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S39" t="s">
+        <v>362</v>
       </c>
       <c r="T39" t="s">
-        <v>362</v>
-      </c>
-      <c r="U39">
-        <v>43449722</v>
+        <v>385</v>
+      </c>
+      <c r="U39" t="s">
+        <v>424</v>
       </c>
       <c r="V39" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="W39" t="s">
-        <v>408</v>
-      </c>
-      <c r="X39">
-        <v>39651598</v>
+        <v>466</v>
+      </c>
+      <c r="X39" t="s">
+        <v>419</v>
       </c>
       <c r="Y39" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40">
-        <v>9804119</v>
+      <c r="B40" t="s">
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="I40" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L40">
         <v>290800</v>
@@ -4563,69 +4764,69 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P40" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q40" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R40" t="s">
-        <v>339</v>
-      </c>
-      <c r="S40">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S40" t="s">
+        <v>363</v>
       </c>
       <c r="T40" t="s">
-        <v>354</v>
-      </c>
-      <c r="U40">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U40" t="s">
+        <v>416</v>
       </c>
       <c r="V40" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W40" t="s">
-        <v>406</v>
-      </c>
-      <c r="X40">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X40" t="s">
+        <v>416</v>
       </c>
       <c r="Y40" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>9804119</v>
+      <c r="B41" t="s">
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G41">
         <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L41">
         <v>560000</v>
@@ -4634,69 +4835,69 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P41" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q41" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R41" t="s">
-        <v>339</v>
-      </c>
-      <c r="S41">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S41" t="s">
+        <v>363</v>
       </c>
       <c r="T41" t="s">
-        <v>354</v>
-      </c>
-      <c r="U41">
-        <v>40419357</v>
+        <v>377</v>
+      </c>
+      <c r="U41" t="s">
+        <v>416</v>
       </c>
       <c r="V41" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W41" t="s">
-        <v>406</v>
-      </c>
-      <c r="X41">
-        <v>40419357</v>
+        <v>464</v>
+      </c>
+      <c r="X41" t="s">
+        <v>416</v>
       </c>
       <c r="Y41" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>35591059</v>
+      <c r="B42" t="s">
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G42">
         <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="I42" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4705,69 +4906,69 @@
         <v>200</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q42" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R42" t="s">
-        <v>339</v>
-      </c>
-      <c r="S42">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S42" t="s">
+        <v>364</v>
       </c>
       <c r="T42" t="s">
-        <v>363</v>
-      </c>
-      <c r="U42">
-        <v>40422142</v>
+        <v>386</v>
+      </c>
+      <c r="U42" t="s">
+        <v>425</v>
       </c>
       <c r="V42" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W42" t="s">
-        <v>403</v>
-      </c>
-      <c r="X42">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X42" t="s">
+        <v>425</v>
       </c>
       <c r="Y42" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
-      <c r="B43">
-        <v>32112</v>
+      <c r="B43" t="s">
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G43">
         <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I43" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K43" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="L43">
         <v>5000</v>
@@ -4776,69 +4977,69 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P43" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q43" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R43" t="s">
-        <v>339</v>
-      </c>
-      <c r="S43">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S43" t="s">
+        <v>364</v>
       </c>
       <c r="T43" t="s">
-        <v>345</v>
-      </c>
-      <c r="U43">
-        <v>43678249</v>
+        <v>368</v>
+      </c>
+      <c r="U43" t="s">
+        <v>407</v>
       </c>
       <c r="V43" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="W43" t="s">
-        <v>403</v>
-      </c>
-      <c r="X43">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X43" t="s">
+        <v>425</v>
       </c>
       <c r="Y43" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44">
-        <v>32112</v>
+      <c r="B44" t="s">
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G44">
         <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L44">
         <v>200</v>
@@ -4847,69 +5048,69 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P44" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q44" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R44" t="s">
-        <v>339</v>
-      </c>
-      <c r="S44">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S44" t="s">
+        <v>364</v>
       </c>
       <c r="T44" t="s">
-        <v>364</v>
-      </c>
-      <c r="U44">
-        <v>43945782</v>
+        <v>387</v>
+      </c>
+      <c r="U44" t="s">
+        <v>426</v>
       </c>
       <c r="V44" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="W44" t="s">
-        <v>403</v>
-      </c>
-      <c r="X44">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X44" t="s">
+        <v>425</v>
       </c>
       <c r="Y44" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="B45">
-        <v>32112</v>
+      <c r="B45" t="s">
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G45">
         <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L45">
         <v>6110</v>
@@ -4918,69 +5119,69 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P45" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q45" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R45" t="s">
-        <v>339</v>
-      </c>
-      <c r="S45">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S45" t="s">
+        <v>364</v>
       </c>
       <c r="T45" t="s">
-        <v>365</v>
-      </c>
-      <c r="U45">
-        <v>43671044</v>
+        <v>388</v>
+      </c>
+      <c r="U45" t="s">
+        <v>427</v>
       </c>
       <c r="V45" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W45" t="s">
-        <v>403</v>
-      </c>
-      <c r="X45">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X45" t="s">
+        <v>425</v>
       </c>
       <c r="Y45" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B46">
-        <v>32112</v>
+      <c r="B46" t="s">
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G46">
         <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I46" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="K46" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -4989,69 +5190,69 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O46" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P46" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q46" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R46" t="s">
-        <v>339</v>
-      </c>
-      <c r="S46">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S46" t="s">
+        <v>364</v>
       </c>
       <c r="T46" t="s">
-        <v>366</v>
-      </c>
-      <c r="U46">
-        <v>43721791</v>
+        <v>389</v>
+      </c>
+      <c r="U46" t="s">
+        <v>428</v>
       </c>
       <c r="V46" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="W46" t="s">
-        <v>403</v>
-      </c>
-      <c r="X46">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X46" t="s">
+        <v>425</v>
       </c>
       <c r="Y46" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
-      <c r="B47">
-        <v>32112</v>
+      <c r="B47" t="s">
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G47">
         <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="K47" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L47">
         <v>4372</v>
@@ -5060,69 +5261,69 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O47" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P47" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q47" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R47" t="s">
-        <v>339</v>
-      </c>
-      <c r="S47">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S47" t="s">
+        <v>364</v>
       </c>
       <c r="T47" t="s">
-        <v>366</v>
-      </c>
-      <c r="U47">
-        <v>43721791</v>
+        <v>389</v>
+      </c>
+      <c r="U47" t="s">
+        <v>428</v>
       </c>
       <c r="V47" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="W47" t="s">
-        <v>403</v>
-      </c>
-      <c r="X47">
-        <v>40422142</v>
+        <v>461</v>
+      </c>
+      <c r="X47" t="s">
+        <v>425</v>
       </c>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48">
-        <v>14360570</v>
+      <c r="B48" t="s">
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G48">
         <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="I48" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L48">
         <v>34000</v>
@@ -5131,75 +5332,75 @@
         <v>34000</v>
       </c>
       <c r="N48" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O48" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P48" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q48" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R48" t="s">
-        <v>338</v>
-      </c>
-      <c r="S48">
-        <v>2022</v>
+        <v>358</v>
+      </c>
+      <c r="S48" t="s">
+        <v>363</v>
       </c>
       <c r="T48" t="s">
-        <v>367</v>
-      </c>
-      <c r="U48">
-        <v>38010759</v>
+        <v>390</v>
+      </c>
+      <c r="U48" t="s">
+        <v>429</v>
       </c>
       <c r="V48" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W48" t="s">
-        <v>409</v>
-      </c>
-      <c r="X48">
-        <v>38010759</v>
+        <v>467</v>
+      </c>
+      <c r="X48" t="s">
+        <v>429</v>
       </c>
       <c r="Y48" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B49">
-        <v>9325703</v>
+      <c r="B49" t="s">
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49">
-        <v>20806283</v>
+        <v>206</v>
+      </c>
+      <c r="F49" t="s">
+        <v>229</v>
       </c>
       <c r="G49">
         <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="I49" t="s">
-        <v>294</v>
-      </c>
-      <c r="J49">
-        <v>2980415485</v>
+        <v>310</v>
+      </c>
+      <c r="J49" t="s">
+        <v>329</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L49">
         <v>6500000</v>
@@ -5208,69 +5409,69 @@
         <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P49" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q49" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R49" t="s">
-        <v>339</v>
-      </c>
-      <c r="S49">
-        <v>2023</v>
+        <v>359</v>
+      </c>
+      <c r="S49" t="s">
+        <v>364</v>
       </c>
       <c r="T49" t="s">
-        <v>368</v>
-      </c>
-      <c r="U49">
-        <v>20806283</v>
+        <v>391</v>
+      </c>
+      <c r="U49" t="s">
+        <v>229</v>
       </c>
       <c r="V49" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W49" t="s">
-        <v>410</v>
-      </c>
-      <c r="X49">
-        <v>13209</v>
+        <v>468</v>
+      </c>
+      <c r="X49" t="s">
+        <v>481</v>
       </c>
       <c r="Y49" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B50">
-        <v>14360570</v>
+      <c r="B50" t="s">
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I50" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K50" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -5279,69 +5480,69 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O50" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P50" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q50" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R50" t="s">
-        <v>338</v>
-      </c>
-      <c r="S50">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S50" t="s">
+        <v>362</v>
       </c>
       <c r="T50" t="s">
-        <v>369</v>
-      </c>
-      <c r="U50">
-        <v>36658318</v>
+        <v>392</v>
+      </c>
+      <c r="U50" t="s">
+        <v>430</v>
       </c>
       <c r="V50" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W50" t="s">
-        <v>411</v>
-      </c>
-      <c r="X50">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X50" t="s">
+        <v>482</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51">
-        <v>14360570</v>
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G51">
         <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I51" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K51" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L51">
         <v>269900</v>
@@ -5350,75 +5551,75 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P51" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q51" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R51" t="s">
-        <v>338</v>
-      </c>
-      <c r="S51">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S51" t="s">
+        <v>362</v>
       </c>
       <c r="T51" t="s">
-        <v>369</v>
-      </c>
-      <c r="U51">
-        <v>36658318</v>
+        <v>392</v>
+      </c>
+      <c r="U51" t="s">
+        <v>430</v>
       </c>
       <c r="V51" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W51" t="s">
-        <v>411</v>
-      </c>
-      <c r="X51">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X51" t="s">
+        <v>482</v>
       </c>
       <c r="Y51" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B52">
-        <v>14360570</v>
+      <c r="B52" t="s">
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
-      </c>
-      <c r="F52">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="F52" t="s">
+        <v>230</v>
       </c>
       <c r="G52">
         <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I52" t="s">
-        <v>198</v>
-      </c>
-      <c r="J52">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="J52" t="s">
+        <v>230</v>
       </c>
       <c r="K52" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L52">
         <v>130100</v>
@@ -5427,75 +5628,75 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O52" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P52" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q52" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R52" t="s">
-        <v>338</v>
-      </c>
-      <c r="S52">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S52" t="s">
+        <v>362</v>
       </c>
       <c r="T52" t="s">
-        <v>369</v>
-      </c>
-      <c r="U52">
-        <v>36658318</v>
+        <v>392</v>
+      </c>
+      <c r="U52" t="s">
+        <v>430</v>
       </c>
       <c r="V52" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W52" t="s">
-        <v>411</v>
-      </c>
-      <c r="X52">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X52" t="s">
+        <v>482</v>
       </c>
       <c r="Y52" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B53">
-        <v>14360570</v>
+      <c r="B53" t="s">
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
-      </c>
-      <c r="F53">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="F53" t="s">
+        <v>230</v>
       </c>
       <c r="G53">
         <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I53" t="s">
-        <v>198</v>
-      </c>
-      <c r="J53">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="J53" t="s">
+        <v>230</v>
       </c>
       <c r="K53" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L53">
         <v>52300</v>
@@ -5504,75 +5705,75 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O53" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P53" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q53" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R53" t="s">
-        <v>338</v>
-      </c>
-      <c r="S53">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S53" t="s">
+        <v>362</v>
       </c>
       <c r="T53" t="s">
-        <v>369</v>
-      </c>
-      <c r="U53">
-        <v>36658318</v>
+        <v>392</v>
+      </c>
+      <c r="U53" t="s">
+        <v>430</v>
       </c>
       <c r="V53" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W53" t="s">
-        <v>411</v>
-      </c>
-      <c r="X53">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X53" t="s">
+        <v>482</v>
       </c>
       <c r="Y53" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
-      <c r="B54">
-        <v>14360570</v>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="F54" t="s">
+        <v>230</v>
       </c>
       <c r="G54">
         <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I54" t="s">
-        <v>198</v>
-      </c>
-      <c r="J54">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="J54" t="s">
+        <v>230</v>
       </c>
       <c r="K54" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L54">
         <v>127300</v>
@@ -5581,75 +5782,75 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O54" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P54" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q54" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R54" t="s">
-        <v>338</v>
-      </c>
-      <c r="S54">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S54" t="s">
+        <v>362</v>
       </c>
       <c r="T54" t="s">
-        <v>369</v>
-      </c>
-      <c r="U54">
-        <v>36658318</v>
+        <v>392</v>
+      </c>
+      <c r="U54" t="s">
+        <v>430</v>
       </c>
       <c r="V54" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W54" t="s">
-        <v>411</v>
-      </c>
-      <c r="X54">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X54" t="s">
+        <v>482</v>
       </c>
       <c r="Y54" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B55">
-        <v>14360570</v>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="F55" t="s">
+        <v>230</v>
       </c>
       <c r="G55">
         <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55">
-        <v>40235645</v>
+        <v>208</v>
+      </c>
+      <c r="J55" t="s">
+        <v>230</v>
       </c>
       <c r="K55" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L55">
         <v>10000</v>
@@ -5658,75 +5859,75 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P55" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q55" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R55" t="s">
-        <v>338</v>
-      </c>
-      <c r="S55">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S55" t="s">
+        <v>362</v>
       </c>
       <c r="T55" t="s">
-        <v>369</v>
-      </c>
-      <c r="U55">
-        <v>36658318</v>
+        <v>392</v>
+      </c>
+      <c r="U55" t="s">
+        <v>430</v>
       </c>
       <c r="V55" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W55" t="s">
-        <v>411</v>
-      </c>
-      <c r="X55">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>482</v>
       </c>
       <c r="Y55" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="B56">
-        <v>32112</v>
+      <c r="B56" t="s">
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56">
-        <v>14360570</v>
+        <v>209</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
       </c>
       <c r="G56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I56" t="s">
-        <v>296</v>
-      </c>
-      <c r="J56">
-        <v>14360570</v>
+        <v>312</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -5735,69 +5936,69 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O56" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P56" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q56" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R56" t="s">
-        <v>338</v>
-      </c>
-      <c r="S56">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S56" t="s">
+        <v>362</v>
       </c>
       <c r="T56" t="s">
-        <v>370</v>
-      </c>
-      <c r="U56">
-        <v>36681991</v>
+        <v>393</v>
+      </c>
+      <c r="U56" t="s">
+        <v>431</v>
       </c>
       <c r="V56" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W56" t="s">
-        <v>411</v>
-      </c>
-      <c r="X56">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X56" t="s">
+        <v>482</v>
       </c>
       <c r="Y56" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B57">
-        <v>32112</v>
+      <c r="B57" t="s">
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G57">
         <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I57" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L57">
         <v>20000</v>
@@ -5806,69 +6007,69 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O57" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P57" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q57" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R57" t="s">
-        <v>338</v>
-      </c>
-      <c r="S57">
-        <v>2021</v>
+        <v>358</v>
+      </c>
+      <c r="S57" t="s">
+        <v>362</v>
       </c>
       <c r="T57" t="s">
-        <v>370</v>
-      </c>
-      <c r="U57">
-        <v>36681991</v>
+        <v>393</v>
+      </c>
+      <c r="U57" t="s">
+        <v>431</v>
       </c>
       <c r="V57" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W57" t="s">
-        <v>411</v>
-      </c>
-      <c r="X57">
-        <v>36088708</v>
+        <v>469</v>
+      </c>
+      <c r="X57" t="s">
+        <v>482</v>
       </c>
       <c r="Y57" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
-      <c r="B58">
-        <v>9312190</v>
+      <c r="B58" t="s">
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G58">
         <v>3100</v>
       </c>
       <c r="H58" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I58" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="K58" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L58">
         <v>3100</v>
@@ -5877,69 +6078,69 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O58" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P58" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q58" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R58" t="s">
-        <v>339</v>
-      </c>
-      <c r="S58">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S58" t="s">
+        <v>363</v>
       </c>
       <c r="T58" t="s">
-        <v>371</v>
-      </c>
-      <c r="U58">
-        <v>43777954</v>
+        <v>394</v>
+      </c>
+      <c r="U58" t="s">
+        <v>432</v>
       </c>
       <c r="V58" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W58" t="s">
-        <v>412</v>
-      </c>
-      <c r="X58">
-        <v>39610682</v>
+        <v>470</v>
+      </c>
+      <c r="X58" t="s">
+        <v>483</v>
       </c>
       <c r="Y58" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
-      <c r="B59">
-        <v>9312190</v>
+      <c r="B59" t="s">
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G59">
         <v>12000</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I59" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="K59" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L59">
         <v>12000</v>
@@ -5948,75 +6149,75 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O59" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q59" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R59" t="s">
-        <v>339</v>
-      </c>
-      <c r="S59">
-        <v>2022</v>
+        <v>359</v>
+      </c>
+      <c r="S59" t="s">
+        <v>363</v>
       </c>
       <c r="T59" t="s">
-        <v>371</v>
-      </c>
-      <c r="U59">
-        <v>43777954</v>
+        <v>394</v>
+      </c>
+      <c r="U59" t="s">
+        <v>432</v>
       </c>
       <c r="V59" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="W59" t="s">
-        <v>412</v>
-      </c>
-      <c r="X59">
-        <v>39610682</v>
+        <v>470</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
       </c>
       <c r="Y59" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
-      <c r="B60">
-        <v>9322277</v>
+      <c r="B60" t="s">
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60">
-        <v>44351</v>
+        <v>212</v>
+      </c>
+      <c r="F60" t="s">
+        <v>231</v>
       </c>
       <c r="G60">
         <v>2500</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="I60" t="s">
-        <v>299</v>
-      </c>
-      <c r="J60">
-        <v>2908717238</v>
+        <v>315</v>
+      </c>
+      <c r="J60" t="s">
+        <v>330</v>
       </c>
       <c r="K60" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L60">
         <v>2500</v>
@@ -6025,75 +6226,75 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O60" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P60" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q60" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R60" t="s">
-        <v>339</v>
-      </c>
-      <c r="S60">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S60" t="s">
+        <v>362</v>
       </c>
       <c r="T60" t="s">
-        <v>202</v>
-      </c>
-      <c r="U60">
-        <v>44351</v>
+        <v>212</v>
+      </c>
+      <c r="U60" t="s">
+        <v>231</v>
       </c>
       <c r="V60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W60" t="s">
-        <v>202</v>
-      </c>
-      <c r="X60">
-        <v>44351</v>
+        <v>212</v>
+      </c>
+      <c r="X60" t="s">
+        <v>231</v>
       </c>
       <c r="Y60" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>44</v>
       </c>
-      <c r="B61">
-        <v>32112</v>
+      <c r="B61" t="s">
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
-      </c>
-      <c r="F61">
-        <v>33308363</v>
+        <v>213</v>
+      </c>
+      <c r="F61" t="s">
+        <v>232</v>
       </c>
       <c r="G61">
         <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="I61" t="s">
-        <v>300</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="J61" t="s">
+        <v>331</v>
       </c>
       <c r="K61" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="L61">
         <v>40</v>
@@ -6102,75 +6303,75 @@
         <v>40</v>
       </c>
       <c r="N61" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O61" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P61" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q61" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R61" t="s">
-        <v>339</v>
-      </c>
-      <c r="S61">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S61" t="s">
+        <v>362</v>
       </c>
       <c r="T61" t="s">
-        <v>372</v>
-      </c>
-      <c r="U61">
-        <v>33308363</v>
+        <v>395</v>
+      </c>
+      <c r="U61" t="s">
+        <v>232</v>
       </c>
       <c r="V61" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W61" t="s">
-        <v>413</v>
-      </c>
-      <c r="X61">
-        <v>33308363</v>
+        <v>471</v>
+      </c>
+      <c r="X61" t="s">
+        <v>232</v>
       </c>
       <c r="Y61" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>44</v>
       </c>
-      <c r="B62">
-        <v>32112</v>
+      <c r="B62" t="s">
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62">
-        <v>33308363</v>
+        <v>213</v>
+      </c>
+      <c r="F62" t="s">
+        <v>232</v>
       </c>
       <c r="G62">
         <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="I62" t="s">
-        <v>301</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="J62" t="s">
+        <v>331</v>
       </c>
       <c r="K62" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="L62">
         <v>100</v>
@@ -6179,75 +6380,75 @@
         <v>100</v>
       </c>
       <c r="N62" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O62" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P62" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q62" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R62" t="s">
-        <v>339</v>
-      </c>
-      <c r="S62">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S62" t="s">
+        <v>362</v>
       </c>
       <c r="T62" t="s">
-        <v>372</v>
-      </c>
-      <c r="U62">
-        <v>33308363</v>
+        <v>395</v>
+      </c>
+      <c r="U62" t="s">
+        <v>232</v>
       </c>
       <c r="V62" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W62" t="s">
-        <v>413</v>
-      </c>
-      <c r="X62">
-        <v>33308363</v>
+        <v>471</v>
+      </c>
+      <c r="X62" t="s">
+        <v>232</v>
       </c>
       <c r="Y62" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>44</v>
       </c>
-      <c r="B63">
-        <v>32112</v>
+      <c r="B63" t="s">
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63">
-        <v>33308363</v>
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>232</v>
       </c>
       <c r="G63">
         <v>100</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I63" t="s">
-        <v>301</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="J63" t="s">
+        <v>331</v>
       </c>
       <c r="K63" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="L63">
         <v>100</v>
@@ -6256,69 +6457,69 @@
         <v>100</v>
       </c>
       <c r="N63" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O63" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P63" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q63" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R63" t="s">
-        <v>339</v>
-      </c>
-      <c r="S63">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S63" t="s">
+        <v>362</v>
       </c>
       <c r="T63" t="s">
-        <v>372</v>
-      </c>
-      <c r="U63">
-        <v>33308363</v>
+        <v>395</v>
+      </c>
+      <c r="U63" t="s">
+        <v>232</v>
       </c>
       <c r="V63" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W63" t="s">
-        <v>413</v>
-      </c>
-      <c r="X63">
-        <v>33308363</v>
+        <v>471</v>
+      </c>
+      <c r="X63" t="s">
+        <v>232</v>
       </c>
       <c r="Y63" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
-      <c r="B64">
-        <v>14360570</v>
+      <c r="B64" t="s">
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G64">
         <v>386</v>
       </c>
       <c r="H64" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I64" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="K64" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L64">
         <v>386</v>
@@ -6327,75 +6528,75 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O64" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P64" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q64" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R64" t="s">
-        <v>339</v>
-      </c>
-      <c r="S64">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S64" t="s">
+        <v>362</v>
       </c>
       <c r="T64" t="s">
-        <v>373</v>
-      </c>
-      <c r="U64">
-        <v>40026836</v>
+        <v>396</v>
+      </c>
+      <c r="U64" t="s">
+        <v>433</v>
       </c>
       <c r="V64" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="W64" t="s">
-        <v>414</v>
-      </c>
-      <c r="X64">
-        <v>39481037</v>
+        <v>472</v>
+      </c>
+      <c r="X64" t="s">
+        <v>484</v>
       </c>
       <c r="Y64" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
-      <c r="B65">
-        <v>14360570</v>
+      <c r="B65" t="s">
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65">
-        <v>14360570</v>
+        <v>215</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
       </c>
       <c r="G65">
         <v>120</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
       </c>
-      <c r="J65">
-        <v>14360570</v>
+      <c r="J65" t="s">
+        <v>55</v>
       </c>
       <c r="K65" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L65">
         <v>120</v>
@@ -6404,69 +6605,69 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O65" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P65" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q65" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R65" t="s">
-        <v>339</v>
-      </c>
-      <c r="S65">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S65" t="s">
+        <v>362</v>
       </c>
       <c r="T65" t="s">
-        <v>373</v>
-      </c>
-      <c r="U65">
-        <v>40026836</v>
+        <v>396</v>
+      </c>
+      <c r="U65" t="s">
+        <v>433</v>
       </c>
       <c r="V65" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="W65" t="s">
-        <v>414</v>
-      </c>
-      <c r="X65">
-        <v>39481037</v>
+        <v>472</v>
+      </c>
+      <c r="X65" t="s">
+        <v>484</v>
       </c>
       <c r="Y65" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
-      <c r="B66">
-        <v>14360570</v>
+      <c r="B66" t="s">
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G66">
         <v>350</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="I66" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K66" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L66">
         <v>350</v>
@@ -6475,69 +6676,69 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O66" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P66" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q66" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R66" t="s">
-        <v>339</v>
-      </c>
-      <c r="S66">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S66" t="s">
+        <v>362</v>
       </c>
       <c r="T66" t="s">
-        <v>373</v>
-      </c>
-      <c r="U66">
-        <v>40026836</v>
+        <v>396</v>
+      </c>
+      <c r="U66" t="s">
+        <v>433</v>
       </c>
       <c r="V66" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="W66" t="s">
-        <v>414</v>
-      </c>
-      <c r="X66">
-        <v>39481037</v>
+        <v>472</v>
+      </c>
+      <c r="X66" t="s">
+        <v>484</v>
       </c>
       <c r="Y66" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
-      <c r="B67">
-        <v>9801546</v>
+      <c r="B67" t="s">
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G67">
         <v>500</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="I67" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="K67" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L67">
         <v>500</v>
@@ -6546,69 +6747,69 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O67" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P67" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q67" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R67" t="s">
-        <v>339</v>
-      </c>
-      <c r="S67">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S67" t="s">
+        <v>362</v>
       </c>
       <c r="T67" t="s">
-        <v>374</v>
-      </c>
-      <c r="U67">
-        <v>40014820</v>
+        <v>397</v>
+      </c>
+      <c r="U67" t="s">
+        <v>434</v>
       </c>
       <c r="V67" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W67" t="s">
-        <v>414</v>
-      </c>
-      <c r="X67">
-        <v>39481037</v>
+        <v>472</v>
+      </c>
+      <c r="X67" t="s">
+        <v>484</v>
       </c>
       <c r="Y67" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>48</v>
       </c>
-      <c r="B68">
-        <v>9801546</v>
+      <c r="B68" t="s">
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G68">
         <v>1200</v>
       </c>
       <c r="H68" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="I68" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="K68" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L68">
         <v>1200</v>
@@ -6617,69 +6818,69 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O68" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P68" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q68" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R68" t="s">
-        <v>339</v>
-      </c>
-      <c r="S68">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S68" t="s">
+        <v>362</v>
       </c>
       <c r="T68" t="s">
-        <v>374</v>
-      </c>
-      <c r="U68">
-        <v>40014820</v>
+        <v>397</v>
+      </c>
+      <c r="U68" t="s">
+        <v>434</v>
       </c>
       <c r="V68" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="W68" t="s">
-        <v>414</v>
-      </c>
-      <c r="X68">
-        <v>39481037</v>
+        <v>472</v>
+      </c>
+      <c r="X68" t="s">
+        <v>484</v>
       </c>
       <c r="Y68" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>49</v>
       </c>
-      <c r="B69">
-        <v>14282829</v>
+      <c r="B69" t="s">
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G69">
         <v>60000</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="I69" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="K69" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L69">
         <v>60000</v>
@@ -6688,75 +6889,75 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O69" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P69" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q69" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R69" t="s">
-        <v>339</v>
-      </c>
-      <c r="S69">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S69" t="s">
+        <v>362</v>
       </c>
       <c r="T69" t="s">
-        <v>375</v>
-      </c>
-      <c r="U69">
-        <v>40000865</v>
+        <v>398</v>
+      </c>
+      <c r="U69" t="s">
+        <v>435</v>
       </c>
       <c r="V69" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W69" t="s">
-        <v>415</v>
-      </c>
-      <c r="X69">
-        <v>40000865</v>
+        <v>473</v>
+      </c>
+      <c r="X69" t="s">
+        <v>435</v>
       </c>
       <c r="Y69" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
-      <c r="B70">
-        <v>14360570</v>
+      <c r="B70" t="s">
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70">
-        <v>2472453</v>
+        <v>220</v>
+      </c>
+      <c r="F70" t="s">
+        <v>233</v>
       </c>
       <c r="G70">
         <v>500</v>
       </c>
       <c r="H70" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I70" t="s">
-        <v>307</v>
-      </c>
-      <c r="J70">
-        <v>2472453</v>
+        <v>323</v>
+      </c>
+      <c r="J70" t="s">
+        <v>233</v>
       </c>
       <c r="K70" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L70">
         <v>500</v>
@@ -6765,69 +6966,69 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O70" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P70" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q70" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R70" t="s">
-        <v>341</v>
-      </c>
-      <c r="S70">
-        <v>2021</v>
+        <v>361</v>
+      </c>
+      <c r="S70" t="s">
+        <v>362</v>
       </c>
       <c r="T70" t="s">
-        <v>376</v>
-      </c>
-      <c r="U70">
-        <v>36894166</v>
+        <v>399</v>
+      </c>
+      <c r="U70" t="s">
+        <v>436</v>
       </c>
       <c r="V70" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W70" t="s">
-        <v>416</v>
-      </c>
-      <c r="X70">
-        <v>33547558</v>
+        <v>474</v>
+      </c>
+      <c r="X70" t="s">
+        <v>485</v>
       </c>
       <c r="Y70" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
-      <c r="B71">
-        <v>23697280</v>
+      <c r="B71" t="s">
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G71">
         <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="I71" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K71" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L71">
         <v>369500</v>
@@ -6836,69 +7037,69 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O71" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P71" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q71" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R71" t="s">
-        <v>339</v>
-      </c>
-      <c r="S71">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S71" t="s">
+        <v>362</v>
       </c>
       <c r="T71" t="s">
-        <v>377</v>
-      </c>
-      <c r="U71">
-        <v>39765623</v>
+        <v>400</v>
+      </c>
+      <c r="U71" t="s">
+        <v>437</v>
       </c>
       <c r="V71" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W71" t="s">
-        <v>417</v>
-      </c>
-      <c r="X71">
-        <v>39765623</v>
+        <v>475</v>
+      </c>
+      <c r="X71" t="s">
+        <v>437</v>
       </c>
       <c r="Y71" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
-      <c r="B72">
-        <v>23697280</v>
+      <c r="B72" t="s">
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G72">
         <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="I72" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K72" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L72">
         <v>387000</v>
@@ -6907,69 +7108,69 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O72" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P72" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q72" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R72" t="s">
-        <v>339</v>
-      </c>
-      <c r="S72">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S72" t="s">
+        <v>362</v>
       </c>
       <c r="T72" t="s">
-        <v>377</v>
-      </c>
-      <c r="U72">
-        <v>39765623</v>
+        <v>400</v>
+      </c>
+      <c r="U72" t="s">
+        <v>437</v>
       </c>
       <c r="V72" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W72" t="s">
-        <v>417</v>
-      </c>
-      <c r="X72">
-        <v>39765623</v>
+        <v>475</v>
+      </c>
+      <c r="X72" t="s">
+        <v>437</v>
       </c>
       <c r="Y72" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
-      <c r="B73">
-        <v>14360570</v>
+      <c r="B73" t="s">
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G73">
         <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="I73" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="K73" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L73">
         <v>16000</v>
@@ -6978,75 +7179,75 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O73" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q73" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R73" t="s">
-        <v>340</v>
-      </c>
-      <c r="S73">
-        <v>2021</v>
+        <v>360</v>
+      </c>
+      <c r="S73" t="s">
+        <v>362</v>
       </c>
       <c r="T73" t="s">
-        <v>378</v>
-      </c>
-      <c r="U73">
-        <v>43626410</v>
+        <v>401</v>
+      </c>
+      <c r="U73" t="s">
+        <v>438</v>
       </c>
       <c r="V73" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="W73" t="s">
-        <v>418</v>
-      </c>
-      <c r="X73">
-        <v>39550414</v>
+        <v>476</v>
+      </c>
+      <c r="X73" t="s">
+        <v>486</v>
       </c>
       <c r="Y73" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>53</v>
       </c>
-      <c r="B74">
-        <v>9804119</v>
+      <c r="B74" t="s">
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74">
-        <v>14360570</v>
+        <v>223</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
       </c>
       <c r="G74">
         <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="I74" t="s">
-        <v>310</v>
-      </c>
-      <c r="J74">
-        <v>39298466</v>
+        <v>326</v>
+      </c>
+      <c r="J74" t="s">
+        <v>332</v>
       </c>
       <c r="K74" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L74">
         <v>5400</v>
@@ -7055,69 +7256,69 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="O74" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P74" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q74" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R74" t="s">
-        <v>339</v>
-      </c>
-      <c r="S74">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S74" t="s">
+        <v>362</v>
       </c>
       <c r="T74" t="s">
-        <v>379</v>
-      </c>
-      <c r="U74">
-        <v>40006563</v>
+        <v>402</v>
+      </c>
+      <c r="U74" t="s">
+        <v>439</v>
       </c>
       <c r="V74" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W74" t="s">
-        <v>419</v>
-      </c>
-      <c r="X74">
-        <v>37724082</v>
+        <v>477</v>
+      </c>
+      <c r="X74" t="s">
+        <v>487</v>
       </c>
       <c r="Y74" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>54</v>
       </c>
-      <c r="B75">
-        <v>14360570</v>
+      <c r="B75" t="s">
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G75">
         <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I75" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L75">
         <v>6100</v>
@@ -7126,40 +7327,40 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O75" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P75" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q75" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R75" t="s">
-        <v>339</v>
-      </c>
-      <c r="S75">
-        <v>2021</v>
+        <v>359</v>
+      </c>
+      <c r="S75" t="s">
+        <v>362</v>
       </c>
       <c r="T75" t="s">
-        <v>380</v>
-      </c>
-      <c r="U75">
-        <v>37263887</v>
+        <v>403</v>
+      </c>
+      <c r="U75" t="s">
+        <v>440</v>
       </c>
       <c r="V75" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="W75" t="s">
-        <v>420</v>
-      </c>
-      <c r="X75">
-        <v>33492420</v>
+        <v>478</v>
+      </c>
+      <c r="X75" t="s">
+        <v>488</v>
       </c>
       <c r="Y75" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -7167,28 +7368,28 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G76">
         <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K76" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7197,40 +7398,40 @@
         <v>2800</v>
       </c>
       <c r="N76" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q76" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R76" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="S76" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="T76" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="U76" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="V76" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W76" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="X76" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="Y76" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -7238,28 +7439,28 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G77">
         <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="I77" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K77" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7268,40 +7469,40 @@
         <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O77" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P77" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="Q77" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R77" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="S77" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="T77" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="U77" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="V77" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="W77" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="X77" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="Y77" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -7309,28 +7510,28 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="I78" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="K78" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="L78">
         <v>8</v>
@@ -7339,40 +7540,40 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O78" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P78" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q78" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R78" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="S78" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="T78" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="U78" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="V78" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="W78" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="X78" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Y78" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7380,28 +7581,28 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G79">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="I79" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="K79" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="L79">
         <v>8</v>
@@ -7410,40 +7611,40 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O79" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P79" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="Q79" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="R79" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="S79" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="T79" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="U79" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="V79" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="W79" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="X79" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Y79" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -152,24 +152,24 @@
     <t>АТ "Укрексімбанк"</t>
   </si>
   <si>
+    <t>Івано-Франківська Філія АТ КБ "Приватбанк"</t>
+  </si>
+  <si>
+    <t>АТ АКБ "Львів"</t>
+  </si>
+  <si>
     <t>Фiлiя - Закарпатське обласне управлiння публічного акцiонерного товариства "Державний ощадний банк України"</t>
   </si>
   <si>
     <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
   </si>
   <si>
-    <t>Івано-Франківська Філія АТ КБ "Приватбанк"</t>
-  </si>
-  <si>
-    <t>АТ АКБ "Львів"</t>
+    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
   </si>
   <si>
     <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
   </si>
   <si>
-    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
-  </si>
-  <si>
     <t>ПАТ АБ УКРГАЗБАНК</t>
   </si>
   <si>
@@ -209,15 +209,15 @@
     <t>09325703</t>
   </si>
   <si>
+    <t>09801546</t>
+  </si>
+  <si>
     <t>09312190</t>
   </si>
   <si>
     <t>09322277</t>
   </si>
   <si>
-    <t>09801546</t>
-  </si>
-  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -305,6 +305,12 @@
     <t>UA933223130000026005000045227</t>
   </si>
   <si>
+    <t>UA853366770000026005052517967</t>
+  </si>
+  <si>
+    <t>UA113252680000000002600477437</t>
+  </si>
+  <si>
     <t>UA613123560000026002300713705</t>
   </si>
   <si>
@@ -314,18 +320,12 @@
     <t>UA473223130000026003000042534</t>
   </si>
   <si>
-    <t>UA853366770000026005052517967</t>
-  </si>
-  <si>
-    <t>UA113252680000000002600477437</t>
+    <t>UA463052990000026003016807628</t>
   </si>
   <si>
     <t>UA503348510000000026008137708</t>
   </si>
   <si>
-    <t>UA463052990000026003016807628</t>
-  </si>
-  <si>
     <t>UA503204780000026003924882927</t>
   </si>
   <si>
@@ -473,6 +473,18 @@
     <t>11.03.2021</t>
   </si>
   <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>02.04.2021</t>
+  </si>
+  <si>
     <t>18.02.2022</t>
   </si>
   <si>
@@ -485,24 +497,12 @@
     <t>25.08.2021</t>
   </si>
   <si>
-    <t>29.04.2021</t>
-  </si>
-  <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
-    <t>19.07.2021</t>
-  </si>
-  <si>
-    <t>02.04.2021</t>
+    <t>02.09.2021</t>
   </si>
   <si>
     <t>19.02.2021</t>
   </si>
   <si>
-    <t>02.09.2021</t>
-  </si>
-  <si>
     <t>14.09.2020</t>
   </si>
   <si>
@@ -650,6 +650,21 @@
     <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
   </si>
   <si>
+    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+  </si>
+  <si>
     <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
   </si>
   <si>
@@ -659,27 +674,12 @@
     <t>ПП "СИЛА І ЧЕСТЬ"</t>
   </si>
   <si>
-    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
-    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
-  </si>
-  <si>
-    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
   </si>
   <si>
     <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
   </si>
   <si>
-    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
     <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
   </si>
   <si>
@@ -812,6 +812,15 @@
     <t>12.03.2021</t>
   </si>
   <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>19.04.2021</t>
+  </si>
+  <si>
     <t>29.10.2021</t>
   </si>
   <si>
@@ -824,15 +833,6 @@
     <t>31.08.2021</t>
   </si>
   <si>
-    <t>06.07.2021</t>
-  </si>
-  <si>
-    <t>28.07.2021</t>
-  </si>
-  <si>
-    <t>19.04.2021</t>
-  </si>
-  <si>
     <t>03.03.2021</t>
   </si>
   <si>
@@ -959,6 +959,18 @@
     <t>ФОП Сароян Азат Абрамович</t>
   </si>
   <si>
+    <t>Барнецький Назар Михайлович</t>
+  </si>
+  <si>
+    <t>Соловій Віра Зіновіївна</t>
+  </si>
+  <si>
+    <t>Заболітна Олена Юріївна</t>
+  </si>
+  <si>
+    <t>Одноріг Валентина Мар'янівна</t>
+  </si>
+  <si>
     <t>Головко Наталія Романівна</t>
   </si>
   <si>
@@ -971,22 +983,10 @@
     <t>Філонський Валерій Вікторович</t>
   </si>
   <si>
-    <t>Барнецький Назар Михайлович</t>
-  </si>
-  <si>
-    <t>Соловій Віра Зіновіївна</t>
-  </si>
-  <si>
-    <t>Заболітна Олена Юріївна</t>
-  </si>
-  <si>
-    <t>Одноріг Валентина Мар'янівна</t>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
   </si>
   <si>
     <t>Литовченко Олексій Сергійович</t>
-  </si>
-  <si>
-    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
   </si>
   <si>
     <t>Гриць Віталій Юрійович</t>
@@ -1203,24 +1203,24 @@
     <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
     <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
   </si>
   <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
   </si>
   <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
   </si>
   <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
-  </si>
-  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
   </si>
   <si>
@@ -1317,21 +1317,21 @@
     <t>36681991</t>
   </si>
   <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
     <t>43777954</t>
   </si>
   <si>
-    <t>40026836</t>
-  </si>
-  <si>
-    <t>40014820</t>
+    <t>36894166</t>
   </si>
   <si>
     <t>40000865</t>
   </si>
   <si>
-    <t>36894166</t>
-  </si>
-  <si>
     <t>39765623</t>
   </si>
   <si>
@@ -1431,21 +1431,21 @@
     <t>ЗА МАЙБУТНЄ</t>
   </si>
   <si>
+    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
+  </si>
+  <si>
     <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
   </si>
   <si>
     <t>СИЛА І ЧЕСТЬ</t>
   </si>
   <si>
-    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
+    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
   </si>
   <si>
     <t>МАЙБУТНЄ КРАЇНИ</t>
   </si>
   <si>
-    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
-  </si>
-  <si>
     <t>РІДНИЙ ДІМ</t>
   </si>
   <si>
@@ -1470,12 +1470,12 @@
     <t>36088708</t>
   </si>
   <si>
+    <t>39481037</t>
+  </si>
+  <si>
     <t>39610682</t>
   </si>
   <si>
-    <t>39481037</t>
-  </si>
-  <si>
     <t>33547558</t>
   </si>
   <si>
@@ -1545,6 +1545,9 @@
     <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
   </si>
   <si>
+    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
     <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
   </si>
   <si>
@@ -1554,13 +1557,10 @@
     <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
   </si>
   <si>
-    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
   </si>
   <si>
     <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
   </si>
   <si>
     <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
@@ -2826,7 +2826,7 @@
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
         <v>178</v>
@@ -6048,7 +6048,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>96</v>
@@ -6060,7 +6060,7 @@
         <v>211</v>
       </c>
       <c r="G58">
-        <v>3100</v>
+        <v>386</v>
       </c>
       <c r="H58" t="s">
         <v>152</v>
@@ -6069,10 +6069,10 @@
         <v>314</v>
       </c>
       <c r="K58" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L58">
-        <v>3100</v>
+        <v>386</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>359</v>
       </c>
       <c r="S58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T58" t="s">
         <v>394</v>
@@ -6102,7 +6102,7 @@
         <v>432</v>
       </c>
       <c r="V58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W58" t="s">
         <v>470</v>
@@ -6119,40 +6119,46 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
       </c>
       <c r="G59">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="I59" t="s">
-        <v>314</v>
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
       </c>
       <c r="K59" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L59">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P59" t="s">
         <v>355</v>
@@ -6164,7 +6170,7 @@
         <v>359</v>
       </c>
       <c r="S59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T59" t="s">
         <v>394</v>
@@ -6173,7 +6179,7 @@
         <v>432</v>
       </c>
       <c r="V59" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W59" t="s">
         <v>470</v>
@@ -6187,52 +6193,46 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G60">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I60" t="s">
         <v>315</v>
       </c>
-      <c r="J60" t="s">
-        <v>330</v>
-      </c>
       <c r="K60" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L60">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O60" t="s">
         <v>353</v>
       </c>
       <c r="P60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q60" t="s">
         <v>357</v>
@@ -6244,72 +6244,66 @@
         <v>362</v>
       </c>
       <c r="T60" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="U60" t="s">
-        <v>231</v>
+        <v>432</v>
       </c>
       <c r="V60" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="W60" t="s">
-        <v>212</v>
+        <v>470</v>
       </c>
       <c r="X60" t="s">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G61">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I61" t="s">
         <v>316</v>
       </c>
-      <c r="J61" t="s">
-        <v>331</v>
-      </c>
       <c r="K61" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O61" t="s">
         <v>353</v>
       </c>
       <c r="P61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q61" t="s">
         <v>357</v>
@@ -6324,42 +6318,39 @@
         <v>395</v>
       </c>
       <c r="U61" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
       <c r="V61" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="W61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X61" t="s">
-        <v>232</v>
+        <v>483</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H62" t="s">
         <v>267</v>
@@ -6367,26 +6358,23 @@
       <c r="I62" t="s">
         <v>317</v>
       </c>
-      <c r="J62" t="s">
-        <v>331</v>
-      </c>
       <c r="K62" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="M62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O62" t="s">
         <v>353</v>
       </c>
       <c r="P62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q62" t="s">
         <v>357</v>
@@ -6401,69 +6389,63 @@
         <v>395</v>
       </c>
       <c r="U62" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
       <c r="V62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="W62" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X62" t="s">
-        <v>232</v>
+        <v>483</v>
       </c>
       <c r="Y62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
         <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
-      </c>
-      <c r="F63" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>317</v>
-      </c>
-      <c r="J63" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="K63" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="L63">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="M63">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O63" t="s">
         <v>353</v>
       </c>
       <c r="P63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q63" t="s">
         <v>357</v>
@@ -6472,25 +6454,25 @@
         <v>359</v>
       </c>
       <c r="S63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U63" t="s">
-        <v>232</v>
+        <v>434</v>
       </c>
       <c r="V63" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W63" t="s">
         <v>471</v>
       </c>
       <c r="X63" t="s">
-        <v>232</v>
+        <v>484</v>
       </c>
       <c r="Y63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6498,19 +6480,19 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
         <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G64">
-        <v>386</v>
+        <v>12000</v>
       </c>
       <c r="H64" t="s">
         <v>156</v>
@@ -6519,10 +6501,10 @@
         <v>318</v>
       </c>
       <c r="K64" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L64">
-        <v>386</v>
+        <v>12000</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6543,33 +6525,33 @@
         <v>359</v>
       </c>
       <c r="S64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T64" t="s">
         <v>396</v>
       </c>
       <c r="U64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X64" t="s">
         <v>484</v>
       </c>
       <c r="Y64" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>99</v>
@@ -6578,28 +6560,28 @@
         <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="G65">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="K65" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L65">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -6608,10 +6590,10 @@
         <v>354</v>
       </c>
       <c r="O65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P65" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q65" t="s">
         <v>357</v>
@@ -6623,66 +6605,72 @@
         <v>362</v>
       </c>
       <c r="T65" t="s">
-        <v>396</v>
+        <v>217</v>
       </c>
       <c r="U65" t="s">
-        <v>433</v>
+        <v>231</v>
       </c>
       <c r="V65" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="W65" t="s">
-        <v>472</v>
+        <v>217</v>
       </c>
       <c r="X65" t="s">
-        <v>484</v>
+        <v>231</v>
       </c>
       <c r="Y65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="F66" t="s">
+        <v>232</v>
       </c>
       <c r="G66">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I66" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="J66" t="s">
+        <v>331</v>
       </c>
       <c r="K66" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L66">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O66" t="s">
         <v>353</v>
       </c>
       <c r="P66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q66" t="s">
         <v>357</v>
@@ -6694,19 +6682,19 @@
         <v>362</v>
       </c>
       <c r="T66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U66" t="s">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="V66" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="W66" t="s">
         <v>472</v>
       </c>
       <c r="X66" t="s">
-        <v>484</v>
+        <v>232</v>
       </c>
       <c r="Y66" t="s">
         <v>511</v>
@@ -6714,46 +6702,52 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="F67" t="s">
+        <v>232</v>
       </c>
       <c r="G67">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I67" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="J67" t="s">
+        <v>331</v>
       </c>
       <c r="K67" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L67">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O67" t="s">
         <v>353</v>
       </c>
       <c r="P67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q67" t="s">
         <v>357</v>
@@ -6768,16 +6762,16 @@
         <v>397</v>
       </c>
       <c r="U67" t="s">
-        <v>434</v>
+        <v>232</v>
       </c>
       <c r="V67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="W67" t="s">
         <v>472</v>
       </c>
       <c r="X67" t="s">
-        <v>484</v>
+        <v>232</v>
       </c>
       <c r="Y67" t="s">
         <v>511</v>
@@ -6785,10 +6779,10 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
@@ -6799,8 +6793,11 @@
       <c r="E68" t="s">
         <v>218</v>
       </c>
+      <c r="F68" t="s">
+        <v>232</v>
+      </c>
       <c r="G68">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
         <v>271</v>
@@ -6808,23 +6805,26 @@
       <c r="I68" t="s">
         <v>321</v>
       </c>
+      <c r="J68" t="s">
+        <v>331</v>
+      </c>
       <c r="K68" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L68">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O68" t="s">
         <v>353</v>
       </c>
       <c r="P68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q68" t="s">
         <v>357</v>
@@ -6839,16 +6839,16 @@
         <v>397</v>
       </c>
       <c r="U68" t="s">
-        <v>434</v>
+        <v>232</v>
       </c>
       <c r="V68" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="W68" t="s">
         <v>472</v>
       </c>
       <c r="X68" t="s">
-        <v>484</v>
+        <v>232</v>
       </c>
       <c r="Y68" t="s">
         <v>511</v>
@@ -6859,7 +6859,7 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>101</v>
@@ -6870,38 +6870,44 @@
       <c r="E69" t="s">
         <v>219</v>
       </c>
+      <c r="F69" t="s">
+        <v>233</v>
+      </c>
       <c r="G69">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="I69" t="s">
         <v>322</v>
       </c>
+      <c r="J69" t="s">
+        <v>233</v>
+      </c>
       <c r="K69" t="s">
         <v>333</v>
       </c>
       <c r="L69">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q69" t="s">
         <v>357</v>
       </c>
       <c r="R69" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S69" t="s">
         <v>362</v>
@@ -6913,13 +6919,13 @@
         <v>435</v>
       </c>
       <c r="V69" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="W69" t="s">
         <v>473</v>
       </c>
       <c r="X69" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="Y69" t="s">
         <v>512</v>
@@ -6930,7 +6936,7 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
         <v>102</v>
@@ -6941,44 +6947,38 @@
       <c r="E70" t="s">
         <v>220</v>
       </c>
-      <c r="F70" t="s">
-        <v>233</v>
-      </c>
       <c r="G70">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="I70" t="s">
         <v>323</v>
       </c>
-      <c r="J70" t="s">
-        <v>233</v>
-      </c>
       <c r="K70" t="s">
         <v>333</v>
       </c>
       <c r="L70">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P70" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q70" t="s">
         <v>357</v>
       </c>
       <c r="R70" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="S70" t="s">
         <v>362</v>
@@ -6990,13 +6990,13 @@
         <v>436</v>
       </c>
       <c r="V70" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="W70" t="s">
         <v>474</v>
       </c>
       <c r="X70" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="Y70" t="s">
         <v>513</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="524">
   <si>
     <t>bank_name</t>
   </si>
@@ -524,6 +524,9 @@
     <t>30.01.2023</t>
   </si>
   <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -701,6 +704,9 @@
     <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
   </si>
   <si>
+    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+  </si>
+  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -857,10 +863,10 @@
     <t>07.03.2024</t>
   </si>
   <si>
-    <t>15.03.2024</t>
-  </si>
-  <si>
     <t>28.03.2024</t>
+  </si>
+  <si>
+    <t>12.04.2024</t>
   </si>
   <si>
     <t>Твардий Юрій Михайлович</t>
@@ -1080,6 +1086,9 @@
     <t>повернення коштів у зв'язку з неможливістю ідентифікувати платника</t>
   </si>
   <si>
+    <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
+  </si>
+  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -1212,7 +1221,7 @@
     <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
+    <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
   </si>
   <si>
     <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
@@ -1437,7 +1446,7 @@
     <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
   </si>
   <si>
-    <t>СИЛА І ЧЕСТЬ</t>
+    <t>КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ</t>
   </si>
   <si>
     <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
@@ -1579,6 +1588,9 @@
   </si>
   <si>
     <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2033,19 +2045,19 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -2054,40 +2066,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="U2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="V2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="W2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="X2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Y2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2104,7 +2116,7 @@
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G3">
         <v>3000</v>
@@ -2113,10 +2125,10 @@
         <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -2125,40 +2137,40 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="V3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="W3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2175,19 +2187,19 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -2196,40 +2208,40 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="U4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="W4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2246,19 +2258,19 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2267,40 +2279,40 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="U5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="V5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="W5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2317,19 +2329,19 @@
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -2338,40 +2350,40 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="V6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="W6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2388,19 +2400,19 @@
         <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -2409,40 +2421,40 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="V7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="W7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2459,19 +2471,19 @@
         <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8">
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L8">
         <v>60376.24</v>
@@ -2480,40 +2492,40 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="U8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="V8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2530,19 +2542,19 @@
         <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9">
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L9">
         <v>17524.75</v>
@@ -2551,40 +2563,40 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="U9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="V9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2601,19 +2613,19 @@
         <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -2622,40 +2634,40 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="V10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="W10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2672,7 +2684,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G11">
         <v>350</v>
@@ -2681,10 +2693,10 @@
         <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L11">
         <v>7.17</v>
@@ -2693,40 +2705,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P11" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="U11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="V11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="W11" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="X11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Y11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2743,25 +2755,25 @@
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G12">
         <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L12">
         <v>100000</v>
@@ -2770,40 +2782,40 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P12" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="U12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="V12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="W12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="X12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y12" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2820,7 +2832,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G13">
         <v>1600</v>
@@ -2829,10 +2841,10 @@
         <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K13" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L13">
         <v>1600</v>
@@ -2841,40 +2853,40 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="V13" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W13" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="X13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y13" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2891,19 +2903,19 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G14">
         <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K14" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L14">
         <v>5020</v>
@@ -2912,40 +2924,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P14" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T14" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="U14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="V14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="W14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="X14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y14" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2962,7 +2974,7 @@
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G15">
         <v>150000</v>
@@ -2971,10 +2983,10 @@
         <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L15">
         <v>150000</v>
@@ -2983,40 +2995,40 @@
         <v>150000</v>
       </c>
       <c r="N15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q15" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S15" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T15" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y15" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3033,7 +3045,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G16">
         <v>100000</v>
@@ -3042,10 +3054,10 @@
         <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -3054,40 +3066,40 @@
         <v>100000</v>
       </c>
       <c r="N16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P16" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q16" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T16" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U16" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V16" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W16" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X16" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y16" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3104,7 +3116,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G17">
         <v>150000</v>
@@ -3113,10 +3125,10 @@
         <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L17">
         <v>150000</v>
@@ -3125,40 +3137,40 @@
         <v>150000</v>
       </c>
       <c r="N17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P17" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T17" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U17" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V17" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W17" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X17" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3175,19 +3187,19 @@
         <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G18">
         <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K18" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L18">
         <v>160000</v>
@@ -3196,40 +3208,40 @@
         <v>160000</v>
       </c>
       <c r="N18" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O18" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q18" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R18" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T18" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U18" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V18" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W18" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X18" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y18" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3246,19 +3258,19 @@
         <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G19">
         <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L19">
         <v>950000</v>
@@ -3267,40 +3279,40 @@
         <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P19" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R19" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S19" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U19" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W19" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X19" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y19" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -3317,19 +3329,19 @@
         <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G20">
         <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L20">
         <v>950000</v>
@@ -3338,40 +3350,40 @@
         <v>950000</v>
       </c>
       <c r="N20" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O20" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P20" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V20" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y20" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3388,19 +3400,19 @@
         <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G21">
         <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L21">
         <v>97396.8</v>
@@ -3409,40 +3421,40 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q21" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U21" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="V21" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W21" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="X21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -3459,7 +3471,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>
@@ -3477,7 +3489,7 @@
         <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -3486,40 +3498,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O22" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P22" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q22" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R22" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T22" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="U22" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="V22" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="W22" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="X22" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Y22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -3536,19 +3548,19 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G23">
         <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L23">
         <v>5600</v>
@@ -3557,40 +3569,40 @@
         <v>5600</v>
       </c>
       <c r="N23" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O23" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P23" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q23" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R23" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S23" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T23" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="U23" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="V23" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W23" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="X23" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Y23" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -3607,19 +3619,19 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -3628,40 +3640,40 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O24" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P24" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q24" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R24" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S24" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T24" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="U24" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="V24" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="X24" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Y24" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3678,19 +3690,19 @@
         <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G25">
         <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K25" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L25">
         <v>10500</v>
@@ -3699,40 +3711,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O25" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P25" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q25" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R25" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S25" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T25" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U25" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="V25" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W25" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3749,19 +3761,19 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3770,40 +3782,40 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O26" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P26" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q26" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R26" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S26" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T26" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="U26" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="V26" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W26" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X26" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y26" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3820,19 +3832,19 @@
         <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G27">
         <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K27" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3841,40 +3853,40 @@
         <v>1500</v>
       </c>
       <c r="N27" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O27" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P27" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q27" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R27" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S27" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T27" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="U27" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="V27" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W27" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X27" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y27" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3891,19 +3903,19 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3912,40 +3924,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O28" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P28" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q28" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R28" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S28" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T28" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="U28" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="V28" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W28" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X28" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y28" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3962,19 +3974,19 @@
         <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G29">
         <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L29">
         <v>400</v>
@@ -3983,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q29" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R29" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T29" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="U29" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="V29" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W29" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X29" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y29" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4033,19 +4045,19 @@
         <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -4054,40 +4066,40 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q30" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R30" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S30" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="U30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="V30" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W30" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y30" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4104,7 +4116,7 @@
         <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G31">
         <v>200</v>
@@ -4113,10 +4125,10 @@
         <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -4125,40 +4137,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S31" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T31" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="U31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="V31" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="W31" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X31" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y31" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4175,19 +4187,19 @@
         <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L32">
         <v>300</v>
@@ -4196,40 +4208,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O32" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P32" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q32" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T32" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U32" t="s">
+        <v>425</v>
+      </c>
+      <c r="V32" t="s">
+        <v>455</v>
+      </c>
+      <c r="W32" t="s">
+        <v>469</v>
+      </c>
+      <c r="X32" t="s">
         <v>422</v>
       </c>
-      <c r="V32" t="s">
-        <v>452</v>
-      </c>
-      <c r="W32" t="s">
-        <v>466</v>
-      </c>
-      <c r="X32" t="s">
-        <v>419</v>
-      </c>
       <c r="Y32" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -4246,19 +4258,19 @@
         <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G33">
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L33">
         <v>600</v>
@@ -4267,40 +4279,40 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O33" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P33" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q33" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R33" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S33" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T33" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U33" t="s">
+        <v>425</v>
+      </c>
+      <c r="V33" t="s">
+        <v>455</v>
+      </c>
+      <c r="W33" t="s">
+        <v>469</v>
+      </c>
+      <c r="X33" t="s">
         <v>422</v>
       </c>
-      <c r="V33" t="s">
-        <v>452</v>
-      </c>
-      <c r="W33" t="s">
-        <v>466</v>
-      </c>
-      <c r="X33" t="s">
-        <v>419</v>
-      </c>
       <c r="Y33" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -4317,19 +4329,19 @@
         <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -4338,40 +4350,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q34" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R34" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S34" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T34" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U34" t="s">
+        <v>425</v>
+      </c>
+      <c r="V34" t="s">
+        <v>455</v>
+      </c>
+      <c r="W34" t="s">
+        <v>469</v>
+      </c>
+      <c r="X34" t="s">
         <v>422</v>
       </c>
-      <c r="V34" t="s">
-        <v>452</v>
-      </c>
-      <c r="W34" t="s">
-        <v>466</v>
-      </c>
-      <c r="X34" t="s">
-        <v>419</v>
-      </c>
       <c r="Y34" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -4388,19 +4400,19 @@
         <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4409,40 +4421,40 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P35" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q35" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R35" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S35" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T35" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V35" t="s">
+        <v>455</v>
+      </c>
+      <c r="W35" t="s">
+        <v>469</v>
+      </c>
+      <c r="X35" t="s">
         <v>422</v>
       </c>
-      <c r="V35" t="s">
-        <v>452</v>
-      </c>
-      <c r="W35" t="s">
-        <v>466</v>
-      </c>
-      <c r="X35" t="s">
-        <v>419</v>
-      </c>
       <c r="Y35" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -4459,19 +4471,19 @@
         <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G36">
         <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L36">
         <v>700</v>
@@ -4480,40 +4492,40 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P36" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q36" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S36" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T36" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U36" t="s">
+        <v>425</v>
+      </c>
+      <c r="V36" t="s">
+        <v>455</v>
+      </c>
+      <c r="W36" t="s">
+        <v>469</v>
+      </c>
+      <c r="X36" t="s">
         <v>422</v>
       </c>
-      <c r="V36" t="s">
-        <v>452</v>
-      </c>
-      <c r="W36" t="s">
-        <v>466</v>
-      </c>
-      <c r="X36" t="s">
-        <v>419</v>
-      </c>
       <c r="Y36" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -4530,19 +4542,19 @@
         <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G37">
         <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L37">
         <v>300</v>
@@ -4551,40 +4563,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O37" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P37" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q37" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R37" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S37" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T37" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="U37" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="V37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="W37" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X37" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y37" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4601,19 +4613,19 @@
         <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G38">
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L38">
         <v>800</v>
@@ -4622,40 +4634,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O38" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P38" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q38" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R38" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S38" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T38" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="U38" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="V38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="W38" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X38" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y38" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4672,19 +4684,19 @@
         <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G39">
         <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39">
         <v>600</v>
@@ -4693,40 +4705,40 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P39" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q39" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R39" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S39" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T39" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="U39" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="V39" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="W39" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X39" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y39" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4743,19 +4755,19 @@
         <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L40">
         <v>290800</v>
@@ -4764,40 +4776,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P40" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q40" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R40" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S40" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T40" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U40" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V40" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W40" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X40" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y40" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4814,19 +4826,19 @@
         <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41">
         <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K41" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L41">
         <v>560000</v>
@@ -4835,40 +4847,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O41" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P41" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q41" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R41" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S41" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T41" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U41" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V41" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W41" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X41" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Y41" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4885,19 +4897,19 @@
         <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G42">
         <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4906,40 +4918,40 @@
         <v>200</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P42" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q42" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R42" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S42" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T42" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="U42" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="V42" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W42" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X42" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y42" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4956,7 +4968,7 @@
         <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G43">
         <v>5000</v>
@@ -4965,10 +4977,10 @@
         <v>143</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L43">
         <v>5000</v>
@@ -4977,40 +4989,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P43" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q43" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R43" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S43" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T43" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="U43" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="V43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="W43" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X43" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5027,19 +5039,19 @@
         <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G44">
         <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L44">
         <v>200</v>
@@ -5048,40 +5060,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O44" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P44" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q44" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R44" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S44" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T44" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U44" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="V44" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="W44" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X44" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y44" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5098,19 +5110,19 @@
         <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G45">
         <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K45" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L45">
         <v>6110</v>
@@ -5119,40 +5131,40 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P45" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q45" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R45" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S45" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T45" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="U45" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="V45" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="W45" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X45" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -5169,7 +5181,7 @@
         <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G46">
         <v>1000</v>
@@ -5178,10 +5190,10 @@
         <v>143</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -5190,40 +5202,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P46" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q46" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R46" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S46" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T46" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="U46" t="s">
+        <v>431</v>
+      </c>
+      <c r="V46" t="s">
+        <v>458</v>
+      </c>
+      <c r="W46" t="s">
+        <v>464</v>
+      </c>
+      <c r="X46" t="s">
         <v>428</v>
       </c>
-      <c r="V46" t="s">
-        <v>455</v>
-      </c>
-      <c r="W46" t="s">
-        <v>461</v>
-      </c>
-      <c r="X46" t="s">
-        <v>425</v>
-      </c>
       <c r="Y46" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -5240,7 +5252,7 @@
         <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G47">
         <v>4372</v>
@@ -5249,10 +5261,10 @@
         <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L47">
         <v>4372</v>
@@ -5261,40 +5273,40 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q47" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R47" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S47" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T47" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="U47" t="s">
+        <v>431</v>
+      </c>
+      <c r="V47" t="s">
+        <v>458</v>
+      </c>
+      <c r="W47" t="s">
+        <v>464</v>
+      </c>
+      <c r="X47" t="s">
         <v>428</v>
       </c>
-      <c r="V47" t="s">
-        <v>455</v>
-      </c>
-      <c r="W47" t="s">
-        <v>461</v>
-      </c>
-      <c r="X47" t="s">
-        <v>425</v>
-      </c>
       <c r="Y47" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -5311,19 +5323,19 @@
         <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G48">
         <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L48">
         <v>34000</v>
@@ -5332,40 +5344,40 @@
         <v>34000</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P48" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q48" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R48" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S48" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T48" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="U48" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="V48" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W48" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="X48" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Y48" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5382,25 +5394,25 @@
         <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G49">
         <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I49" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J49" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K49" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L49">
         <v>6500000</v>
@@ -5409,40 +5421,40 @@
         <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O49" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q49" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R49" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S49" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T49" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="U49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="V49" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W49" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="X49" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Y49" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -5459,19 +5471,19 @@
         <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -5480,40 +5492,40 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O50" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P50" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q50" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R50" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S50" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T50" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U50" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V50" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W50" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X50" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y50" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5530,19 +5542,19 @@
         <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G51">
         <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L51">
         <v>269900</v>
@@ -5551,40 +5563,40 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P51" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q51" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R51" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S51" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U51" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V51" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W51" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X51" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y51" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5601,25 +5613,25 @@
         <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G52">
         <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K52" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L52">
         <v>130100</v>
@@ -5628,40 +5640,40 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P52" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q52" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R52" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S52" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T52" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U52" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V52" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W52" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X52" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y52" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -5678,25 +5690,25 @@
         <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G53">
         <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L53">
         <v>52300</v>
@@ -5705,40 +5717,40 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P53" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q53" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R53" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S53" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T53" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U53" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V53" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W53" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X53" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y53" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5755,25 +5767,25 @@
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G54">
         <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L54">
         <v>127300</v>
@@ -5782,40 +5794,40 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O54" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P54" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q54" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R54" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S54" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T54" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U54" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V54" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W54" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X54" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y54" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5832,25 +5844,25 @@
         <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G55">
         <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K55" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L55">
         <v>10000</v>
@@ -5859,40 +5871,40 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P55" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q55" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R55" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S55" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T55" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U55" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V55" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W55" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X55" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y55" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5909,7 +5921,7 @@
         <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -5918,16 +5930,16 @@
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I56" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J56" t="s">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -5936,40 +5948,40 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O56" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P56" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q56" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R56" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S56" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T56" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="U56" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="V56" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="W56" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X56" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y56" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5986,7 +5998,7 @@
         <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G57">
         <v>50000</v>
@@ -5995,10 +6007,10 @@
         <v>135</v>
       </c>
       <c r="I57" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K57" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L57">
         <v>20000</v>
@@ -6007,40 +6019,40 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O57" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P57" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q57" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R57" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S57" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T57" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="U57" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="V57" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="W57" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="X57" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y57" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -6057,7 +6069,7 @@
         <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G58">
         <v>386</v>
@@ -6066,10 +6078,10 @@
         <v>152</v>
       </c>
       <c r="I58" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K58" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L58">
         <v>386</v>
@@ -6078,40 +6090,40 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O58" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P58" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q58" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R58" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S58" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T58" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="U58" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="V58" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="W58" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X58" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Y58" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6128,7 +6140,7 @@
         <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -6137,7 +6149,7 @@
         <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
@@ -6146,7 +6158,7 @@
         <v>55</v>
       </c>
       <c r="K59" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L59">
         <v>120</v>
@@ -6155,40 +6167,40 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O59" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P59" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q59" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R59" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S59" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T59" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="U59" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="V59" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="W59" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X59" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6205,19 +6217,19 @@
         <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G60">
         <v>350</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K60" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L60">
         <v>350</v>
@@ -6226,40 +6238,40 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P60" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q60" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R60" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T60" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="U60" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="V60" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="W60" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X60" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Y60" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6276,19 +6288,19 @@
         <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G61">
         <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K61" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L61">
         <v>500</v>
@@ -6297,40 +6309,40 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O61" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P61" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q61" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R61" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S61" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T61" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="U61" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="V61" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W61" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X61" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Y61" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -6347,19 +6359,19 @@
         <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G62">
         <v>1200</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I62" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K62" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L62">
         <v>1200</v>
@@ -6368,40 +6380,40 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O62" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P62" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q62" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R62" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S62" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T62" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="U62" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="V62" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W62" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X62" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Y62" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -6418,7 +6430,7 @@
         <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G63">
         <v>3100</v>
@@ -6427,10 +6439,10 @@
         <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K63" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L63">
         <v>3100</v>
@@ -6439,40 +6451,40 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O63" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P63" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q63" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R63" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S63" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T63" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U63" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="V63" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W63" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="X63" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Y63" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6489,7 +6501,7 @@
         <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G64">
         <v>12000</v>
@@ -6498,10 +6510,10 @@
         <v>156</v>
       </c>
       <c r="I64" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L64">
         <v>12000</v>
@@ -6510,40 +6522,40 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O64" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P64" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q64" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R64" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S64" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T64" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U64" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="V64" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W64" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="X64" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Y64" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -6560,25 +6572,25 @@
         <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G65">
         <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I65" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J65" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K65" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L65">
         <v>2500</v>
@@ -6587,40 +6599,40 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O65" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P65" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q65" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R65" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S65" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V65" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Y65" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -6637,25 +6649,25 @@
         <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G66">
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I66" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J66" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K66" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L66">
         <v>40</v>
@@ -6664,40 +6676,40 @@
         <v>40</v>
       </c>
       <c r="N66" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O66" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P66" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q66" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R66" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S66" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T66" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="U66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V66" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W66" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="X66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Y66" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6714,25 +6726,25 @@
         <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G67">
         <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I67" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J67" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K67" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -6741,40 +6753,40 @@
         <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O67" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P67" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q67" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R67" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S67" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T67" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="U67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V67" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W67" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="X67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Y67" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -6791,25 +6803,25 @@
         <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G68">
         <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J68" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -6818,40 +6830,40 @@
         <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O68" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P68" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q68" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R68" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S68" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T68" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="U68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V68" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W68" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="X68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Y68" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6868,10 +6880,10 @@
         <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G69">
         <v>500</v>
@@ -6880,13 +6892,13 @@
         <v>160</v>
       </c>
       <c r="I69" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L69">
         <v>500</v>
@@ -6895,40 +6907,40 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O69" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P69" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q69" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R69" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S69" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T69" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="V69" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="W69" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="X69" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Y69" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6945,19 +6957,19 @@
         <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G70">
         <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I70" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K70" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L70">
         <v>60000</v>
@@ -6966,40 +6978,40 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O70" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q70" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R70" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S70" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T70" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="U70" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="V70" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W70" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="X70" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Y70" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -7016,19 +7028,19 @@
         <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G71">
         <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I71" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K71" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L71">
         <v>369500</v>
@@ -7037,40 +7049,40 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O71" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P71" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q71" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R71" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S71" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T71" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="U71" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="V71" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W71" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="X71" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Y71" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7087,19 +7099,19 @@
         <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G72">
         <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I72" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K72" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L72">
         <v>387000</v>
@@ -7108,40 +7120,40 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O72" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P72" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q72" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R72" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S72" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T72" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="U72" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="V72" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W72" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="X72" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Y72" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -7158,19 +7170,19 @@
         <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G73">
         <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K73" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L73">
         <v>16000</v>
@@ -7179,40 +7191,40 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O73" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P73" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q73" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R73" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S73" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T73" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="U73" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="V73" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="W73" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="X73" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Y73" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -7229,7 +7241,7 @@
         <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
@@ -7238,16 +7250,16 @@
         <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J74" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K74" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L74">
         <v>5400</v>
@@ -7256,40 +7268,40 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O74" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P74" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q74" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R74" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S74" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T74" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="U74" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="V74" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="W74" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="X74" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Y74" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -7306,19 +7318,19 @@
         <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G75">
         <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I75" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K75" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L75">
         <v>6100</v>
@@ -7327,40 +7339,40 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P75" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q75" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R75" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S75" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="T75" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="U75" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="V75" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W75" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="X75" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Y75" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -7377,19 +7389,19 @@
         <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G76">
         <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K76" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7398,40 +7410,40 @@
         <v>2800</v>
       </c>
       <c r="N76" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O76" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P76" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q76" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R76" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S76" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T76" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="U76" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="V76" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W76" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X76" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y76" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -7448,19 +7460,19 @@
         <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G77">
         <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K77" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7469,40 +7481,40 @@
         <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O77" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P77" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q77" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R77" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S77" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T77" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="U77" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W77" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X77" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Y77" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -7519,19 +7531,19 @@
         <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="I78" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K78" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L78">
         <v>8</v>
@@ -7540,40 +7552,40 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O78" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P78" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q78" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R78" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S78" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T78" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="U78" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="V78" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="W78" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X78" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Y78" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7590,19 +7602,19 @@
         <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G79">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K79" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L79">
         <v>8</v>
@@ -7611,40 +7623,111 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O79" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P79" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>360</v>
+      </c>
+      <c r="R79" t="s">
+        <v>361</v>
+      </c>
+      <c r="S79" t="s">
+        <v>368</v>
+      </c>
+      <c r="T79" t="s">
+        <v>407</v>
+      </c>
+      <c r="U79" t="s">
+        <v>444</v>
+      </c>
+      <c r="V79" t="s">
+        <v>462</v>
+      </c>
+      <c r="W79" t="s">
+        <v>469</v>
+      </c>
+      <c r="X79" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" t="s">
+        <v>229</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80" t="s">
+        <v>283</v>
+      </c>
+      <c r="I80" t="s">
+        <v>307</v>
+      </c>
+      <c r="K80" t="s">
         <v>355</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>100</v>
+      </c>
+      <c r="N80" t="s">
+        <v>356</v>
+      </c>
+      <c r="O80" t="s">
         <v>357</v>
       </c>
-      <c r="R79" t="s">
-        <v>358</v>
-      </c>
-      <c r="S79" t="s">
-        <v>365</v>
-      </c>
-      <c r="T79" t="s">
-        <v>404</v>
-      </c>
-      <c r="U79" t="s">
-        <v>441</v>
-      </c>
-      <c r="V79" t="s">
-        <v>459</v>
-      </c>
-      <c r="W79" t="s">
-        <v>466</v>
-      </c>
-      <c r="X79" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>519</v>
+      <c r="P80" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>360</v>
+      </c>
+      <c r="R80" t="s">
+        <v>363</v>
+      </c>
+      <c r="S80" t="s">
+        <v>368</v>
+      </c>
+      <c r="T80" t="s">
+        <v>389</v>
+      </c>
+      <c r="U80" t="s">
+        <v>428</v>
+      </c>
+      <c r="V80" t="s">
+        <v>456</v>
+      </c>
+      <c r="W80" t="s">
+        <v>464</v>
+      </c>
+      <c r="X80" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -100,9 +100,6 @@
     <t xml:space="preserve">АТ "Райффайзен Банк АВАЛЬ" Попільнянське відділення </t>
   </si>
   <si>
-    <t>ПАТ"МІБ"</t>
-  </si>
-  <si>
     <t>АТ "Міжнародний інвестиційний банк"</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
     <t>АТ "ПРИВАТБАНК"</t>
   </si>
   <si>
+    <t>ПАТ"МІБ"</t>
+  </si>
+  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -242,105 +242,105 @@
     <t>UA153808050000000026009543306</t>
   </si>
   <si>
+    <t>UA243805820000026004010318212</t>
+  </si>
+  <si>
+    <t>UA883805820000026003010318161</t>
+  </si>
+  <si>
+    <t>UA563204780000026003924893295</t>
+  </si>
+  <si>
+    <t>UA293387830000026001055129857</t>
+  </si>
+  <si>
+    <t>UA213348510000000026000109734</t>
+  </si>
+  <si>
+    <t>UA323808050000000026005643697</t>
+  </si>
+  <si>
+    <t>UA893808050000000026001668193</t>
+  </si>
+  <si>
+    <t>UA493808050000000026003742288</t>
+  </si>
+  <si>
+    <t>UA153808050000000026003698086</t>
+  </si>
+  <si>
+    <t>UA863808050000000026000666431</t>
+  </si>
+  <si>
+    <t>UA313808050000000026006697426</t>
+  </si>
+  <si>
+    <t>UA423516290000000002600114005</t>
+  </si>
+  <si>
+    <t>UA033805260000002600800159741</t>
+  </si>
+  <si>
+    <t>UA033223130000026001000047274</t>
+  </si>
+  <si>
+    <t>UA073223130000026009000044990</t>
+  </si>
+  <si>
+    <t>UA723223130000026005000045023</t>
+  </si>
+  <si>
+    <t>UA363052990000026005036218701</t>
+  </si>
+  <si>
+    <t>UA363257960000026009300368164</t>
+  </si>
+  <si>
+    <t>UA923052990000026002043601047</t>
+  </si>
+  <si>
+    <t>UA933223130000026005000045227</t>
+  </si>
+  <si>
+    <t>UA853366770000026005052517967</t>
+  </si>
+  <si>
+    <t>UA113252680000000002600477437</t>
+  </si>
+  <si>
+    <t>UA613123560000026002300713705</t>
+  </si>
+  <si>
+    <t>UA693226690000026003300196863</t>
+  </si>
+  <si>
+    <t>UA473223130000026003000042534</t>
+  </si>
+  <si>
+    <t>UA463052990000026003016807628</t>
+  </si>
+  <si>
+    <t>UA503348510000000026008137708</t>
+  </si>
+  <si>
+    <t>UA503204780000026003924882927</t>
+  </si>
+  <si>
+    <t>UA633052990000026200672595702</t>
+  </si>
+  <si>
+    <t>UA663516290000000002600805183</t>
+  </si>
+  <si>
+    <t>UA363154050000026001052317039</t>
+  </si>
+  <si>
+    <t>UA693808050000000026004671091</t>
+  </si>
+  <si>
     <t>UA503805820000026000010325931</t>
   </si>
   <si>
-    <t>UA243805820000026004010318212</t>
-  </si>
-  <si>
-    <t>UA883805820000026003010318161</t>
-  </si>
-  <si>
-    <t>UA563204780000026003924893295</t>
-  </si>
-  <si>
-    <t>UA293387830000026001055129857</t>
-  </si>
-  <si>
-    <t>UA213348510000000026000109734</t>
-  </si>
-  <si>
-    <t>UA323808050000000026005643697</t>
-  </si>
-  <si>
-    <t>UA893808050000000026001668193</t>
-  </si>
-  <si>
-    <t>UA493808050000000026003742288</t>
-  </si>
-  <si>
-    <t>UA153808050000000026003698086</t>
-  </si>
-  <si>
-    <t>UA863808050000000026000666431</t>
-  </si>
-  <si>
-    <t>UA313808050000000026006697426</t>
-  </si>
-  <si>
-    <t>UA423516290000000002600114005</t>
-  </si>
-  <si>
-    <t>UA033805260000002600800159741</t>
-  </si>
-  <si>
-    <t>UA033223130000026001000047274</t>
-  </si>
-  <si>
-    <t>UA073223130000026009000044990</t>
-  </si>
-  <si>
-    <t>UA723223130000026005000045023</t>
-  </si>
-  <si>
-    <t>UA363052990000026005036218701</t>
-  </si>
-  <si>
-    <t>UA363257960000026009300368164</t>
-  </si>
-  <si>
-    <t>UA923052990000026002043601047</t>
-  </si>
-  <si>
-    <t>UA933223130000026005000045227</t>
-  </si>
-  <si>
-    <t>UA853366770000026005052517967</t>
-  </si>
-  <si>
-    <t>UA113252680000000002600477437</t>
-  </si>
-  <si>
-    <t>UA613123560000026002300713705</t>
-  </si>
-  <si>
-    <t>UA693226690000026003300196863</t>
-  </si>
-  <si>
-    <t>UA473223130000026003000042534</t>
-  </si>
-  <si>
-    <t>UA463052990000026003016807628</t>
-  </si>
-  <si>
-    <t>UA503348510000000026008137708</t>
-  </si>
-  <si>
-    <t>UA503204780000026003924882927</t>
-  </si>
-  <si>
-    <t>UA633052990000026200672595702</t>
-  </si>
-  <si>
-    <t>UA663516290000000002600805183</t>
-  </si>
-  <si>
-    <t>UA363154050000026001052317039</t>
-  </si>
-  <si>
-    <t>UA693808050000000026004671091</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -368,153 +368,153 @@
     <t>16.03.2021</t>
   </si>
   <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>21.09.2021</t>
+  </si>
+  <si>
+    <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>15.09.2021</t>
+  </si>
+  <si>
+    <t>17.09.2021</t>
+  </si>
+  <si>
+    <t>26.01.2022</t>
+  </si>
+  <si>
+    <t>03.06.2021</t>
+  </si>
+  <si>
+    <t>03.07.2023</t>
+  </si>
+  <si>
+    <t>04.07.2023</t>
+  </si>
+  <si>
+    <t>09.05.2022</t>
+  </si>
+  <si>
+    <t>28.12.2020</t>
+  </si>
+  <si>
+    <t>23.02.2021</t>
+  </si>
+  <si>
+    <t>02.02.2021</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>06.04.2021</t>
+  </si>
+  <si>
+    <t>10.03.2021</t>
+  </si>
+  <si>
+    <t>17.03.2021</t>
+  </si>
+  <si>
+    <t>19.03.2021</t>
+  </si>
+  <si>
+    <t>25.05.2021</t>
+  </si>
+  <si>
+    <t>31.03.2021</t>
+  </si>
+  <si>
+    <t>13.04.2021</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>07.10.2020</t>
+  </si>
+  <si>
+    <t>27.08.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>08.04.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>31.10.2023</t>
+  </si>
+  <si>
+    <t>21.10.2020</t>
+  </si>
+  <si>
+    <t>07.09.2023</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>11.03.2021</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>02.04.2021</t>
+  </si>
+  <si>
+    <t>18.02.2022</t>
+  </si>
+  <si>
+    <t>28.10.2021</t>
+  </si>
+  <si>
+    <t>13.08.2021</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
+    <t>19.02.2021</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
     <t>21.09.2020</t>
   </si>
   <si>
-    <t>29.06.2021</t>
-  </si>
-  <si>
-    <t>21.09.2021</t>
-  </si>
-  <si>
-    <t>04.06.2021</t>
-  </si>
-  <si>
-    <t>08.07.2021</t>
-  </si>
-  <si>
-    <t>15.09.2021</t>
-  </si>
-  <si>
-    <t>17.09.2021</t>
-  </si>
-  <si>
-    <t>26.01.2022</t>
-  </si>
-  <si>
-    <t>03.06.2021</t>
-  </si>
-  <si>
-    <t>03.07.2023</t>
-  </si>
-  <si>
-    <t>04.07.2023</t>
-  </si>
-  <si>
-    <t>09.05.2022</t>
-  </si>
-  <si>
-    <t>28.12.2020</t>
-  </si>
-  <si>
-    <t>23.02.2021</t>
-  </si>
-  <si>
-    <t>02.02.2021</t>
-  </si>
-  <si>
-    <t>02.01.2021</t>
-  </si>
-  <si>
-    <t>06.04.2021</t>
-  </si>
-  <si>
-    <t>10.03.2021</t>
-  </si>
-  <si>
-    <t>17.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>25.05.2021</t>
-  </si>
-  <si>
-    <t>31.03.2021</t>
-  </si>
-  <si>
-    <t>13.04.2021</t>
-  </si>
-  <si>
-    <t>07.09.2020</t>
-  </si>
-  <si>
-    <t>07.10.2020</t>
-  </si>
-  <si>
-    <t>27.08.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>08.04.2023</t>
-  </si>
-  <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>31.10.2023</t>
-  </si>
-  <si>
-    <t>21.10.2020</t>
-  </si>
-  <si>
-    <t>07.09.2023</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
-    <t>11.03.2021</t>
-  </si>
-  <si>
-    <t>29.04.2021</t>
-  </si>
-  <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
-    <t>19.07.2021</t>
-  </si>
-  <si>
-    <t>02.04.2021</t>
-  </si>
-  <si>
-    <t>18.02.2022</t>
-  </si>
-  <si>
-    <t>28.10.2021</t>
-  </si>
-  <si>
-    <t>13.08.2021</t>
-  </si>
-  <si>
-    <t>25.08.2021</t>
-  </si>
-  <si>
-    <t>02.09.2021</t>
-  </si>
-  <si>
-    <t>19.02.2021</t>
-  </si>
-  <si>
-    <t>14.09.2020</t>
-  </si>
-  <si>
-    <t>10.09.2020</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>22.12.2021</t>
-  </si>
-  <si>
     <t>08.02.2021</t>
   </si>
   <si>
@@ -551,180 +551,180 @@
     <t>МІТНІЦЬКИЙ ЮРІЙ ГЕОРГІЙОВИЧ</t>
   </si>
   <si>
+    <t>МУЗИКА ПЕТРО-ВАСИЛЬ МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВКО АНТОН ВАЛЕРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>НАБОК ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>МАЛЬКОВА ЮЛІЯ АНДРІЇВНА</t>
+  </si>
+  <si>
+    <t>БРУСЕНКО ВІКТОРІЯ СЕРГІЇВНА</t>
+  </si>
+  <si>
+    <t>СОКОЛЬЦОВА ІННА ВОЛОДИМИРІВНА</t>
+  </si>
+  <si>
+    <t>ЧАРИЧАНСЬКА ІРИНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>МАРУНЯК ОКСАНА ІВАНІВНА</t>
+  </si>
+  <si>
+    <t>ТЕРНОПІЛЬСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
+  </si>
+  <si>
+    <t>ЧИЧУЛ ПАВЛО ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛАРЧЕНКОВ ПАВЛО ОЛЕГОВИЧ</t>
+  </si>
+  <si>
+    <t>КУЛИК НАТАЛІЯ ЯРОСЛАВІВНА</t>
+  </si>
+  <si>
+    <t>ШАКАЛО ОЛЬШАНЕЦЬКА ОЛЕСЯ ЯРОСЛАВІВНА</t>
+  </si>
+  <si>
+    <t>ПАПЕВСЬКИЙ ОЛЕКСАНДР РУСЛАНОВИЧ</t>
+  </si>
+  <si>
+    <t>ПОЛТАВЕЦЬ ІЛЛЯ ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>ЯНУШ МАРИНА ПЕТРІВНА</t>
+  </si>
+  <si>
+    <t>СЕРГАН МАРИНА ГРИГОРІВНА</t>
+  </si>
+  <si>
+    <t>ВОЙТЕНКО МАРИНА ПЕТРІВНА</t>
+  </si>
+  <si>
+    <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
+  </si>
+  <si>
+    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
+  </si>
+  <si>
+    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
+  </si>
+  <si>
+    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
+  </si>
+  <si>
+    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
+  </si>
+  <si>
+    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
+  </si>
+  <si>
+    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
+  </si>
+  <si>
+    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
+  </si>
+  <si>
+    <t>ТОВ ІННОВАБУД</t>
+  </si>
+  <si>
+    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
+  </si>
+  <si>
+    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
+  </si>
+  <si>
+    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+  </si>
+  <si>
+    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
+  </si>
+  <si>
+    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ПП "СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРИВАТБАНК</t>
+  </si>
+  <si>
+    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
+  </si>
+  <si>
+    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+  </si>
+  <si>
     <t>ПП'ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
   </si>
   <si>
-    <t>МУЗИКА ПЕТРО-ВАСИЛЬ МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
-    <t>ІВКО АНТОН ВАЛЕРІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>НАБОК ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>МАЛЬКОВА ЮЛІЯ АНДРІЇВНА</t>
-  </si>
-  <si>
-    <t>БРУСЕНКО ВІКТОРІЯ СЕРГІЇВНА</t>
-  </si>
-  <si>
-    <t>СОКОЛЬЦОВА ІННА ВОЛОДИМИРІВНА</t>
-  </si>
-  <si>
-    <t>ЧАРИЧАНСЬКА ІРИНА ЮРІЇВНА</t>
-  </si>
-  <si>
-    <t>МАРУНЯК ОКСАНА ІВАНІВНА</t>
-  </si>
-  <si>
-    <t>ТЕРНОПІЛЬСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
-  </si>
-  <si>
-    <t>ЧИЧУЛ ПАВЛО ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛАРЧЕНКОВ ПАВЛО ОЛЕГОВИЧ</t>
-  </si>
-  <si>
-    <t>КУЛИК НАТАЛІЯ ЯРОСЛАВІВНА</t>
-  </si>
-  <si>
-    <t>ШАКАЛО ОЛЬШАНЕЦЬКА ОЛЕСЯ ЯРОСЛАВІВНА</t>
-  </si>
-  <si>
-    <t>ПАПЕВСЬКИЙ ОЛЕКСАНДР РУСЛАНОВИЧ</t>
-  </si>
-  <si>
-    <t>ПОЛТАВЕЦЬ ІЛЛЯ ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯНУШ МАРИНА ПЕТРІВНА</t>
-  </si>
-  <si>
-    <t>СЕРГАН МАРИНА ГРИГОРІВНА</t>
-  </si>
-  <si>
-    <t>ВОЙТЕНКО МАРИНА ПЕТРІВНА</t>
-  </si>
-  <si>
-    <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
-  </si>
-  <si>
-    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
-  </si>
-  <si>
-    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
-  </si>
-  <si>
-    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
-  </si>
-  <si>
-    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
-  </si>
-  <si>
-    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
-  </si>
-  <si>
-    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
-  </si>
-  <si>
-    <t>ТОВ ІННОВАБУД</t>
-  </si>
-  <si>
-    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
-  </si>
-  <si>
-    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
-  </si>
-  <si>
-    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
-    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
-  </si>
-  <si>
-    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
-  </si>
-  <si>
-    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
-  </si>
-  <si>
-    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
-  </si>
-  <si>
-    <t>ПП "СИЛА І ЧЕСТЬ"</t>
-  </si>
-  <si>
-    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
-  </si>
-  <si>
-    <t>АТ КБ ПРИВАТБАНК</t>
-  </si>
-  <si>
-    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
-  </si>
-  <si>
-    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
-  </si>
-  <si>
-    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+    <t>20806283</t>
+  </si>
+  <si>
+    <t>40235645</t>
+  </si>
+  <si>
+    <t>00044351</t>
+  </si>
+  <si>
+    <t>33308363</t>
+  </si>
+  <si>
+    <t>02472453</t>
   </si>
   <si>
     <t>21715714</t>
   </si>
   <si>
-    <t>20806283</t>
-  </si>
-  <si>
-    <t>40235645</t>
-  </si>
-  <si>
-    <t>00044351</t>
-  </si>
-  <si>
-    <t>33308363</t>
-  </si>
-  <si>
-    <t>02472453</t>
-  </si>
-  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -743,132 +743,132 @@
     <t>04.02.2022</t>
   </si>
   <si>
+    <t>22.09.2021</t>
+  </si>
+  <si>
+    <t>09.07.2021</t>
+  </si>
+  <si>
+    <t>16.09.2021</t>
+  </si>
+  <si>
+    <t>20.09.2021</t>
+  </si>
+  <si>
+    <t>31.01.2022</t>
+  </si>
+  <si>
+    <t>24.07.2023</t>
+  </si>
+  <si>
+    <t>10.05.2022</t>
+  </si>
+  <si>
+    <t>12.01.2021</t>
+  </si>
+  <si>
+    <t>24.02.2021</t>
+  </si>
+  <si>
+    <t>11.01.2021</t>
+  </si>
+  <si>
+    <t>05.03.2021</t>
+  </si>
+  <si>
+    <t>05.01.2021</t>
+  </si>
+  <si>
+    <t>28.05.2021</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>25.01.2022</t>
+  </si>
+  <si>
+    <t>18.09.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>11.04.2023</t>
+  </si>
+  <si>
+    <t>08.09.2023</t>
+  </si>
+  <si>
+    <t>05.02.2021</t>
+  </si>
+  <si>
+    <t>04.02.2021</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>19.04.2021</t>
+  </si>
+  <si>
+    <t>29.10.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>03.03.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
+    <t>22.03.2024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>28.03.2024</t>
+  </si>
+  <si>
+    <t>12.04.2024</t>
+  </si>
+  <si>
     <t>27.01.2021</t>
   </si>
   <si>
-    <t>22.09.2021</t>
-  </si>
-  <si>
-    <t>09.07.2021</t>
-  </si>
-  <si>
-    <t>16.09.2021</t>
-  </si>
-  <si>
-    <t>20.09.2021</t>
-  </si>
-  <si>
-    <t>31.01.2022</t>
-  </si>
-  <si>
-    <t>24.07.2023</t>
-  </si>
-  <si>
-    <t>10.05.2022</t>
-  </si>
-  <si>
-    <t>12.01.2021</t>
-  </si>
-  <si>
-    <t>24.02.2021</t>
-  </si>
-  <si>
-    <t>11.01.2021</t>
-  </si>
-  <si>
-    <t>05.03.2021</t>
-  </si>
-  <si>
-    <t>05.01.2021</t>
-  </si>
-  <si>
-    <t>28.05.2021</t>
-  </si>
-  <si>
-    <t>09.06.2021</t>
-  </si>
-  <si>
-    <t>02.06.2021</t>
-  </si>
-  <si>
-    <t>22.06.2021</t>
-  </si>
-  <si>
-    <t>25.01.2022</t>
-  </si>
-  <si>
-    <t>18.09.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>11.04.2023</t>
-  </si>
-  <si>
-    <t>08.09.2023</t>
-  </si>
-  <si>
-    <t>05.02.2021</t>
-  </si>
-  <si>
-    <t>04.02.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>06.07.2021</t>
-  </si>
-  <si>
-    <t>28.07.2021</t>
-  </si>
-  <si>
-    <t>19.04.2021</t>
-  </si>
-  <si>
-    <t>29.10.2021</t>
-  </si>
-  <si>
-    <t>20.05.2021</t>
-  </si>
-  <si>
-    <t>30.08.2021</t>
-  </si>
-  <si>
-    <t>31.08.2021</t>
-  </si>
-  <si>
-    <t>03.03.2021</t>
-  </si>
-  <si>
-    <t>24.06.2021</t>
-  </si>
-  <si>
-    <t>23.06.2021</t>
-  </si>
-  <si>
-    <t>27.05.2021</t>
-  </si>
-  <si>
-    <t>30.12.2021</t>
-  </si>
-  <si>
-    <t>21.01.2021</t>
-  </si>
-  <si>
-    <t>22.03.2024</t>
-  </si>
-  <si>
-    <t>07.03.2024</t>
-  </si>
-  <si>
-    <t>28.03.2024</t>
-  </si>
-  <si>
-    <t>12.04.2024</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -878,136 +878,136 @@
     <t>Мітніцький Юрій Георгійович</t>
   </si>
   <si>
+    <t>Івко Антон Валерійович</t>
+  </si>
+  <si>
+    <t>Набок Олексій Анатолійович</t>
+  </si>
+  <si>
+    <t>Малькова Юлія Андріївна</t>
+  </si>
+  <si>
+    <t>Брусенко Вікторія Сергіївна</t>
+  </si>
+  <si>
+    <t>Сокольцова Інна Володимирівна</t>
+  </si>
+  <si>
+    <t>Чаричанська Ірина Юріївна</t>
+  </si>
+  <si>
+    <t>Маруняк Оксана Іванівна</t>
+  </si>
+  <si>
+    <t>Ковальчук Володимир Олександрович</t>
+  </si>
+  <si>
+    <t>Матвіїв Юрій Ярославович</t>
+  </si>
+  <si>
+    <t>Чичул Павло Олександрович</t>
+  </si>
+  <si>
+    <t>Ларченков Павло Олегович</t>
+  </si>
+  <si>
+    <t>Кулик Наталія Ярославівна</t>
+  </si>
+  <si>
+    <t>Шакало-Ольшанецька Олеся Ярославівна</t>
+  </si>
+  <si>
+    <t>Папевський Олександр Русланович</t>
+  </si>
+  <si>
+    <t>Полтавець Ілля Олександрович</t>
+  </si>
+  <si>
+    <t>Януш Марина Петрівна</t>
+  </si>
+  <si>
+    <t>Серган Марина Григорівна</t>
+  </si>
+  <si>
+    <t>Войтенко Марина Петрівна</t>
+  </si>
+  <si>
+    <t>Шеветовський Валентин Валентинович</t>
+  </si>
+  <si>
+    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
+  </si>
+  <si>
+    <t>Фастовець Тетяна Сергіївна</t>
+  </si>
+  <si>
+    <t>Литовченко Тамара Миколаївна</t>
+  </si>
+  <si>
+    <t>Самохвалова Лариса Феліксівна</t>
+  </si>
+  <si>
+    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
+  </si>
+  <si>
+    <t>Коваленко Христина Володимирівна</t>
+  </si>
+  <si>
+    <t>Гембік Катерина Олександрівна</t>
+  </si>
+  <si>
+    <t>Транзитний рахунок Приватбанк м.Київ</t>
+  </si>
+  <si>
+    <t>ФОП Сароян Азат Абрамович</t>
+  </si>
+  <si>
+    <t>Барнецький Назар Михайлович</t>
+  </si>
+  <si>
+    <t>Соловій Віра Зіновіївна</t>
+  </si>
+  <si>
+    <t>Заболітна Олена Юріївна</t>
+  </si>
+  <si>
+    <t>Одноріг Валентина Мар'янівна</t>
+  </si>
+  <si>
+    <t>Головко Наталія Романівна</t>
+  </si>
+  <si>
+    <t>Данильченко Віталій Іванович</t>
+  </si>
+  <si>
+    <t>Панченко Костянтин Володимирович</t>
+  </si>
+  <si>
+    <t>Філонський Валерій Вікторович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>Литовченко Олексій Сергійович</t>
+  </si>
+  <si>
+    <t>Гриць Віталій Юрійович</t>
+  </si>
+  <si>
+    <t>Павлович Євгеній Володимирович</t>
+  </si>
+  <si>
+    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t>Бобров Олексій Анатолійович</t>
+  </si>
+  <si>
+    <t>Нездолій Григорій Григорович</t>
+  </si>
+  <si>
     <t>ПП"Європейська Солідарність"</t>
-  </si>
-  <si>
-    <t>Івко Антон Валерійович</t>
-  </si>
-  <si>
-    <t>Набок Олексій Анатолійович</t>
-  </si>
-  <si>
-    <t>Малькова Юлія Андріївна</t>
-  </si>
-  <si>
-    <t>Брусенко Вікторія Сергіївна</t>
-  </si>
-  <si>
-    <t>Сокольцова Інна Володимирівна</t>
-  </si>
-  <si>
-    <t>Чаричанська Ірина Юріївна</t>
-  </si>
-  <si>
-    <t>Маруняк Оксана Іванівна</t>
-  </si>
-  <si>
-    <t>Ковальчук Володимир Олександрович</t>
-  </si>
-  <si>
-    <t>Матвіїв Юрій Ярославович</t>
-  </si>
-  <si>
-    <t>Чичул Павло Олександрович</t>
-  </si>
-  <si>
-    <t>Ларченков Павло Олегович</t>
-  </si>
-  <si>
-    <t>Кулик Наталія Ярославівна</t>
-  </si>
-  <si>
-    <t>Шакало-Ольшанецька Олеся Ярославівна</t>
-  </si>
-  <si>
-    <t>Папевський Олександр Русланович</t>
-  </si>
-  <si>
-    <t>Полтавець Ілля Олександрович</t>
-  </si>
-  <si>
-    <t>Януш Марина Петрівна</t>
-  </si>
-  <si>
-    <t>Серган Марина Григорівна</t>
-  </si>
-  <si>
-    <t>Войтенко Марина Петрівна</t>
-  </si>
-  <si>
-    <t>Шеветовський Валентин Валентинович</t>
-  </si>
-  <si>
-    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
-  </si>
-  <si>
-    <t>Фастовець Тетяна Сергіївна</t>
-  </si>
-  <si>
-    <t>Литовченко Тамара Миколаївна</t>
-  </si>
-  <si>
-    <t>Самохвалова Лариса Феліксівна</t>
-  </si>
-  <si>
-    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
-  </si>
-  <si>
-    <t>Коваленко Христина Володимирівна</t>
-  </si>
-  <si>
-    <t>Гембік Катерина Олександрівна</t>
-  </si>
-  <si>
-    <t>Транзитний рахунок Приватбанк м.Київ</t>
-  </si>
-  <si>
-    <t>ФОП Сароян Азат Абрамович</t>
-  </si>
-  <si>
-    <t>Барнецький Назар Михайлович</t>
-  </si>
-  <si>
-    <t>Соловій Віра Зіновіївна</t>
-  </si>
-  <si>
-    <t>Заболітна Олена Юріївна</t>
-  </si>
-  <si>
-    <t>Одноріг Валентина Мар'янівна</t>
-  </si>
-  <si>
-    <t>Головко Наталія Романівна</t>
-  </si>
-  <si>
-    <t>Данильченко Віталій Іванович</t>
-  </si>
-  <si>
-    <t>Панченко Костянтин Володимирович</t>
-  </si>
-  <si>
-    <t>Філонський Валерій Вікторович</t>
-  </si>
-  <si>
-    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>Литовченко Олексій Сергійович</t>
-  </si>
-  <si>
-    <t>Гриць Віталій Юрійович</t>
-  </si>
-  <si>
-    <t>Павлович Євгеній Володимирович</t>
-  </si>
-  <si>
-    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
-  </si>
-  <si>
-    <t>Бобров Олексій Анатолійович</t>
-  </si>
-  <si>
-    <t>Нездолій Григорій Григорович</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1152,99 +1152,99 @@
     <t>Попільнянська районна партійна організація Всеукраїнського об'єднання "Батьківщина" Житомирської області</t>
   </si>
   <si>
+    <t>ЛЬВІВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ " ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
+    <t>ВІННИЦЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ "БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!"</t>
+  </si>
+  <si>
+    <t>ЧОРТКІВСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ОДЕСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ВІННИЦЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>КИЇВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
+  </si>
+  <si>
+    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
+  </si>
+  <si>
+    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
+  </si>
+  <si>
+    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
+  </si>
+  <si>
+    <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
+  </si>
+  <si>
+    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
+  </si>
+  <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
     <t>КИЇВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
   </si>
   <si>
-    <t>ЛЬВІВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ " ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
-    <t>ВІННИЦЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ "БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!"</t>
-  </si>
-  <si>
-    <t>ЧОРТКІВСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ОДЕСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ВІННИЦЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>КИЇВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
-  </si>
-  <si>
-    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
-  </si>
-  <si>
-    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
-  </si>
-  <si>
-    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
-  </si>
-  <si>
-    <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
-  </si>
-  <si>
-    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
-  </si>
-  <si>
-    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1269,93 +1269,93 @@
     <t>33864810</t>
   </si>
   <si>
+    <t>39702118</t>
+  </si>
+  <si>
+    <t>39508645</t>
+  </si>
+  <si>
+    <t>40419357</t>
+  </si>
+  <si>
+    <t>39921438</t>
+  </si>
+  <si>
+    <t>39479782</t>
+  </si>
+  <si>
+    <t>39651598</t>
+  </si>
+  <si>
+    <t>43311440</t>
+  </si>
+  <si>
+    <t>43527082</t>
+  </si>
+  <si>
+    <t>43428147</t>
+  </si>
+  <si>
+    <t>43307785</t>
+  </si>
+  <si>
+    <t>43449722</t>
+  </si>
+  <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>43945782</t>
+  </si>
+  <si>
+    <t>43671044</t>
+  </si>
+  <si>
+    <t>43721791</t>
+  </si>
+  <si>
+    <t>38010759</t>
+  </si>
+  <si>
+    <t>36658318</t>
+  </si>
+  <si>
+    <t>36681991</t>
+  </si>
+  <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
+    <t>43777954</t>
+  </si>
+  <si>
+    <t>36894166</t>
+  </si>
+  <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
+    <t>43379734</t>
+  </si>
+  <si>
     <t>39495516</t>
   </si>
   <si>
-    <t>39702118</t>
-  </si>
-  <si>
-    <t>39508645</t>
-  </si>
-  <si>
-    <t>40419357</t>
-  </si>
-  <si>
-    <t>39921438</t>
-  </si>
-  <si>
-    <t>39479782</t>
-  </si>
-  <si>
-    <t>39651598</t>
-  </si>
-  <si>
-    <t>43311440</t>
-  </si>
-  <si>
-    <t>43527082</t>
-  </si>
-  <si>
-    <t>43428147</t>
-  </si>
-  <si>
-    <t>43307785</t>
-  </si>
-  <si>
-    <t>43449722</t>
-  </si>
-  <si>
-    <t>40422142</t>
-  </si>
-  <si>
-    <t>43945782</t>
-  </si>
-  <si>
-    <t>43671044</t>
-  </si>
-  <si>
-    <t>43721791</t>
-  </si>
-  <si>
-    <t>38010759</t>
-  </si>
-  <si>
-    <t>36658318</t>
-  </si>
-  <si>
-    <t>36681991</t>
-  </si>
-  <si>
-    <t>40026836</t>
-  </si>
-  <si>
-    <t>40014820</t>
-  </si>
-  <si>
-    <t>43777954</t>
-  </si>
-  <si>
-    <t>36894166</t>
-  </si>
-  <si>
-    <t>40000865</t>
-  </si>
-  <si>
-    <t>39765623</t>
-  </si>
-  <si>
-    <t>43626410</t>
-  </si>
-  <si>
-    <t>40006563</t>
-  </si>
-  <si>
-    <t>37263887</t>
-  </si>
-  <si>
-    <t>43379734</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1380,36 +1380,36 @@
     <t>Житомирська обл.</t>
   </si>
   <si>
+    <t>Львівська обл.</t>
+  </si>
+  <si>
+    <t>Вінницька обл.</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>Київська обл.</t>
+  </si>
+  <si>
+    <t>Дніпропетровська обл.</t>
+  </si>
+  <si>
+    <t>Закарпатська обл.</t>
+  </si>
+  <si>
+    <t>Івано-Франківська обл.</t>
+  </si>
+  <si>
+    <t>Миколаївська обл.</t>
+  </si>
+  <si>
+    <t>Черкаська обл.</t>
+  </si>
+  <si>
     <t>м.Київ</t>
   </si>
   <si>
-    <t>Львівська обл.</t>
-  </si>
-  <si>
-    <t>Вінницька обл.</t>
-  </si>
-  <si>
-    <t>Україна</t>
-  </si>
-  <si>
-    <t>Київська обл.</t>
-  </si>
-  <si>
-    <t>Дніпропетровська обл.</t>
-  </si>
-  <si>
-    <t>Закарпатська обл.</t>
-  </si>
-  <si>
-    <t>Івано-Франківська обл.</t>
-  </si>
-  <si>
-    <t>Миколаївська обл.</t>
-  </si>
-  <si>
-    <t>Черкаська обл.</t>
-  </si>
-  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1509,88 +1509,88 @@
     <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
   </si>
   <si>
+    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
+  </si>
+  <si>
+    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
+    <t>7d7b17e0-e854-11ee-90b7-9b9aa9321258</t>
+  </si>
+  <si>
+    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>a51f7e70-e9ae-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>42d0b870-eab1-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
     <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
-  </si>
-  <si>
-    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>7d7b17e0-e854-11ee-90b7-9b9aa9321258</t>
-  </si>
-  <si>
-    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>a51f7e70-e9ae-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>42d0b870-eab1-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2122,7 @@
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
         <v>285</v>
@@ -2167,7 +2167,7 @@
         <v>464</v>
       </c>
       <c r="X3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y3" t="s">
         <v>493</v>
@@ -2238,7 +2238,7 @@
         <v>464</v>
       </c>
       <c r="X4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y4" t="s">
         <v>493</v>
@@ -2309,7 +2309,7 @@
         <v>464</v>
       </c>
       <c r="X5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y5" t="s">
         <v>493</v>
@@ -2380,7 +2380,7 @@
         <v>464</v>
       </c>
       <c r="X6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y6" t="s">
         <v>493</v>
@@ -2451,7 +2451,7 @@
         <v>464</v>
       </c>
       <c r="X7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y7" t="s">
         <v>493</v>
@@ -2522,7 +2522,7 @@
         <v>464</v>
       </c>
       <c r="X8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y8" t="s">
         <v>494</v>
@@ -2593,7 +2593,7 @@
         <v>464</v>
       </c>
       <c r="X9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y9" t="s">
         <v>494</v>
@@ -2664,7 +2664,7 @@
         <v>464</v>
       </c>
       <c r="X10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y10" t="s">
         <v>494</v>
@@ -2757,35 +2757,29 @@
       <c r="E12" t="s">
         <v>178</v>
       </c>
-      <c r="F12" t="s">
-        <v>230</v>
-      </c>
       <c r="G12">
-        <v>1099583</v>
+        <v>1600</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>287</v>
-      </c>
-      <c r="J12" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="K12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L12">
-        <v>100000</v>
+        <v>1600</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P12" t="s">
         <v>358</v>
@@ -2794,7 +2788,7 @@
         <v>360</v>
       </c>
       <c r="R12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S12" t="s">
         <v>365</v>
@@ -2812,7 +2806,7 @@
         <v>466</v>
       </c>
       <c r="X12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Y12" t="s">
         <v>496</v>
@@ -2835,19 +2829,19 @@
         <v>179</v>
       </c>
       <c r="G13">
-        <v>1600</v>
+        <v>5020</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="K13" t="s">
         <v>335</v>
       </c>
       <c r="L13">
-        <v>1600</v>
+        <v>5020</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2865,7 +2859,7 @@
         <v>360</v>
       </c>
       <c r="R13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S13" t="s">
         <v>365</v>
@@ -2883,7 +2877,7 @@
         <v>466</v>
       </c>
       <c r="X13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Y13" t="s">
         <v>497</v>
@@ -2894,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -2906,22 +2900,22 @@
         <v>180</v>
       </c>
       <c r="G14">
-        <v>5020</v>
+        <v>150000</v>
       </c>
       <c r="H14" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
         <v>288</v>
       </c>
       <c r="K14" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L14">
-        <v>5020</v>
+        <v>150000</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="N14" t="s">
         <v>356</v>
@@ -2930,13 +2924,13 @@
         <v>356</v>
       </c>
       <c r="P14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q14" t="s">
         <v>360</v>
       </c>
       <c r="R14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S14" t="s">
         <v>365</v>
@@ -2951,10 +2945,10 @@
         <v>455</v>
       </c>
       <c r="W14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X14" t="s">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="Y14" t="s">
         <v>498</v>
@@ -2962,25 +2956,25 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>181</v>
       </c>
       <c r="G15">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
         <v>289</v>
@@ -2989,10 +2983,10 @@
         <v>341</v>
       </c>
       <c r="L15">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M15">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="N15" t="s">
         <v>356</v>
@@ -3013,45 +3007,45 @@
         <v>365</v>
       </c>
       <c r="T15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W15" t="s">
         <v>467</v>
       </c>
       <c r="X15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
         <v>182</v>
       </c>
       <c r="G16">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>290</v>
@@ -3060,10 +3054,10 @@
         <v>341</v>
       </c>
       <c r="L16">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="M16">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="N16" t="s">
         <v>356</v>
@@ -3084,33 +3078,33 @@
         <v>365</v>
       </c>
       <c r="T16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W16" t="s">
         <v>467</v>
       </c>
       <c r="X16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>120</v>
@@ -3119,10 +3113,10 @@
         <v>183</v>
       </c>
       <c r="G17">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="I17" t="s">
         <v>291</v>
@@ -3131,10 +3125,10 @@
         <v>341</v>
       </c>
       <c r="L17">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="M17">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="N17" t="s">
         <v>356</v>
@@ -3155,33 +3149,33 @@
         <v>365</v>
       </c>
       <c r="T17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W17" t="s">
         <v>467</v>
       </c>
       <c r="X17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -3190,7 +3184,7 @@
         <v>184</v>
       </c>
       <c r="G18">
-        <v>160000</v>
+        <v>950000</v>
       </c>
       <c r="H18" t="s">
         <v>244</v>
@@ -3202,10 +3196,10 @@
         <v>341</v>
       </c>
       <c r="L18">
-        <v>160000</v>
+        <v>950000</v>
       </c>
       <c r="M18">
-        <v>160000</v>
+        <v>950000</v>
       </c>
       <c r="N18" t="s">
         <v>356</v>
@@ -3226,39 +3220,39 @@
         <v>365</v>
       </c>
       <c r="T18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W18" t="s">
         <v>467</v>
       </c>
       <c r="X18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G19">
         <v>950000</v>
@@ -3267,7 +3261,7 @@
         <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K19" t="s">
         <v>341</v>
@@ -3297,33 +3291,33 @@
         <v>365</v>
       </c>
       <c r="T19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W19" t="s">
         <v>467</v>
       </c>
       <c r="X19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>123</v>
@@ -3332,7 +3326,7 @@
         <v>185</v>
       </c>
       <c r="G20">
-        <v>950000</v>
+        <v>97396.8</v>
       </c>
       <c r="H20" t="s">
         <v>246</v>
@@ -3341,13 +3335,13 @@
         <v>293</v>
       </c>
       <c r="K20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L20">
-        <v>950000</v>
+        <v>97396.8</v>
       </c>
       <c r="M20">
-        <v>950000</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
         <v>356</v>
@@ -3356,31 +3350,31 @@
         <v>356</v>
       </c>
       <c r="P20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q20" t="s">
         <v>360</v>
       </c>
       <c r="R20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="U20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="V20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X20" t="s">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="Y20" t="s">
         <v>499</v>
@@ -3388,13 +3382,13 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>124</v>
@@ -3402,29 +3396,35 @@
       <c r="E21" t="s">
         <v>186</v>
       </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
       <c r="G21">
-        <v>97396.8</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>294</v>
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
       </c>
       <c r="K21" t="s">
         <v>335</v>
       </c>
       <c r="L21">
-        <v>97396.8</v>
+        <v>100</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P21" t="s">
         <v>358</v>
@@ -3433,25 +3433,25 @@
         <v>360</v>
       </c>
       <c r="R21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="V21" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="W21" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="X21" t="s">
-        <v>230</v>
+        <v>482</v>
       </c>
       <c r="Y21" t="s">
         <v>500</v>
@@ -3462,7 +3462,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
@@ -3473,47 +3473,41 @@
       <c r="E22" t="s">
         <v>187</v>
       </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
       <c r="G22">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>335</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="N22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q22" t="s">
         <v>360</v>
       </c>
       <c r="R22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S22" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T22" t="s">
         <v>381</v>
@@ -3522,13 +3516,13 @@
         <v>420</v>
       </c>
       <c r="V22" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="W22" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="X22" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="Y22" t="s">
         <v>501</v>
@@ -3536,37 +3530,37 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K23" t="s">
         <v>335</v>
       </c>
       <c r="L23">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="N23" t="s">
         <v>356</v>
@@ -3587,33 +3581,33 @@
         <v>367</v>
       </c>
       <c r="T23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W23" t="s">
         <v>468</v>
       </c>
       <c r="X23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Y23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>127</v>
@@ -3622,7 +3616,7 @@
         <v>188</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>10500</v>
       </c>
       <c r="H24" t="s">
         <v>248</v>
@@ -3631,13 +3625,13 @@
         <v>295</v>
       </c>
       <c r="K24" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>10500</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
         <v>356</v>
@@ -3646,31 +3640,31 @@
         <v>356</v>
       </c>
       <c r="P24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q24" t="s">
         <v>360</v>
       </c>
       <c r="R24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T24" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="U24" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="V24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="X24" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
         <v>502</v>
@@ -3678,13 +3672,13 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>128</v>
@@ -3693,7 +3687,7 @@
         <v>189</v>
       </c>
       <c r="G25">
-        <v>10500</v>
+        <v>400</v>
       </c>
       <c r="H25" t="s">
         <v>249</v>
@@ -3702,13 +3696,13 @@
         <v>296</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L25">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N25" t="s">
         <v>356</v>
@@ -3717,31 +3711,31 @@
         <v>356</v>
       </c>
       <c r="P25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q25" t="s">
         <v>360</v>
       </c>
       <c r="R25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T25" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="U25" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="V25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>421</v>
       </c>
       <c r="Y25" t="s">
         <v>503</v>
@@ -3749,13 +3743,13 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>129</v>
@@ -3764,7 +3758,7 @@
         <v>190</v>
       </c>
       <c r="G26">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H26" t="s">
         <v>250</v>
@@ -3773,13 +3767,13 @@
         <v>297</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="N26" t="s">
         <v>356</v>
@@ -3800,22 +3794,22 @@
         <v>365</v>
       </c>
       <c r="T26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W26" t="s">
         <v>469</v>
       </c>
       <c r="X26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3829,13 +3823,13 @@
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
         <v>191</v>
       </c>
       <c r="G27">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
         <v>251</v>
@@ -3844,14 +3838,14 @@
         <v>298</v>
       </c>
       <c r="K27" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="L27">
+        <v>200</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>1500</v>
-      </c>
       <c r="N27" t="s">
         <v>356</v>
       </c>
@@ -3859,7 +3853,7 @@
         <v>356</v>
       </c>
       <c r="P27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q27" t="s">
         <v>360</v>
@@ -3877,36 +3871,36 @@
         <v>422</v>
       </c>
       <c r="V27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W27" t="s">
         <v>469</v>
       </c>
       <c r="X27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>192</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
         <v>252</v>
@@ -3918,7 +3912,7 @@
         <v>335</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3942,33 +3936,33 @@
         <v>365</v>
       </c>
       <c r="T28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W28" t="s">
         <v>469</v>
       </c>
       <c r="X28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
@@ -3977,7 +3971,7 @@
         <v>193</v>
       </c>
       <c r="G29">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
         <v>253</v>
@@ -3986,10 +3980,10 @@
         <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L29">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4013,22 +4007,22 @@
         <v>365</v>
       </c>
       <c r="T29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W29" t="s">
         <v>469</v>
       </c>
       <c r="X29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4048,19 +4042,19 @@
         <v>194</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
         <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4078,7 +4072,7 @@
         <v>360</v>
       </c>
       <c r="R30" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S30" t="s">
         <v>365</v>
@@ -4090,13 +4084,13 @@
         <v>423</v>
       </c>
       <c r="V30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="W30" t="s">
         <v>469</v>
       </c>
       <c r="X30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y30" t="s">
         <v>504</v>
@@ -4119,19 +4113,19 @@
         <v>195</v>
       </c>
       <c r="G31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
         <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4161,48 +4155,48 @@
         <v>424</v>
       </c>
       <c r="V31" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W31" t="s">
         <v>469</v>
       </c>
       <c r="X31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
         <v>335</v>
       </c>
       <c r="L32">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4226,54 +4220,54 @@
         <v>365</v>
       </c>
       <c r="T32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W32" t="s">
         <v>469</v>
       </c>
       <c r="X32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
         <v>335</v>
       </c>
       <c r="L33">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4297,48 +4291,48 @@
         <v>365</v>
       </c>
       <c r="T33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W33" t="s">
         <v>469</v>
       </c>
       <c r="X33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s">
         <v>335</v>
@@ -4368,54 +4362,54 @@
         <v>365</v>
       </c>
       <c r="T34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W34" t="s">
         <v>469</v>
       </c>
       <c r="X34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s">
         <v>335</v>
       </c>
       <c r="L35">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4439,27 +4433,27 @@
         <v>365</v>
       </c>
       <c r="T35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W35" t="s">
         <v>469</v>
       </c>
       <c r="X35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
@@ -4474,7 +4468,7 @@
         <v>196</v>
       </c>
       <c r="G36">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H36" t="s">
         <v>255</v>
@@ -4483,10 +4477,10 @@
         <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="L36">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4516,21 +4510,21 @@
         <v>425</v>
       </c>
       <c r="V36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W36" t="s">
         <v>469</v>
       </c>
       <c r="X36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -4545,7 +4539,7 @@
         <v>197</v>
       </c>
       <c r="G37">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H37" t="s">
         <v>256</v>
@@ -4554,10 +4548,10 @@
         <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L37">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4587,48 +4581,48 @@
         <v>426</v>
       </c>
       <c r="V37" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="W37" t="s">
         <v>469</v>
       </c>
       <c r="X37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G38">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L38">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4652,10 +4646,10 @@
         <v>365</v>
       </c>
       <c r="T38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V38" t="s">
         <v>446</v>
@@ -4664,18 +4658,18 @@
         <v>469</v>
       </c>
       <c r="X38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -4687,7 +4681,7 @@
         <v>198</v>
       </c>
       <c r="G39">
-        <v>600</v>
+        <v>560000</v>
       </c>
       <c r="H39" t="s">
         <v>258</v>
@@ -4696,10 +4690,10 @@
         <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L39">
-        <v>600</v>
+        <v>290800</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4711,31 +4705,31 @@
         <v>356</v>
       </c>
       <c r="P39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q39" t="s">
         <v>360</v>
       </c>
       <c r="R39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S39" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T39" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="U39" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="V39" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="W39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="X39" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Y39" t="s">
         <v>505</v>
@@ -4743,34 +4737,34 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
         <v>341</v>
       </c>
       <c r="L40">
-        <v>290800</v>
+        <v>560000</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4794,22 +4788,22 @@
         <v>366</v>
       </c>
       <c r="T40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W40" t="s">
         <v>467</v>
       </c>
       <c r="X40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4817,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
@@ -4829,28 +4823,28 @@
         <v>199</v>
       </c>
       <c r="G41">
-        <v>560000</v>
+        <v>200</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I41" t="s">
         <v>306</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L41">
-        <v>560000</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" t="s">
         <v>356</v>
       </c>
       <c r="O41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P41" t="s">
         <v>359</v>
@@ -4862,22 +4856,22 @@
         <v>362</v>
       </c>
       <c r="S41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T41" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="U41" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="V41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W41" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="X41" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Y41" t="s">
         <v>506</v>
@@ -4885,13 +4879,13 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
@@ -4900,31 +4894,31 @@
         <v>200</v>
       </c>
       <c r="G42">
+        <v>5000</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="s">
         <v>200</v>
       </c>
-      <c r="H42" t="s">
-        <v>260</v>
-      </c>
-      <c r="I42" t="s">
-        <v>307</v>
-      </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L42">
+        <v>5000</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>200</v>
-      </c>
       <c r="N42" t="s">
         <v>356</v>
       </c>
       <c r="O42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q42" t="s">
         <v>360</v>
@@ -4936,22 +4930,22 @@
         <v>367</v>
       </c>
       <c r="T42" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="U42" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="V42" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="W42" t="s">
         <v>464</v>
       </c>
       <c r="X42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4962,7 +4956,7 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>143</v>
@@ -4971,19 +4965,19 @@
         <v>201</v>
       </c>
       <c r="G43">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L43">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5007,22 +5001,22 @@
         <v>367</v>
       </c>
       <c r="T43" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="U43" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="V43" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="W43" t="s">
         <v>464</v>
       </c>
       <c r="X43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5042,19 +5036,19 @@
         <v>202</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>6110</v>
       </c>
       <c r="H44" t="s">
         <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="K44" t="s">
         <v>338</v>
       </c>
       <c r="L44">
-        <v>200</v>
+        <v>6110</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5084,16 +5078,16 @@
         <v>429</v>
       </c>
       <c r="V44" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="W44" t="s">
         <v>464</v>
       </c>
       <c r="X44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5113,19 +5107,19 @@
         <v>203</v>
       </c>
       <c r="G45">
-        <v>6110</v>
+        <v>1000</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L45">
-        <v>6110</v>
+        <v>1000</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5155,16 +5149,16 @@
         <v>430</v>
       </c>
       <c r="V45" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="W45" t="s">
         <v>464</v>
       </c>
       <c r="X45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -5175,7 +5169,7 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
         <v>146</v>
@@ -5184,10 +5178,10 @@
         <v>204</v>
       </c>
       <c r="G46">
-        <v>1000</v>
+        <v>4372</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" t="s">
         <v>309</v>
@@ -5196,7 +5190,7 @@
         <v>335</v>
       </c>
       <c r="L46">
-        <v>1000</v>
+        <v>4372</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5220,30 +5214,30 @@
         <v>367</v>
       </c>
       <c r="T46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="W46" t="s">
         <v>464</v>
       </c>
       <c r="X46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
@@ -5255,40 +5249,40 @@
         <v>205</v>
       </c>
       <c r="G47">
-        <v>4372</v>
+        <v>34000</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="I47" t="s">
         <v>310</v>
       </c>
       <c r="K47" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L47">
-        <v>4372</v>
+        <v>34000</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="N47" t="s">
         <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q47" t="s">
         <v>360</v>
       </c>
       <c r="R47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T47" t="s">
         <v>392</v>
@@ -5297,13 +5291,13 @@
         <v>431</v>
       </c>
       <c r="V47" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W47" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="X47" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Y47" t="s">
         <v>507</v>
@@ -5314,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
@@ -5325,56 +5319,62 @@
       <c r="E48" t="s">
         <v>206</v>
       </c>
+      <c r="F48" t="s">
+        <v>230</v>
+      </c>
       <c r="G48">
-        <v>34000</v>
+        <v>6500000</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
         <v>311</v>
       </c>
+      <c r="J48" t="s">
+        <v>331</v>
+      </c>
       <c r="K48" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L48">
-        <v>34000</v>
+        <v>6500000</v>
       </c>
       <c r="M48">
-        <v>34000</v>
+        <v>6500000</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q48" t="s">
         <v>360</v>
       </c>
       <c r="R48" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T48" t="s">
         <v>393</v>
       </c>
       <c r="U48" t="s">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="V48" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W48" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="X48" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="Y48" t="s">
         <v>508</v>
@@ -5385,7 +5385,7 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
@@ -5396,11 +5396,8 @@
       <c r="E49" t="s">
         <v>207</v>
       </c>
-      <c r="F49" t="s">
-        <v>231</v>
-      </c>
       <c r="G49">
-        <v>6500000</v>
+        <v>345000</v>
       </c>
       <c r="H49" t="s">
         <v>263</v>
@@ -5408,20 +5405,17 @@
       <c r="I49" t="s">
         <v>312</v>
       </c>
-      <c r="J49" t="s">
-        <v>331</v>
-      </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L49">
-        <v>6500000</v>
+        <v>100</v>
       </c>
       <c r="M49">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O49" t="s">
         <v>356</v>
@@ -5433,25 +5427,25 @@
         <v>360</v>
       </c>
       <c r="R49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T49" t="s">
         <v>394</v>
       </c>
       <c r="U49" t="s">
-        <v>231</v>
+        <v>432</v>
       </c>
       <c r="V49" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="W49" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y49" t="s">
         <v>509</v>
@@ -5459,34 +5453,34 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K50" t="s">
         <v>341</v>
       </c>
       <c r="L50">
-        <v>100</v>
+        <v>269900</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5510,13 +5504,13 @@
         <v>365</v>
       </c>
       <c r="T50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W50" t="s">
         <v>472</v>
@@ -5525,48 +5519,54 @@
         <v>485</v>
       </c>
       <c r="Y50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
         <v>208</v>
       </c>
+      <c r="F51" t="s">
+        <v>231</v>
+      </c>
       <c r="G51">
-        <v>345000</v>
+        <v>130100</v>
       </c>
       <c r="H51" t="s">
         <v>264</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>208</v>
+      </c>
+      <c r="J51" t="s">
+        <v>231</v>
       </c>
       <c r="K51" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L51">
-        <v>269900</v>
+        <v>130100</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s">
         <v>358</v>
@@ -5581,13 +5581,13 @@
         <v>365</v>
       </c>
       <c r="T51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W51" t="s">
         <v>472</v>
@@ -5596,45 +5596,45 @@
         <v>485</v>
       </c>
       <c r="Y51" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G52">
-        <v>130100</v>
+        <v>52300</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K52" t="s">
         <v>335</v>
       </c>
       <c r="L52">
-        <v>130100</v>
+        <v>52300</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>365</v>
       </c>
       <c r="T52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W52" t="s">
         <v>472</v>
@@ -5673,45 +5673,45 @@
         <v>485</v>
       </c>
       <c r="Y52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G53">
-        <v>52300</v>
+        <v>127300</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s">
         <v>335</v>
       </c>
       <c r="L53">
-        <v>52300</v>
+        <v>127300</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5735,13 +5735,13 @@
         <v>365</v>
       </c>
       <c r="T53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W53" t="s">
         <v>472</v>
@@ -5750,45 +5750,45 @@
         <v>485</v>
       </c>
       <c r="Y53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G54">
-        <v>127300</v>
+        <v>10000</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K54" t="s">
         <v>335</v>
       </c>
       <c r="L54">
-        <v>127300</v>
+        <v>10000</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5812,13 +5812,13 @@
         <v>365</v>
       </c>
       <c r="T54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W54" t="s">
         <v>472</v>
@@ -5827,7 +5827,7 @@
         <v>485</v>
       </c>
       <c r="Y54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5835,7 +5835,7 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -5847,25 +5847,25 @@
         <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="G55">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H55" t="s">
         <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="J55" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K55" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L55">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>433</v>
       </c>
       <c r="V55" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W55" t="s">
         <v>472</v>
@@ -5904,54 +5904,48 @@
         <v>485</v>
       </c>
       <c r="Y55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
         <v>210</v>
       </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
       <c r="G56">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="I56" t="s">
         <v>314</v>
       </c>
-      <c r="J56" t="s">
-        <v>55</v>
-      </c>
       <c r="K56" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L56">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P56" t="s">
         <v>358</v>
@@ -5966,10 +5960,10 @@
         <v>365</v>
       </c>
       <c r="T56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V56" t="s">
         <v>452</v>
@@ -5981,7 +5975,7 @@
         <v>485</v>
       </c>
       <c r="Y56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5989,31 +5983,31 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
         <v>211</v>
       </c>
       <c r="G57">
-        <v>50000</v>
+        <v>386</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
         <v>315</v>
       </c>
       <c r="K57" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L57">
-        <v>20000</v>
+        <v>386</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6031,7 +6025,7 @@
         <v>360</v>
       </c>
       <c r="R57" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S57" t="s">
         <v>365</v>
@@ -6043,13 +6037,13 @@
         <v>434</v>
       </c>
       <c r="V57" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W57" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X57" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y57" t="s">
         <v>510</v>
@@ -6057,13 +6051,13 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>152</v>
@@ -6071,29 +6065,35 @@
       <c r="E58" t="s">
         <v>212</v>
       </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
       <c r="G58">
-        <v>386</v>
+        <v>120</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
       </c>
       <c r="K58" t="s">
         <v>341</v>
       </c>
       <c r="L58">
-        <v>386</v>
+        <v>120</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P58" t="s">
         <v>358</v>
@@ -6108,13 +6108,13 @@
         <v>365</v>
       </c>
       <c r="T58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W58" t="s">
         <v>473</v>
@@ -6123,18 +6123,18 @@
         <v>486</v>
       </c>
       <c r="Y58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
         <v>153</v>
@@ -6142,35 +6142,29 @@
       <c r="E59" t="s">
         <v>213</v>
       </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
       <c r="G59">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="H59" t="s">
         <v>267</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
-      </c>
-      <c r="J59" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="K59" t="s">
         <v>341</v>
       </c>
       <c r="L59">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P59" t="s">
         <v>358</v>
@@ -6185,13 +6179,13 @@
         <v>365</v>
       </c>
       <c r="T59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W59" t="s">
         <v>473</v>
@@ -6200,7 +6194,7 @@
         <v>486</v>
       </c>
       <c r="Y59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6208,7 +6202,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>96</v>
@@ -6220,7 +6214,7 @@
         <v>214</v>
       </c>
       <c r="G60">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H60" t="s">
         <v>268</v>
@@ -6232,7 +6226,7 @@
         <v>341</v>
       </c>
       <c r="L60">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6262,7 +6256,7 @@
         <v>435</v>
       </c>
       <c r="V60" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="W60" t="s">
         <v>473</v>
@@ -6271,30 +6265,30 @@
         <v>486</v>
       </c>
       <c r="Y60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
         <v>215</v>
       </c>
       <c r="G61">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I61" t="s">
         <v>318</v>
@@ -6303,7 +6297,7 @@
         <v>341</v>
       </c>
       <c r="L61">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6327,13 +6321,13 @@
         <v>365</v>
       </c>
       <c r="T61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W61" t="s">
         <v>473</v>
@@ -6342,7 +6336,7 @@
         <v>486</v>
       </c>
       <c r="Y61" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -6350,7 +6344,7 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>97</v>
@@ -6362,19 +6356,19 @@
         <v>216</v>
       </c>
       <c r="G62">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="H62" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="I62" t="s">
         <v>319</v>
       </c>
       <c r="K62" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L62">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6395,7 +6389,7 @@
         <v>362</v>
       </c>
       <c r="S62" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T62" t="s">
         <v>398</v>
@@ -6404,13 +6398,13 @@
         <v>436</v>
       </c>
       <c r="V62" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="W62" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X62" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y62" t="s">
         <v>511</v>
@@ -6418,34 +6412,34 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G63">
-        <v>3100</v>
+        <v>12000</v>
       </c>
       <c r="H63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K63" t="s">
         <v>335</v>
       </c>
       <c r="L63">
-        <v>3100</v>
+        <v>12000</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6469,13 +6463,13 @@
         <v>366</v>
       </c>
       <c r="T63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W63" t="s">
         <v>474</v>
@@ -6484,7 +6478,7 @@
         <v>487</v>
       </c>
       <c r="Y63" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6492,7 +6486,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>98</v>
@@ -6503,32 +6497,38 @@
       <c r="E64" t="s">
         <v>217</v>
       </c>
+      <c r="F64" t="s">
+        <v>232</v>
+      </c>
       <c r="G64">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="I64" t="s">
         <v>320</v>
       </c>
+      <c r="J64" t="s">
+        <v>332</v>
+      </c>
       <c r="K64" t="s">
         <v>335</v>
       </c>
       <c r="L64">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O64" t="s">
         <v>356</v>
       </c>
       <c r="P64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q64" t="s">
         <v>360</v>
@@ -6537,22 +6537,22 @@
         <v>362</v>
       </c>
       <c r="S64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T64" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="U64" t="s">
-        <v>437</v>
+        <v>232</v>
       </c>
       <c r="V64" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="W64" t="s">
-        <v>474</v>
+        <v>217</v>
       </c>
       <c r="X64" t="s">
-        <v>487</v>
+        <v>232</v>
       </c>
       <c r="Y64" t="s">
         <v>512</v>
@@ -6560,16 +6560,16 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
         <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
         <v>218</v>
@@ -6578,7 +6578,7 @@
         <v>233</v>
       </c>
       <c r="G65">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
         <v>270</v>
@@ -6587,16 +6587,16 @@
         <v>321</v>
       </c>
       <c r="J65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K65" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L65">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N65" t="s">
         <v>357</v>
@@ -6617,16 +6617,16 @@
         <v>365</v>
       </c>
       <c r="T65" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="U65" t="s">
         <v>233</v>
       </c>
       <c r="V65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W65" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="X65" t="s">
         <v>233</v>
@@ -6637,25 +6637,25 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
         <v>56</v>
       </c>
       <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66">
         <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" t="s">
-        <v>234</v>
-      </c>
-      <c r="G66">
-        <v>40</v>
       </c>
       <c r="H66" t="s">
         <v>271</v>
@@ -6670,10 +6670,10 @@
         <v>351</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N66" t="s">
         <v>357</v>
@@ -6694,42 +6694,42 @@
         <v>365</v>
       </c>
       <c r="T66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W66" t="s">
         <v>475</v>
       </c>
       <c r="X66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y66" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
         <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -6738,7 +6738,7 @@
         <v>272</v>
       </c>
       <c r="I67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J67" t="s">
         <v>333</v>
@@ -6771,30 +6771,30 @@
         <v>365</v>
       </c>
       <c r="T67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W67" t="s">
         <v>475</v>
       </c>
       <c r="X67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
@@ -6809,40 +6809,40 @@
         <v>234</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="I68" t="s">
         <v>323</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="K68" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L68">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N68" t="s">
         <v>357</v>
       </c>
       <c r="O68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q68" t="s">
         <v>360</v>
       </c>
       <c r="R68" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="S68" t="s">
         <v>365</v>
@@ -6851,16 +6851,16 @@
         <v>400</v>
       </c>
       <c r="U68" t="s">
-        <v>234</v>
+        <v>437</v>
       </c>
       <c r="V68" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="W68" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X68" t="s">
-        <v>234</v>
+        <v>488</v>
       </c>
       <c r="Y68" t="s">
         <v>514</v>
@@ -6871,7 +6871,7 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
         <v>101</v>
@@ -6882,44 +6882,38 @@
       <c r="E69" t="s">
         <v>220</v>
       </c>
-      <c r="F69" t="s">
-        <v>235</v>
-      </c>
       <c r="G69">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="H69" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="I69" t="s">
         <v>324</v>
       </c>
-      <c r="J69" t="s">
-        <v>235</v>
-      </c>
       <c r="K69" t="s">
         <v>335</v>
       </c>
       <c r="L69">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q69" t="s">
         <v>360</v>
       </c>
       <c r="R69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S69" t="s">
         <v>365</v>
@@ -6931,13 +6925,13 @@
         <v>438</v>
       </c>
       <c r="V69" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="W69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="X69" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="Y69" t="s">
         <v>515</v>
@@ -6948,7 +6942,7 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
         <v>102</v>
@@ -6960,7 +6954,7 @@
         <v>221</v>
       </c>
       <c r="G70">
-        <v>60000</v>
+        <v>369500</v>
       </c>
       <c r="H70" t="s">
         <v>274</v>
@@ -6969,10 +6963,10 @@
         <v>325</v>
       </c>
       <c r="K70" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L70">
-        <v>60000</v>
+        <v>369500</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -7002,10 +6996,10 @@
         <v>439</v>
       </c>
       <c r="V70" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W70" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X70" t="s">
         <v>439</v>
@@ -7016,34 +7010,34 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
         <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G71">
-        <v>369500</v>
+        <v>387000</v>
       </c>
       <c r="H71" t="s">
         <v>275</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K71" t="s">
         <v>341</v>
       </c>
       <c r="L71">
-        <v>369500</v>
+        <v>387000</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7067,22 +7061,22 @@
         <v>365</v>
       </c>
       <c r="T71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W71" t="s">
         <v>478</v>
       </c>
       <c r="X71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7090,7 +7084,7 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>103</v>
@@ -7102,7 +7096,7 @@
         <v>222</v>
       </c>
       <c r="G72">
-        <v>387000</v>
+        <v>16000</v>
       </c>
       <c r="H72" t="s">
         <v>276</v>
@@ -7114,7 +7108,7 @@
         <v>341</v>
       </c>
       <c r="L72">
-        <v>387000</v>
+        <v>16000</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7126,13 +7120,13 @@
         <v>356</v>
       </c>
       <c r="P72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q72" t="s">
         <v>360</v>
       </c>
       <c r="R72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S72" t="s">
         <v>365</v>
@@ -7144,13 +7138,13 @@
         <v>440</v>
       </c>
       <c r="V72" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="W72" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="X72" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="Y72" t="s">
         <v>517</v>
@@ -7161,7 +7155,7 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>104</v>
@@ -7172,8 +7166,11 @@
       <c r="E73" t="s">
         <v>223</v>
       </c>
+      <c r="F73" t="s">
+        <v>55</v>
+      </c>
       <c r="G73">
-        <v>16000</v>
+        <v>5400</v>
       </c>
       <c r="H73" t="s">
         <v>277</v>
@@ -7181,20 +7178,23 @@
       <c r="I73" t="s">
         <v>327</v>
       </c>
+      <c r="J73" t="s">
+        <v>334</v>
+      </c>
       <c r="K73" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L73">
-        <v>16000</v>
+        <v>5400</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P73" t="s">
         <v>358</v>
@@ -7203,7 +7203,7 @@
         <v>360</v>
       </c>
       <c r="R73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S73" t="s">
         <v>365</v>
@@ -7215,13 +7215,13 @@
         <v>441</v>
       </c>
       <c r="V73" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="W73" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="X73" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y73" t="s">
         <v>518</v>
@@ -7232,7 +7232,7 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
         <v>105</v>
@@ -7243,11 +7243,8 @@
       <c r="E74" t="s">
         <v>224</v>
       </c>
-      <c r="F74" t="s">
-        <v>55</v>
-      </c>
       <c r="G74">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="H74" t="s">
         <v>278</v>
@@ -7255,23 +7252,20 @@
       <c r="I74" t="s">
         <v>328</v>
       </c>
-      <c r="J74" t="s">
-        <v>334</v>
-      </c>
       <c r="K74" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L74">
-        <v>5400</v>
+        <v>6100</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P74" t="s">
         <v>358</v>
@@ -7292,13 +7286,13 @@
         <v>442</v>
       </c>
       <c r="V74" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W74" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="X74" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y74" t="s">
         <v>519</v>
@@ -7306,70 +7300,70 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
         <v>225</v>
       </c>
       <c r="G75">
-        <v>6200</v>
+        <v>2800</v>
       </c>
       <c r="H75" t="s">
         <v>279</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="K75" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L75">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="N75" t="s">
         <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q75" t="s">
         <v>360</v>
       </c>
       <c r="R75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S75" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T75" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="U75" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="V75" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="W75" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="X75" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="Y75" t="s">
         <v>520</v>
@@ -7377,37 +7371,37 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
         <v>226</v>
       </c>
       <c r="G76">
-        <v>2800</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
         <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>2800</v>
+        <v>25</v>
       </c>
       <c r="N76" t="s">
         <v>356</v>
@@ -7428,66 +7422,66 @@
         <v>368</v>
       </c>
       <c r="T76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W76" t="s">
         <v>464</v>
       </c>
       <c r="X76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="K77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L77">
+        <v>8</v>
+      </c>
+      <c r="M77">
         <v>0</v>
       </c>
-      <c r="M77">
-        <v>25</v>
-      </c>
       <c r="N77" t="s">
         <v>356</v>
       </c>
       <c r="O77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q77" t="s">
         <v>360</v>
@@ -7499,19 +7493,19 @@
         <v>368</v>
       </c>
       <c r="T77" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="U77" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="V77" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="W77" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="X77" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Y77" t="s">
         <v>521</v>
@@ -7519,28 +7513,28 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
         <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K78" t="s">
         <v>354</v>
@@ -7570,90 +7564,90 @@
         <v>368</v>
       </c>
       <c r="T78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W78" t="s">
         <v>469</v>
       </c>
       <c r="X78" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y78" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
         <v>228</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="H79" t="s">
         <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="K79" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N79" t="s">
         <v>356</v>
       </c>
       <c r="O79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q79" t="s">
         <v>360</v>
       </c>
       <c r="R79" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S79" t="s">
         <v>368</v>
       </c>
       <c r="T79" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="U79" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="V79" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="W79" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="X79" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Y79" t="s">
         <v>522</v>
@@ -7661,70 +7655,76 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
         <v>229</v>
       </c>
+      <c r="F80" t="s">
+        <v>235</v>
+      </c>
       <c r="G80">
-        <v>100</v>
+        <v>1099583</v>
       </c>
       <c r="H80" t="s">
         <v>283</v>
       </c>
       <c r="I80" t="s">
-        <v>307</v>
+        <v>330</v>
+      </c>
+      <c r="J80" t="s">
+        <v>235</v>
       </c>
       <c r="K80" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L80">
+        <v>100000</v>
+      </c>
+      <c r="M80">
         <v>0</v>
       </c>
-      <c r="M80">
-        <v>100</v>
-      </c>
       <c r="N80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O80" t="s">
         <v>357</v>
       </c>
       <c r="P80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q80" t="s">
         <v>360</v>
       </c>
       <c r="R80" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S80" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T80" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U80" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="V80" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="W80" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="X80" t="s">
-        <v>428</v>
+        <v>235</v>
       </c>
       <c r="Y80" t="s">
         <v>523</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -100,6 +100,9 @@
     <t xml:space="preserve">АТ "Райффайзен Банк АВАЛЬ" Попільнянське відділення </t>
   </si>
   <si>
+    <t>ПАТ"МІБ"</t>
+  </si>
+  <si>
     <t>АТ "Міжнародний інвестиційний банк"</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
     <t>АТ "ПРИВАТБАНК"</t>
   </si>
   <si>
-    <t>ПАТ"МІБ"</t>
-  </si>
-  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -242,6 +242,9 @@
     <t>UA153808050000000026009543306</t>
   </si>
   <si>
+    <t>UA503805820000026000010325931</t>
+  </si>
+  <si>
     <t>UA243805820000026004010318212</t>
   </si>
   <si>
@@ -338,9 +341,6 @@
     <t>UA693808050000000026004671091</t>
   </si>
   <si>
-    <t>UA503805820000026000010325931</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -368,6 +368,9 @@
     <t>16.03.2021</t>
   </si>
   <si>
+    <t>21.09.2020</t>
+  </si>
+  <si>
     <t>29.06.2021</t>
   </si>
   <si>
@@ -512,9 +515,6 @@
     <t>22.12.2021</t>
   </si>
   <si>
-    <t>21.09.2020</t>
-  </si>
-  <si>
     <t>08.02.2021</t>
   </si>
   <si>
@@ -551,6 +551,9 @@
     <t>МІТНІЦЬКИЙ ЮРІЙ ГЕОРГІЙОВИЧ</t>
   </si>
   <si>
+    <t>ПП'ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
     <t>МУЗИКА ПЕТРО-ВАСИЛЬ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -704,7 +707,7 @@
     <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
   </si>
   <si>
-    <t>ПП'ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+    <t>21715714</t>
   </si>
   <si>
     <t>20806283</t>
@@ -722,9 +725,6 @@
     <t>02472453</t>
   </si>
   <si>
-    <t>21715714</t>
-  </si>
-  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -743,6 +743,9 @@
     <t>04.02.2022</t>
   </si>
   <si>
+    <t>27.01.2021</t>
+  </si>
+  <si>
     <t>22.09.2021</t>
   </si>
   <si>
@@ -866,9 +869,6 @@
     <t>12.04.2024</t>
   </si>
   <si>
-    <t>27.01.2021</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -878,6 +878,9 @@
     <t>Мітніцький Юрій Георгійович</t>
   </si>
   <si>
+    <t>ПП"Європейська Солідарність"</t>
+  </si>
+  <si>
     <t>Івко Антон Валерійович</t>
   </si>
   <si>
@@ -1005,9 +1008,6 @@
   </si>
   <si>
     <t>Нездолій Григорій Григорович</t>
-  </si>
-  <si>
-    <t>ПП"Європейська Солідарність"</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1152,6 +1152,9 @@
     <t>Попільнянська районна партійна організація Всеукраїнського об'єднання "Батьківщина" Житомирської області</t>
   </si>
   <si>
+    <t>КИЇВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
     <t>ЛЬВІВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ " ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
   </si>
   <si>
@@ -1242,9 +1245,6 @@
     <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
   </si>
   <si>
-    <t>КИЇВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1269,6 +1269,9 @@
     <t>33864810</t>
   </si>
   <si>
+    <t>39495516</t>
+  </si>
+  <si>
     <t>39702118</t>
   </si>
   <si>
@@ -1353,9 +1356,6 @@
     <t>43379734</t>
   </si>
   <si>
-    <t>39495516</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1380,6 +1380,9 @@
     <t>Житомирська обл.</t>
   </si>
   <si>
+    <t>м.Київ</t>
+  </si>
+  <si>
     <t>Львівська обл.</t>
   </si>
   <si>
@@ -1407,9 +1410,6 @@
     <t>Черкаська обл.</t>
   </si>
   <si>
-    <t>м.Київ</t>
-  </si>
-  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1509,6 +1509,9 @@
     <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
   </si>
   <si>
+    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
     <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
   </si>
   <si>
@@ -1588,9 +1591,6 @@
   </si>
   <si>
     <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2122,7 @@
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>285</v>
@@ -2167,7 +2167,7 @@
         <v>464</v>
       </c>
       <c r="X3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y3" t="s">
         <v>493</v>
@@ -2238,7 +2238,7 @@
         <v>464</v>
       </c>
       <c r="X4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y4" t="s">
         <v>493</v>
@@ -2309,7 +2309,7 @@
         <v>464</v>
       </c>
       <c r="X5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y5" t="s">
         <v>493</v>
@@ -2380,7 +2380,7 @@
         <v>464</v>
       </c>
       <c r="X6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y6" t="s">
         <v>493</v>
@@ -2451,7 +2451,7 @@
         <v>464</v>
       </c>
       <c r="X7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y7" t="s">
         <v>493</v>
@@ -2522,7 +2522,7 @@
         <v>464</v>
       </c>
       <c r="X8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y8" t="s">
         <v>494</v>
@@ -2593,7 +2593,7 @@
         <v>464</v>
       </c>
       <c r="X9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y9" t="s">
         <v>494</v>
@@ -2664,7 +2664,7 @@
         <v>464</v>
       </c>
       <c r="X10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y10" t="s">
         <v>494</v>
@@ -2757,29 +2757,35 @@
       <c r="E12" t="s">
         <v>178</v>
       </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
       <c r="G12">
-        <v>1600</v>
+        <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>287</v>
+      </c>
+      <c r="J12" t="s">
+        <v>230</v>
       </c>
       <c r="K12" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L12">
-        <v>1600</v>
+        <v>100000</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P12" t="s">
         <v>358</v>
@@ -2788,7 +2794,7 @@
         <v>360</v>
       </c>
       <c r="R12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S12" t="s">
         <v>365</v>
@@ -2806,7 +2812,7 @@
         <v>466</v>
       </c>
       <c r="X12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y12" t="s">
         <v>496</v>
@@ -2829,19 +2835,19 @@
         <v>179</v>
       </c>
       <c r="G13">
-        <v>5020</v>
+        <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="K13" t="s">
         <v>335</v>
       </c>
       <c r="L13">
-        <v>5020</v>
+        <v>1600</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2859,7 +2865,7 @@
         <v>360</v>
       </c>
       <c r="R13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S13" t="s">
         <v>365</v>
@@ -2877,7 +2883,7 @@
         <v>466</v>
       </c>
       <c r="X13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y13" t="s">
         <v>497</v>
@@ -2888,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -2900,22 +2906,22 @@
         <v>180</v>
       </c>
       <c r="G14">
-        <v>150000</v>
+        <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="I14" t="s">
         <v>288</v>
       </c>
       <c r="K14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L14">
-        <v>150000</v>
+        <v>5020</v>
       </c>
       <c r="M14">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
         <v>356</v>
@@ -2924,13 +2930,13 @@
         <v>356</v>
       </c>
       <c r="P14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q14" t="s">
         <v>360</v>
       </c>
       <c r="R14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="S14" t="s">
         <v>365</v>
@@ -2945,10 +2951,10 @@
         <v>455</v>
       </c>
       <c r="W14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X14" t="s">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="Y14" t="s">
         <v>498</v>
@@ -2956,25 +2962,25 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
         <v>181</v>
       </c>
       <c r="G15">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
         <v>289</v>
@@ -2983,10 +2989,10 @@
         <v>341</v>
       </c>
       <c r="L15">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="M15">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="N15" t="s">
         <v>356</v>
@@ -3007,45 +3013,45 @@
         <v>365</v>
       </c>
       <c r="T15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W15" t="s">
         <v>467</v>
       </c>
       <c r="X15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>182</v>
       </c>
       <c r="G16">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
         <v>290</v>
@@ -3054,10 +3060,10 @@
         <v>341</v>
       </c>
       <c r="L16">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M16">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="N16" t="s">
         <v>356</v>
@@ -3078,33 +3084,33 @@
         <v>365</v>
       </c>
       <c r="T16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W16" t="s">
         <v>467</v>
       </c>
       <c r="X16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
         <v>120</v>
@@ -3113,10 +3119,10 @@
         <v>183</v>
       </c>
       <c r="G17">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
         <v>291</v>
@@ -3125,10 +3131,10 @@
         <v>341</v>
       </c>
       <c r="L17">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="M17">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="N17" t="s">
         <v>356</v>
@@ -3149,33 +3155,33 @@
         <v>365</v>
       </c>
       <c r="T17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W17" t="s">
         <v>467</v>
       </c>
       <c r="X17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -3184,7 +3190,7 @@
         <v>184</v>
       </c>
       <c r="G18">
-        <v>950000</v>
+        <v>160000</v>
       </c>
       <c r="H18" t="s">
         <v>244</v>
@@ -3196,10 +3202,10 @@
         <v>341</v>
       </c>
       <c r="L18">
-        <v>950000</v>
+        <v>160000</v>
       </c>
       <c r="M18">
-        <v>950000</v>
+        <v>160000</v>
       </c>
       <c r="N18" t="s">
         <v>356</v>
@@ -3220,39 +3226,39 @@
         <v>365</v>
       </c>
       <c r="T18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W18" t="s">
         <v>467</v>
       </c>
       <c r="X18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G19">
         <v>950000</v>
@@ -3261,7 +3267,7 @@
         <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
         <v>341</v>
@@ -3291,33 +3297,33 @@
         <v>365</v>
       </c>
       <c r="T19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V19" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W19" t="s">
         <v>467</v>
       </c>
       <c r="X19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>123</v>
@@ -3326,7 +3332,7 @@
         <v>185</v>
       </c>
       <c r="G20">
-        <v>97396.8</v>
+        <v>950000</v>
       </c>
       <c r="H20" t="s">
         <v>246</v>
@@ -3335,13 +3341,13 @@
         <v>293</v>
       </c>
       <c r="K20" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L20">
-        <v>97396.8</v>
+        <v>950000</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>950000</v>
       </c>
       <c r="N20" t="s">
         <v>356</v>
@@ -3350,31 +3356,31 @@
         <v>356</v>
       </c>
       <c r="P20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q20" t="s">
         <v>360</v>
       </c>
       <c r="R20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="U20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="V20" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X20" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="Y20" t="s">
         <v>499</v>
@@ -3382,13 +3388,13 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>124</v>
@@ -3396,35 +3402,29 @@
       <c r="E21" t="s">
         <v>186</v>
       </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
       <c r="G21">
-        <v>100</v>
+        <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="K21" t="s">
         <v>335</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>97396.8</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P21" t="s">
         <v>358</v>
@@ -3433,25 +3433,25 @@
         <v>360</v>
       </c>
       <c r="R21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="W21" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="X21" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
         <v>500</v>
@@ -3462,7 +3462,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
@@ -3473,41 +3473,47 @@
       <c r="E22" t="s">
         <v>187</v>
       </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
       <c r="G22">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>294</v>
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
       </c>
       <c r="K22" t="s">
         <v>335</v>
       </c>
       <c r="L22">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="M22">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q22" t="s">
         <v>360</v>
       </c>
       <c r="R22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T22" t="s">
         <v>381</v>
@@ -3516,13 +3522,13 @@
         <v>420</v>
       </c>
       <c r="V22" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="W22" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="X22" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="Y22" t="s">
         <v>501</v>
@@ -3530,37 +3536,37 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>335</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="N23" t="s">
         <v>356</v>
@@ -3581,33 +3587,33 @@
         <v>367</v>
       </c>
       <c r="T23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="U23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W23" t="s">
         <v>468</v>
       </c>
       <c r="X23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>127</v>
@@ -3616,7 +3622,7 @@
         <v>188</v>
       </c>
       <c r="G24">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
         <v>248</v>
@@ -3625,13 +3631,13 @@
         <v>295</v>
       </c>
       <c r="K24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L24">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
         <v>356</v>
@@ -3640,31 +3646,31 @@
         <v>356</v>
       </c>
       <c r="P24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q24" t="s">
         <v>360</v>
       </c>
       <c r="R24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T24" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="U24" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="V24" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="Y24" t="s">
         <v>502</v>
@@ -3672,13 +3678,13 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>128</v>
@@ -3687,7 +3693,7 @@
         <v>189</v>
       </c>
       <c r="G25">
-        <v>400</v>
+        <v>10500</v>
       </c>
       <c r="H25" t="s">
         <v>249</v>
@@ -3696,14 +3702,14 @@
         <v>296</v>
       </c>
       <c r="K25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L25">
+        <v>10500</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>400</v>
-      </c>
       <c r="N25" t="s">
         <v>356</v>
       </c>
@@ -3711,31 +3717,31 @@
         <v>356</v>
       </c>
       <c r="P25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q25" t="s">
         <v>360</v>
       </c>
       <c r="R25" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="U25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="V25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="X25" t="s">
-        <v>421</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
         <v>503</v>
@@ -3743,13 +3749,13 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>129</v>
@@ -3758,7 +3764,7 @@
         <v>190</v>
       </c>
       <c r="G26">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
         <v>250</v>
@@ -3767,13 +3773,13 @@
         <v>297</v>
       </c>
       <c r="K26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="N26" t="s">
         <v>356</v>
@@ -3794,22 +3800,22 @@
         <v>365</v>
       </c>
       <c r="T26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="U26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W26" t="s">
         <v>469</v>
       </c>
       <c r="X26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3823,13 +3829,13 @@
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>191</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="H27" t="s">
         <v>251</v>
@@ -3838,13 +3844,13 @@
         <v>298</v>
       </c>
       <c r="K27" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L27">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N27" t="s">
         <v>356</v>
@@ -3853,7 +3859,7 @@
         <v>356</v>
       </c>
       <c r="P27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q27" t="s">
         <v>360</v>
@@ -3871,36 +3877,36 @@
         <v>422</v>
       </c>
       <c r="V27" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W27" t="s">
         <v>469</v>
       </c>
       <c r="X27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
         <v>192</v>
       </c>
       <c r="G28">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
         <v>252</v>
@@ -3912,7 +3918,7 @@
         <v>335</v>
       </c>
       <c r="L28">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3936,33 +3942,33 @@
         <v>365</v>
       </c>
       <c r="T28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W28" t="s">
         <v>469</v>
       </c>
       <c r="X28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y28" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
@@ -3971,7 +3977,7 @@
         <v>193</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="H29" t="s">
         <v>253</v>
@@ -3980,10 +3986,10 @@
         <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4007,22 +4013,22 @@
         <v>365</v>
       </c>
       <c r="T29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W29" t="s">
         <v>469</v>
       </c>
       <c r="X29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y29" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4042,19 +4048,19 @@
         <v>194</v>
       </c>
       <c r="G30">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="I30" t="s">
         <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L30">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4072,7 +4078,7 @@
         <v>360</v>
       </c>
       <c r="R30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S30" t="s">
         <v>365</v>
@@ -4084,13 +4090,13 @@
         <v>423</v>
       </c>
       <c r="V30" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="W30" t="s">
         <v>469</v>
       </c>
       <c r="X30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y30" t="s">
         <v>504</v>
@@ -4113,19 +4119,19 @@
         <v>195</v>
       </c>
       <c r="G31">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="I31" t="s">
         <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L31">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4155,48 +4161,48 @@
         <v>424</v>
       </c>
       <c r="V31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="W31" t="s">
         <v>469</v>
       </c>
       <c r="X31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G32">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
         <v>335</v>
       </c>
       <c r="L32">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4220,54 +4226,54 @@
         <v>365</v>
       </c>
       <c r="T32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W32" t="s">
         <v>469</v>
       </c>
       <c r="X32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G33">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
         <v>335</v>
       </c>
       <c r="L33">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4291,48 +4297,48 @@
         <v>365</v>
       </c>
       <c r="T33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W33" t="s">
         <v>469</v>
       </c>
       <c r="X33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
         <v>335</v>
@@ -4362,54 +4368,54 @@
         <v>365</v>
       </c>
       <c r="T34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W34" t="s">
         <v>469</v>
       </c>
       <c r="X34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y34" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G35">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
         <v>335</v>
       </c>
       <c r="L35">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4433,27 +4439,27 @@
         <v>365</v>
       </c>
       <c r="T35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="W35" t="s">
         <v>469</v>
       </c>
       <c r="X35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
@@ -4468,7 +4474,7 @@
         <v>196</v>
       </c>
       <c r="G36">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H36" t="s">
         <v>255</v>
@@ -4477,10 +4483,10 @@
         <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L36">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4510,21 +4516,21 @@
         <v>425</v>
       </c>
       <c r="V36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W36" t="s">
         <v>469</v>
       </c>
       <c r="X36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -4539,7 +4545,7 @@
         <v>197</v>
       </c>
       <c r="G37">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H37" t="s">
         <v>256</v>
@@ -4548,10 +4554,10 @@
         <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L37">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4581,48 +4587,48 @@
         <v>426</v>
       </c>
       <c r="V37" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="W37" t="s">
         <v>469</v>
       </c>
       <c r="X37" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y37" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G38">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L38">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4646,10 +4652,10 @@
         <v>365</v>
       </c>
       <c r="T38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="U38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="V38" t="s">
         <v>446</v>
@@ -4658,18 +4664,18 @@
         <v>469</v>
       </c>
       <c r="X38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y38" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -4681,7 +4687,7 @@
         <v>198</v>
       </c>
       <c r="G39">
-        <v>560000</v>
+        <v>600</v>
       </c>
       <c r="H39" t="s">
         <v>258</v>
@@ -4690,10 +4696,10 @@
         <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L39">
-        <v>290800</v>
+        <v>600</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4705,31 +4711,31 @@
         <v>356</v>
       </c>
       <c r="P39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q39" t="s">
         <v>360</v>
       </c>
       <c r="R39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T39" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="U39" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="V39" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="W39" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="X39" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Y39" t="s">
         <v>505</v>
@@ -4737,34 +4743,34 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s">
         <v>341</v>
       </c>
       <c r="L40">
-        <v>560000</v>
+        <v>290800</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4788,22 +4794,22 @@
         <v>366</v>
       </c>
       <c r="T40" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W40" t="s">
         <v>467</v>
       </c>
       <c r="X40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4811,7 +4817,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
@@ -4823,28 +4829,28 @@
         <v>199</v>
       </c>
       <c r="G41">
-        <v>200</v>
+        <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
         <v>306</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L41">
+        <v>560000</v>
+      </c>
+      <c r="M41">
         <v>0</v>
       </c>
-      <c r="M41">
-        <v>200</v>
-      </c>
       <c r="N41" t="s">
         <v>356</v>
       </c>
       <c r="O41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P41" t="s">
         <v>359</v>
@@ -4856,22 +4862,22 @@
         <v>362</v>
       </c>
       <c r="S41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T41" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="U41" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="V41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W41" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="X41" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Y41" t="s">
         <v>506</v>
@@ -4879,13 +4885,13 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
@@ -4894,31 +4900,31 @@
         <v>200</v>
       </c>
       <c r="G42">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="I42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>200</v>
       </c>
-      <c r="K42" t="s">
-        <v>350</v>
-      </c>
-      <c r="L42">
-        <v>5000</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42" t="s">
         <v>356</v>
       </c>
       <c r="O42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q42" t="s">
         <v>360</v>
@@ -4930,22 +4936,22 @@
         <v>367</v>
       </c>
       <c r="T42" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="U42" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="V42" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="W42" t="s">
         <v>464</v>
       </c>
       <c r="X42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y42" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4956,7 +4962,7 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>143</v>
@@ -4965,19 +4971,19 @@
         <v>201</v>
       </c>
       <c r="G43">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L43">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5001,22 +5007,22 @@
         <v>367</v>
       </c>
       <c r="T43" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="U43" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="V43" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="W43" t="s">
         <v>464</v>
       </c>
       <c r="X43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5036,19 +5042,19 @@
         <v>202</v>
       </c>
       <c r="G44">
-        <v>6110</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
         <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
         <v>338</v>
       </c>
       <c r="L44">
-        <v>6110</v>
+        <v>200</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5078,16 +5084,16 @@
         <v>429</v>
       </c>
       <c r="V44" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="W44" t="s">
         <v>464</v>
       </c>
       <c r="X44" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5107,19 +5113,19 @@
         <v>203</v>
       </c>
       <c r="G45">
-        <v>1000</v>
+        <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L45">
-        <v>1000</v>
+        <v>6110</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5149,16 +5155,16 @@
         <v>430</v>
       </c>
       <c r="V45" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="W45" t="s">
         <v>464</v>
       </c>
       <c r="X45" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -5169,7 +5175,7 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
         <v>146</v>
@@ -5178,10 +5184,10 @@
         <v>204</v>
       </c>
       <c r="G46">
-        <v>4372</v>
+        <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" t="s">
         <v>309</v>
@@ -5190,7 +5196,7 @@
         <v>335</v>
       </c>
       <c r="L46">
-        <v>4372</v>
+        <v>1000</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5214,30 +5220,30 @@
         <v>367</v>
       </c>
       <c r="T46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W46" t="s">
         <v>464</v>
       </c>
       <c r="X46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y46" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
@@ -5249,40 +5255,40 @@
         <v>205</v>
       </c>
       <c r="G47">
-        <v>34000</v>
+        <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
         <v>310</v>
       </c>
       <c r="K47" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L47">
-        <v>34000</v>
+        <v>4372</v>
       </c>
       <c r="M47">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
         <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q47" t="s">
         <v>360</v>
       </c>
       <c r="R47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T47" t="s">
         <v>392</v>
@@ -5291,13 +5297,13 @@
         <v>431</v>
       </c>
       <c r="V47" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="W47" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="X47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
         <v>507</v>
@@ -5308,7 +5314,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
@@ -5319,62 +5325,56 @@
       <c r="E48" t="s">
         <v>206</v>
       </c>
-      <c r="F48" t="s">
-        <v>230</v>
-      </c>
       <c r="G48">
-        <v>6500000</v>
+        <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
         <v>311</v>
       </c>
-      <c r="J48" t="s">
-        <v>331</v>
-      </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L48">
-        <v>6500000</v>
+        <v>34000</v>
       </c>
       <c r="M48">
-        <v>6500000</v>
+        <v>34000</v>
       </c>
       <c r="N48" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" t="s">
         <v>357</v>
       </c>
-      <c r="O48" t="s">
-        <v>356</v>
-      </c>
       <c r="P48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q48" t="s">
         <v>360</v>
       </c>
       <c r="R48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T48" t="s">
         <v>393</v>
       </c>
       <c r="U48" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="V48" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="W48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X48" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="Y48" t="s">
         <v>508</v>
@@ -5385,7 +5385,7 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
@@ -5396,8 +5396,11 @@
       <c r="E49" t="s">
         <v>207</v>
       </c>
+      <c r="F49" t="s">
+        <v>231</v>
+      </c>
       <c r="G49">
-        <v>345000</v>
+        <v>6500000</v>
       </c>
       <c r="H49" t="s">
         <v>263</v>
@@ -5405,17 +5408,20 @@
       <c r="I49" t="s">
         <v>312</v>
       </c>
+      <c r="J49" t="s">
+        <v>331</v>
+      </c>
       <c r="K49" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L49">
-        <v>100</v>
+        <v>6500000</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O49" t="s">
         <v>356</v>
@@ -5427,25 +5433,25 @@
         <v>360</v>
       </c>
       <c r="R49" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S49" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T49" t="s">
         <v>394</v>
       </c>
       <c r="U49" t="s">
-        <v>432</v>
+        <v>231</v>
       </c>
       <c r="V49" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="W49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y49" t="s">
         <v>509</v>
@@ -5453,34 +5459,34 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s">
         <v>341</v>
       </c>
       <c r="L50">
-        <v>269900</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5504,13 +5510,13 @@
         <v>365</v>
       </c>
       <c r="T50" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U50" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V50" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W50" t="s">
         <v>472</v>
@@ -5519,54 +5525,48 @@
         <v>485</v>
       </c>
       <c r="Y50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
         <v>208</v>
       </c>
-      <c r="F51" t="s">
-        <v>231</v>
-      </c>
       <c r="G51">
-        <v>130100</v>
+        <v>345000</v>
       </c>
       <c r="H51" t="s">
         <v>264</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
-      </c>
-      <c r="J51" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L51">
-        <v>130100</v>
+        <v>269900</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P51" t="s">
         <v>358</v>
@@ -5581,13 +5581,13 @@
         <v>365</v>
       </c>
       <c r="T51" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U51" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W51" t="s">
         <v>472</v>
@@ -5596,45 +5596,45 @@
         <v>485</v>
       </c>
       <c r="Y51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G52">
-        <v>52300</v>
+        <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K52" t="s">
         <v>335</v>
       </c>
       <c r="L52">
-        <v>52300</v>
+        <v>130100</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>365</v>
       </c>
       <c r="T52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U52" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V52" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W52" t="s">
         <v>472</v>
@@ -5673,45 +5673,45 @@
         <v>485</v>
       </c>
       <c r="Y52" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G53">
-        <v>127300</v>
+        <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s">
         <v>335</v>
       </c>
       <c r="L53">
-        <v>127300</v>
+        <v>52300</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5735,13 +5735,13 @@
         <v>365</v>
       </c>
       <c r="T53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U53" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V53" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W53" t="s">
         <v>472</v>
@@ -5750,45 +5750,45 @@
         <v>485</v>
       </c>
       <c r="Y53" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G54">
-        <v>10000</v>
+        <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K54" t="s">
         <v>335</v>
       </c>
       <c r="L54">
-        <v>10000</v>
+        <v>127300</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5812,13 +5812,13 @@
         <v>365</v>
       </c>
       <c r="T54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V54" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W54" t="s">
         <v>472</v>
@@ -5827,7 +5827,7 @@
         <v>485</v>
       </c>
       <c r="Y54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5835,7 +5835,7 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -5847,25 +5847,25 @@
         <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="G55">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H55" t="s">
         <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="K55" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L55">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>433</v>
       </c>
       <c r="V55" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W55" t="s">
         <v>472</v>
@@ -5904,48 +5904,54 @@
         <v>485</v>
       </c>
       <c r="Y55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
         <v>210</v>
       </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
       <c r="G56">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="I56" t="s">
         <v>314</v>
       </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
       <c r="K56" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L56">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P56" t="s">
         <v>358</v>
@@ -5960,10 +5966,10 @@
         <v>365</v>
       </c>
       <c r="T56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U56" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V56" t="s">
         <v>452</v>
@@ -5975,7 +5981,7 @@
         <v>485</v>
       </c>
       <c r="Y56" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5983,31 +5989,31 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
         <v>211</v>
       </c>
       <c r="G57">
-        <v>386</v>
+        <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I57" t="s">
         <v>315</v>
       </c>
       <c r="K57" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L57">
-        <v>386</v>
+        <v>20000</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6025,7 +6031,7 @@
         <v>360</v>
       </c>
       <c r="R57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S57" t="s">
         <v>365</v>
@@ -6037,13 +6043,13 @@
         <v>434</v>
       </c>
       <c r="V57" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y57" t="s">
         <v>510</v>
@@ -6051,13 +6057,13 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>152</v>
@@ -6065,35 +6071,29 @@
       <c r="E58" t="s">
         <v>212</v>
       </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
       <c r="G58">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="H58" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="K58" t="s">
         <v>341</v>
       </c>
       <c r="L58">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P58" t="s">
         <v>358</v>
@@ -6108,13 +6108,13 @@
         <v>365</v>
       </c>
       <c r="T58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W58" t="s">
         <v>473</v>
@@ -6123,18 +6123,18 @@
         <v>486</v>
       </c>
       <c r="Y58" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>153</v>
@@ -6142,29 +6142,35 @@
       <c r="E59" t="s">
         <v>213</v>
       </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
       <c r="G59">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
         <v>267</v>
       </c>
       <c r="I59" t="s">
-        <v>316</v>
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
       </c>
       <c r="K59" t="s">
         <v>341</v>
       </c>
       <c r="L59">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P59" t="s">
         <v>358</v>
@@ -6179,13 +6185,13 @@
         <v>365</v>
       </c>
       <c r="T59" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U59" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V59" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W59" t="s">
         <v>473</v>
@@ -6194,7 +6200,7 @@
         <v>486</v>
       </c>
       <c r="Y59" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6202,7 +6208,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>96</v>
@@ -6214,7 +6220,7 @@
         <v>214</v>
       </c>
       <c r="G60">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H60" t="s">
         <v>268</v>
@@ -6226,7 +6232,7 @@
         <v>341</v>
       </c>
       <c r="L60">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6256,7 +6262,7 @@
         <v>435</v>
       </c>
       <c r="V60" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="W60" t="s">
         <v>473</v>
@@ -6265,30 +6271,30 @@
         <v>486</v>
       </c>
       <c r="Y60" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>215</v>
       </c>
       <c r="G61">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s">
         <v>318</v>
@@ -6297,7 +6303,7 @@
         <v>341</v>
       </c>
       <c r="L61">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6321,13 +6327,13 @@
         <v>365</v>
       </c>
       <c r="T61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="U61" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V61" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W61" t="s">
         <v>473</v>
@@ -6336,7 +6342,7 @@
         <v>486</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -6344,7 +6350,7 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>97</v>
@@ -6356,19 +6362,19 @@
         <v>216</v>
       </c>
       <c r="G62">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="H62" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="I62" t="s">
         <v>319</v>
       </c>
       <c r="K62" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L62">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6389,7 +6395,7 @@
         <v>362</v>
       </c>
       <c r="S62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T62" t="s">
         <v>398</v>
@@ -6398,13 +6404,13 @@
         <v>436</v>
       </c>
       <c r="V62" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="W62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="X62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Y62" t="s">
         <v>511</v>
@@ -6412,34 +6418,34 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G63">
-        <v>12000</v>
+        <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K63" t="s">
         <v>335</v>
       </c>
       <c r="L63">
-        <v>12000</v>
+        <v>3100</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6463,13 +6469,13 @@
         <v>366</v>
       </c>
       <c r="T63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W63" t="s">
         <v>474</v>
@@ -6478,7 +6484,7 @@
         <v>487</v>
       </c>
       <c r="Y63" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6486,7 +6492,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
         <v>98</v>
@@ -6497,38 +6503,32 @@
       <c r="E64" t="s">
         <v>217</v>
       </c>
-      <c r="F64" t="s">
-        <v>232</v>
-      </c>
       <c r="G64">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="H64" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="I64" t="s">
         <v>320</v>
       </c>
-      <c r="J64" t="s">
-        <v>332</v>
-      </c>
       <c r="K64" t="s">
         <v>335</v>
       </c>
       <c r="L64">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O64" t="s">
         <v>356</v>
       </c>
       <c r="P64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q64" t="s">
         <v>360</v>
@@ -6537,22 +6537,22 @@
         <v>362</v>
       </c>
       <c r="S64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T64" t="s">
-        <v>217</v>
+        <v>399</v>
       </c>
       <c r="U64" t="s">
-        <v>232</v>
+        <v>437</v>
       </c>
       <c r="V64" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="W64" t="s">
-        <v>217</v>
+        <v>474</v>
       </c>
       <c r="X64" t="s">
-        <v>232</v>
+        <v>487</v>
       </c>
       <c r="Y64" t="s">
         <v>512</v>
@@ -6560,16 +6560,16 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
         <v>218</v>
@@ -6578,7 +6578,7 @@
         <v>233</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="H65" t="s">
         <v>270</v>
@@ -6587,16 +6587,16 @@
         <v>321</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K65" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L65">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N65" t="s">
         <v>357</v>
@@ -6617,16 +6617,16 @@
         <v>365</v>
       </c>
       <c r="T65" t="s">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="U65" t="s">
         <v>233</v>
       </c>
       <c r="V65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W65" t="s">
-        <v>475</v>
+        <v>218</v>
       </c>
       <c r="X65" t="s">
         <v>233</v>
@@ -6637,25 +6637,25 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
         <v>271</v>
@@ -6670,10 +6670,10 @@
         <v>351</v>
       </c>
       <c r="L66">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N66" t="s">
         <v>357</v>
@@ -6694,42 +6694,42 @@
         <v>365</v>
       </c>
       <c r="T66" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W66" t="s">
         <v>475</v>
       </c>
       <c r="X66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y66" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
         <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G67">
         <v>100</v>
@@ -6738,7 +6738,7 @@
         <v>272</v>
       </c>
       <c r="I67" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J67" t="s">
         <v>333</v>
@@ -6771,30 +6771,30 @@
         <v>365</v>
       </c>
       <c r="T67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V67" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W67" t="s">
         <v>475</v>
       </c>
       <c r="X67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y67" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
@@ -6809,40 +6809,40 @@
         <v>234</v>
       </c>
       <c r="G68">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="I68" t="s">
         <v>323</v>
       </c>
       <c r="J68" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L68">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N68" t="s">
         <v>357</v>
       </c>
       <c r="O68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q68" t="s">
         <v>360</v>
       </c>
       <c r="R68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S68" t="s">
         <v>365</v>
@@ -6851,16 +6851,16 @@
         <v>400</v>
       </c>
       <c r="U68" t="s">
-        <v>437</v>
+        <v>234</v>
       </c>
       <c r="V68" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="W68" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="X68" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="Y68" t="s">
         <v>514</v>
@@ -6871,7 +6871,7 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>101</v>
@@ -6882,38 +6882,44 @@
       <c r="E69" t="s">
         <v>220</v>
       </c>
+      <c r="F69" t="s">
+        <v>235</v>
+      </c>
       <c r="G69">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="I69" t="s">
         <v>324</v>
       </c>
+      <c r="J69" t="s">
+        <v>235</v>
+      </c>
       <c r="K69" t="s">
         <v>335</v>
       </c>
       <c r="L69">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q69" t="s">
         <v>360</v>
       </c>
       <c r="R69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="S69" t="s">
         <v>365</v>
@@ -6925,13 +6931,13 @@
         <v>438</v>
       </c>
       <c r="V69" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="W69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X69" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="Y69" t="s">
         <v>515</v>
@@ -6942,7 +6948,7 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
         <v>102</v>
@@ -6954,7 +6960,7 @@
         <v>221</v>
       </c>
       <c r="G70">
-        <v>369500</v>
+        <v>60000</v>
       </c>
       <c r="H70" t="s">
         <v>274</v>
@@ -6963,10 +6969,10 @@
         <v>325</v>
       </c>
       <c r="K70" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L70">
-        <v>369500</v>
+        <v>60000</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -6996,10 +7002,10 @@
         <v>439</v>
       </c>
       <c r="V70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X70" t="s">
         <v>439</v>
@@ -7010,34 +7016,34 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G71">
-        <v>387000</v>
+        <v>369500</v>
       </c>
       <c r="H71" t="s">
         <v>275</v>
       </c>
       <c r="I71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K71" t="s">
         <v>341</v>
       </c>
       <c r="L71">
-        <v>387000</v>
+        <v>369500</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7061,22 +7067,22 @@
         <v>365</v>
       </c>
       <c r="T71" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V71" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W71" t="s">
         <v>478</v>
       </c>
       <c r="X71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y71" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7084,7 +7090,7 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
         <v>103</v>
@@ -7096,7 +7102,7 @@
         <v>222</v>
       </c>
       <c r="G72">
-        <v>16000</v>
+        <v>387000</v>
       </c>
       <c r="H72" t="s">
         <v>276</v>
@@ -7108,7 +7114,7 @@
         <v>341</v>
       </c>
       <c r="L72">
-        <v>16000</v>
+        <v>387000</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7120,13 +7126,13 @@
         <v>356</v>
       </c>
       <c r="P72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q72" t="s">
         <v>360</v>
       </c>
       <c r="R72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S72" t="s">
         <v>365</v>
@@ -7138,13 +7144,13 @@
         <v>440</v>
       </c>
       <c r="V72" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="W72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X72" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="Y72" t="s">
         <v>517</v>
@@ -7155,7 +7161,7 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>104</v>
@@ -7166,11 +7172,8 @@
       <c r="E73" t="s">
         <v>223</v>
       </c>
-      <c r="F73" t="s">
-        <v>55</v>
-      </c>
       <c r="G73">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="H73" t="s">
         <v>277</v>
@@ -7178,23 +7181,20 @@
       <c r="I73" t="s">
         <v>327</v>
       </c>
-      <c r="J73" t="s">
-        <v>334</v>
-      </c>
       <c r="K73" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L73">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P73" t="s">
         <v>358</v>
@@ -7203,7 +7203,7 @@
         <v>360</v>
       </c>
       <c r="R73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S73" t="s">
         <v>365</v>
@@ -7215,13 +7215,13 @@
         <v>441</v>
       </c>
       <c r="V73" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="W73" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y73" t="s">
         <v>518</v>
@@ -7232,7 +7232,7 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
         <v>105</v>
@@ -7243,8 +7243,11 @@
       <c r="E74" t="s">
         <v>224</v>
       </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
       <c r="G74">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="H74" t="s">
         <v>278</v>
@@ -7252,20 +7255,23 @@
       <c r="I74" t="s">
         <v>328</v>
       </c>
+      <c r="J74" t="s">
+        <v>334</v>
+      </c>
       <c r="K74" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L74">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P74" t="s">
         <v>358</v>
@@ -7286,13 +7292,13 @@
         <v>442</v>
       </c>
       <c r="V74" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="W74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="X74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y74" t="s">
         <v>519</v>
@@ -7300,70 +7306,70 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
         <v>225</v>
       </c>
       <c r="G75">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="H75" t="s">
         <v>279</v>
       </c>
       <c r="I75" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="K75" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L75">
+        <v>6100</v>
+      </c>
+      <c r="M75">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>2800</v>
-      </c>
       <c r="N75" t="s">
         <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q75" t="s">
         <v>360</v>
       </c>
       <c r="R75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T75" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="U75" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="V75" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="W75" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="X75" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="Y75" t="s">
         <v>520</v>
@@ -7371,37 +7377,37 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
         <v>226</v>
       </c>
       <c r="G76">
-        <v>25</v>
+        <v>2800</v>
       </c>
       <c r="H76" t="s">
         <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>2800</v>
       </c>
       <c r="N76" t="s">
         <v>356</v>
@@ -7422,66 +7428,66 @@
         <v>368</v>
       </c>
       <c r="T76" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U76" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V76" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="W76" t="s">
         <v>464</v>
       </c>
       <c r="X76" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y76" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
         <v>227</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="K77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L77">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
         <v>356</v>
       </c>
       <c r="O77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q77" t="s">
         <v>360</v>
@@ -7493,19 +7499,19 @@
         <v>368</v>
       </c>
       <c r="T77" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="U77" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="W77" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="X77" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Y77" t="s">
         <v>521</v>
@@ -7513,28 +7519,28 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="I78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K78" t="s">
         <v>354</v>
@@ -7564,90 +7570,90 @@
         <v>368</v>
       </c>
       <c r="T78" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="W78" t="s">
         <v>469</v>
       </c>
       <c r="X78" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y78" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
         <v>228</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
         <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="K79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79">
         <v>0</v>
       </c>
-      <c r="M79">
-        <v>100</v>
-      </c>
       <c r="N79" t="s">
         <v>356</v>
       </c>
       <c r="O79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q79" t="s">
         <v>360</v>
       </c>
       <c r="R79" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S79" t="s">
         <v>368</v>
       </c>
       <c r="T79" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="U79" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="V79" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="W79" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="X79" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Y79" t="s">
         <v>522</v>
@@ -7655,76 +7661,70 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
         <v>229</v>
       </c>
-      <c r="F80" t="s">
-        <v>235</v>
-      </c>
       <c r="G80">
-        <v>1099583</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
         <v>283</v>
       </c>
       <c r="I80" t="s">
-        <v>330</v>
-      </c>
-      <c r="J80" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="K80" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="L80">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O80" t="s">
         <v>357</v>
       </c>
       <c r="P80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q80" t="s">
         <v>360</v>
       </c>
       <c r="R80" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S80" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T80" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="U80" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="V80" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="W80" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="X80" t="s">
-        <v>235</v>
+        <v>428</v>
       </c>
       <c r="Y80" t="s">
         <v>523</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -137,51 +137,51 @@
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "МЕГАБАНК"</t>
   </si>
   <si>
+    <t>АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>ТВБВ №10013/03 філії ЛОУ АТ "Ощадбанк"</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРиват</t>
+  </si>
+  <si>
+    <t>АТ "Укрексімбанк"</t>
+  </si>
+  <si>
+    <t>Івано-Франківська Філія АТ КБ "Приватбанк"</t>
+  </si>
+  <si>
+    <t>АТ АКБ "Львів"</t>
+  </si>
+  <si>
+    <t>Фiлiя - Закарпатське обласне управлiння публічного акцiонерного товариства "Державний ощадний банк України"</t>
+  </si>
+  <si>
+    <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
+  </si>
+  <si>
+    <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
+  </si>
+  <si>
+    <t>ПАТ АБ УКРГАЗБАНК</t>
+  </si>
+  <si>
+    <t>АТ КБ "Приват банк"</t>
+  </si>
+  <si>
+    <t>АТ Мегабанк</t>
+  </si>
+  <si>
+    <t>АТ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "КОМЕРЦІЙНИЙ БАНК "ГЛОБУС"</t>
   </si>
   <si>
-    <t>АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>ТВБВ №10013/03 філії ЛОУ АТ "Ощадбанк"</t>
-  </si>
-  <si>
-    <t>АТ КБ ПРиват</t>
-  </si>
-  <si>
-    <t>АТ "Укрексімбанк"</t>
-  </si>
-  <si>
-    <t>Івано-Франківська Філія АТ КБ "Приватбанк"</t>
-  </si>
-  <si>
-    <t>АТ АКБ "Львів"</t>
-  </si>
-  <si>
-    <t>Фiлiя - Закарпатське обласне управлiння публічного акцiонерного товариства "Державний ощадний банк України"</t>
-  </si>
-  <si>
-    <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
-  </si>
-  <si>
-    <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
-  </si>
-  <si>
-    <t>ПАТ АБ УКРГАЗБАНК</t>
-  </si>
-  <si>
-    <t>АТ КБ "Приват банк"</t>
-  </si>
-  <si>
-    <t>АТ Мегабанк</t>
-  </si>
-  <si>
-    <t>АТ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -203,21 +203,21 @@
     <t>09804119</t>
   </si>
   <si>
+    <t>09325703</t>
+  </si>
+  <si>
+    <t>09801546</t>
+  </si>
+  <si>
+    <t>09312190</t>
+  </si>
+  <si>
+    <t>09322277</t>
+  </si>
+  <si>
     <t>35591059</t>
   </si>
   <si>
-    <t>09325703</t>
-  </si>
-  <si>
-    <t>09801546</t>
-  </si>
-  <si>
-    <t>09312190</t>
-  </si>
-  <si>
-    <t>09322277</t>
-  </si>
-  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -281,9 +281,57 @@
     <t>UA423516290000000002600114005</t>
   </si>
   <si>
+    <t>UA363052990000026005036218701</t>
+  </si>
+  <si>
+    <t>UA363257960000026009300368164</t>
+  </si>
+  <si>
+    <t>UA923052990000026002043601047</t>
+  </si>
+  <si>
+    <t>UA933223130000026005000045227</t>
+  </si>
+  <si>
+    <t>UA853366770000026005052517967</t>
+  </si>
+  <si>
+    <t>UA113252680000000002600477437</t>
+  </si>
+  <si>
+    <t>UA613123560000026002300713705</t>
+  </si>
+  <si>
+    <t>UA693226690000026003300196863</t>
+  </si>
+  <si>
+    <t>UA473223130000026003000042534</t>
+  </si>
+  <si>
+    <t>UA463052990000026003016807628</t>
+  </si>
+  <si>
+    <t>UA503348510000000026008137708</t>
+  </si>
+  <si>
+    <t>UA503204780000026003924882927</t>
+  </si>
+  <si>
+    <t>UA633052990000026200672595702</t>
+  </si>
+  <si>
+    <t>UA663516290000000002600805183</t>
+  </si>
+  <si>
+    <t>UA363154050000026001052317039</t>
+  </si>
+  <si>
     <t>UA033805260000002600800159741</t>
   </si>
   <si>
+    <t>UA693808050000000026004671091</t>
+  </si>
+  <si>
     <t>UA033223130000026001000047274</t>
   </si>
   <si>
@@ -293,54 +341,6 @@
     <t>UA723223130000026005000045023</t>
   </si>
   <si>
-    <t>UA363052990000026005036218701</t>
-  </si>
-  <si>
-    <t>UA363257960000026009300368164</t>
-  </si>
-  <si>
-    <t>UA923052990000026002043601047</t>
-  </si>
-  <si>
-    <t>UA933223130000026005000045227</t>
-  </si>
-  <si>
-    <t>UA853366770000026005052517967</t>
-  </si>
-  <si>
-    <t>UA113252680000000002600477437</t>
-  </si>
-  <si>
-    <t>UA613123560000026002300713705</t>
-  </si>
-  <si>
-    <t>UA693226690000026003300196863</t>
-  </si>
-  <si>
-    <t>UA473223130000026003000042534</t>
-  </si>
-  <si>
-    <t>UA463052990000026003016807628</t>
-  </si>
-  <si>
-    <t>UA503348510000000026008137708</t>
-  </si>
-  <si>
-    <t>UA503204780000026003924882927</t>
-  </si>
-  <si>
-    <t>UA633052990000026200672595702</t>
-  </si>
-  <si>
-    <t>UA663516290000000002600805183</t>
-  </si>
-  <si>
-    <t>UA363154050000026001052317039</t>
-  </si>
-  <si>
-    <t>UA693808050000000026004671091</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -443,6 +443,72 @@
     <t>07.10.2020</t>
   </si>
   <si>
+    <t>21.10.2020</t>
+  </si>
+  <si>
+    <t>07.09.2023</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>11.03.2021</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>02.04.2021</t>
+  </si>
+  <si>
+    <t>18.02.2022</t>
+  </si>
+  <si>
+    <t>28.10.2021</t>
+  </si>
+  <si>
+    <t>13.08.2021</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
+    <t>19.02.2021</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
     <t>27.08.2023</t>
   </si>
   <si>
@@ -461,72 +527,6 @@
     <t>31.10.2023</t>
   </si>
   <si>
-    <t>21.10.2020</t>
-  </si>
-  <si>
-    <t>07.09.2023</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
-    <t>11.03.2021</t>
-  </si>
-  <si>
-    <t>29.04.2021</t>
-  </si>
-  <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
-    <t>19.07.2021</t>
-  </si>
-  <si>
-    <t>02.04.2021</t>
-  </si>
-  <si>
-    <t>18.02.2022</t>
-  </si>
-  <si>
-    <t>28.10.2021</t>
-  </si>
-  <si>
-    <t>13.08.2021</t>
-  </si>
-  <si>
-    <t>25.08.2021</t>
-  </si>
-  <si>
-    <t>02.09.2021</t>
-  </si>
-  <si>
-    <t>19.02.2021</t>
-  </si>
-  <si>
-    <t>14.09.2020</t>
-  </si>
-  <si>
-    <t>10.09.2020</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>22.12.2021</t>
-  </si>
-  <si>
-    <t>08.02.2021</t>
-  </si>
-  <si>
-    <t>01.02.2023</t>
-  </si>
-  <si>
-    <t>30.01.2023</t>
-  </si>
-  <si>
-    <t>15.03.2024</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -617,6 +617,78 @@
     <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
   </si>
   <si>
+    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
+  </si>
+  <si>
+    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
+  </si>
+  <si>
+    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
+  </si>
+  <si>
+    <t>ТОВ ІННОВАБУД</t>
+  </si>
+  <si>
+    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
+  </si>
+  <si>
+    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
+  </si>
+  <si>
+    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+  </si>
+  <si>
+    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
+  </si>
+  <si>
+    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ПП "СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРИВАТБАНК</t>
+  </si>
+  <si>
+    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
+  </si>
+  <si>
+    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+  </si>
+  <si>
     <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
   </si>
   <si>
@@ -635,78 +707,6 @@
     <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
   </si>
   <si>
-    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
-  </si>
-  <si>
-    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
-  </si>
-  <si>
-    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
-  </si>
-  <si>
-    <t>ТОВ ІННОВАБУД</t>
-  </si>
-  <si>
-    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
-  </si>
-  <si>
-    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
-  </si>
-  <si>
-    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
-    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
-  </si>
-  <si>
-    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
-  </si>
-  <si>
-    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
-  </si>
-  <si>
-    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
-  </si>
-  <si>
-    <t>ПП "СИЛА І ЧЕСТЬ"</t>
-  </si>
-  <si>
-    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
-  </si>
-  <si>
-    <t>АТ КБ ПРИВАТБАНК</t>
-  </si>
-  <si>
-    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
-  </si>
-  <si>
-    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
-  </si>
-  <si>
-    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -797,6 +797,69 @@
     <t>25.01.2022</t>
   </si>
   <si>
+    <t>08.09.2023</t>
+  </si>
+  <si>
+    <t>05.02.2021</t>
+  </si>
+  <si>
+    <t>04.02.2021</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>19.04.2021</t>
+  </si>
+  <si>
+    <t>29.10.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>03.03.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
+    <t>22.03.2024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>28.03.2024</t>
+  </si>
+  <si>
+    <t>12.04.2024</t>
+  </si>
+  <si>
     <t>18.09.2023</t>
   </si>
   <si>
@@ -806,69 +869,6 @@
     <t>11.04.2023</t>
   </si>
   <si>
-    <t>08.09.2023</t>
-  </si>
-  <si>
-    <t>05.02.2021</t>
-  </si>
-  <si>
-    <t>04.02.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>06.07.2021</t>
-  </si>
-  <si>
-    <t>28.07.2021</t>
-  </si>
-  <si>
-    <t>19.04.2021</t>
-  </si>
-  <si>
-    <t>29.10.2021</t>
-  </si>
-  <si>
-    <t>20.05.2021</t>
-  </si>
-  <si>
-    <t>30.08.2021</t>
-  </si>
-  <si>
-    <t>31.08.2021</t>
-  </si>
-  <si>
-    <t>03.03.2021</t>
-  </si>
-  <si>
-    <t>24.06.2021</t>
-  </si>
-  <si>
-    <t>23.06.2021</t>
-  </si>
-  <si>
-    <t>27.05.2021</t>
-  </si>
-  <si>
-    <t>30.12.2021</t>
-  </si>
-  <si>
-    <t>21.01.2021</t>
-  </si>
-  <si>
-    <t>22.03.2024</t>
-  </si>
-  <si>
-    <t>07.03.2024</t>
-  </si>
-  <si>
-    <t>28.03.2024</t>
-  </si>
-  <si>
-    <t>12.04.2024</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -938,9 +938,69 @@
     <t>Шеветовський Валентин Валентинович</t>
   </si>
   <si>
+    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
+  </si>
+  <si>
+    <t>Коваленко Христина Володимирівна</t>
+  </si>
+  <si>
+    <t>Гембік Катерина Олександрівна</t>
+  </si>
+  <si>
+    <t>Транзитний рахунок Приватбанк м.Київ</t>
+  </si>
+  <si>
+    <t>ФОП Сароян Азат Абрамович</t>
+  </si>
+  <si>
+    <t>Барнецький Назар Михайлович</t>
+  </si>
+  <si>
+    <t>Соловій Віра Зіновіївна</t>
+  </si>
+  <si>
+    <t>Заболітна Олена Юріївна</t>
+  </si>
+  <si>
+    <t>Одноріг Валентина Мар'янівна</t>
+  </si>
+  <si>
+    <t>Головко Наталія Романівна</t>
+  </si>
+  <si>
+    <t>Данильченко Віталій Іванович</t>
+  </si>
+  <si>
+    <t>Панченко Костянтин Володимирович</t>
+  </si>
+  <si>
+    <t>Філонський Валерій Вікторович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>Литовченко Олексій Сергійович</t>
+  </si>
+  <si>
+    <t>Гриць Віталій Юрійович</t>
+  </si>
+  <si>
+    <t>Павлович Євгеній Володимирович</t>
+  </si>
+  <si>
+    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t>Бобров Олексій Анатолійович</t>
+  </si>
+  <si>
     <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
   </si>
   <si>
+    <t>Нездолій Григорій Григорович</t>
+  </si>
+  <si>
     <t>Фастовець Тетяна Сергіївна</t>
   </si>
   <si>
@@ -948,66 +1008,6 @@
   </si>
   <si>
     <t>Самохвалова Лариса Феліксівна</t>
-  </si>
-  <si>
-    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
-  </si>
-  <si>
-    <t>Коваленко Христина Володимирівна</t>
-  </si>
-  <si>
-    <t>Гембік Катерина Олександрівна</t>
-  </si>
-  <si>
-    <t>Транзитний рахунок Приватбанк м.Київ</t>
-  </si>
-  <si>
-    <t>ФОП Сароян Азат Абрамович</t>
-  </si>
-  <si>
-    <t>Барнецький Назар Михайлович</t>
-  </si>
-  <si>
-    <t>Соловій Віра Зіновіївна</t>
-  </si>
-  <si>
-    <t>Заболітна Олена Юріївна</t>
-  </si>
-  <si>
-    <t>Одноріг Валентина Мар'янівна</t>
-  </si>
-  <si>
-    <t>Головко Наталія Романівна</t>
-  </si>
-  <si>
-    <t>Данильченко Віталій Іванович</t>
-  </si>
-  <si>
-    <t>Панченко Костянтин Володимирович</t>
-  </si>
-  <si>
-    <t>Філонський Валерій Вікторович</t>
-  </si>
-  <si>
-    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>Литовченко Олексій Сергійович</t>
-  </si>
-  <si>
-    <t>Гриць Віталій Юрійович</t>
-  </si>
-  <si>
-    <t>Павлович Євгеній Володимирович</t>
-  </si>
-  <si>
-    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
-  </si>
-  <si>
-    <t>Бобров Олексій Анатолійович</t>
-  </si>
-  <si>
-    <t>Нездолій Григорій Григорович</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1068,27 +1068,27 @@
 13.04.2021 р.</t>
   </si>
   <si>
+    <t xml:space="preserve">Вказані неповні дані для ідентифікації </t>
+  </si>
+  <si>
+    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL838134, оплаченого як Добровільний внесок Джан Нангялай 3507313217 вул.Ільфа і Петрова, б.6, кв.9,м.Одеса (внескодавець не є громадянином України)</t>
+  </si>
+  <si>
+    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL335251, оплаченого як Добровільний внесок Барчук Данило Вікторович 3880708711 вул. Чорновола В'ячеслава, буд. 6  (внескодавець не досяг 18-річного віку)</t>
+  </si>
+  <si>
+    <t>повернення коштів у зв'язку з неможливістю ідентифікувати платника</t>
+  </si>
+  <si>
+    <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
+  </si>
+  <si>
     <t>101; Перерахування платежу №27/08/20231359985700316, оплаченого як Добровільний внесок ЯЦКОВА МИХАЙЛА ЄВГЕНОВИЧА - 200,00 грн. Без ПДВ (анонімний внескодавець)</t>
   </si>
   <si>
     <t>неналежний платник</t>
   </si>
   <si>
-    <t xml:space="preserve">Вказані неповні дані для ідентифікації </t>
-  </si>
-  <si>
-    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL838134, оплаченого як Добровільний внесок Джан Нангялай 3507313217 вул.Ільфа і Петрова, б.6, кв.9,м.Одеса (внескодавець не є громадянином України)</t>
-  </si>
-  <si>
-    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL335251, оплаченого як Добровільний внесок Барчук Данило Вікторович 3880708711 вул. Чорновола В'ячеслава, буд. 6  (внескодавець не досяг 18-річного віку)</t>
-  </si>
-  <si>
-    <t>повернення коштів у зв'язку з неможливістю ідентифікувати платника</t>
-  </si>
-  <si>
-    <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
-  </si>
-  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -1188,9 +1188,54 @@
     <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
+  </si>
+  <si>
+    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
+  </si>
+  <si>
+    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
+  </si>
+  <si>
+    <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
+  </si>
+  <si>
+    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
+  </si>
+  <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
   </si>
   <si>
+    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
     <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
@@ -1200,51 +1245,6 @@
     <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
-  </si>
-  <si>
-    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
-  </si>
-  <si>
-    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
-  </si>
-  <si>
-    <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
-  </si>
-  <si>
-    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
-  </si>
-  <si>
-    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1305,9 +1305,48 @@
     <t>43449722</t>
   </si>
   <si>
+    <t>38010759</t>
+  </si>
+  <si>
+    <t>36658318</t>
+  </si>
+  <si>
+    <t>36681991</t>
+  </si>
+  <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
+    <t>43777954</t>
+  </si>
+  <si>
+    <t>36894166</t>
+  </si>
+  <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
     <t>40422142</t>
   </si>
   <si>
+    <t>43379734</t>
+  </si>
+  <si>
     <t>43945782</t>
   </si>
   <si>
@@ -1317,45 +1356,6 @@
     <t>43721791</t>
   </si>
   <si>
-    <t>38010759</t>
-  </si>
-  <si>
-    <t>36658318</t>
-  </si>
-  <si>
-    <t>36681991</t>
-  </si>
-  <si>
-    <t>40026836</t>
-  </si>
-  <si>
-    <t>40014820</t>
-  </si>
-  <si>
-    <t>43777954</t>
-  </si>
-  <si>
-    <t>36894166</t>
-  </si>
-  <si>
-    <t>40000865</t>
-  </si>
-  <si>
-    <t>39765623</t>
-  </si>
-  <si>
-    <t>43626410</t>
-  </si>
-  <si>
-    <t>40006563</t>
-  </si>
-  <si>
-    <t>37263887</t>
-  </si>
-  <si>
-    <t>43379734</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1395,21 +1395,21 @@
     <t>Київська обл.</t>
   </si>
   <si>
+    <t>Закарпатська обл.</t>
+  </si>
+  <si>
+    <t>Івано-Франківська обл.</t>
+  </si>
+  <si>
+    <t>Миколаївська обл.</t>
+  </si>
+  <si>
+    <t>Черкаська обл.</t>
+  </si>
+  <si>
     <t>Дніпропетровська обл.</t>
   </si>
   <si>
-    <t>Закарпатська обл.</t>
-  </si>
-  <si>
-    <t>Івано-Франківська обл.</t>
-  </si>
-  <si>
-    <t>Миколаївська обл.</t>
-  </si>
-  <si>
-    <t>Черкаська обл.</t>
-  </si>
-  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1542,55 +1542,55 @@
     <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
   </si>
   <si>
+    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
     <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2167,7 @@
         <v>464</v>
       </c>
       <c r="X3" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y3" t="s">
         <v>493</v>
@@ -2238,7 +2238,7 @@
         <v>464</v>
       </c>
       <c r="X4" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y4" t="s">
         <v>493</v>
@@ -2309,7 +2309,7 @@
         <v>464</v>
       </c>
       <c r="X5" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y5" t="s">
         <v>493</v>
@@ -2380,7 +2380,7 @@
         <v>464</v>
       </c>
       <c r="X6" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y6" t="s">
         <v>493</v>
@@ -2451,7 +2451,7 @@
         <v>464</v>
       </c>
       <c r="X7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y7" t="s">
         <v>493</v>
@@ -2522,7 +2522,7 @@
         <v>464</v>
       </c>
       <c r="X8" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y8" t="s">
         <v>494</v>
@@ -2593,7 +2593,7 @@
         <v>464</v>
       </c>
       <c r="X9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y9" t="s">
         <v>494</v>
@@ -2664,7 +2664,7 @@
         <v>464</v>
       </c>
       <c r="X10" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y10" t="s">
         <v>494</v>
@@ -2838,7 +2838,7 @@
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
         <v>179</v>
@@ -4888,7 +4888,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -4900,22 +4900,22 @@
         <v>200</v>
       </c>
       <c r="G42">
-        <v>200</v>
+        <v>34000</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
         <v>307</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="M42">
-        <v>200</v>
+        <v>34000</v>
       </c>
       <c r="N42" t="s">
         <v>356</v>
@@ -4930,10 +4930,10 @@
         <v>360</v>
       </c>
       <c r="R42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T42" t="s">
         <v>389</v>
@@ -4945,7 +4945,7 @@
         <v>456</v>
       </c>
       <c r="W42" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="X42" t="s">
         <v>428</v>
@@ -4956,13 +4956,13 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
         <v>143</v>
@@ -4970,26 +4970,32 @@
       <c r="E43" t="s">
         <v>201</v>
       </c>
+      <c r="F43" t="s">
+        <v>231</v>
+      </c>
       <c r="G43">
-        <v>5000</v>
+        <v>6500000</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>331</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="L43">
-        <v>5000</v>
+        <v>6500000</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O43" t="s">
         <v>356</v>
@@ -5007,33 +5013,33 @@
         <v>367</v>
       </c>
       <c r="T43" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="U43" t="s">
-        <v>410</v>
+        <v>231</v>
       </c>
       <c r="V43" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="W43" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="X43" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="Y43" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>144</v>
@@ -5042,19 +5048,19 @@
         <v>202</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>345000</v>
       </c>
       <c r="H44" t="s">
         <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5072,13 +5078,13 @@
         <v>360</v>
       </c>
       <c r="R44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U44" t="s">
         <v>429</v>
@@ -5087,45 +5093,45 @@
         <v>458</v>
       </c>
       <c r="W44" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="X44" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="Y44" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G45">
-        <v>6110</v>
+        <v>345000</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L45">
-        <v>6110</v>
+        <v>269900</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5143,69 +5149,75 @@
         <v>360</v>
       </c>
       <c r="R45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T45" t="s">
         <v>391</v>
       </c>
       <c r="U45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V45" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="W45" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="X45" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="Y45" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>232</v>
       </c>
       <c r="G46">
-        <v>1000</v>
+        <v>130100</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>203</v>
+      </c>
+      <c r="J46" t="s">
+        <v>232</v>
       </c>
       <c r="K46" t="s">
         <v>335</v>
       </c>
       <c r="L46">
-        <v>1000</v>
+        <v>130100</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P46" t="s">
         <v>358</v>
@@ -5214,69 +5226,75 @@
         <v>360</v>
       </c>
       <c r="R46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U46" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V46" t="s">
         <v>458</v>
       </c>
       <c r="W46" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="X46" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="Y46" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="F47" t="s">
+        <v>232</v>
       </c>
       <c r="G47">
-        <v>4372</v>
+        <v>52300</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>203</v>
+      </c>
+      <c r="J47" t="s">
+        <v>232</v>
       </c>
       <c r="K47" t="s">
         <v>335</v>
       </c>
       <c r="L47">
-        <v>4372</v>
+        <v>52300</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P47" t="s">
         <v>358</v>
@@ -5285,72 +5303,78 @@
         <v>360</v>
       </c>
       <c r="R47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V47" t="s">
         <v>458</v>
       </c>
       <c r="W47" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="X47" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="Y47" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>232</v>
       </c>
       <c r="G48">
-        <v>34000</v>
+        <v>127300</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>311</v>
+        <v>203</v>
+      </c>
+      <c r="J48" t="s">
+        <v>232</v>
       </c>
       <c r="K48" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L48">
-        <v>34000</v>
+        <v>127300</v>
       </c>
       <c r="M48">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O48" t="s">
         <v>357</v>
       </c>
       <c r="P48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q48" t="s">
         <v>360</v>
@@ -5359,25 +5383,25 @@
         <v>361</v>
       </c>
       <c r="S48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="V48" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="W48" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="X48" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="Y48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5385,46 +5409,46 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G49">
-        <v>6500000</v>
+        <v>10000</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I49" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="K49" t="s">
         <v>335</v>
       </c>
       <c r="L49">
-        <v>6500000</v>
+        <v>10000</v>
       </c>
       <c r="M49">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
         <v>357</v>
       </c>
       <c r="O49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P49" t="s">
         <v>358</v>
@@ -5433,25 +5457,25 @@
         <v>360</v>
       </c>
       <c r="R49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T49" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="U49" t="s">
-        <v>231</v>
+        <v>429</v>
       </c>
       <c r="V49" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="W49" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y49" t="s">
         <v>509</v>
@@ -5462,40 +5486,46 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
         <v>55</v>
       </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" t="s">
-        <v>208</v>
-      </c>
       <c r="G50">
-        <v>345000</v>
+        <v>1000</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
       </c>
       <c r="K50" t="s">
         <v>341</v>
       </c>
       <c r="L50">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P50" t="s">
         <v>358</v>
@@ -5510,13 +5540,13 @@
         <v>365</v>
       </c>
       <c r="T50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U50" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="V50" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W50" t="s">
         <v>472</v>
@@ -5525,7 +5555,7 @@
         <v>485</v>
       </c>
       <c r="Y50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5533,31 +5563,31 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G51">
-        <v>345000</v>
+        <v>50000</v>
       </c>
       <c r="H51" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K51" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L51">
-        <v>269900</v>
+        <v>20000</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5581,13 +5611,13 @@
         <v>365</v>
       </c>
       <c r="T51" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="V51" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W51" t="s">
         <v>472</v>
@@ -5596,54 +5626,48 @@
         <v>485</v>
       </c>
       <c r="Y51" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G52">
-        <v>130100</v>
+        <v>386</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
-      </c>
-      <c r="J52" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="K52" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L52">
-        <v>130100</v>
+        <v>386</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P52" t="s">
         <v>358</v>
@@ -5652,25 +5676,25 @@
         <v>360</v>
       </c>
       <c r="R52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S52" t="s">
         <v>365</v>
       </c>
       <c r="T52" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V52" t="s">
         <v>459</v>
       </c>
       <c r="W52" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X52" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y52" t="s">
         <v>510</v>
@@ -5678,40 +5702,40 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="G53">
-        <v>52300</v>
+        <v>120</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L53">
-        <v>52300</v>
+        <v>120</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5729,25 +5753,25 @@
         <v>360</v>
       </c>
       <c r="R53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S53" t="s">
         <v>365</v>
       </c>
       <c r="T53" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V53" t="s">
         <v>459</v>
       </c>
       <c r="W53" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X53" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y53" t="s">
         <v>510</v>
@@ -5755,49 +5779,43 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G54">
-        <v>127300</v>
+        <v>350</v>
       </c>
       <c r="H54" t="s">
         <v>265</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
-      </c>
-      <c r="J54" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="K54" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L54">
-        <v>127300</v>
+        <v>350</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P54" t="s">
         <v>358</v>
@@ -5806,25 +5824,25 @@
         <v>360</v>
       </c>
       <c r="R54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S54" t="s">
         <v>365</v>
       </c>
       <c r="T54" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="V54" t="s">
         <v>459</v>
       </c>
       <c r="W54" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X54" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y54" t="s">
         <v>510</v>
@@ -5832,49 +5850,43 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>209</v>
       </c>
-      <c r="F55" t="s">
-        <v>232</v>
-      </c>
       <c r="G55">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
-      </c>
-      <c r="J55" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="K55" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L55">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P55" t="s">
         <v>358</v>
@@ -5883,25 +5895,25 @@
         <v>360</v>
       </c>
       <c r="R55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S55" t="s">
         <v>365</v>
       </c>
       <c r="T55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V55" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="W55" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X55" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y55" t="s">
         <v>510</v>
@@ -5909,49 +5921,43 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
         <v>210</v>
       </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
       <c r="G56">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H56" t="s">
         <v>266</v>
       </c>
       <c r="I56" t="s">
-        <v>314</v>
-      </c>
-      <c r="J56" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="K56" t="s">
         <v>341</v>
       </c>
       <c r="L56">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P56" t="s">
         <v>358</v>
@@ -5960,25 +5966,25 @@
         <v>360</v>
       </c>
       <c r="R56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S56" t="s">
         <v>365</v>
       </c>
       <c r="T56" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U56" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V56" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="W56" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="X56" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y56" t="s">
         <v>510</v>
@@ -5986,34 +5992,34 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
         <v>211</v>
       </c>
       <c r="G57">
-        <v>50000</v>
+        <v>3100</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K57" t="s">
         <v>335</v>
       </c>
       <c r="L57">
-        <v>20000</v>
+        <v>3100</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6031,60 +6037,60 @@
         <v>360</v>
       </c>
       <c r="R57" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V57" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="W57" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="X57" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Y57" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G58">
-        <v>386</v>
+        <v>12000</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I58" t="s">
         <v>316</v>
       </c>
       <c r="K58" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L58">
-        <v>386</v>
+        <v>12000</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6105,22 +6111,22 @@
         <v>362</v>
       </c>
       <c r="S58" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T58" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U58" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="V58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="W58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X58" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y58" t="s">
         <v>511</v>
@@ -6128,40 +6134,40 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="H59" t="s">
         <v>267</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="K59" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L59">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -6170,10 +6176,10 @@
         <v>357</v>
       </c>
       <c r="O59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q59" t="s">
         <v>360</v>
@@ -6185,66 +6191,72 @@
         <v>365</v>
       </c>
       <c r="T59" t="s">
-        <v>397</v>
+        <v>212</v>
       </c>
       <c r="U59" t="s">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="V59" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="W59" t="s">
-        <v>473</v>
+        <v>212</v>
       </c>
       <c r="X59" t="s">
-        <v>486</v>
+        <v>233</v>
       </c>
       <c r="Y59" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="F60" t="s">
+        <v>234</v>
       </c>
       <c r="G60">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s">
         <v>268</v>
       </c>
       <c r="I60" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="J60" t="s">
+        <v>333</v>
       </c>
       <c r="K60" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L60">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O60" t="s">
         <v>356</v>
       </c>
       <c r="P60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q60" t="s">
         <v>360</v>
@@ -6256,66 +6268,72 @@
         <v>365</v>
       </c>
       <c r="T60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U60" t="s">
-        <v>435</v>
+        <v>234</v>
       </c>
       <c r="V60" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="W60" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="X60" t="s">
-        <v>486</v>
+        <v>234</v>
       </c>
       <c r="Y60" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="F61" t="s">
+        <v>234</v>
       </c>
       <c r="G61">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H61" t="s">
         <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="J61" t="s">
+        <v>333</v>
       </c>
       <c r="K61" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L61">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O61" t="s">
         <v>356</v>
       </c>
       <c r="P61" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q61" t="s">
         <v>360</v>
@@ -6327,66 +6345,72 @@
         <v>365</v>
       </c>
       <c r="T61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U61" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="V61" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="W61" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="X61" t="s">
-        <v>486</v>
+        <v>234</v>
       </c>
       <c r="Y61" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="F62" t="s">
+        <v>234</v>
       </c>
       <c r="G62">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
         <v>319</v>
       </c>
+      <c r="J62" t="s">
+        <v>333</v>
+      </c>
       <c r="K62" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L62">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O62" t="s">
         <v>356</v>
       </c>
       <c r="P62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q62" t="s">
         <v>360</v>
@@ -6398,63 +6422,69 @@
         <v>365</v>
       </c>
       <c r="T62" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U62" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="V62" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="W62" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="X62" t="s">
-        <v>486</v>
+        <v>234</v>
       </c>
       <c r="Y62" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="F63" t="s">
+        <v>235</v>
       </c>
       <c r="G63">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="H63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I63" t="s">
         <v>320</v>
       </c>
+      <c r="J63" t="s">
+        <v>235</v>
+      </c>
       <c r="K63" t="s">
         <v>335</v>
       </c>
       <c r="L63">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P63" t="s">
         <v>358</v>
@@ -6463,60 +6493,60 @@
         <v>360</v>
       </c>
       <c r="R63" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="S63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T63" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U63" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="V63" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W63" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="X63" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y63" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G64">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="I64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K64" t="s">
         <v>335</v>
       </c>
       <c r="L64">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6528,7 +6558,7 @@
         <v>356</v>
       </c>
       <c r="P64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q64" t="s">
         <v>360</v>
@@ -6537,69 +6567,63 @@
         <v>362</v>
       </c>
       <c r="S64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="V64" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="W64" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="X64" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="Y64" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
         <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G65">
-        <v>2500</v>
+        <v>369500</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I65" t="s">
-        <v>321</v>
-      </c>
-      <c r="J65" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K65" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L65">
-        <v>2500</v>
+        <v>369500</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O65" t="s">
         <v>356</v>
@@ -6617,66 +6641,60 @@
         <v>365</v>
       </c>
       <c r="T65" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="U65" t="s">
-        <v>233</v>
+        <v>436</v>
       </c>
       <c r="V65" t="s">
         <v>456</v>
       </c>
       <c r="W65" t="s">
-        <v>218</v>
+        <v>478</v>
       </c>
       <c r="X65" t="s">
-        <v>233</v>
+        <v>436</v>
       </c>
       <c r="Y65" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G66">
-        <v>40</v>
+        <v>387000</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I66" t="s">
         <v>322</v>
       </c>
-      <c r="J66" t="s">
-        <v>333</v>
-      </c>
       <c r="K66" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>387000</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O66" t="s">
         <v>356</v>
@@ -6694,30 +6712,30 @@
         <v>365</v>
       </c>
       <c r="T66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U66" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="V66" t="s">
         <v>456</v>
       </c>
       <c r="W66" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="X66" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="Y66" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>100</v>
@@ -6726,46 +6744,40 @@
         <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
-      </c>
-      <c r="F67" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="H67" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I67" t="s">
         <v>323</v>
       </c>
-      <c r="J67" t="s">
-        <v>333</v>
-      </c>
       <c r="K67" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L67">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="M67">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O67" t="s">
         <v>356</v>
       </c>
       <c r="P67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q67" t="s">
         <v>360</v>
       </c>
       <c r="R67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S67" t="s">
         <v>365</v>
@@ -6774,69 +6786,69 @@
         <v>400</v>
       </c>
       <c r="U67" t="s">
-        <v>234</v>
+        <v>437</v>
       </c>
       <c r="V67" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="W67" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="X67" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
       <c r="Y67" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
         <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>5400</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L68">
-        <v>100</v>
+        <v>5400</v>
       </c>
       <c r="M68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N68" t="s">
         <v>357</v>
       </c>
       <c r="O68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q68" t="s">
         <v>360</v>
@@ -6848,69 +6860,63 @@
         <v>365</v>
       </c>
       <c r="T68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U68" t="s">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="V68" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="W68" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="X68" t="s">
-        <v>234</v>
+        <v>490</v>
       </c>
       <c r="Y68" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
         <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
-      </c>
-      <c r="F69" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G69">
-        <v>500</v>
+        <v>6200</v>
       </c>
       <c r="H69" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="I69" t="s">
-        <v>324</v>
-      </c>
-      <c r="J69" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="K69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L69">
-        <v>500</v>
+        <v>6100</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P69" t="s">
         <v>358</v>
@@ -6919,69 +6925,69 @@
         <v>360</v>
       </c>
       <c r="R69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S69" t="s">
         <v>365</v>
       </c>
       <c r="T69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U69" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W69" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="X69" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Y69" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G70">
-        <v>60000</v>
+        <v>2800</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K70" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L70">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="N70" t="s">
         <v>356</v>
       </c>
       <c r="O70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P70" t="s">
         <v>359</v>
@@ -6990,69 +6996,69 @@
         <v>360</v>
       </c>
       <c r="R70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S70" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T70" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V70" t="s">
         <v>456</v>
       </c>
       <c r="W70" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="X70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y70" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
         <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G71">
-        <v>369500</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I71" t="s">
         <v>326</v>
       </c>
       <c r="K71" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L71">
-        <v>369500</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N71" t="s">
         <v>356</v>
       </c>
       <c r="O71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P71" t="s">
         <v>359</v>
@@ -7061,10 +7067,10 @@
         <v>360</v>
       </c>
       <c r="R71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S71" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T71" t="s">
         <v>403</v>
@@ -7076,45 +7082,45 @@
         <v>456</v>
       </c>
       <c r="W71" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="X71" t="s">
         <v>440</v>
       </c>
       <c r="Y71" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
         <v>222</v>
       </c>
       <c r="G72">
-        <v>387000</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="I72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K72" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L72">
-        <v>387000</v>
+        <v>8</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7126,66 +7132,66 @@
         <v>356</v>
       </c>
       <c r="P72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q72" t="s">
         <v>360</v>
       </c>
       <c r="R72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S72" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U72" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V72" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="W72" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="X72" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="Y72" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
         <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G73">
-        <v>16000</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I73" t="s">
         <v>327</v>
       </c>
       <c r="K73" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L73">
-        <v>16000</v>
+        <v>8</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7203,10 +7209,10 @@
         <v>360</v>
       </c>
       <c r="R73" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S73" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T73" t="s">
         <v>404</v>
@@ -7218,90 +7224,84 @@
         <v>461</v>
       </c>
       <c r="W73" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="X73" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="Y73" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="G74">
-        <v>5400</v>
+        <v>100</v>
       </c>
       <c r="H74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I74" t="s">
-        <v>328</v>
-      </c>
-      <c r="J74" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K74" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L74">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O74" t="s">
         <v>357</v>
       </c>
       <c r="P74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q74" t="s">
         <v>360</v>
       </c>
       <c r="R74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S74" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T74" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="U74" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="V74" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="W74" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="X74" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="Y74" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -7309,43 +7309,43 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G75">
-        <v>6200</v>
+        <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K75" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L75">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N75" t="s">
         <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q75" t="s">
         <v>360</v>
@@ -7354,199 +7354,199 @@
         <v>362</v>
       </c>
       <c r="S75" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="U75" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="V75" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="W75" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="X75" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="Y75" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G76">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L76">
+        <v>5000</v>
+      </c>
+      <c r="M76">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>2800</v>
-      </c>
       <c r="N76" t="s">
         <v>356</v>
       </c>
       <c r="O76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q76" t="s">
         <v>360</v>
       </c>
       <c r="R76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T76" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="U76" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="V76" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="W76" t="s">
         <v>464</v>
       </c>
       <c r="X76" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y76" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="K77" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="L77">
+        <v>200</v>
+      </c>
+      <c r="M77">
         <v>0</v>
       </c>
-      <c r="M77">
-        <v>25</v>
-      </c>
       <c r="N77" t="s">
         <v>356</v>
       </c>
       <c r="O77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q77" t="s">
         <v>360</v>
       </c>
       <c r="R77" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T77" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="U77" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="V77" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="W77" t="s">
         <v>464</v>
       </c>
       <c r="X77" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y77" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>6110</v>
       </c>
       <c r="H78" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="I78" t="s">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="K78" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>6110</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -7564,36 +7564,36 @@
         <v>360</v>
       </c>
       <c r="R78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V78" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="W78" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="X78" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="Y78" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
         <v>107</v>
@@ -7605,19 +7605,19 @@
         <v>228</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -7635,10 +7635,10 @@
         <v>360</v>
       </c>
       <c r="R79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T79" t="s">
         <v>407</v>
@@ -7650,24 +7650,24 @@
         <v>462</v>
       </c>
       <c r="W79" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="X79" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="Y79" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>169</v>
@@ -7676,55 +7676,55 @@
         <v>229</v>
       </c>
       <c r="G80">
-        <v>100</v>
+        <v>4372</v>
       </c>
       <c r="H80" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="I80" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="K80" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L80">
+        <v>4372</v>
+      </c>
+      <c r="M80">
         <v>0</v>
       </c>
-      <c r="M80">
-        <v>100</v>
-      </c>
       <c r="N80" t="s">
         <v>356</v>
       </c>
       <c r="O80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q80" t="s">
         <v>360</v>
       </c>
       <c r="R80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T80" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U80" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="V80" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="W80" t="s">
         <v>464</v>
       </c>
       <c r="X80" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Y80" t="s">
         <v>523</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -137,6 +137,9 @@
     <t>АКЦІОНЕРНЕ ТОВАРИСТВО "МЕГАБАНК"</t>
   </si>
   <si>
+    <t>АКЦІОНЕРНЕ ТОВАРИСТВО "КОМЕРЦІЙНИЙ БАНК "ГЛОБУС"</t>
+  </si>
+  <si>
     <t>АТ КБ "ПРИВАТБАНК"</t>
   </si>
   <si>
@@ -161,27 +164,24 @@
     <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
   </si>
   <si>
+    <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
+  </si>
+  <si>
+    <t>ПАТ АБ УКРГАЗБАНК</t>
+  </si>
+  <si>
+    <t>АТ КБ "Приват банк"</t>
+  </si>
+  <si>
+    <t>АТ Мегабанк</t>
+  </si>
+  <si>
+    <t>АТ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
     <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
   </si>
   <si>
-    <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
-  </si>
-  <si>
-    <t>ПАТ АБ УКРГАЗБАНК</t>
-  </si>
-  <si>
-    <t>АТ КБ "Приват банк"</t>
-  </si>
-  <si>
-    <t>АТ Мегабанк</t>
-  </si>
-  <si>
-    <t>АТ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>АКЦІОНЕРНЕ ТОВАРИСТВО "КОМЕРЦІЙНИЙ БАНК "ГЛОБУС"</t>
-  </si>
-  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
     <t>09804119</t>
   </si>
   <si>
+    <t>35591059</t>
+  </si>
+  <si>
     <t>09325703</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
     <t>09322277</t>
   </si>
   <si>
-    <t>35591059</t>
-  </si>
-  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -281,6 +281,18 @@
     <t>UA423516290000000002600114005</t>
   </si>
   <si>
+    <t>UA033805260000002600800159741</t>
+  </si>
+  <si>
+    <t>UA033223130000026001000047274</t>
+  </si>
+  <si>
+    <t>UA073223130000026009000044990</t>
+  </si>
+  <si>
+    <t>UA723223130000026005000045023</t>
+  </si>
+  <si>
     <t>UA363052990000026005036218701</t>
   </si>
   <si>
@@ -308,39 +320,27 @@
     <t>UA473223130000026003000042534</t>
   </si>
   <si>
+    <t>UA503348510000000026008137708</t>
+  </si>
+  <si>
+    <t>UA503204780000026003924882927</t>
+  </si>
+  <si>
+    <t>UA633052990000026200672595702</t>
+  </si>
+  <si>
+    <t>UA663516290000000002600805183</t>
+  </si>
+  <si>
+    <t>UA363154050000026001052317039</t>
+  </si>
+  <si>
+    <t>UA693808050000000026004671091</t>
+  </si>
+  <si>
     <t>UA463052990000026003016807628</t>
   </si>
   <si>
-    <t>UA503348510000000026008137708</t>
-  </si>
-  <si>
-    <t>UA503204780000026003924882927</t>
-  </si>
-  <si>
-    <t>UA633052990000026200672595702</t>
-  </si>
-  <si>
-    <t>UA663516290000000002600805183</t>
-  </si>
-  <si>
-    <t>UA363154050000026001052317039</t>
-  </si>
-  <si>
-    <t>UA033805260000002600800159741</t>
-  </si>
-  <si>
-    <t>UA693808050000000026004671091</t>
-  </si>
-  <si>
-    <t>UA033223130000026001000047274</t>
-  </si>
-  <si>
-    <t>UA073223130000026009000044990</t>
-  </si>
-  <si>
-    <t>UA723223130000026005000045023</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -443,6 +443,24 @@
     <t>07.10.2020</t>
   </si>
   <si>
+    <t>27.08.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>08.04.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>31.10.2023</t>
+  </si>
+  <si>
     <t>21.10.2020</t>
   </si>
   <si>
@@ -479,54 +497,36 @@
     <t>25.08.2021</t>
   </si>
   <si>
+    <t>19.02.2021</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
     <t>02.09.2021</t>
   </si>
   <si>
-    <t>19.02.2021</t>
-  </si>
-  <si>
-    <t>14.09.2020</t>
-  </si>
-  <si>
-    <t>10.09.2020</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>22.12.2021</t>
-  </si>
-  <si>
-    <t>08.02.2021</t>
-  </si>
-  <si>
-    <t>01.02.2023</t>
-  </si>
-  <si>
-    <t>30.01.2023</t>
-  </si>
-  <si>
-    <t>15.03.2024</t>
-  </si>
-  <si>
-    <t>27.08.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>08.04.2023</t>
-  </si>
-  <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>31.10.2023</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -617,6 +617,24 @@
     <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
   </si>
   <si>
+    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
+  </si>
+  <si>
+    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
+  </si>
+  <si>
+    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
+  </si>
+  <si>
+    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
+  </si>
+  <si>
     <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
   </si>
   <si>
@@ -659,54 +677,36 @@
     <t>ПП "СИЛА І ЧЕСТЬ"</t>
   </si>
   <si>
+    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРИВАТБАНК</t>
+  </si>
+  <si>
+    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
+  </si>
+  <si>
+    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+  </si>
+  <si>
     <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
   </si>
   <si>
-    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
-  </si>
-  <si>
-    <t>АТ КБ ПРИВАТБАНК</t>
-  </si>
-  <si>
-    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
-  </si>
-  <si>
-    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
-  </si>
-  <si>
-    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
-  </si>
-  <si>
-    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
-  </si>
-  <si>
-    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
-  </si>
-  <si>
-    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -797,6 +797,15 @@
     <t>25.01.2022</t>
   </si>
   <si>
+    <t>18.09.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>11.04.2023</t>
+  </si>
+  <si>
     <t>08.09.2023</t>
   </si>
   <si>
@@ -860,15 +869,6 @@
     <t>12.04.2024</t>
   </si>
   <si>
-    <t>18.09.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>11.04.2023</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -938,6 +938,18 @@
     <t>Шеветовський Валентин Валентинович</t>
   </si>
   <si>
+    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
+  </si>
+  <si>
+    <t>Фастовець Тетяна Сергіївна</t>
+  </si>
+  <si>
+    <t>Литовченко Тамара Миколаївна</t>
+  </si>
+  <si>
+    <t>Самохвалова Лариса Феліксівна</t>
+  </si>
+  <si>
     <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
   </si>
   <si>
@@ -977,37 +989,25 @@
     <t>Філонський Валерій Вікторович</t>
   </si>
   <si>
+    <t>Литовченко Олексій Сергійович</t>
+  </si>
+  <si>
+    <t>Гриць Віталій Юрійович</t>
+  </si>
+  <si>
+    <t>Павлович Євгеній Володимирович</t>
+  </si>
+  <si>
+    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t>Бобров Олексій Анатолійович</t>
+  </si>
+  <si>
+    <t>Нездолій Григорій Григорович</t>
+  </si>
+  <si>
     <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>Литовченко Олексій Сергійович</t>
-  </si>
-  <si>
-    <t>Гриць Віталій Юрійович</t>
-  </si>
-  <si>
-    <t>Павлович Євгеній Володимирович</t>
-  </si>
-  <si>
-    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
-  </si>
-  <si>
-    <t>Бобров Олексій Анатолійович</t>
-  </si>
-  <si>
-    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
-  </si>
-  <si>
-    <t>Нездолій Григорій Григорович</t>
-  </si>
-  <si>
-    <t>Фастовець Тетяна Сергіївна</t>
-  </si>
-  <si>
-    <t>Литовченко Тамара Миколаївна</t>
-  </si>
-  <si>
-    <t>Самохвалова Лариса Феліксівна</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1068,6 +1068,12 @@
 13.04.2021 р.</t>
   </si>
   <si>
+    <t>101; Перерахування платежу №27/08/20231359985700316, оплаченого як Добровільний внесок ЯЦКОВА МИХАЙЛА ЄВГЕНОВИЧА - 200,00 грн. Без ПДВ (анонімний внескодавець)</t>
+  </si>
+  <si>
+    <t>неналежний платник</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вказані неповні дані для ідентифікації </t>
   </si>
   <si>
@@ -1083,12 +1089,6 @@
     <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
   </si>
   <si>
-    <t>101; Перерахування платежу №27/08/20231359985700316, оплаченого як Добровільний внесок ЯЦКОВА МИХАЙЛА ЄВГЕНОВИЧА - 200,00 грн. Без ПДВ (анонімний внескодавець)</t>
-  </si>
-  <si>
-    <t>неналежний платник</t>
-  </si>
-  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -1188,6 +1188,18 @@
     <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
+  </si>
+  <si>
+    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
   </si>
   <si>
@@ -1212,39 +1224,27 @@
     <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
+  </si>
+  <si>
+    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
+  </si>
+  <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
     <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
-  </si>
-  <si>
-    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
-  </si>
-  <si>
-    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
-  </si>
-  <si>
-    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1305,6 +1305,18 @@
     <t>43449722</t>
   </si>
   <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>43945782</t>
+  </si>
+  <si>
+    <t>43671044</t>
+  </si>
+  <si>
+    <t>43721791</t>
+  </si>
+  <si>
     <t>38010759</t>
   </si>
   <si>
@@ -1323,39 +1335,27 @@
     <t>43777954</t>
   </si>
   <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
+    <t>43379734</t>
+  </si>
+  <si>
     <t>36894166</t>
   </si>
   <si>
-    <t>40000865</t>
-  </si>
-  <si>
-    <t>39765623</t>
-  </si>
-  <si>
-    <t>43626410</t>
-  </si>
-  <si>
-    <t>40006563</t>
-  </si>
-  <si>
-    <t>37263887</t>
-  </si>
-  <si>
-    <t>40422142</t>
-  </si>
-  <si>
-    <t>43379734</t>
-  </si>
-  <si>
-    <t>43945782</t>
-  </si>
-  <si>
-    <t>43671044</t>
-  </si>
-  <si>
-    <t>43721791</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1395,6 +1395,9 @@
     <t>Київська обл.</t>
   </si>
   <si>
+    <t>Дніпропетровська обл.</t>
+  </si>
+  <si>
     <t>Закарпатська обл.</t>
   </si>
   <si>
@@ -1407,9 +1410,6 @@
     <t>Черкаська обл.</t>
   </si>
   <si>
-    <t>Дніпропетровська обл.</t>
-  </si>
-  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1449,24 +1449,24 @@
     <t>КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ</t>
   </si>
   <si>
+    <t>МАЙБУТНЄ КРАЇНИ</t>
+  </si>
+  <si>
+    <t>РІДНИЙ ДІМ</t>
+  </si>
+  <si>
+    <t>ПРОПОЗИЦІЯ</t>
+  </si>
+  <si>
+    <t>НАШ КРАЙ</t>
+  </si>
+  <si>
+    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
+  </si>
+  <si>
     <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
   </si>
   <si>
-    <t>МАЙБУТНЄ КРАЇНИ</t>
-  </si>
-  <si>
-    <t>РІДНИЙ ДІМ</t>
-  </si>
-  <si>
-    <t>ПРОПОЗИЦІЯ</t>
-  </si>
-  <si>
-    <t>НАШ КРАЙ</t>
-  </si>
-  <si>
-    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
-  </si>
-  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -1485,18 +1485,18 @@
     <t>39610682</t>
   </si>
   <si>
+    <t>39550414</t>
+  </si>
+  <si>
+    <t>37724082</t>
+  </si>
+  <si>
+    <t>33492420</t>
+  </si>
+  <si>
     <t>33547558</t>
   </si>
   <si>
-    <t>39550414</t>
-  </si>
-  <si>
-    <t>37724082</t>
-  </si>
-  <si>
-    <t>33492420</t>
-  </si>
-  <si>
     <t>78043b70-d48b-11ee-a5cc-0f6c6369ddf7</t>
   </si>
   <si>
@@ -1542,6 +1542,9 @@
     <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
   </si>
   <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
     <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
   </si>
   <si>
@@ -1563,34 +1566,31 @@
     <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
   </si>
   <si>
+    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
     <t>12cff070-03eb-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2167,7 @@
         <v>464</v>
       </c>
       <c r="X3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y3" t="s">
         <v>493</v>
@@ -2238,7 +2238,7 @@
         <v>464</v>
       </c>
       <c r="X4" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y4" t="s">
         <v>493</v>
@@ -2309,7 +2309,7 @@
         <v>464</v>
       </c>
       <c r="X5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y5" t="s">
         <v>493</v>
@@ -2380,7 +2380,7 @@
         <v>464</v>
       </c>
       <c r="X6" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y6" t="s">
         <v>493</v>
@@ -2451,7 +2451,7 @@
         <v>464</v>
       </c>
       <c r="X7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y7" t="s">
         <v>493</v>
@@ -2522,7 +2522,7 @@
         <v>464</v>
       </c>
       <c r="X8" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y8" t="s">
         <v>494</v>
@@ -2593,7 +2593,7 @@
         <v>464</v>
       </c>
       <c r="X9" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y9" t="s">
         <v>494</v>
@@ -2664,7 +2664,7 @@
         <v>464</v>
       </c>
       <c r="X10" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y10" t="s">
         <v>494</v>
@@ -2838,7 +2838,7 @@
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
         <v>179</v>
@@ -4888,7 +4888,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -4900,22 +4900,22 @@
         <v>200</v>
       </c>
       <c r="G42">
-        <v>34000</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="I42" t="s">
         <v>307</v>
       </c>
       <c r="K42" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L42">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>34000</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s">
         <v>356</v>
@@ -4930,10 +4930,10 @@
         <v>360</v>
       </c>
       <c r="R42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T42" t="s">
         <v>389</v>
@@ -4945,7 +4945,7 @@
         <v>456</v>
       </c>
       <c r="W42" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="X42" t="s">
         <v>428</v>
@@ -4956,13 +4956,13 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>143</v>
@@ -4970,32 +4970,26 @@
       <c r="E43" t="s">
         <v>201</v>
       </c>
-      <c r="F43" t="s">
-        <v>231</v>
-      </c>
       <c r="G43">
-        <v>6500000</v>
+        <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
-      </c>
-      <c r="J43" t="s">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L43">
-        <v>6500000</v>
+        <v>5000</v>
       </c>
       <c r="M43">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s">
         <v>356</v>
@@ -5013,33 +5007,33 @@
         <v>367</v>
       </c>
       <c r="T43" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="U43" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
       <c r="V43" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="W43" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="X43" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>144</v>
@@ -5048,19 +5042,19 @@
         <v>202</v>
       </c>
       <c r="G44">
-        <v>345000</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
         <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L44">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5078,13 +5072,13 @@
         <v>360</v>
       </c>
       <c r="R44" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S44" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U44" t="s">
         <v>429</v>
@@ -5093,45 +5087,45 @@
         <v>458</v>
       </c>
       <c r="W44" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="X44" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="Y44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G45">
-        <v>345000</v>
+        <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L45">
-        <v>269900</v>
+        <v>6110</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5149,75 +5143,69 @@
         <v>360</v>
       </c>
       <c r="R45" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S45" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T45" t="s">
         <v>391</v>
       </c>
       <c r="U45" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V45" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="W45" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="X45" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G46">
-        <v>130100</v>
+        <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="I46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
         <v>335</v>
       </c>
       <c r="L46">
-        <v>130100</v>
+        <v>1000</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P46" t="s">
         <v>358</v>
@@ -5226,75 +5214,69 @@
         <v>360</v>
       </c>
       <c r="R46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S46" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U46" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="V46" t="s">
         <v>458</v>
       </c>
       <c r="W46" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="X46" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="Y46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="G47">
-        <v>52300</v>
+        <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J47" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s">
         <v>335</v>
       </c>
       <c r="L47">
-        <v>52300</v>
+        <v>4372</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P47" t="s">
         <v>358</v>
@@ -5303,78 +5285,72 @@
         <v>360</v>
       </c>
       <c r="R47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S47" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U47" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="V47" t="s">
         <v>458</v>
       </c>
       <c r="W47" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="X47" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G48">
-        <v>127300</v>
+        <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>203</v>
-      </c>
-      <c r="J48" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L48">
-        <v>127300</v>
+        <v>34000</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="N48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s">
         <v>357</v>
       </c>
       <c r="P48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q48" t="s">
         <v>360</v>
@@ -5383,25 +5359,25 @@
         <v>361</v>
       </c>
       <c r="S48" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T48" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="U48" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="V48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W48" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="X48" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="Y48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5409,46 +5385,46 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G49">
-        <v>10000</v>
+        <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I49" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="J49" t="s">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="K49" t="s">
         <v>335</v>
       </c>
       <c r="L49">
-        <v>10000</v>
+        <v>6500000</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N49" t="s">
         <v>357</v>
       </c>
       <c r="O49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s">
         <v>358</v>
@@ -5457,25 +5433,25 @@
         <v>360</v>
       </c>
       <c r="R49" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S49" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T49" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="U49" t="s">
-        <v>429</v>
+        <v>231</v>
       </c>
       <c r="V49" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="W49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y49" t="s">
         <v>509</v>
@@ -5486,46 +5462,40 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="G50">
-        <v>1000</v>
+        <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I50" t="s">
-        <v>310</v>
-      </c>
-      <c r="J50" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s">
         <v>341</v>
       </c>
       <c r="L50">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P50" t="s">
         <v>358</v>
@@ -5540,13 +5510,13 @@
         <v>365</v>
       </c>
       <c r="T50" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U50" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V50" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W50" t="s">
         <v>472</v>
@@ -5555,7 +5525,7 @@
         <v>485</v>
       </c>
       <c r="Y50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5563,31 +5533,31 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G51">
-        <v>50000</v>
+        <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L51">
-        <v>20000</v>
+        <v>269900</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5611,13 +5581,13 @@
         <v>365</v>
       </c>
       <c r="T51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U51" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="V51" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W51" t="s">
         <v>472</v>
@@ -5626,48 +5596,54 @@
         <v>485</v>
       </c>
       <c r="Y51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="F52" t="s">
+        <v>232</v>
       </c>
       <c r="G52">
-        <v>386</v>
+        <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>209</v>
+      </c>
+      <c r="J52" t="s">
+        <v>232</v>
       </c>
       <c r="K52" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L52">
-        <v>386</v>
+        <v>130100</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P52" t="s">
         <v>358</v>
@@ -5676,25 +5652,25 @@
         <v>360</v>
       </c>
       <c r="R52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S52" t="s">
         <v>365</v>
       </c>
       <c r="T52" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="U52" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="V52" t="s">
         <v>459</v>
       </c>
       <c r="W52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y52" t="s">
         <v>510</v>
@@ -5702,40 +5678,40 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="G53">
-        <v>120</v>
+        <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L53">
-        <v>120</v>
+        <v>52300</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5753,25 +5729,25 @@
         <v>360</v>
       </c>
       <c r="R53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S53" t="s">
         <v>365</v>
       </c>
       <c r="T53" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="U53" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="V53" t="s">
         <v>459</v>
       </c>
       <c r="W53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y53" t="s">
         <v>510</v>
@@ -5779,43 +5755,49 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="F54" t="s">
+        <v>232</v>
       </c>
       <c r="G54">
-        <v>350</v>
+        <v>127300</v>
       </c>
       <c r="H54" t="s">
         <v>265</v>
       </c>
       <c r="I54" t="s">
-        <v>313</v>
+        <v>209</v>
+      </c>
+      <c r="J54" t="s">
+        <v>232</v>
       </c>
       <c r="K54" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L54">
-        <v>350</v>
+        <v>127300</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P54" t="s">
         <v>358</v>
@@ -5824,25 +5806,25 @@
         <v>360</v>
       </c>
       <c r="R54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S54" t="s">
         <v>365</v>
       </c>
       <c r="T54" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="U54" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="V54" t="s">
         <v>459</v>
       </c>
       <c r="W54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y54" t="s">
         <v>510</v>
@@ -5850,43 +5832,49 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
         <v>209</v>
       </c>
+      <c r="F55" t="s">
+        <v>232</v>
+      </c>
       <c r="G55">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I55" t="s">
-        <v>314</v>
+        <v>209</v>
+      </c>
+      <c r="J55" t="s">
+        <v>232</v>
       </c>
       <c r="K55" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L55">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P55" t="s">
         <v>358</v>
@@ -5895,25 +5883,25 @@
         <v>360</v>
       </c>
       <c r="R55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S55" t="s">
         <v>365</v>
       </c>
       <c r="T55" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U55" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V55" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="W55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y55" t="s">
         <v>510</v>
@@ -5921,43 +5909,49 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
         <v>210</v>
       </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
       <c r="G56">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="s">
         <v>266</v>
       </c>
       <c r="I56" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
       </c>
       <c r="K56" t="s">
         <v>341</v>
       </c>
       <c r="L56">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P56" t="s">
         <v>358</v>
@@ -5966,25 +5960,25 @@
         <v>360</v>
       </c>
       <c r="R56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S56" t="s">
         <v>365</v>
       </c>
       <c r="T56" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="V56" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y56" t="s">
         <v>510</v>
@@ -5992,34 +5986,34 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
         <v>211</v>
       </c>
       <c r="G57">
-        <v>3100</v>
+        <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K57" t="s">
         <v>335</v>
       </c>
       <c r="L57">
-        <v>3100</v>
+        <v>20000</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6037,60 +6031,60 @@
         <v>360</v>
       </c>
       <c r="R57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T57" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V57" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="W57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="X57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Y57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G58">
-        <v>12000</v>
+        <v>386</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I58" t="s">
         <v>316</v>
       </c>
       <c r="K58" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L58">
-        <v>12000</v>
+        <v>386</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6111,22 +6105,22 @@
         <v>362</v>
       </c>
       <c r="S58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T58" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="U58" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="V58" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="W58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="X58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Y58" t="s">
         <v>511</v>
@@ -6134,40 +6128,40 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="G59">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
         <v>267</v>
       </c>
       <c r="I59" t="s">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="K59" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L59">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -6176,10 +6170,10 @@
         <v>357</v>
       </c>
       <c r="O59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q59" t="s">
         <v>360</v>
@@ -6191,72 +6185,66 @@
         <v>365</v>
       </c>
       <c r="T59" t="s">
-        <v>212</v>
+        <v>397</v>
       </c>
       <c r="U59" t="s">
-        <v>233</v>
+        <v>435</v>
       </c>
       <c r="V59" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="W59" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
       <c r="X59" t="s">
-        <v>233</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G60">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="H60" t="s">
         <v>268</v>
       </c>
       <c r="I60" t="s">
-        <v>318</v>
-      </c>
-      <c r="J60" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="K60" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L60">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s">
         <v>356</v>
       </c>
       <c r="P60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q60" t="s">
         <v>360</v>
@@ -6268,72 +6256,66 @@
         <v>365</v>
       </c>
       <c r="T60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U60" t="s">
-        <v>234</v>
+        <v>435</v>
       </c>
       <c r="V60" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="W60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="X60" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="Y60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G61">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H61" t="s">
         <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>319</v>
-      </c>
-      <c r="J61" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="K61" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M61">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O61" t="s">
         <v>356</v>
       </c>
       <c r="P61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q61" t="s">
         <v>360</v>
@@ -6345,72 +6327,66 @@
         <v>365</v>
       </c>
       <c r="T61" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U61" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="V61" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W61" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="X61" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="Y61" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="H62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I62" t="s">
         <v>319</v>
       </c>
-      <c r="J62" t="s">
-        <v>333</v>
-      </c>
       <c r="K62" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="M62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O62" t="s">
         <v>356</v>
       </c>
       <c r="P62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q62" t="s">
         <v>360</v>
@@ -6422,69 +6398,63 @@
         <v>365</v>
       </c>
       <c r="T62" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U62" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="V62" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W62" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="X62" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="Y62" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G63">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
         <v>320</v>
       </c>
-      <c r="J63" t="s">
-        <v>235</v>
-      </c>
       <c r="K63" t="s">
         <v>335</v>
       </c>
       <c r="L63">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P63" t="s">
         <v>358</v>
@@ -6493,60 +6463,60 @@
         <v>360</v>
       </c>
       <c r="R63" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T63" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="U63" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="V63" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W63" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="X63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G64">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="H64" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="I64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s">
         <v>335</v>
       </c>
       <c r="L64">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6558,7 +6528,7 @@
         <v>356</v>
       </c>
       <c r="P64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q64" t="s">
         <v>360</v>
@@ -6567,63 +6537,69 @@
         <v>362</v>
       </c>
       <c r="S64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U64" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="V64" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="W64" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="X64" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="Y64" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="F65" t="s">
+        <v>233</v>
       </c>
       <c r="G65">
-        <v>369500</v>
+        <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="J65" t="s">
+        <v>332</v>
       </c>
       <c r="K65" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L65">
-        <v>369500</v>
+        <v>2500</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O65" t="s">
         <v>356</v>
@@ -6641,60 +6617,66 @@
         <v>365</v>
       </c>
       <c r="T65" t="s">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="U65" t="s">
-        <v>436</v>
+        <v>233</v>
       </c>
       <c r="V65" t="s">
         <v>456</v>
       </c>
       <c r="W65" t="s">
-        <v>478</v>
+        <v>218</v>
       </c>
       <c r="X65" t="s">
-        <v>436</v>
+        <v>233</v>
       </c>
       <c r="Y65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="F66" t="s">
+        <v>234</v>
       </c>
       <c r="G66">
-        <v>387000</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I66" t="s">
         <v>322</v>
       </c>
+      <c r="J66" t="s">
+        <v>333</v>
+      </c>
       <c r="K66" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L66">
-        <v>387000</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N66" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O66" t="s">
         <v>356</v>
@@ -6712,30 +6694,30 @@
         <v>365</v>
       </c>
       <c r="T66" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U66" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="V66" t="s">
         <v>456</v>
       </c>
       <c r="W66" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="X66" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="Y66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>100</v>
@@ -6744,40 +6726,46 @@
         <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="F67" t="s">
+        <v>234</v>
       </c>
       <c r="G67">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I67" t="s">
         <v>323</v>
       </c>
+      <c r="J67" t="s">
+        <v>333</v>
+      </c>
       <c r="K67" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L67">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O67" t="s">
         <v>356</v>
       </c>
       <c r="P67" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q67" t="s">
         <v>360</v>
       </c>
       <c r="R67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S67" t="s">
         <v>365</v>
@@ -6786,69 +6774,69 @@
         <v>400</v>
       </c>
       <c r="U67" t="s">
-        <v>437</v>
+        <v>234</v>
       </c>
       <c r="V67" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="W67" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="X67" t="s">
-        <v>489</v>
+        <v>234</v>
       </c>
       <c r="Y67" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
         <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="G68">
-        <v>5400</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L68">
-        <v>5400</v>
+        <v>100</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N68" t="s">
         <v>357</v>
       </c>
       <c r="O68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q68" t="s">
         <v>360</v>
@@ -6860,54 +6848,54 @@
         <v>365</v>
       </c>
       <c r="T68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U68" t="s">
-        <v>438</v>
+        <v>234</v>
       </c>
       <c r="V68" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="W68" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="X68" t="s">
-        <v>490</v>
+        <v>234</v>
       </c>
       <c r="Y68" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G69">
-        <v>6200</v>
+        <v>60000</v>
       </c>
       <c r="H69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K69" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L69">
-        <v>6100</v>
+        <v>60000</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6919,7 +6907,7 @@
         <v>356</v>
       </c>
       <c r="P69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q69" t="s">
         <v>360</v>
@@ -6931,63 +6919,63 @@
         <v>365</v>
       </c>
       <c r="T69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V69" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="W69" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="X69" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="Y69" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G70">
-        <v>2800</v>
+        <v>369500</v>
       </c>
       <c r="H70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K70" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L70">
+        <v>369500</v>
+      </c>
+      <c r="M70">
         <v>0</v>
       </c>
-      <c r="M70">
-        <v>2800</v>
-      </c>
       <c r="N70" t="s">
         <v>356</v>
       </c>
       <c r="O70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P70" t="s">
         <v>359</v>
@@ -6996,69 +6984,69 @@
         <v>360</v>
       </c>
       <c r="R70" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V70" t="s">
         <v>456</v>
       </c>
       <c r="W70" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="X70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y70" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
         <v>221</v>
       </c>
       <c r="G71">
-        <v>25</v>
+        <v>387000</v>
       </c>
       <c r="H71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K71" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L71">
+        <v>387000</v>
+      </c>
+      <c r="M71">
         <v>0</v>
       </c>
-      <c r="M71">
-        <v>25</v>
-      </c>
       <c r="N71" t="s">
         <v>356</v>
       </c>
       <c r="O71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P71" t="s">
         <v>359</v>
@@ -7067,60 +7055,60 @@
         <v>360</v>
       </c>
       <c r="R71" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S71" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V71" t="s">
         <v>456</v>
       </c>
       <c r="W71" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="X71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y71" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
         <v>222</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>16000</v>
       </c>
       <c r="H72" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="I72" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K72" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L72">
-        <v>8</v>
+        <v>16000</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7138,69 +7126,75 @@
         <v>360</v>
       </c>
       <c r="R72" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S72" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V72" t="s">
         <v>461</v>
       </c>
       <c r="W72" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="X72" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="Y72" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="F73" t="s">
+        <v>55</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>5400</v>
       </c>
       <c r="H73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I73" t="s">
         <v>327</v>
       </c>
+      <c r="J73" t="s">
+        <v>334</v>
+      </c>
       <c r="K73" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="L73">
-        <v>8</v>
+        <v>5400</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P73" t="s">
         <v>358</v>
@@ -7209,10 +7203,10 @@
         <v>360</v>
       </c>
       <c r="R73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S73" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T73" t="s">
         <v>404</v>
@@ -7221,122 +7215,122 @@
         <v>441</v>
       </c>
       <c r="V73" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="W73" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="X73" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="Y73" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>6200</v>
       </c>
       <c r="H74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K74" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L74">
+        <v>6100</v>
+      </c>
+      <c r="M74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>100</v>
-      </c>
       <c r="N74" t="s">
         <v>356</v>
       </c>
       <c r="O74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q74" t="s">
         <v>360</v>
       </c>
       <c r="R74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S74" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T74" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="U74" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="V74" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="W74" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="X74" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="Y74" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G75">
-        <v>200</v>
+        <v>2800</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I75" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="K75" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>200</v>
+        <v>2800</v>
       </c>
       <c r="N75" t="s">
         <v>356</v>
@@ -7351,16 +7345,16 @@
         <v>360</v>
       </c>
       <c r="R75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T75" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="U75" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="V75" t="s">
         <v>456</v>
@@ -7369,113 +7363,113 @@
         <v>464</v>
       </c>
       <c r="X75" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y75" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G76">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="I76" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="K76" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L76">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N76" t="s">
         <v>356</v>
       </c>
       <c r="O76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q76" t="s">
         <v>360</v>
       </c>
       <c r="R76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T76" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="U76" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="V76" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="W76" t="s">
         <v>464</v>
       </c>
       <c r="X76" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y76" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G77">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="I77" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K77" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="L77">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -7493,36 +7487,36 @@
         <v>360</v>
       </c>
       <c r="R77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S77" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T77" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="U77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V77" t="s">
         <v>462</v>
       </c>
       <c r="W77" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="X77" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="Y77" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
@@ -7534,19 +7528,19 @@
         <v>227</v>
       </c>
       <c r="G78">
-        <v>6110</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="K78" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="L78">
-        <v>6110</v>
+        <v>8</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -7564,10 +7558,10 @@
         <v>360</v>
       </c>
       <c r="R78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S78" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T78" t="s">
         <v>406</v>
@@ -7576,27 +7570,27 @@
         <v>443</v>
       </c>
       <c r="V78" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="W78" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="X78" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="Y78" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -7605,66 +7599,66 @@
         <v>228</v>
       </c>
       <c r="G79">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H79" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="I79" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="K79" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="L79">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N79" t="s">
         <v>356</v>
       </c>
       <c r="O79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q79" t="s">
         <v>360</v>
       </c>
       <c r="R79" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T79" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="U79" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="V79" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="W79" t="s">
         <v>464</v>
       </c>
       <c r="X79" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
         <v>107</v>
@@ -7675,29 +7669,35 @@
       <c r="E80" t="s">
         <v>229</v>
       </c>
+      <c r="F80" t="s">
+        <v>235</v>
+      </c>
       <c r="G80">
-        <v>4372</v>
+        <v>500</v>
       </c>
       <c r="H80" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I80" t="s">
         <v>330</v>
       </c>
+      <c r="J80" t="s">
+        <v>235</v>
+      </c>
       <c r="K80" t="s">
         <v>335</v>
       </c>
       <c r="L80">
-        <v>4372</v>
+        <v>500</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P80" t="s">
         <v>358</v>
@@ -7706,10 +7706,10 @@
         <v>360</v>
       </c>
       <c r="R80" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="S80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T80" t="s">
         <v>407</v>
@@ -7718,13 +7718,13 @@
         <v>444</v>
       </c>
       <c r="V80" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="W80" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="X80" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="Y80" t="s">
         <v>523</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -164,6 +164,9 @@
     <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
   </si>
   <si>
+    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
+  </si>
+  <si>
     <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
     <t>АТ "ПРИВАТБАНК"</t>
   </si>
   <si>
-    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
-  </si>
-  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -320,6 +320,9 @@
     <t>UA473223130000026003000042534</t>
   </si>
   <si>
+    <t>UA463052990000026003016807628</t>
+  </si>
+  <si>
     <t>UA503348510000000026008137708</t>
   </si>
   <si>
@@ -338,9 +341,6 @@
     <t>UA693808050000000026004671091</t>
   </si>
   <si>
-    <t>UA463052990000026003016807628</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -497,6 +497,9 @@
     <t>25.08.2021</t>
   </si>
   <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
     <t>19.02.2021</t>
   </si>
   <si>
@@ -524,9 +527,6 @@
     <t>15.03.2024</t>
   </si>
   <si>
-    <t>02.09.2021</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -677,6 +677,9 @@
     <t>ПП "СИЛА І ЧЕСТЬ"</t>
   </si>
   <si>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
     <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
   </si>
   <si>
@@ -704,9 +707,6 @@
     <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
   </si>
   <si>
-    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -989,6 +989,9 @@
     <t>Філонський Валерій Вікторович</t>
   </si>
   <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
     <t>Литовченко Олексій Сергійович</t>
   </si>
   <si>
@@ -1005,9 +1008,6 @@
   </si>
   <si>
     <t>Нездолій Григорій Григорович</t>
-  </si>
-  <si>
-    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1224,6 +1224,9 @@
     <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
   </si>
   <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
   </si>
   <si>
@@ -1242,9 +1245,6 @@
     <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
   </si>
   <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1335,6 +1335,9 @@
     <t>43777954</t>
   </si>
   <si>
+    <t>36894166</t>
+  </si>
+  <si>
     <t>40000865</t>
   </si>
   <si>
@@ -1353,9 +1356,6 @@
     <t>43379734</t>
   </si>
   <si>
-    <t>36894166</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1449,6 +1449,9 @@
     <t>КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ</t>
   </si>
   <si>
+    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
+  </si>
+  <si>
     <t>МАЙБУТНЄ КРАЇНИ</t>
   </si>
   <si>
@@ -1464,9 +1467,6 @@
     <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
   </si>
   <si>
-    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
-  </si>
-  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -1485,6 +1485,9 @@
     <t>39610682</t>
   </si>
   <si>
+    <t>33547558</t>
+  </si>
+  <si>
     <t>39550414</t>
   </si>
   <si>
@@ -1494,9 +1497,6 @@
     <t>33492420</t>
   </si>
   <si>
-    <t>33547558</t>
-  </si>
-  <si>
     <t>78043b70-d48b-11ee-a5cc-0f6c6369ddf7</t>
   </si>
   <si>
@@ -1566,6 +1566,9 @@
     <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
   </si>
   <si>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
     <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
   </si>
   <si>
@@ -1588,9 +1591,6 @@
   </si>
   <si>
     <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -6871,7 +6871,7 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>101</v>
@@ -6882,38 +6882,44 @@
       <c r="E69" t="s">
         <v>220</v>
       </c>
+      <c r="F69" t="s">
+        <v>235</v>
+      </c>
       <c r="G69">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="I69" t="s">
         <v>324</v>
       </c>
+      <c r="J69" t="s">
+        <v>235</v>
+      </c>
       <c r="K69" t="s">
         <v>335</v>
       </c>
       <c r="L69">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q69" t="s">
         <v>360</v>
       </c>
       <c r="R69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="S69" t="s">
         <v>365</v>
@@ -6925,13 +6931,13 @@
         <v>438</v>
       </c>
       <c r="V69" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="W69" t="s">
         <v>476</v>
       </c>
       <c r="X69" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="Y69" t="s">
         <v>515</v>
@@ -6942,7 +6948,7 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
         <v>102</v>
@@ -6954,19 +6960,19 @@
         <v>221</v>
       </c>
       <c r="G70">
-        <v>369500</v>
+        <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I70" t="s">
         <v>325</v>
       </c>
       <c r="K70" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L70">
-        <v>369500</v>
+        <v>60000</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -7010,34 +7016,34 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G71">
-        <v>387000</v>
+        <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K71" t="s">
         <v>341</v>
       </c>
       <c r="L71">
-        <v>387000</v>
+        <v>369500</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7061,22 +7067,22 @@
         <v>365</v>
       </c>
       <c r="T71" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V71" t="s">
         <v>456</v>
       </c>
       <c r="W71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y71" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7084,7 +7090,7 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
         <v>103</v>
@@ -7096,10 +7102,10 @@
         <v>222</v>
       </c>
       <c r="G72">
-        <v>16000</v>
+        <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I72" t="s">
         <v>326</v>
@@ -7108,7 +7114,7 @@
         <v>341</v>
       </c>
       <c r="L72">
-        <v>16000</v>
+        <v>387000</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7120,13 +7126,13 @@
         <v>356</v>
       </c>
       <c r="P72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q72" t="s">
         <v>360</v>
       </c>
       <c r="R72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S72" t="s">
         <v>365</v>
@@ -7138,13 +7144,13 @@
         <v>440</v>
       </c>
       <c r="V72" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="W72" t="s">
         <v>478</v>
       </c>
       <c r="X72" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="Y72" t="s">
         <v>517</v>
@@ -7155,7 +7161,7 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>104</v>
@@ -7166,35 +7172,29 @@
       <c r="E73" t="s">
         <v>223</v>
       </c>
-      <c r="F73" t="s">
-        <v>55</v>
-      </c>
       <c r="G73">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I73" t="s">
         <v>327</v>
       </c>
-      <c r="J73" t="s">
-        <v>334</v>
-      </c>
       <c r="K73" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L73">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P73" t="s">
         <v>358</v>
@@ -7203,7 +7203,7 @@
         <v>360</v>
       </c>
       <c r="R73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S73" t="s">
         <v>365</v>
@@ -7215,7 +7215,7 @@
         <v>441</v>
       </c>
       <c r="V73" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="W73" t="s">
         <v>479</v>
@@ -7232,40 +7232,46 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
         <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
         <v>224</v>
       </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
       <c r="G74">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I74" t="s">
         <v>328</v>
       </c>
+      <c r="J74" t="s">
+        <v>334</v>
+      </c>
       <c r="K74" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L74">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P74" t="s">
         <v>358</v>
@@ -7286,7 +7292,7 @@
         <v>442</v>
       </c>
       <c r="V74" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="W74" t="s">
         <v>480</v>
@@ -7300,70 +7306,70 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
         <v>225</v>
       </c>
       <c r="G75">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="K75" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L75">
+        <v>6100</v>
+      </c>
+      <c r="M75">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>2800</v>
-      </c>
       <c r="N75" t="s">
         <v>356</v>
       </c>
       <c r="O75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q75" t="s">
         <v>360</v>
       </c>
       <c r="R75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="T75" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="U75" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="V75" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="W75" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="X75" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="Y75" t="s">
         <v>520</v>
@@ -7386,22 +7392,22 @@
         <v>226</v>
       </c>
       <c r="G76">
-        <v>25</v>
+        <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I76" t="s">
         <v>307</v>
       </c>
       <c r="K76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>2800</v>
       </c>
       <c r="N76" t="s">
         <v>356</v>
@@ -7437,18 +7443,18 @@
         <v>428</v>
       </c>
       <c r="Y76" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
         <v>167</v>
@@ -7457,31 +7463,31 @@
         <v>227</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="K77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L77">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
         <v>356</v>
       </c>
       <c r="O77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q77" t="s">
         <v>360</v>
@@ -7493,19 +7499,19 @@
         <v>368</v>
       </c>
       <c r="T77" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="U77" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="W77" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="X77" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Y77" t="s">
         <v>521</v>
@@ -7519,22 +7525,22 @@
         <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="I78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K78" t="s">
         <v>354</v>
@@ -7564,10 +7570,10 @@
         <v>368</v>
       </c>
       <c r="T78" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V78" t="s">
         <v>462</v>
@@ -7579,18 +7585,18 @@
         <v>422</v>
       </c>
       <c r="Y78" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -7599,55 +7605,55 @@
         <v>228</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="K79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79">
         <v>0</v>
       </c>
-      <c r="M79">
-        <v>100</v>
-      </c>
       <c r="N79" t="s">
         <v>356</v>
       </c>
       <c r="O79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q79" t="s">
         <v>360</v>
       </c>
       <c r="R79" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S79" t="s">
         <v>368</v>
       </c>
       <c r="T79" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U79" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="V79" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="W79" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="X79" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Y79" t="s">
         <v>522</v>
@@ -7655,13 +7661,13 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D80" t="s">
         <v>169</v>
@@ -7669,62 +7675,56 @@
       <c r="E80" t="s">
         <v>229</v>
       </c>
-      <c r="F80" t="s">
-        <v>235</v>
-      </c>
       <c r="G80">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="I80" t="s">
-        <v>330</v>
-      </c>
-      <c r="J80" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="K80" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="L80">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O80" t="s">
         <v>357</v>
       </c>
       <c r="P80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q80" t="s">
         <v>360</v>
       </c>
       <c r="R80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S80" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T80" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="U80" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="V80" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="W80" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="X80" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="Y80" t="s">
         <v>523</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="548">
   <si>
     <t>bank_name</t>
   </si>
@@ -182,6 +182,9 @@
     <t>АТ "ПРИВАТБАНК"</t>
   </si>
   <si>
+    <t>Публічне акціонерне товариство акціонерний банк "Укргазбанк"</t>
+  </si>
+  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -341,6 +344,12 @@
     <t>UA693808050000000026004671091</t>
   </si>
   <si>
+    <t>UA853204780000026001924857727</t>
+  </si>
+  <si>
+    <t>UA413052990000026001026208929</t>
+  </si>
+  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -527,6 +536,36 @@
     <t>15.03.2024</t>
   </si>
   <si>
+    <t>06.12.2021</t>
+  </si>
+  <si>
+    <t>27.01.2022</t>
+  </si>
+  <si>
+    <t>29.04.2022</t>
+  </si>
+  <si>
+    <t>02.05.2022</t>
+  </si>
+  <si>
+    <t>26.12.2022</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>10.03.2023</t>
+  </si>
+  <si>
+    <t>21.06.2023</t>
+  </si>
+  <si>
+    <t>29.12.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -707,6 +746,12 @@
     <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
   </si>
   <si>
+    <t>МИХАЛЮК ЮРІЙ ПЕТРОВИЧ</t>
+  </si>
+  <si>
+    <t>ТОВ "ГОВІРСА"</t>
+  </si>
+  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -725,6 +770,9 @@
     <t>02472453</t>
   </si>
   <si>
+    <t>44231733</t>
+  </si>
+  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -737,9 +785,6 @@
     <t>29.09.2021</t>
   </si>
   <si>
-    <t>26.12.2022</t>
-  </si>
-  <si>
     <t>04.02.2022</t>
   </si>
   <si>
@@ -851,9 +896,6 @@
     <t>27.05.2021</t>
   </si>
   <si>
-    <t>30.12.2021</t>
-  </si>
-  <si>
     <t>21.01.2021</t>
   </si>
   <si>
@@ -869,6 +911,12 @@
     <t>12.04.2024</t>
   </si>
   <si>
+    <t>04.07.2024</t>
+  </si>
+  <si>
+    <t>22.07.2024</t>
+  </si>
+  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -1008,6 +1056,12 @@
   </si>
   <si>
     <t>Нездолій Григорій Григорович</t>
+  </si>
+  <si>
+    <t>Михалюк Юрій Петрович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1203,7 +1257,7 @@
     <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
   </si>
   <si>
-    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
+    <t>Львівська крайова організація Народного Руху України</t>
   </si>
   <si>
     <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
@@ -1221,7 +1275,7 @@
     <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
   </si>
   <si>
-    <t>"КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ"</t>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
   </si>
   <si>
     <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
@@ -1245,6 +1299,12 @@
     <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
   </si>
   <si>
+    <t>Волинська обласна організація Всеукраїнського об'єднання «Батьківщина»</t>
+  </si>
+  <si>
+    <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
+  </si>
+  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1356,6 +1416,12 @@
     <t>43379734</t>
   </si>
   <si>
+    <t>25787544</t>
+  </si>
+  <si>
+    <t>25895860</t>
+  </si>
+  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1410,6 +1476,9 @@
     <t>Черкаська обл.</t>
   </si>
   <si>
+    <t>Волинська обл.</t>
+  </si>
+  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1446,7 +1515,7 @@
     <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
   </si>
   <si>
-    <t>КОНСЕРВАТИВНО - ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ</t>
+    <t>СИЛА І ЧЕСТЬ</t>
   </si>
   <si>
     <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
@@ -1591,6 +1660,9 @@
   </si>
   <si>
     <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +2020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2036,28 +2108,28 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="I2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -2066,40 +2138,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S2" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="U2" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="V2" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="W2" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="X2" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="Y2" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2107,28 +2179,28 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -2137,40 +2209,40 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O3" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P3" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R3" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S3" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="U3" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="V3" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="W3" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X3" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y3" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2178,28 +2250,28 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -2208,40 +2280,40 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P4" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q4" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R4" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S4" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T4" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="U4" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="V4" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="W4" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X4" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y4" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2249,28 +2321,28 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2279,40 +2351,40 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O5" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P5" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q5" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R5" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S5" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T5" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="U5" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="V5" t="s">
+        <v>470</v>
+      </c>
+      <c r="W5" t="s">
+        <v>487</v>
+      </c>
+      <c r="X5" t="s">
         <v>448</v>
       </c>
-      <c r="W5" t="s">
-        <v>464</v>
-      </c>
-      <c r="X5" t="s">
-        <v>428</v>
-      </c>
       <c r="Y5" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2320,28 +2392,28 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K6" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -2350,40 +2422,40 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O6" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P6" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q6" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R6" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S6" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T6" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="U6" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="V6" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="W6" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X6" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y6" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2391,28 +2463,28 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -2421,40 +2493,40 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="U7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="V7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="W7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y7" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2462,28 +2534,28 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G8">
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="L8">
         <v>60376.24</v>
@@ -2492,40 +2564,40 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O8" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P8" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q8" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R8" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S8" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T8" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="U8" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="V8" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="W8" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X8" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y8" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2533,28 +2605,28 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G9">
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="L9">
         <v>17524.75</v>
@@ -2563,40 +2635,40 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O9" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P9" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q9" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R9" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S9" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T9" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="U9" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="V9" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="W9" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X9" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y9" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2604,28 +2676,28 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -2634,40 +2706,40 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O10" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P10" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q10" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R10" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S10" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T10" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="U10" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="V10" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="W10" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X10" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y10" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2675,28 +2747,28 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G11">
         <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L11">
         <v>7.17</v>
@@ -2705,40 +2777,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O11" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P11" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q11" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R11" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S11" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T11" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="U11" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="V11" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="W11" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="X11" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="Y11" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2746,34 +2818,34 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G12">
         <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K12" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L12">
         <v>100000</v>
@@ -2782,40 +2854,40 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O12" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P12" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q12" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R12" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S12" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T12" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="U12" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="V12" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="W12" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="X12" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Y12" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2823,28 +2895,28 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G13">
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L13">
         <v>1600</v>
@@ -2853,40 +2925,40 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O13" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P13" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q13" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R13" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S13" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T13" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="U13" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="V13" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W13" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="X13" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Y13" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2894,28 +2966,28 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G14">
         <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="K14" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L14">
         <v>5020</v>
@@ -2924,40 +2996,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O14" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P14" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q14" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R14" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="S14" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T14" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="U14" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="V14" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="W14" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="X14" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Y14" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2965,28 +3037,28 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G15">
         <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K15" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L15">
         <v>150000</v>
@@ -2995,40 +3067,40 @@
         <v>150000</v>
       </c>
       <c r="N15" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O15" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P15" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q15" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R15" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S15" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T15" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U15" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V15" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W15" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X15" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y15" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3036,28 +3108,28 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G16">
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="K16" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -3066,40 +3138,40 @@
         <v>100000</v>
       </c>
       <c r="N16" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O16" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P16" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q16" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R16" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S16" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T16" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U16" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V16" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W16" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X16" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y16" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3107,28 +3179,28 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G17">
         <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="K17" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L17">
         <v>150000</v>
@@ -3137,40 +3209,40 @@
         <v>150000</v>
       </c>
       <c r="N17" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O17" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P17" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q17" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R17" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S17" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T17" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U17" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V17" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W17" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X17" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y17" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3178,28 +3250,28 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G18">
         <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="I18" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="K18" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L18">
         <v>160000</v>
@@ -3208,40 +3280,40 @@
         <v>160000</v>
       </c>
       <c r="N18" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O18" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P18" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q18" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R18" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S18" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T18" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U18" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V18" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W18" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X18" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y18" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3249,28 +3321,28 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G19">
         <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K19" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L19">
         <v>950000</v>
@@ -3279,40 +3351,40 @@
         <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O19" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P19" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q19" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R19" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S19" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T19" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U19" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V19" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W19" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X19" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y19" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -3320,28 +3392,28 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G20">
         <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="I20" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K20" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L20">
         <v>950000</v>
@@ -3350,40 +3422,40 @@
         <v>950000</v>
       </c>
       <c r="N20" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O20" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P20" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q20" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R20" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S20" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T20" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U20" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V20" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W20" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X20" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y20" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3391,28 +3463,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G21">
         <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="K21" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L21">
         <v>97396.8</v>
@@ -3421,40 +3493,40 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O21" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P21" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q21" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R21" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S21" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T21" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="U21" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="V21" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W21" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="X21" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Y21" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -3462,34 +3534,34 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -3498,40 +3570,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O22" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P22" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q22" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R22" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S22" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T22" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="U22" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="V22" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="W22" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="X22" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="Y22" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -3539,28 +3611,28 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G23">
         <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="I23" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K23" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L23">
         <v>5600</v>
@@ -3569,40 +3641,40 @@
         <v>5600</v>
       </c>
       <c r="N23" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O23" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P23" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q23" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R23" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S23" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T23" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="U23" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="V23" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W23" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="X23" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="Y23" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -3610,28 +3682,28 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="I24" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K24" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -3640,40 +3712,40 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O24" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P24" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q24" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R24" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S24" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T24" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="U24" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="V24" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W24" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="X24" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="Y24" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3681,28 +3753,28 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G25">
         <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="I25" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="L25">
         <v>10500</v>
@@ -3711,40 +3783,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O25" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P25" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q25" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R25" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S25" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T25" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="U25" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="V25" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W25" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3752,28 +3824,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3782,40 +3854,40 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O26" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P26" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q26" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R26" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S26" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T26" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="U26" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="V26" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W26" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X26" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y26" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3823,28 +3895,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G27">
         <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="K27" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3853,40 +3925,40 @@
         <v>1500</v>
       </c>
       <c r="N27" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O27" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P27" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q27" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R27" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S27" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T27" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="U27" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="V27" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W27" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X27" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y27" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3894,28 +3966,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K28" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3924,40 +3996,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O28" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P28" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q28" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R28" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S28" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T28" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="U28" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="V28" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W28" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X28" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y28" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3965,28 +4037,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G29">
         <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="K29" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L29">
         <v>400</v>
@@ -3995,40 +4067,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O29" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P29" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q29" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R29" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S29" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T29" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="U29" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="V29" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W29" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X29" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y29" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4036,28 +4108,28 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="I30" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -4066,40 +4138,40 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O30" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P30" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q30" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R30" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S30" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T30" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="U30" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="V30" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W30" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X30" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y30" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4107,28 +4179,28 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -4137,40 +4209,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O31" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P31" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q31" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R31" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S31" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T31" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="U31" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="V31" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="W31" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X31" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y31" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4178,28 +4250,28 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L32">
         <v>300</v>
@@ -4208,40 +4280,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O32" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P32" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q32" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R32" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S32" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T32" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="U32" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="V32" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="W32" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X32" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y32" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -4249,28 +4321,28 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G33">
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L33">
         <v>600</v>
@@ -4279,40 +4351,40 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O33" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P33" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q33" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R33" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S33" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T33" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="U33" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="V33" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="W33" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X33" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y33" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -4320,28 +4392,28 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -4350,40 +4422,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O34" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P34" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q34" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R34" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S34" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T34" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="U34" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="V34" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="W34" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X34" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y34" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -4391,28 +4463,28 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4421,40 +4493,40 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O35" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P35" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q35" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R35" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S35" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T35" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="U35" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="V35" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="W35" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X35" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y35" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -4462,28 +4534,28 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G36">
         <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L36">
         <v>700</v>
@@ -4492,40 +4564,40 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O36" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P36" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q36" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R36" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S36" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T36" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="U36" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="V36" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="W36" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X36" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y36" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -4533,28 +4605,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G37">
         <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="L37">
         <v>300</v>
@@ -4563,40 +4635,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P37" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q37" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R37" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S37" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T37" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="U37" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="V37" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="W37" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X37" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y37" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4604,28 +4676,28 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="G38">
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="L38">
         <v>800</v>
@@ -4634,40 +4706,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O38" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P38" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q38" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R38" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S38" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T38" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="U38" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="V38" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="W38" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X38" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y38" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4675,28 +4747,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="G39">
         <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="L39">
         <v>600</v>
@@ -4705,40 +4777,40 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P39" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q39" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R39" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S39" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T39" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="U39" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="V39" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="W39" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X39" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y39" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4746,28 +4818,28 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L40">
         <v>290800</v>
@@ -4776,40 +4848,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P40" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q40" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R40" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S40" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T40" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U40" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V40" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W40" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X40" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y40" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4817,28 +4889,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G41">
         <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L41">
         <v>560000</v>
@@ -4847,40 +4919,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q41" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R41" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S41" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T41" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="U41" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="V41" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W41" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="X41" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="Y41" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4888,28 +4960,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G42">
         <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4918,40 +4990,40 @@
         <v>200</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P42" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q42" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R42" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S42" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T42" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U42" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="V42" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W42" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X42" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y42" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4959,28 +5031,28 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G43">
         <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="L43">
         <v>5000</v>
@@ -4989,40 +5061,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P43" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q43" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R43" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S43" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T43" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="U43" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="V43" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="W43" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X43" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y43" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5030,28 +5102,28 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G44">
         <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K44" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="L44">
         <v>200</v>
@@ -5060,40 +5132,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P44" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q44" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R44" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S44" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T44" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="V44" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="W44" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X44" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y44" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5101,28 +5173,28 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G45">
         <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="L45">
         <v>6110</v>
@@ -5131,40 +5203,40 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P45" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q45" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R45" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S45" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T45" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="U45" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="V45" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="W45" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X45" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y45" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -5172,28 +5244,28 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G46">
         <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -5202,40 +5274,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P46" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q46" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R46" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S46" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T46" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="U46" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="V46" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="W46" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X46" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y46" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -5243,28 +5315,28 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G47">
         <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L47">
         <v>4372</v>
@@ -5273,40 +5345,40 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P47" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q47" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R47" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S47" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T47" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="U47" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="V47" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="W47" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X47" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y47" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -5314,28 +5386,28 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G48">
         <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L48">
         <v>34000</v>
@@ -5344,40 +5416,40 @@
         <v>34000</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P48" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q48" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R48" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S48" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T48" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="U48" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="V48" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W48" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="X48" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5385,34 +5457,34 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G49">
         <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I49" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L49">
         <v>6500000</v>
@@ -5421,40 +5493,40 @@
         <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P49" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R49" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="T49" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="U49" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="V49" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W49" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="X49" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="Y49" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -5462,28 +5534,28 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -5492,40 +5564,40 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P50" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q50" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S50" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T50" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="U50" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="V50" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W50" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X50" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5533,28 +5605,28 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G51">
         <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="K51" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L51">
         <v>269900</v>
@@ -5563,40 +5635,40 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P51" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q51" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R51" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S51" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="U51" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="V51" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W51" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X51" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5604,34 +5676,34 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G52">
         <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K52" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L52">
         <v>130100</v>
@@ -5640,40 +5712,40 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O52" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P52" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q52" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R52" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S52" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T52" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="U52" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="V52" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W52" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X52" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -5681,34 +5753,34 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G53">
         <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J53" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K53" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L53">
         <v>52300</v>
@@ -5717,40 +5789,40 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O53" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P53" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q53" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R53" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S53" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T53" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="U53" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="V53" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W53" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X53" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5758,34 +5830,34 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G54">
         <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K54" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L54">
         <v>127300</v>
@@ -5794,40 +5866,40 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O54" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P54" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q54" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R54" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S54" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T54" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="U54" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="V54" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W54" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X54" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5835,34 +5907,34 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G55">
         <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="J55" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K55" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L55">
         <v>10000</v>
@@ -5871,40 +5943,40 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O55" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P55" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q55" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R55" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S55" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T55" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="U55" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="V55" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W55" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X55" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y55" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5912,34 +5984,34 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" t="s">
         <v>56</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
       </c>
       <c r="G56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="I56" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K56" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -5948,40 +6020,40 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P56" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q56" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R56" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S56" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T56" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="U56" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="V56" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="W56" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X56" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y56" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5989,28 +6061,28 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G57">
         <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I57" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="K57" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L57">
         <v>20000</v>
@@ -6019,40 +6091,40 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O57" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P57" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q57" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R57" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S57" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T57" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="U57" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="V57" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="W57" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="X57" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Y57" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -6060,28 +6132,28 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G58">
         <v>386</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="K58" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L58">
         <v>386</v>
@@ -6090,40 +6162,40 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O58" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P58" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q58" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R58" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S58" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T58" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="U58" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="V58" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="W58" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="X58" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Y58" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6131,34 +6203,34 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G59">
         <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K59" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L59">
         <v>120</v>
@@ -6167,40 +6239,40 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O59" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P59" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q59" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R59" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S59" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T59" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="U59" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="V59" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="W59" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="X59" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Y59" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6208,28 +6280,28 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G60">
         <v>350</v>
       </c>
       <c r="H60" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="K60" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L60">
         <v>350</v>
@@ -6238,40 +6310,40 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O60" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P60" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q60" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R60" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S60" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T60" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="U60" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="V60" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="W60" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="X60" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Y60" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6279,28 +6351,28 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G61">
         <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I61" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L61">
         <v>500</v>
@@ -6309,40 +6381,40 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O61" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P61" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q61" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R61" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S61" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T61" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="U61" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="V61" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W61" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="X61" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Y61" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -6350,28 +6422,28 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G62">
         <v>1200</v>
       </c>
       <c r="H62" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I62" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L62">
         <v>1200</v>
@@ -6380,40 +6452,40 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P62" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q62" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R62" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S62" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T62" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="U62" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="V62" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="W62" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="X62" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Y62" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -6421,28 +6493,28 @@
         <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G63">
         <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="K63" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L63">
         <v>3100</v>
@@ -6451,40 +6523,40 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O63" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P63" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q63" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R63" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S63" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T63" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="U63" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="V63" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W63" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="X63" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="Y63" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6492,28 +6564,28 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G64">
         <v>12000</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="K64" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L64">
         <v>12000</v>
@@ -6522,40 +6594,40 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O64" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P64" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q64" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R64" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S64" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T64" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="U64" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="V64" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="W64" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="X64" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -6563,34 +6635,34 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G65">
         <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I65" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="J65" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="K65" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L65">
         <v>2500</v>
@@ -6599,40 +6671,40 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O65" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P65" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q65" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R65" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S65" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T65" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="U65" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="V65" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W65" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="X65" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Y65" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -6640,34 +6712,34 @@
         <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G66">
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="I66" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="J66" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="K66" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L66">
         <v>40</v>
@@ -6676,40 +6748,40 @@
         <v>40</v>
       </c>
       <c r="N66" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O66" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P66" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q66" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R66" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S66" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T66" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="U66" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="V66" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W66" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="X66" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Y66" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6717,34 +6789,34 @@
         <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G67">
         <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="I67" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J67" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="K67" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -6753,40 +6825,40 @@
         <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O67" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P67" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q67" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R67" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S67" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T67" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="U67" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="V67" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W67" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="X67" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Y67" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -6794,34 +6866,34 @@
         <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G68">
         <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="I68" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="K68" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -6830,40 +6902,40 @@
         <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O68" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P68" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q68" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R68" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S68" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T68" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="U68" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="V68" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W68" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="X68" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Y68" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6871,34 +6943,34 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G69">
         <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I69" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="J69" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K69" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L69">
         <v>500</v>
@@ -6907,40 +6979,40 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O69" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P69" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q69" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="S69" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T69" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="U69" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="V69" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="W69" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="X69" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="Y69" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6948,28 +7020,28 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G70">
         <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="I70" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="K70" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L70">
         <v>60000</v>
@@ -6978,40 +7050,40 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O70" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P70" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q70" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R70" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S70" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T70" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="U70" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="V70" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W70" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="X70" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="Y70" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -7019,28 +7091,28 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G71">
         <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="K71" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L71">
         <v>369500</v>
@@ -7049,40 +7121,40 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O71" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P71" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q71" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R71" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S71" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T71" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="U71" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="V71" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W71" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="X71" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Y71" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7090,28 +7162,28 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G72">
         <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="I72" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="K72" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L72">
         <v>387000</v>
@@ -7120,40 +7192,40 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O72" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P72" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q72" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R72" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S72" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T72" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="U72" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="V72" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W72" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="X72" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Y72" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -7161,28 +7233,28 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G73">
         <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="I73" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L73">
         <v>16000</v>
@@ -7191,40 +7263,40 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O73" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P73" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q73" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R73" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S73" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T73" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="U73" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="V73" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="W73" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="X73" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="Y73" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -7232,34 +7304,34 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G74">
         <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="I74" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J74" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="K74" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L74">
         <v>5400</v>
@@ -7268,40 +7340,40 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="O74" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P74" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q74" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R74" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S74" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T74" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="U74" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="V74" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="W74" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="X74" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="Y74" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -7309,28 +7381,28 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G75">
         <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="K75" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L75">
         <v>6100</v>
@@ -7339,40 +7411,40 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O75" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P75" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q75" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R75" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="S75" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="T75" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="U75" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="V75" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="W75" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="X75" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="Y75" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -7380,28 +7452,28 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G76">
         <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="K76" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7410,40 +7482,40 @@
         <v>2800</v>
       </c>
       <c r="N76" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O76" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P76" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q76" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R76" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S76" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="T76" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U76" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="V76" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W76" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X76" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y76" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -7451,28 +7523,28 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G77">
         <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="K77" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7481,40 +7553,40 @@
         <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O77" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P77" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="Q77" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R77" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S77" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="T77" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U77" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="V77" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="W77" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="X77" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="Y77" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -7522,28 +7594,28 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I78" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="K78" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L78">
         <v>8</v>
@@ -7552,40 +7624,40 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O78" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P78" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q78" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R78" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S78" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="T78" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="U78" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="V78" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="W78" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X78" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y78" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7593,28 +7665,28 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G79">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="K79" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L79">
         <v>8</v>
@@ -7623,40 +7695,40 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O79" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P79" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="Q79" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="R79" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S79" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="T79" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="U79" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="V79" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="W79" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="X79" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Y79" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -7664,28 +7736,28 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G80">
         <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="K80" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7694,40 +7766,762 @@
         <v>100</v>
       </c>
       <c r="N80" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O80" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P80" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>378</v>
+      </c>
+      <c r="R80" t="s">
+        <v>381</v>
+      </c>
+      <c r="S80" t="s">
+        <v>386</v>
+      </c>
+      <c r="T80" t="s">
+        <v>407</v>
+      </c>
+      <c r="U80" t="s">
+        <v>448</v>
+      </c>
+      <c r="V80" t="s">
+        <v>478</v>
+      </c>
+      <c r="W80" t="s">
+        <v>487</v>
+      </c>
+      <c r="X80" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>243</v>
+      </c>
+      <c r="G81">
+        <v>4500</v>
+      </c>
+      <c r="H81" t="s">
+        <v>298</v>
+      </c>
+      <c r="I81" t="s">
+        <v>347</v>
+      </c>
+      <c r="K81" t="s">
         <v>359</v>
       </c>
-      <c r="Q80" t="s">
-        <v>360</v>
-      </c>
-      <c r="R80" t="s">
-        <v>363</v>
-      </c>
-      <c r="S80" t="s">
-        <v>368</v>
-      </c>
-      <c r="T80" t="s">
-        <v>389</v>
-      </c>
-      <c r="U80" t="s">
-        <v>428</v>
-      </c>
-      <c r="V80" t="s">
-        <v>456</v>
-      </c>
-      <c r="W80" t="s">
-        <v>464</v>
-      </c>
-      <c r="X80" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>523</v>
+      <c r="L81">
+        <v>4500</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>374</v>
+      </c>
+      <c r="O81" t="s">
+        <v>374</v>
+      </c>
+      <c r="P81" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>378</v>
+      </c>
+      <c r="R81" t="s">
+        <v>382</v>
+      </c>
+      <c r="S81" t="s">
+        <v>386</v>
+      </c>
+      <c r="T81" t="s">
+        <v>426</v>
+      </c>
+      <c r="U81" t="s">
+        <v>465</v>
+      </c>
+      <c r="V81" t="s">
+        <v>485</v>
+      </c>
+      <c r="W81" t="s">
+        <v>488</v>
+      </c>
+      <c r="X81" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82">
+        <v>2000</v>
+      </c>
+      <c r="H82" t="s">
+        <v>298</v>
+      </c>
+      <c r="I82" t="s">
+        <v>347</v>
+      </c>
+      <c r="K82" t="s">
+        <v>359</v>
+      </c>
+      <c r="L82">
+        <v>2000</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>374</v>
+      </c>
+      <c r="O82" t="s">
+        <v>374</v>
+      </c>
+      <c r="P82" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>378</v>
+      </c>
+      <c r="R82" t="s">
+        <v>382</v>
+      </c>
+      <c r="S82" t="s">
+        <v>386</v>
+      </c>
+      <c r="T82" t="s">
+        <v>426</v>
+      </c>
+      <c r="U82" t="s">
+        <v>465</v>
+      </c>
+      <c r="V82" t="s">
+        <v>485</v>
+      </c>
+      <c r="W82" t="s">
+        <v>488</v>
+      </c>
+      <c r="X82" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83">
+        <v>1000</v>
+      </c>
+      <c r="H83" t="s">
+        <v>298</v>
+      </c>
+      <c r="I83" t="s">
+        <v>347</v>
+      </c>
+      <c r="K83" t="s">
+        <v>359</v>
+      </c>
+      <c r="L83">
+        <v>1000</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>374</v>
+      </c>
+      <c r="O83" t="s">
+        <v>374</v>
+      </c>
+      <c r="P83" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>378</v>
+      </c>
+      <c r="R83" t="s">
+        <v>382</v>
+      </c>
+      <c r="S83" t="s">
+        <v>386</v>
+      </c>
+      <c r="T83" t="s">
+        <v>426</v>
+      </c>
+      <c r="U83" t="s">
+        <v>465</v>
+      </c>
+      <c r="V83" t="s">
+        <v>485</v>
+      </c>
+      <c r="W83" t="s">
+        <v>488</v>
+      </c>
+      <c r="X83" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84">
+        <v>4000</v>
+      </c>
+      <c r="H84" t="s">
+        <v>298</v>
+      </c>
+      <c r="I84" t="s">
+        <v>347</v>
+      </c>
+      <c r="K84" t="s">
+        <v>359</v>
+      </c>
+      <c r="L84">
+        <v>4000</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>374</v>
+      </c>
+      <c r="O84" t="s">
+        <v>374</v>
+      </c>
+      <c r="P84" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>378</v>
+      </c>
+      <c r="R84" t="s">
+        <v>382</v>
+      </c>
+      <c r="S84" t="s">
+        <v>386</v>
+      </c>
+      <c r="T84" t="s">
+        <v>426</v>
+      </c>
+      <c r="U84" t="s">
+        <v>465</v>
+      </c>
+      <c r="V84" t="s">
+        <v>485</v>
+      </c>
+      <c r="W84" t="s">
+        <v>488</v>
+      </c>
+      <c r="X84" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85">
+        <v>3300</v>
+      </c>
+      <c r="H85" t="s">
+        <v>298</v>
+      </c>
+      <c r="I85" t="s">
+        <v>347</v>
+      </c>
+      <c r="K85" t="s">
+        <v>359</v>
+      </c>
+      <c r="L85">
+        <v>3300</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>374</v>
+      </c>
+      <c r="O85" t="s">
+        <v>374</v>
+      </c>
+      <c r="P85" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>378</v>
+      </c>
+      <c r="R85" t="s">
+        <v>382</v>
+      </c>
+      <c r="S85" t="s">
+        <v>386</v>
+      </c>
+      <c r="T85" t="s">
+        <v>426</v>
+      </c>
+      <c r="U85" t="s">
+        <v>465</v>
+      </c>
+      <c r="V85" t="s">
+        <v>485</v>
+      </c>
+      <c r="W85" t="s">
+        <v>488</v>
+      </c>
+      <c r="X85" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>243</v>
+      </c>
+      <c r="G86">
+        <v>2900</v>
+      </c>
+      <c r="H86" t="s">
+        <v>298</v>
+      </c>
+      <c r="I86" t="s">
+        <v>347</v>
+      </c>
+      <c r="K86" t="s">
+        <v>359</v>
+      </c>
+      <c r="L86">
+        <v>2900</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>374</v>
+      </c>
+      <c r="O86" t="s">
+        <v>374</v>
+      </c>
+      <c r="P86" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>378</v>
+      </c>
+      <c r="R86" t="s">
+        <v>382</v>
+      </c>
+      <c r="S86" t="s">
+        <v>386</v>
+      </c>
+      <c r="T86" t="s">
+        <v>426</v>
+      </c>
+      <c r="U86" t="s">
+        <v>465</v>
+      </c>
+      <c r="V86" t="s">
+        <v>485</v>
+      </c>
+      <c r="W86" t="s">
+        <v>488</v>
+      </c>
+      <c r="X86" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>179</v>
+      </c>
+      <c r="E87" t="s">
+        <v>243</v>
+      </c>
+      <c r="G87">
+        <v>2500</v>
+      </c>
+      <c r="H87" t="s">
+        <v>298</v>
+      </c>
+      <c r="I87" t="s">
+        <v>347</v>
+      </c>
+      <c r="K87" t="s">
+        <v>359</v>
+      </c>
+      <c r="L87">
+        <v>2500</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>374</v>
+      </c>
+      <c r="O87" t="s">
+        <v>374</v>
+      </c>
+      <c r="P87" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>378</v>
+      </c>
+      <c r="R87" t="s">
+        <v>382</v>
+      </c>
+      <c r="S87" t="s">
+        <v>386</v>
+      </c>
+      <c r="T87" t="s">
+        <v>426</v>
+      </c>
+      <c r="U87" t="s">
+        <v>465</v>
+      </c>
+      <c r="V87" t="s">
+        <v>485</v>
+      </c>
+      <c r="W87" t="s">
+        <v>488</v>
+      </c>
+      <c r="X87" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88">
+        <v>2500</v>
+      </c>
+      <c r="H88" t="s">
+        <v>298</v>
+      </c>
+      <c r="I88" t="s">
+        <v>347</v>
+      </c>
+      <c r="K88" t="s">
+        <v>359</v>
+      </c>
+      <c r="L88">
+        <v>2500</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>374</v>
+      </c>
+      <c r="O88" t="s">
+        <v>374</v>
+      </c>
+      <c r="P88" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>378</v>
+      </c>
+      <c r="R88" t="s">
+        <v>382</v>
+      </c>
+      <c r="S88" t="s">
+        <v>386</v>
+      </c>
+      <c r="T88" t="s">
+        <v>426</v>
+      </c>
+      <c r="U88" t="s">
+        <v>465</v>
+      </c>
+      <c r="V88" t="s">
+        <v>485</v>
+      </c>
+      <c r="W88" t="s">
+        <v>488</v>
+      </c>
+      <c r="X88" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" t="s">
+        <v>244</v>
+      </c>
+      <c r="F89" t="s">
+        <v>251</v>
+      </c>
+      <c r="G89">
+        <v>4537</v>
+      </c>
+      <c r="H89" t="s">
+        <v>299</v>
+      </c>
+      <c r="I89" t="s">
+        <v>348</v>
+      </c>
+      <c r="J89" t="s">
+        <v>251</v>
+      </c>
+      <c r="K89" t="s">
+        <v>359</v>
+      </c>
+      <c r="L89">
+        <v>4537</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>375</v>
+      </c>
+      <c r="O89" t="s">
+        <v>375</v>
+      </c>
+      <c r="P89" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>378</v>
+      </c>
+      <c r="R89" t="s">
+        <v>382</v>
+      </c>
+      <c r="S89" t="s">
+        <v>386</v>
+      </c>
+      <c r="T89" t="s">
+        <v>427</v>
+      </c>
+      <c r="U89" t="s">
+        <v>466</v>
+      </c>
+      <c r="V89" t="s">
+        <v>475</v>
+      </c>
+      <c r="W89" t="s">
+        <v>488</v>
+      </c>
+      <c r="X89" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90">
+        <v>4700</v>
+      </c>
+      <c r="H90" t="s">
+        <v>299</v>
+      </c>
+      <c r="I90" t="s">
+        <v>348</v>
+      </c>
+      <c r="J90" t="s">
+        <v>251</v>
+      </c>
+      <c r="K90" t="s">
+        <v>359</v>
+      </c>
+      <c r="L90">
+        <v>4700</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>375</v>
+      </c>
+      <c r="O90" t="s">
+        <v>375</v>
+      </c>
+      <c r="P90" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>378</v>
+      </c>
+      <c r="R90" t="s">
+        <v>382</v>
+      </c>
+      <c r="S90" t="s">
+        <v>386</v>
+      </c>
+      <c r="T90" t="s">
+        <v>427</v>
+      </c>
+      <c r="U90" t="s">
+        <v>466</v>
+      </c>
+      <c r="V90" t="s">
+        <v>475</v>
+      </c>
+      <c r="W90" t="s">
+        <v>488</v>
+      </c>
+      <c r="X90" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -115,9 +115,6 @@
     <t>Тернопільська філія АТ КБ "ПРИВАТБАНК"</t>
   </si>
   <si>
-    <t>АТ ПУМБ</t>
-  </si>
-  <si>
     <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК АВАЛЬ" </t>
   </si>
   <si>
@@ -185,6 +182,9 @@
     <t>Публічне акціонерне товариство акціонерний банк "Укргазбанк"</t>
   </si>
   <si>
+    <t>АТ ПУМБ</t>
+  </si>
+  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -200,27 +200,27 @@
     <t>23697280</t>
   </si>
   <si>
+    <t>09804119</t>
+  </si>
+  <si>
+    <t>35591059</t>
+  </si>
+  <si>
+    <t>09325703</t>
+  </si>
+  <si>
+    <t>09801546</t>
+  </si>
+  <si>
+    <t>09312190</t>
+  </si>
+  <si>
+    <t>09322277</t>
+  </si>
+  <si>
     <t>14282829</t>
   </si>
   <si>
-    <t>09804119</t>
-  </si>
-  <si>
-    <t>35591059</t>
-  </si>
-  <si>
-    <t>09325703</t>
-  </si>
-  <si>
-    <t>09801546</t>
-  </si>
-  <si>
-    <t>09312190</t>
-  </si>
-  <si>
-    <t>09322277</t>
-  </si>
-  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -260,96 +260,96 @@
     <t>UA293387830000026001055129857</t>
   </si>
   <si>
+    <t>UA323808050000000026005643697</t>
+  </si>
+  <si>
+    <t>UA893808050000000026001668193</t>
+  </si>
+  <si>
+    <t>UA493808050000000026003742288</t>
+  </si>
+  <si>
+    <t>UA153808050000000026003698086</t>
+  </si>
+  <si>
+    <t>UA863808050000000026000666431</t>
+  </si>
+  <si>
+    <t>UA313808050000000026006697426</t>
+  </si>
+  <si>
+    <t>UA423516290000000002600114005</t>
+  </si>
+  <si>
+    <t>UA033805260000002600800159741</t>
+  </si>
+  <si>
+    <t>UA033223130000026001000047274</t>
+  </si>
+  <si>
+    <t>UA073223130000026009000044990</t>
+  </si>
+  <si>
+    <t>UA723223130000026005000045023</t>
+  </si>
+  <si>
+    <t>UA363052990000026005036218701</t>
+  </si>
+  <si>
+    <t>UA363257960000026009300368164</t>
+  </si>
+  <si>
+    <t>UA923052990000026002043601047</t>
+  </si>
+  <si>
+    <t>UA933223130000026005000045227</t>
+  </si>
+  <si>
+    <t>UA853366770000026005052517967</t>
+  </si>
+  <si>
+    <t>UA113252680000000002600477437</t>
+  </si>
+  <si>
+    <t>UA613123560000026002300713705</t>
+  </si>
+  <si>
+    <t>UA693226690000026003300196863</t>
+  </si>
+  <si>
+    <t>UA473223130000026003000042534</t>
+  </si>
+  <si>
+    <t>UA463052990000026003016807628</t>
+  </si>
+  <si>
+    <t>UA503348510000000026008137708</t>
+  </si>
+  <si>
+    <t>UA503204780000026003924882927</t>
+  </si>
+  <si>
+    <t>UA633052990000026200672595702</t>
+  </si>
+  <si>
+    <t>UA663516290000000002600805183</t>
+  </si>
+  <si>
+    <t>UA363154050000026001052317039</t>
+  </si>
+  <si>
+    <t>UA693808050000000026004671091</t>
+  </si>
+  <si>
+    <t>UA853204780000026001924857727</t>
+  </si>
+  <si>
+    <t>UA413052990000026001026208929</t>
+  </si>
+  <si>
     <t>UA213348510000000026000109734</t>
   </si>
   <si>
-    <t>UA323808050000000026005643697</t>
-  </si>
-  <si>
-    <t>UA893808050000000026001668193</t>
-  </si>
-  <si>
-    <t>UA493808050000000026003742288</t>
-  </si>
-  <si>
-    <t>UA153808050000000026003698086</t>
-  </si>
-  <si>
-    <t>UA863808050000000026000666431</t>
-  </si>
-  <si>
-    <t>UA313808050000000026006697426</t>
-  </si>
-  <si>
-    <t>UA423516290000000002600114005</t>
-  </si>
-  <si>
-    <t>UA033805260000002600800159741</t>
-  </si>
-  <si>
-    <t>UA033223130000026001000047274</t>
-  </si>
-  <si>
-    <t>UA073223130000026009000044990</t>
-  </si>
-  <si>
-    <t>UA723223130000026005000045023</t>
-  </si>
-  <si>
-    <t>UA363052990000026005036218701</t>
-  </si>
-  <si>
-    <t>UA363257960000026009300368164</t>
-  </si>
-  <si>
-    <t>UA923052990000026002043601047</t>
-  </si>
-  <si>
-    <t>UA933223130000026005000045227</t>
-  </si>
-  <si>
-    <t>UA853366770000026005052517967</t>
-  </si>
-  <si>
-    <t>UA113252680000000002600477437</t>
-  </si>
-  <si>
-    <t>UA613123560000026002300713705</t>
-  </si>
-  <si>
-    <t>UA693226690000026003300196863</t>
-  </si>
-  <si>
-    <t>UA473223130000026003000042534</t>
-  </si>
-  <si>
-    <t>UA463052990000026003016807628</t>
-  </si>
-  <si>
-    <t>UA503348510000000026008137708</t>
-  </si>
-  <si>
-    <t>UA503204780000026003924882927</t>
-  </si>
-  <si>
-    <t>UA633052990000026200672595702</t>
-  </si>
-  <si>
-    <t>UA663516290000000002600805183</t>
-  </si>
-  <si>
-    <t>UA363154050000026001052317039</t>
-  </si>
-  <si>
-    <t>UA693808050000000026004671091</t>
-  </si>
-  <si>
-    <t>UA853204780000026001924857727</t>
-  </si>
-  <si>
-    <t>UA413052990000026001026208929</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -404,168 +404,168 @@
     <t>03.06.2021</t>
   </si>
   <si>
+    <t>09.05.2022</t>
+  </si>
+  <si>
+    <t>28.12.2020</t>
+  </si>
+  <si>
+    <t>23.02.2021</t>
+  </si>
+  <si>
+    <t>02.02.2021</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>06.04.2021</t>
+  </si>
+  <si>
+    <t>10.03.2021</t>
+  </si>
+  <si>
+    <t>17.03.2021</t>
+  </si>
+  <si>
+    <t>19.03.2021</t>
+  </si>
+  <si>
+    <t>25.05.2021</t>
+  </si>
+  <si>
+    <t>31.03.2021</t>
+  </si>
+  <si>
+    <t>13.04.2021</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>07.10.2020</t>
+  </si>
+  <si>
+    <t>27.08.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>08.04.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>31.10.2023</t>
+  </si>
+  <si>
+    <t>21.10.2020</t>
+  </si>
+  <si>
+    <t>07.09.2023</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>11.03.2021</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>02.04.2021</t>
+  </si>
+  <si>
+    <t>18.02.2022</t>
+  </si>
+  <si>
+    <t>28.10.2021</t>
+  </si>
+  <si>
+    <t>13.08.2021</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
+    <t>19.02.2021</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
+    <t>06.12.2021</t>
+  </si>
+  <si>
+    <t>27.01.2022</t>
+  </si>
+  <si>
+    <t>29.04.2022</t>
+  </si>
+  <si>
+    <t>02.05.2022</t>
+  </si>
+  <si>
+    <t>26.12.2022</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>10.03.2023</t>
+  </si>
+  <si>
+    <t>21.06.2023</t>
+  </si>
+  <si>
+    <t>29.12.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
     <t>03.07.2023</t>
   </si>
   <si>
     <t>04.07.2023</t>
   </si>
   <si>
-    <t>09.05.2022</t>
-  </si>
-  <si>
-    <t>28.12.2020</t>
-  </si>
-  <si>
-    <t>23.02.2021</t>
-  </si>
-  <si>
-    <t>02.02.2021</t>
-  </si>
-  <si>
-    <t>02.01.2021</t>
-  </si>
-  <si>
-    <t>06.04.2021</t>
-  </si>
-  <si>
-    <t>10.03.2021</t>
-  </si>
-  <si>
-    <t>17.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>25.05.2021</t>
-  </si>
-  <si>
-    <t>31.03.2021</t>
-  </si>
-  <si>
-    <t>13.04.2021</t>
-  </si>
-  <si>
-    <t>07.09.2020</t>
-  </si>
-  <si>
-    <t>07.10.2020</t>
-  </si>
-  <si>
-    <t>27.08.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>08.04.2023</t>
-  </si>
-  <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>31.10.2023</t>
-  </si>
-  <si>
-    <t>21.10.2020</t>
-  </si>
-  <si>
-    <t>07.09.2023</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
-    <t>11.03.2021</t>
-  </si>
-  <si>
-    <t>29.04.2021</t>
-  </si>
-  <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
-    <t>19.07.2021</t>
-  </si>
-  <si>
-    <t>02.04.2021</t>
-  </si>
-  <si>
-    <t>18.02.2022</t>
-  </si>
-  <si>
-    <t>28.10.2021</t>
-  </si>
-  <si>
-    <t>13.08.2021</t>
-  </si>
-  <si>
-    <t>25.08.2021</t>
-  </si>
-  <si>
-    <t>02.09.2021</t>
-  </si>
-  <si>
-    <t>19.02.2021</t>
-  </si>
-  <si>
-    <t>14.09.2020</t>
-  </si>
-  <si>
-    <t>10.09.2020</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>22.12.2021</t>
-  </si>
-  <si>
-    <t>08.02.2021</t>
-  </si>
-  <si>
-    <t>01.02.2023</t>
-  </si>
-  <si>
-    <t>30.01.2023</t>
-  </si>
-  <si>
-    <t>15.03.2024</t>
-  </si>
-  <si>
-    <t>06.12.2021</t>
-  </si>
-  <si>
-    <t>27.01.2022</t>
-  </si>
-  <si>
-    <t>29.04.2022</t>
-  </si>
-  <si>
-    <t>02.05.2022</t>
-  </si>
-  <si>
-    <t>26.12.2022</t>
-  </si>
-  <si>
-    <t>31.01.2023</t>
-  </si>
-  <si>
-    <t>10.03.2023</t>
-  </si>
-  <si>
-    <t>21.06.2023</t>
-  </si>
-  <si>
-    <t>29.12.2021</t>
-  </si>
-  <si>
-    <t>30.12.2021</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -620,138 +620,138 @@
     <t>ТЕРНОПІЛЬСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
   </si>
   <si>
+    <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
+  </si>
+  <si>
+    <t>ЧИЧУЛ ПАВЛО ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛАРЧЕНКОВ ПАВЛО ОЛЕГОВИЧ</t>
+  </si>
+  <si>
+    <t>КУЛИК НАТАЛІЯ ЯРОСЛАВІВНА</t>
+  </si>
+  <si>
+    <t>ШАКАЛО ОЛЬШАНЕЦЬКА ОЛЕСЯ ЯРОСЛАВІВНА</t>
+  </si>
+  <si>
+    <t>ПАПЕВСЬКИЙ ОЛЕКСАНДР РУСЛАНОВИЧ</t>
+  </si>
+  <si>
+    <t>ПОЛТАВЕЦЬ ІЛЛЯ ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>ЯНУШ МАРИНА ПЕТРІВНА</t>
+  </si>
+  <si>
+    <t>СЕРГАН МАРИНА ГРИГОРІВНА</t>
+  </si>
+  <si>
+    <t>ВОЙТЕНКО МАРИНА ПЕТРІВНА</t>
+  </si>
+  <si>
+    <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
+  </si>
+  <si>
+    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
+  </si>
+  <si>
+    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
+  </si>
+  <si>
+    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
+  </si>
+  <si>
+    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
+  </si>
+  <si>
+    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
+  </si>
+  <si>
+    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
+  </si>
+  <si>
+    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
+  </si>
+  <si>
+    <t>ТОВ ІННОВАБУД</t>
+  </si>
+  <si>
+    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
+  </si>
+  <si>
+    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
+  </si>
+  <si>
+    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+  </si>
+  <si>
+    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
+  </si>
+  <si>
+    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ПП "СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРИВАТБАНК</t>
+  </si>
+  <si>
+    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
+  </si>
+  <si>
+    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+  </si>
+  <si>
+    <t>МИХАЛЮК ЮРІЙ ПЕТРОВИЧ</t>
+  </si>
+  <si>
+    <t>ТОВ "ГОВІРСА"</t>
+  </si>
+  <si>
     <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
   </si>
   <si>
-    <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
-  </si>
-  <si>
-    <t>ЧИЧУЛ ПАВЛО ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛАРЧЕНКОВ ПАВЛО ОЛЕГОВИЧ</t>
-  </si>
-  <si>
-    <t>КУЛИК НАТАЛІЯ ЯРОСЛАВІВНА</t>
-  </si>
-  <si>
-    <t>ШАКАЛО ОЛЬШАНЕЦЬКА ОЛЕСЯ ЯРОСЛАВІВНА</t>
-  </si>
-  <si>
-    <t>ПАПЕВСЬКИЙ ОЛЕКСАНДР РУСЛАНОВИЧ</t>
-  </si>
-  <si>
-    <t>ПОЛТАВЕЦЬ ІЛЛЯ ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯНУШ МАРИНА ПЕТРІВНА</t>
-  </si>
-  <si>
-    <t>СЕРГАН МАРИНА ГРИГОРІВНА</t>
-  </si>
-  <si>
-    <t>ВОЙТЕНКО МАРИНА ПЕТРІВНА</t>
-  </si>
-  <si>
-    <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
-  </si>
-  <si>
-    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
-  </si>
-  <si>
-    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
-  </si>
-  <si>
-    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
-  </si>
-  <si>
-    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
-  </si>
-  <si>
-    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
-  </si>
-  <si>
-    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
-  </si>
-  <si>
-    <t>ТОВ ІННОВАБУД</t>
-  </si>
-  <si>
-    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
-  </si>
-  <si>
-    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
-  </si>
-  <si>
-    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
-    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
-  </si>
-  <si>
-    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
-  </si>
-  <si>
-    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
-  </si>
-  <si>
-    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
-  </si>
-  <si>
-    <t>ПП "СИЛА І ЧЕСТЬ"</t>
-  </si>
-  <si>
-    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
-  </si>
-  <si>
-    <t>АТ КБ ПРИВАТБАНК</t>
-  </si>
-  <si>
-    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
-  </si>
-  <si>
-    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
-  </si>
-  <si>
-    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
-  </si>
-  <si>
-    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
-  </si>
-  <si>
-    <t>МИХАЛЮК ЮРІЙ ПЕТРОВИЧ</t>
-  </si>
-  <si>
-    <t>ТОВ "ГОВІРСА"</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -806,117 +806,117 @@
     <t>31.01.2022</t>
   </si>
   <si>
+    <t>10.05.2022</t>
+  </si>
+  <si>
+    <t>12.01.2021</t>
+  </si>
+  <si>
+    <t>24.02.2021</t>
+  </si>
+  <si>
+    <t>11.01.2021</t>
+  </si>
+  <si>
+    <t>05.03.2021</t>
+  </si>
+  <si>
+    <t>05.01.2021</t>
+  </si>
+  <si>
+    <t>28.05.2021</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>25.01.2022</t>
+  </si>
+  <si>
+    <t>18.09.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>11.04.2023</t>
+  </si>
+  <si>
+    <t>08.09.2023</t>
+  </si>
+  <si>
+    <t>05.02.2021</t>
+  </si>
+  <si>
+    <t>04.02.2021</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>19.04.2021</t>
+  </si>
+  <si>
+    <t>29.10.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>03.03.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
+    <t>22.03.2024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>28.03.2024</t>
+  </si>
+  <si>
+    <t>12.04.2024</t>
+  </si>
+  <si>
+    <t>04.07.2024</t>
+  </si>
+  <si>
+    <t>22.07.2024</t>
+  </si>
+  <si>
     <t>24.07.2023</t>
   </si>
   <si>
-    <t>10.05.2022</t>
-  </si>
-  <si>
-    <t>12.01.2021</t>
-  </si>
-  <si>
-    <t>24.02.2021</t>
-  </si>
-  <si>
-    <t>11.01.2021</t>
-  </si>
-  <si>
-    <t>05.03.2021</t>
-  </si>
-  <si>
-    <t>05.01.2021</t>
-  </si>
-  <si>
-    <t>28.05.2021</t>
-  </si>
-  <si>
-    <t>09.06.2021</t>
-  </si>
-  <si>
-    <t>02.06.2021</t>
-  </si>
-  <si>
-    <t>22.06.2021</t>
-  </si>
-  <si>
-    <t>25.01.2022</t>
-  </si>
-  <si>
-    <t>18.09.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>11.04.2023</t>
-  </si>
-  <si>
-    <t>08.09.2023</t>
-  </si>
-  <si>
-    <t>05.02.2021</t>
-  </si>
-  <si>
-    <t>04.02.2021</t>
-  </si>
-  <si>
-    <t>12.03.2021</t>
-  </si>
-  <si>
-    <t>06.07.2021</t>
-  </si>
-  <si>
-    <t>28.07.2021</t>
-  </si>
-  <si>
-    <t>19.04.2021</t>
-  </si>
-  <si>
-    <t>29.10.2021</t>
-  </si>
-  <si>
-    <t>20.05.2021</t>
-  </si>
-  <si>
-    <t>30.08.2021</t>
-  </si>
-  <si>
-    <t>31.08.2021</t>
-  </si>
-  <si>
-    <t>03.03.2021</t>
-  </si>
-  <si>
-    <t>24.06.2021</t>
-  </si>
-  <si>
-    <t>23.06.2021</t>
-  </si>
-  <si>
-    <t>27.05.2021</t>
-  </si>
-  <si>
-    <t>21.01.2021</t>
-  </si>
-  <si>
-    <t>22.03.2024</t>
-  </si>
-  <si>
-    <t>07.03.2024</t>
-  </si>
-  <si>
-    <t>28.03.2024</t>
-  </si>
-  <si>
-    <t>12.04.2024</t>
-  </si>
-  <si>
-    <t>04.07.2024</t>
-  </si>
-  <si>
-    <t>22.07.2024</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -950,118 +950,118 @@
     <t>Маруняк Оксана Іванівна</t>
   </si>
   <si>
+    <t>Матвіїв Юрій Ярославович</t>
+  </si>
+  <si>
+    <t>Чичул Павло Олександрович</t>
+  </si>
+  <si>
+    <t>Ларченков Павло Олегович</t>
+  </si>
+  <si>
+    <t>Кулик Наталія Ярославівна</t>
+  </si>
+  <si>
+    <t>Шакало-Ольшанецька Олеся Ярославівна</t>
+  </si>
+  <si>
+    <t>Папевський Олександр Русланович</t>
+  </si>
+  <si>
+    <t>Полтавець Ілля Олександрович</t>
+  </si>
+  <si>
+    <t>Януш Марина Петрівна</t>
+  </si>
+  <si>
+    <t>Серган Марина Григорівна</t>
+  </si>
+  <si>
+    <t>Войтенко Марина Петрівна</t>
+  </si>
+  <si>
+    <t>Шеветовський Валентин Валентинович</t>
+  </si>
+  <si>
+    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
+  </si>
+  <si>
+    <t>Фастовець Тетяна Сергіївна</t>
+  </si>
+  <si>
+    <t>Литовченко Тамара Миколаївна</t>
+  </si>
+  <si>
+    <t>Самохвалова Лариса Феліксівна</t>
+  </si>
+  <si>
+    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
+  </si>
+  <si>
+    <t>Коваленко Христина Володимирівна</t>
+  </si>
+  <si>
+    <t>Гембік Катерина Олександрівна</t>
+  </si>
+  <si>
+    <t>Транзитний рахунок Приватбанк м.Київ</t>
+  </si>
+  <si>
+    <t>ФОП Сароян Азат Абрамович</t>
+  </si>
+  <si>
+    <t>Барнецький Назар Михайлович</t>
+  </si>
+  <si>
+    <t>Соловій Віра Зіновіївна</t>
+  </si>
+  <si>
+    <t>Заболітна Олена Юріївна</t>
+  </si>
+  <si>
+    <t>Одноріг Валентина Мар'янівна</t>
+  </si>
+  <si>
+    <t>Головко Наталія Романівна</t>
+  </si>
+  <si>
+    <t>Данильченко Віталій Іванович</t>
+  </si>
+  <si>
+    <t>Панченко Костянтин Володимирович</t>
+  </si>
+  <si>
+    <t>Філонський Валерій Вікторович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>Литовченко Олексій Сергійович</t>
+  </si>
+  <si>
+    <t>Гриць Віталій Юрійович</t>
+  </si>
+  <si>
+    <t>Павлович Євгеній Володимирович</t>
+  </si>
+  <si>
+    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t>Бобров Олексій Анатолійович</t>
+  </si>
+  <si>
+    <t>Нездолій Григорій Григорович</t>
+  </si>
+  <si>
+    <t>Михалюк Юрій Петрович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
+  </si>
+  <si>
     <t>Ковальчук Володимир Олександрович</t>
-  </si>
-  <si>
-    <t>Матвіїв Юрій Ярославович</t>
-  </si>
-  <si>
-    <t>Чичул Павло Олександрович</t>
-  </si>
-  <si>
-    <t>Ларченков Павло Олегович</t>
-  </si>
-  <si>
-    <t>Кулик Наталія Ярославівна</t>
-  </si>
-  <si>
-    <t>Шакало-Ольшанецька Олеся Ярославівна</t>
-  </si>
-  <si>
-    <t>Папевський Олександр Русланович</t>
-  </si>
-  <si>
-    <t>Полтавець Ілля Олександрович</t>
-  </si>
-  <si>
-    <t>Януш Марина Петрівна</t>
-  </si>
-  <si>
-    <t>Серган Марина Григорівна</t>
-  </si>
-  <si>
-    <t>Войтенко Марина Петрівна</t>
-  </si>
-  <si>
-    <t>Шеветовський Валентин Валентинович</t>
-  </si>
-  <si>
-    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
-  </si>
-  <si>
-    <t>Фастовець Тетяна Сергіївна</t>
-  </si>
-  <si>
-    <t>Литовченко Тамара Миколаївна</t>
-  </si>
-  <si>
-    <t>Самохвалова Лариса Феліксівна</t>
-  </si>
-  <si>
-    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
-  </si>
-  <si>
-    <t>Коваленко Христина Володимирівна</t>
-  </si>
-  <si>
-    <t>Гембік Катерина Олександрівна</t>
-  </si>
-  <si>
-    <t>Транзитний рахунок Приватбанк м.Київ</t>
-  </si>
-  <si>
-    <t>ФОП Сароян Азат Абрамович</t>
-  </si>
-  <si>
-    <t>Барнецький Назар Михайлович</t>
-  </si>
-  <si>
-    <t>Соловій Віра Зіновіївна</t>
-  </si>
-  <si>
-    <t>Заболітна Олена Юріївна</t>
-  </si>
-  <si>
-    <t>Одноріг Валентина Мар'янівна</t>
-  </si>
-  <si>
-    <t>Головко Наталія Романівна</t>
-  </si>
-  <si>
-    <t>Данильченко Віталій Іванович</t>
-  </si>
-  <si>
-    <t>Панченко Костянтин Володимирович</t>
-  </si>
-  <si>
-    <t>Філонський Валерій Вікторович</t>
-  </si>
-  <si>
-    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
-  </si>
-  <si>
-    <t>Литовченко Олексій Сергійович</t>
-  </si>
-  <si>
-    <t>Гриць Віталій Юрійович</t>
-  </si>
-  <si>
-    <t>Павлович Євгеній Володимирович</t>
-  </si>
-  <si>
-    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
-  </si>
-  <si>
-    <t>Бобров Олексій Анатолійович</t>
-  </si>
-  <si>
-    <t>Нездолій Григорій Григорович</t>
-  </si>
-  <si>
-    <t>Михалюк Юрій Петрович</t>
-  </si>
-  <si>
-    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1221,90 +1221,90 @@
     <t>ЧОРТКІВСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ОДЕСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ВІННИЦЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>КИЇВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
+  </si>
+  <si>
+    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
+  </si>
+  <si>
+    <t>Львівська крайова організація Народного Руху України</t>
+  </si>
+  <si>
+    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
+  </si>
+  <si>
+    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
+  </si>
+  <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>Волинська обласна організація Всеукраїнського об'єднання «Батьківщина»</t>
+  </si>
+  <si>
+    <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ОДЕСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ВІННИЦЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>КИЇВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
-  </si>
-  <si>
-    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
-  </si>
-  <si>
-    <t>Львівська крайова організація Народного Руху України</t>
-  </si>
-  <si>
-    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
-  </si>
-  <si>
-    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
-  </si>
-  <si>
-    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
-  </si>
-  <si>
-    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
-  </si>
-  <si>
-    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>Волинська обласна організація Всеукраїнського об'єднання «Батьківщина»</t>
-  </si>
-  <si>
-    <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1344,84 +1344,84 @@
     <t>39921438</t>
   </si>
   <si>
+    <t>39651598</t>
+  </si>
+  <si>
+    <t>43311440</t>
+  </si>
+  <si>
+    <t>43527082</t>
+  </si>
+  <si>
+    <t>43428147</t>
+  </si>
+  <si>
+    <t>43307785</t>
+  </si>
+  <si>
+    <t>43449722</t>
+  </si>
+  <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>43945782</t>
+  </si>
+  <si>
+    <t>43671044</t>
+  </si>
+  <si>
+    <t>43721791</t>
+  </si>
+  <si>
+    <t>38010759</t>
+  </si>
+  <si>
+    <t>36658318</t>
+  </si>
+  <si>
+    <t>36681991</t>
+  </si>
+  <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
+    <t>43777954</t>
+  </si>
+  <si>
+    <t>36894166</t>
+  </si>
+  <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
+    <t>43379734</t>
+  </si>
+  <si>
+    <t>25787544</t>
+  </si>
+  <si>
+    <t>25895860</t>
+  </si>
+  <si>
     <t>39479782</t>
   </si>
   <si>
-    <t>39651598</t>
-  </si>
-  <si>
-    <t>43311440</t>
-  </si>
-  <si>
-    <t>43527082</t>
-  </si>
-  <si>
-    <t>43428147</t>
-  </si>
-  <si>
-    <t>43307785</t>
-  </si>
-  <si>
-    <t>43449722</t>
-  </si>
-  <si>
-    <t>40422142</t>
-  </si>
-  <si>
-    <t>43945782</t>
-  </si>
-  <si>
-    <t>43671044</t>
-  </si>
-  <si>
-    <t>43721791</t>
-  </si>
-  <si>
-    <t>38010759</t>
-  </si>
-  <si>
-    <t>36658318</t>
-  </si>
-  <si>
-    <t>36681991</t>
-  </si>
-  <si>
-    <t>40026836</t>
-  </si>
-  <si>
-    <t>40014820</t>
-  </si>
-  <si>
-    <t>43777954</t>
-  </si>
-  <si>
-    <t>36894166</t>
-  </si>
-  <si>
-    <t>40000865</t>
-  </si>
-  <si>
-    <t>39765623</t>
-  </si>
-  <si>
-    <t>43626410</t>
-  </si>
-  <si>
-    <t>40006563</t>
-  </si>
-  <si>
-    <t>37263887</t>
-  </si>
-  <si>
-    <t>43379734</t>
-  </si>
-  <si>
-    <t>25787544</t>
-  </si>
-  <si>
-    <t>25895860</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1494,48 +1494,48 @@
     <t>БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!</t>
   </si>
   <si>
+    <t>ГОЛОС</t>
+  </si>
+  <si>
+    <t>БДЖОЛА</t>
+  </si>
+  <si>
+    <t>НАРОДНИЙ РУХ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
+  </si>
+  <si>
+    <t>СИЛА І ЧЕСТЬ</t>
+  </si>
+  <si>
+    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
+  </si>
+  <si>
+    <t>МАЙБУТНЄ КРАЇНИ</t>
+  </si>
+  <si>
+    <t>РІДНИЙ ДІМ</t>
+  </si>
+  <si>
+    <t>ПРОПОЗИЦІЯ</t>
+  </si>
+  <si>
+    <t>НАШ КРАЙ</t>
+  </si>
+  <si>
+    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
+  </si>
+  <si>
     <t>УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП</t>
   </si>
   <si>
-    <t>ГОЛОС</t>
-  </si>
-  <si>
-    <t>БДЖОЛА</t>
-  </si>
-  <si>
-    <t>НАРОДНИЙ РУХ УКРАЇНИ</t>
-  </si>
-  <si>
-    <t>ЗА МАЙБУТНЄ</t>
-  </si>
-  <si>
-    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
-  </si>
-  <si>
-    <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
-  </si>
-  <si>
-    <t>СИЛА І ЧЕСТЬ</t>
-  </si>
-  <si>
-    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
-  </si>
-  <si>
-    <t>МАЙБУТНЄ КРАЇНИ</t>
-  </si>
-  <si>
-    <t>РІДНИЙ ДІМ</t>
-  </si>
-  <si>
-    <t>ПРОПОЗИЦІЯ</t>
-  </si>
-  <si>
-    <t>НАШ КРАЙ</t>
-  </si>
-  <si>
-    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
-  </si>
-  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -1596,73 +1596,73 @@
     <t>a51f7e70-e9ae-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>42d0b870-eab1-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
     <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>42d0b870-eab1-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
-  </si>
-  <si>
-    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2239,7 @@
         <v>487</v>
       </c>
       <c r="X3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y3" t="s">
         <v>516</v>
@@ -2310,7 +2310,7 @@
         <v>487</v>
       </c>
       <c r="X4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y4" t="s">
         <v>516</v>
@@ -2381,7 +2381,7 @@
         <v>487</v>
       </c>
       <c r="X5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y5" t="s">
         <v>516</v>
@@ -2452,7 +2452,7 @@
         <v>487</v>
       </c>
       <c r="X6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y6" t="s">
         <v>516</v>
@@ -2523,7 +2523,7 @@
         <v>487</v>
       </c>
       <c r="X7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y7" t="s">
         <v>516</v>
@@ -2549,7 +2549,7 @@
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
         <v>188</v>
@@ -2594,7 +2594,7 @@
         <v>487</v>
       </c>
       <c r="X8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y8" t="s">
         <v>517</v>
@@ -2620,7 +2620,7 @@
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
         <v>188</v>
@@ -2665,7 +2665,7 @@
         <v>487</v>
       </c>
       <c r="X9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y9" t="s">
         <v>517</v>
@@ -2736,7 +2736,7 @@
         <v>487</v>
       </c>
       <c r="X10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y10" t="s">
         <v>517</v>
@@ -2910,7 +2910,7 @@
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
         <v>192</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -3623,7 +3623,7 @@
         <v>201</v>
       </c>
       <c r="G23">
-        <v>5600</v>
+        <v>10500</v>
       </c>
       <c r="H23" t="s">
         <v>263</v>
@@ -3632,13 +3632,13 @@
         <v>311</v>
       </c>
       <c r="K23" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L23">
-        <v>5600</v>
+        <v>10500</v>
       </c>
       <c r="M23">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
         <v>374</v>
@@ -3647,31 +3647,31 @@
         <v>374</v>
       </c>
       <c r="P23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q23" t="s">
         <v>378</v>
       </c>
       <c r="R23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T23" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="U23" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="V23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="W23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="X23" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
         <v>525</v>
@@ -3682,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -3691,25 +3691,25 @@
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K24" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N24" t="s">
         <v>374</v>
@@ -3724,10 +3724,10 @@
         <v>378</v>
       </c>
       <c r="R24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T24" t="s">
         <v>400</v>
@@ -3745,42 +3745,42 @@
         <v>441</v>
       </c>
       <c r="Y24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G25">
-        <v>10500</v>
+        <v>1500</v>
       </c>
       <c r="H25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K25" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L25">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N25" t="s">
         <v>374</v>
@@ -3789,31 +3789,31 @@
         <v>374</v>
       </c>
       <c r="P25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q25" t="s">
         <v>378</v>
       </c>
       <c r="R25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T25" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="U25" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="V25" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W25" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="Y25" t="s">
         <v>526</v>
@@ -3830,29 +3830,29 @@
         <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G26">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K26" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L26">
+        <v>200</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>400</v>
-      </c>
       <c r="N26" t="s">
         <v>374</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>374</v>
       </c>
       <c r="P26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q26" t="s">
         <v>378</v>
@@ -3878,16 +3878,16 @@
         <v>442</v>
       </c>
       <c r="V26" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="W26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3901,29 +3901,29 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G27">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K27" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L27">
+        <v>400</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>1500</v>
-      </c>
       <c r="N27" t="s">
         <v>374</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>374</v>
       </c>
       <c r="P27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q27" t="s">
         <v>378</v>
@@ -3949,48 +3949,48 @@
         <v>442</v>
       </c>
       <c r="V27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="W27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K28" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4014,22 +4014,22 @@
         <v>383</v>
       </c>
       <c r="T28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V28" t="s">
         <v>476</v>
       </c>
       <c r="W28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4046,22 +4046,22 @@
         <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K29" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L29">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>378</v>
       </c>
       <c r="R29" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S29" t="s">
         <v>383</v>
@@ -4091,13 +4091,13 @@
         <v>443</v>
       </c>
       <c r="V29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="W29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y29" t="s">
         <v>527</v>
@@ -4105,34 +4105,34 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H30" t="s">
         <v>269</v>
       </c>
       <c r="I30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4150,25 +4150,25 @@
         <v>378</v>
       </c>
       <c r="R30" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S30" t="s">
         <v>383</v>
       </c>
       <c r="T30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y30" t="s">
         <v>527</v>
@@ -4185,25 +4185,25 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>208</v>
       </c>
       <c r="G31">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="I31" t="s">
         <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L31">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4233,42 +4233,42 @@
         <v>444</v>
       </c>
       <c r="V31" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="W31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
         <v>353</v>
@@ -4298,54 +4298,54 @@
         <v>383</v>
       </c>
       <c r="T32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V32" t="s">
         <v>477</v>
       </c>
       <c r="W32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G33">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
         <v>353</v>
       </c>
       <c r="L33">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4369,54 +4369,54 @@
         <v>383</v>
       </c>
       <c r="T33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V33" t="s">
         <v>477</v>
       </c>
       <c r="W33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
         <v>353</v>
       </c>
       <c r="L34">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4440,27 +4440,27 @@
         <v>383</v>
       </c>
       <c r="T34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V34" t="s">
         <v>477</v>
       </c>
       <c r="W34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -4469,7 +4469,7 @@
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
         <v>209</v>
@@ -4484,7 +4484,7 @@
         <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4517,16 +4517,16 @@
         <v>445</v>
       </c>
       <c r="V35" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -4537,28 +4537,28 @@
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G36">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="L36">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4582,27 +4582,27 @@
         <v>383</v>
       </c>
       <c r="T36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V36" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="W36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -4617,19 +4617,19 @@
         <v>210</v>
       </c>
       <c r="G37">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I37" t="s">
         <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L37">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4659,24 +4659,24 @@
         <v>446</v>
       </c>
       <c r="V37" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="W37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -4688,19 +4688,19 @@
         <v>211</v>
       </c>
       <c r="G38">
-        <v>800</v>
+        <v>560000</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
         <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L38">
-        <v>800</v>
+        <v>290800</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4712,31 +4712,31 @@
         <v>374</v>
       </c>
       <c r="P38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q38" t="s">
         <v>378</v>
       </c>
       <c r="R38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T38" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U38" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="V38" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="W38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="X38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Y38" t="s">
         <v>528</v>
@@ -4747,7 +4747,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -4759,19 +4759,19 @@
         <v>211</v>
       </c>
       <c r="G39">
-        <v>600</v>
+        <v>560000</v>
       </c>
       <c r="H39" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="I39" t="s">
         <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L39">
-        <v>600</v>
+        <v>560000</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4783,31 +4783,31 @@
         <v>374</v>
       </c>
       <c r="P39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q39" t="s">
         <v>378</v>
       </c>
       <c r="R39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S39" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U39" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="V39" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="W39" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="X39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Y39" t="s">
         <v>528</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>62</v>
@@ -4830,7 +4830,7 @@
         <v>212</v>
       </c>
       <c r="G40">
-        <v>560000</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
         <v>274</v>
@@ -4839,19 +4839,19 @@
         <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L40">
-        <v>290800</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s">
         <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P40" t="s">
         <v>377</v>
@@ -4863,22 +4863,22 @@
         <v>380</v>
       </c>
       <c r="S40" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T40" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="U40" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="V40" t="s">
         <v>478</v>
       </c>
       <c r="W40" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="X40" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Y40" t="s">
         <v>529</v>
@@ -4886,34 +4886,34 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G41">
-        <v>560000</v>
+        <v>5000</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L41">
-        <v>560000</v>
+        <v>5000</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>374</v>
       </c>
       <c r="P41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q41" t="s">
         <v>378</v>
@@ -4934,22 +4934,22 @@
         <v>380</v>
       </c>
       <c r="S41" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T41" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="U41" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="V41" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="W41" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="X41" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Y41" t="s">
         <v>529</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>89</v>
@@ -4969,7 +4969,7 @@
         <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G42">
         <v>200</v>
@@ -4981,22 +4981,22 @@
         <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L42">
+        <v>200</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>200</v>
-      </c>
       <c r="N42" t="s">
         <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q42" t="s">
         <v>378</v>
@@ -5014,16 +5014,16 @@
         <v>448</v>
       </c>
       <c r="V42" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W42" t="s">
         <v>487</v>
       </c>
       <c r="X42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5034,28 +5034,28 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G43">
-        <v>5000</v>
+        <v>6110</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="I43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K43" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="L43">
-        <v>5000</v>
+        <v>6110</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5079,22 +5079,22 @@
         <v>385</v>
       </c>
       <c r="T43" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="U43" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="V43" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="W43" t="s">
         <v>487</v>
       </c>
       <c r="X43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5105,28 +5105,28 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="I44" t="s">
         <v>324</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L44">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>385</v>
       </c>
       <c r="T44" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U44" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="V44" t="s">
         <v>480</v>
@@ -5162,10 +5162,10 @@
         <v>487</v>
       </c>
       <c r="X44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5182,22 +5182,22 @@
         <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G45">
-        <v>6110</v>
+        <v>4372</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="I45" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L45">
-        <v>6110</v>
+        <v>4372</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5227,24 +5227,24 @@
         <v>450</v>
       </c>
       <c r="V45" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="W45" t="s">
         <v>487</v>
       </c>
       <c r="X45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -5253,43 +5253,43 @@
         <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G46">
-        <v>1000</v>
+        <v>34000</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L46">
-        <v>1000</v>
+        <v>34000</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="N46" t="s">
         <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q46" t="s">
         <v>378</v>
       </c>
       <c r="R46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T46" t="s">
         <v>410</v>
@@ -5298,13 +5298,13 @@
         <v>451</v>
       </c>
       <c r="V46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="W46" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="X46" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Y46" t="s">
         <v>530</v>
@@ -5312,40 +5312,46 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>246</v>
       </c>
       <c r="G47">
-        <v>4372</v>
+        <v>6500000</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
       </c>
       <c r="K47" t="s">
         <v>353</v>
       </c>
       <c r="L47">
-        <v>4372</v>
+        <v>6500000</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s">
         <v>374</v>
@@ -5363,66 +5369,66 @@
         <v>385</v>
       </c>
       <c r="T47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U47" t="s">
-        <v>451</v>
+        <v>246</v>
       </c>
       <c r="V47" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W47" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="X47" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="Y47" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G48">
-        <v>34000</v>
+        <v>345000</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K48" t="s">
         <v>359</v>
       </c>
       <c r="L48">
-        <v>34000</v>
+        <v>100</v>
       </c>
       <c r="M48">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
         <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q48" t="s">
         <v>378</v>
@@ -5431,25 +5437,25 @@
         <v>379</v>
       </c>
       <c r="S48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U48" t="s">
         <v>452</v>
       </c>
       <c r="V48" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="W48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="X48" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="Y48" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5457,22 +5463,19 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
         <v>220</v>
       </c>
-      <c r="F49" t="s">
-        <v>246</v>
-      </c>
       <c r="G49">
-        <v>6500000</v>
+        <v>345000</v>
       </c>
       <c r="H49" t="s">
         <v>278</v>
@@ -5480,20 +5483,17 @@
       <c r="I49" t="s">
         <v>328</v>
       </c>
-      <c r="J49" t="s">
-        <v>349</v>
-      </c>
       <c r="K49" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L49">
-        <v>6500000</v>
+        <v>269900</v>
       </c>
       <c r="M49">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O49" t="s">
         <v>374</v>
@@ -5505,25 +5505,25 @@
         <v>378</v>
       </c>
       <c r="R49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T49" t="s">
         <v>412</v>
       </c>
       <c r="U49" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
       <c r="V49" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="W49" t="s">
         <v>494</v>
       </c>
       <c r="X49" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y49" t="s">
         <v>532</v>
@@ -5531,43 +5531,49 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
         <v>221</v>
       </c>
+      <c r="F50" t="s">
+        <v>247</v>
+      </c>
       <c r="G50">
-        <v>345000</v>
+        <v>130100</v>
       </c>
       <c r="H50" t="s">
         <v>279</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>221</v>
+      </c>
+      <c r="J50" t="s">
+        <v>247</v>
       </c>
       <c r="K50" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L50">
-        <v>100</v>
+        <v>130100</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P50" t="s">
         <v>376</v>
@@ -5582,63 +5588,69 @@
         <v>383</v>
       </c>
       <c r="T50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V50" t="s">
         <v>481</v>
       </c>
       <c r="W50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X50" t="s">
         <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
         <v>221</v>
       </c>
+      <c r="F51" t="s">
+        <v>247</v>
+      </c>
       <c r="G51">
-        <v>345000</v>
+        <v>52300</v>
       </c>
       <c r="H51" t="s">
         <v>279</v>
       </c>
       <c r="I51" t="s">
-        <v>329</v>
+        <v>221</v>
+      </c>
+      <c r="J51" t="s">
+        <v>247</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L51">
-        <v>269900</v>
+        <v>52300</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O51" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P51" t="s">
         <v>376</v>
@@ -5653,51 +5665,51 @@
         <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V51" t="s">
         <v>481</v>
       </c>
       <c r="W51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X51" t="s">
         <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F52" t="s">
         <v>247</v>
       </c>
       <c r="G52">
-        <v>130100</v>
+        <v>127300</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J52" t="s">
         <v>247</v>
@@ -5706,7 +5718,7 @@
         <v>353</v>
       </c>
       <c r="L52">
-        <v>130100</v>
+        <v>127300</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5730,51 +5742,51 @@
         <v>383</v>
       </c>
       <c r="T52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V52" t="s">
         <v>481</v>
       </c>
       <c r="W52" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X52" t="s">
         <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F53" t="s">
         <v>247</v>
       </c>
       <c r="G53">
-        <v>52300</v>
+        <v>10000</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J53" t="s">
         <v>247</v>
@@ -5783,7 +5795,7 @@
         <v>353</v>
       </c>
       <c r="L53">
-        <v>52300</v>
+        <v>10000</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5807,22 +5819,22 @@
         <v>383</v>
       </c>
       <c r="T53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V53" t="s">
         <v>481</v>
       </c>
       <c r="W53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X53" t="s">
         <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5830,37 +5842,37 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
         <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="G54">
-        <v>127300</v>
+        <v>1000</v>
       </c>
       <c r="H54" t="s">
         <v>280</v>
       </c>
       <c r="I54" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="J54" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="K54" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L54">
-        <v>127300</v>
+        <v>1000</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5890,16 +5902,16 @@
         <v>453</v>
       </c>
       <c r="V54" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="W54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X54" t="s">
         <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5907,46 +5919,40 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
-      </c>
-      <c r="F55" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="G55">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="H55" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="I55" t="s">
-        <v>222</v>
-      </c>
-      <c r="J55" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s">
         <v>353</v>
       </c>
       <c r="L55">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P55" t="s">
         <v>376</v>
@@ -5967,16 +5973,16 @@
         <v>453</v>
       </c>
       <c r="V55" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="W55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X55" t="s">
         <v>508</v>
       </c>
       <c r="Y55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5984,46 +5990,40 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="G56">
-        <v>1000</v>
+        <v>386</v>
       </c>
       <c r="H56" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
-      </c>
-      <c r="J56" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="K56" t="s">
         <v>359</v>
       </c>
       <c r="L56">
-        <v>1000</v>
+        <v>386</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P56" t="s">
         <v>376</v>
@@ -6032,7 +6032,7 @@
         <v>378</v>
       </c>
       <c r="R56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S56" t="s">
         <v>383</v>
@@ -6044,13 +6044,13 @@
         <v>454</v>
       </c>
       <c r="V56" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="W56" t="s">
         <v>495</v>
       </c>
       <c r="X56" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y56" t="s">
         <v>533</v>
@@ -6061,40 +6061,46 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
       </c>
       <c r="G57">
-        <v>50000</v>
+        <v>120</v>
       </c>
       <c r="H57" t="s">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L57">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P57" t="s">
         <v>376</v>
@@ -6103,7 +6109,7 @@
         <v>378</v>
       </c>
       <c r="R57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S57" t="s">
         <v>383</v>
@@ -6115,13 +6121,13 @@
         <v>454</v>
       </c>
       <c r="V57" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="W57" t="s">
         <v>495</v>
       </c>
       <c r="X57" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y57" t="s">
         <v>533</v>
@@ -6129,25 +6135,25 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G58">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="I58" t="s">
         <v>332</v>
@@ -6156,7 +6162,7 @@
         <v>359</v>
       </c>
       <c r="L58">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6180,22 +6186,22 @@
         <v>383</v>
       </c>
       <c r="T58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V58" t="s">
         <v>482</v>
       </c>
       <c r="W58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X58" t="s">
         <v>509</v>
       </c>
       <c r="Y58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6203,7 +6209,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>97</v>
@@ -6212,37 +6218,31 @@
         <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="H59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
-      </c>
-      <c r="J59" t="s">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="K59" t="s">
         <v>359</v>
       </c>
       <c r="L59">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P59" t="s">
         <v>376</v>
@@ -6263,16 +6263,16 @@
         <v>455</v>
       </c>
       <c r="V59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="W59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X59" t="s">
         <v>509</v>
       </c>
       <c r="Y59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6280,31 +6280,31 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G60">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="H60" t="s">
         <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K60" t="s">
         <v>359</v>
       </c>
       <c r="L60">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>455</v>
       </c>
       <c r="V60" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="W60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X60" t="s">
         <v>509</v>
       </c>
       <c r="Y60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6357,25 +6357,25 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G61">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="H61" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="I61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K61" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L61">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>380</v>
       </c>
       <c r="S61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T61" t="s">
         <v>416</v>
@@ -6405,13 +6405,13 @@
         <v>456</v>
       </c>
       <c r="V61" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="W61" t="s">
         <v>496</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y61" t="s">
         <v>534</v>
@@ -6428,25 +6428,25 @@
         <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
         <v>229</v>
       </c>
       <c r="G62">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="H62" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="I62" t="s">
         <v>335</v>
       </c>
       <c r="K62" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L62">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>380</v>
       </c>
       <c r="S62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T62" t="s">
         <v>416</v>
@@ -6476,13 +6476,13 @@
         <v>456</v>
       </c>
       <c r="V62" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="W62" t="s">
         <v>496</v>
       </c>
       <c r="X62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y62" t="s">
         <v>534</v>
@@ -6499,37 +6499,43 @@
         <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
         <v>230</v>
       </c>
+      <c r="F63" t="s">
+        <v>248</v>
+      </c>
       <c r="G63">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="I63" t="s">
         <v>336</v>
       </c>
+      <c r="J63" t="s">
+        <v>350</v>
+      </c>
       <c r="K63" t="s">
         <v>353</v>
       </c>
       <c r="L63">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O63" t="s">
         <v>374</v>
       </c>
       <c r="P63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q63" t="s">
         <v>378</v>
@@ -6538,22 +6544,22 @@
         <v>380</v>
       </c>
       <c r="S63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T63" t="s">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="U63" t="s">
-        <v>457</v>
+        <v>248</v>
       </c>
       <c r="V63" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="W63" t="s">
-        <v>497</v>
+        <v>230</v>
       </c>
       <c r="X63" t="s">
-        <v>510</v>
+        <v>248</v>
       </c>
       <c r="Y63" t="s">
         <v>535</v>
@@ -6561,46 +6567,52 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="F64" t="s">
+        <v>249</v>
       </c>
       <c r="G64">
-        <v>12000</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="I64" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="J64" t="s">
+        <v>351</v>
       </c>
       <c r="K64" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L64">
-        <v>12000</v>
+        <v>40</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O64" t="s">
         <v>374</v>
       </c>
       <c r="P64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q64" t="s">
         <v>378</v>
@@ -6609,66 +6621,66 @@
         <v>380</v>
       </c>
       <c r="S64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T64" t="s">
         <v>417</v>
       </c>
       <c r="U64" t="s">
-        <v>457</v>
+        <v>249</v>
       </c>
       <c r="V64" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="W64" t="s">
         <v>497</v>
       </c>
       <c r="X64" t="s">
-        <v>510</v>
+        <v>249</v>
       </c>
       <c r="Y64" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
         <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G65">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K65" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L65">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N65" t="s">
         <v>375</v>
@@ -6689,19 +6701,19 @@
         <v>383</v>
       </c>
       <c r="T65" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="U65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V65" t="s">
         <v>478</v>
       </c>
       <c r="W65" t="s">
-        <v>231</v>
+        <v>497</v>
       </c>
       <c r="X65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y65" t="s">
         <v>536</v>
@@ -6709,28 +6721,28 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F66" t="s">
         <v>249</v>
       </c>
       <c r="G66">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I66" t="s">
         <v>338</v>
@@ -6742,10 +6754,10 @@
         <v>369</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N66" t="s">
         <v>375</v>
@@ -6766,7 +6778,7 @@
         <v>383</v>
       </c>
       <c r="T66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U66" t="s">
         <v>249</v>
@@ -6775,21 +6787,21 @@
         <v>478</v>
       </c>
       <c r="W66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X66" t="s">
         <v>249</v>
       </c>
       <c r="Y66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
@@ -6801,43 +6813,43 @@
         <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H67" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="I67" t="s">
         <v>339</v>
       </c>
       <c r="J67" t="s">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="K67" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L67">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M67">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N67" t="s">
         <v>375</v>
       </c>
       <c r="O67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q67" t="s">
         <v>378</v>
       </c>
       <c r="R67" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S67" t="s">
         <v>383</v>
@@ -6846,16 +6858,16 @@
         <v>418</v>
       </c>
       <c r="U67" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="V67" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W67" t="s">
         <v>498</v>
       </c>
       <c r="X67" t="s">
-        <v>249</v>
+        <v>511</v>
       </c>
       <c r="Y67" t="s">
         <v>537</v>
@@ -6863,46 +6875,40 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
-      </c>
-      <c r="F68" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="H68" t="s">
         <v>288</v>
       </c>
       <c r="I68" t="s">
-        <v>339</v>
-      </c>
-      <c r="J68" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K68" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L68">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="M68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O68" t="s">
         <v>374</v>
@@ -6920,99 +6926,93 @@
         <v>383</v>
       </c>
       <c r="T68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U68" t="s">
-        <v>249</v>
+        <v>458</v>
       </c>
       <c r="V68" t="s">
         <v>478</v>
       </c>
       <c r="W68" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="X68" t="s">
-        <v>249</v>
+        <v>458</v>
       </c>
       <c r="Y68" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
         <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G69">
-        <v>500</v>
+        <v>369500</v>
       </c>
       <c r="H69" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="I69" t="s">
-        <v>340</v>
-      </c>
-      <c r="J69" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="K69" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L69">
-        <v>500</v>
+        <v>369500</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q69" t="s">
         <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S69" t="s">
         <v>383</v>
       </c>
       <c r="T69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="U69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V69" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="X69" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="Y69" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7020,7 +7020,7 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
         <v>103</v>
@@ -7032,19 +7032,19 @@
         <v>234</v>
       </c>
       <c r="G70">
-        <v>60000</v>
+        <v>387000</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I70" t="s">
         <v>341</v>
       </c>
       <c r="K70" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L70">
-        <v>60000</v>
+        <v>387000</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
         <v>104</v>
@@ -7103,10 +7103,10 @@
         <v>235</v>
       </c>
       <c r="G71">
-        <v>369500</v>
+        <v>16000</v>
       </c>
       <c r="H71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I71" t="s">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>359</v>
       </c>
       <c r="L71">
-        <v>369500</v>
+        <v>16000</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7127,13 +7127,13 @@
         <v>374</v>
       </c>
       <c r="P71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q71" t="s">
         <v>378</v>
       </c>
       <c r="R71" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S71" t="s">
         <v>383</v>
@@ -7145,13 +7145,13 @@
         <v>460</v>
       </c>
       <c r="V71" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="W71" t="s">
         <v>501</v>
       </c>
       <c r="X71" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="Y71" t="s">
         <v>540</v>
@@ -7159,46 +7159,52 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
         <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
       </c>
       <c r="G72">
-        <v>387000</v>
+        <v>5400</v>
       </c>
       <c r="H72" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="I72" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="J72" t="s">
+        <v>352</v>
       </c>
       <c r="K72" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L72">
-        <v>387000</v>
+        <v>5400</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q72" t="s">
         <v>378</v>
@@ -7210,54 +7216,54 @@
         <v>383</v>
       </c>
       <c r="T72" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="U72" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="V72" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W72" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="X72" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="Y72" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G73">
-        <v>16000</v>
+        <v>6200</v>
       </c>
       <c r="H73" t="s">
         <v>292</v>
       </c>
       <c r="I73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K73" t="s">
         <v>359</v>
       </c>
       <c r="L73">
-        <v>16000</v>
+        <v>6100</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7275,173 +7281,167 @@
         <v>378</v>
       </c>
       <c r="R73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S73" t="s">
         <v>383</v>
       </c>
       <c r="T73" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U73" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V73" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="W73" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="X73" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Y73" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
         <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
-      </c>
-      <c r="F74" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="G74">
-        <v>5400</v>
+        <v>2800</v>
       </c>
       <c r="H74" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="I74" t="s">
-        <v>344</v>
-      </c>
-      <c r="J74" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="K74" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="L74">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="N74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O74" t="s">
         <v>375</v>
       </c>
       <c r="P74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q74" t="s">
         <v>378</v>
       </c>
       <c r="R74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S74" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="T74" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="U74" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="V74" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W74" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="X74" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="Y74" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G75">
-        <v>6200</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I75" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="K75" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L75">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N75" t="s">
         <v>374</v>
       </c>
       <c r="O75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q75" t="s">
         <v>378</v>
       </c>
       <c r="R75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S75" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="T75" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="U75" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="V75" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="W75" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="X75" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="Y75" t="s">
         <v>543</v>
@@ -7449,46 +7449,46 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G76">
-        <v>2800</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="I76" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="K76" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>2800</v>
-      </c>
       <c r="N76" t="s">
         <v>374</v>
       </c>
       <c r="O76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q76" t="s">
         <v>378</v>
@@ -7500,19 +7500,19 @@
         <v>386</v>
       </c>
       <c r="T76" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="U76" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="V76" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="W76" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="X76" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Y76" t="s">
         <v>544</v>
@@ -7520,46 +7520,46 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77" t="s">
         <v>240</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
         <v>295</v>
       </c>
       <c r="I77" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="K77" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L77">
+        <v>8</v>
+      </c>
+      <c r="M77">
         <v>0</v>
       </c>
-      <c r="M77">
-        <v>25</v>
-      </c>
       <c r="N77" t="s">
         <v>374</v>
       </c>
       <c r="O77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q77" t="s">
         <v>378</v>
@@ -7571,19 +7571,19 @@
         <v>386</v>
       </c>
       <c r="T77" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="U77" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="V77" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="W77" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="X77" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Y77" t="s">
         <v>544</v>
@@ -7591,70 +7591,70 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
         <v>241</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="I78" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="K78" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N78" t="s">
         <v>374</v>
       </c>
       <c r="O78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P78" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q78" t="s">
         <v>378</v>
       </c>
       <c r="R78" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S78" t="s">
         <v>386</v>
       </c>
       <c r="T78" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="U78" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="V78" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="W78" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="X78" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Y78" t="s">
         <v>545</v>
@@ -7662,10 +7662,10 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
         <v>108</v>
@@ -7674,22 +7674,22 @@
         <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>4500</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I79" t="s">
         <v>346</v>
       </c>
       <c r="K79" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>4500</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -7707,7 +7707,7 @@
         <v>378</v>
       </c>
       <c r="R79" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S79" t="s">
         <v>386</v>
@@ -7719,27 +7719,27 @@
         <v>464</v>
       </c>
       <c r="V79" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="W79" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X79" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="Y79" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
         <v>172</v>
@@ -7748,55 +7748,55 @@
         <v>242</v>
       </c>
       <c r="G80">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H80" t="s">
         <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="K80" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L80">
+        <v>2000</v>
+      </c>
+      <c r="M80">
         <v>0</v>
       </c>
-      <c r="M80">
-        <v>100</v>
-      </c>
       <c r="N80" t="s">
         <v>374</v>
       </c>
       <c r="O80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q80" t="s">
         <v>378</v>
       </c>
       <c r="R80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S80" t="s">
         <v>386</v>
       </c>
       <c r="T80" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="U80" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="V80" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="W80" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="X80" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="Y80" t="s">
         <v>546</v>
@@ -7804,34 +7804,34 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
         <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G81">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="H81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K81" t="s">
         <v>359</v>
       </c>
       <c r="L81">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>386</v>
       </c>
       <c r="T81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U81" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V81" t="s">
         <v>485</v>
@@ -7870,39 +7870,39 @@
         <v>506</v>
       </c>
       <c r="Y81" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
         <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
         <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G82">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K82" t="s">
         <v>359</v>
       </c>
       <c r="L82">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>386</v>
       </c>
       <c r="T82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V82" t="s">
         <v>485</v>
@@ -7941,39 +7941,39 @@
         <v>506</v>
       </c>
       <c r="Y82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
         <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G83">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="H83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K83" t="s">
         <v>359</v>
       </c>
       <c r="L83">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>386</v>
       </c>
       <c r="T83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V83" t="s">
         <v>485</v>
@@ -8012,39 +8012,39 @@
         <v>506</v>
       </c>
       <c r="Y83" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
         <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G84">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K84" t="s">
         <v>359</v>
       </c>
       <c r="L84">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>386</v>
       </c>
       <c r="T84" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V84" t="s">
         <v>485</v>
@@ -8083,39 +8083,39 @@
         <v>506</v>
       </c>
       <c r="Y84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
         <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
         <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G85">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="H85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K85" t="s">
         <v>359</v>
       </c>
       <c r="L85">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>386</v>
       </c>
       <c r="T85" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V85" t="s">
         <v>485</v>
@@ -8154,39 +8154,39 @@
         <v>506</v>
       </c>
       <c r="Y85" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
         <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G86">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="H86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K86" t="s">
         <v>359</v>
       </c>
       <c r="L86">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>386</v>
       </c>
       <c r="T86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U86" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V86" t="s">
         <v>485</v>
@@ -8225,15 +8225,15 @@
         <v>506</v>
       </c>
       <c r="Y86" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
         <v>109</v>
@@ -8244,8 +8244,11 @@
       <c r="E87" t="s">
         <v>243</v>
       </c>
+      <c r="F87" t="s">
+        <v>251</v>
+      </c>
       <c r="G87">
-        <v>2500</v>
+        <v>4537</v>
       </c>
       <c r="H87" t="s">
         <v>298</v>
@@ -8253,20 +8256,23 @@
       <c r="I87" t="s">
         <v>347</v>
       </c>
+      <c r="J87" t="s">
+        <v>251</v>
+      </c>
       <c r="K87" t="s">
         <v>359</v>
       </c>
       <c r="L87">
-        <v>2500</v>
+        <v>4537</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P87" t="s">
         <v>376</v>
@@ -8287,7 +8293,7 @@
         <v>465</v>
       </c>
       <c r="V87" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="W87" t="s">
         <v>488</v>
@@ -8296,15 +8302,15 @@
         <v>506</v>
       </c>
       <c r="Y87" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
@@ -8315,8 +8321,11 @@
       <c r="E88" t="s">
         <v>243</v>
       </c>
+      <c r="F88" t="s">
+        <v>251</v>
+      </c>
       <c r="G88">
-        <v>2500</v>
+        <v>4700</v>
       </c>
       <c r="H88" t="s">
         <v>298</v>
@@ -8324,20 +8333,23 @@
       <c r="I88" t="s">
         <v>347</v>
       </c>
+      <c r="J88" t="s">
+        <v>251</v>
+      </c>
       <c r="K88" t="s">
         <v>359</v>
       </c>
       <c r="L88">
-        <v>2500</v>
+        <v>4700</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P88" t="s">
         <v>376</v>
@@ -8358,7 +8370,7 @@
         <v>465</v>
       </c>
       <c r="V88" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="W88" t="s">
         <v>488</v>
@@ -8367,15 +8379,15 @@
         <v>506</v>
       </c>
       <c r="Y88" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
         <v>110</v>
@@ -8386,11 +8398,8 @@
       <c r="E89" t="s">
         <v>244</v>
       </c>
-      <c r="F89" t="s">
-        <v>251</v>
-      </c>
       <c r="G89">
-        <v>4537</v>
+        <v>5600</v>
       </c>
       <c r="H89" t="s">
         <v>299</v>
@@ -8398,35 +8407,32 @@
       <c r="I89" t="s">
         <v>348</v>
       </c>
-      <c r="J89" t="s">
-        <v>251</v>
-      </c>
       <c r="K89" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L89">
-        <v>4537</v>
+        <v>5600</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="N89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P89" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q89" t="s">
         <v>378</v>
       </c>
       <c r="R89" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T89" t="s">
         <v>427</v>
@@ -8435,13 +8441,13 @@
         <v>466</v>
       </c>
       <c r="V89" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="W89" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="X89" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="Y89" t="s">
         <v>547</v>
@@ -8449,10 +8455,10 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -8463,11 +8469,8 @@
       <c r="E90" t="s">
         <v>244</v>
       </c>
-      <c r="F90" t="s">
-        <v>251</v>
-      </c>
       <c r="G90">
-        <v>4700</v>
+        <v>100</v>
       </c>
       <c r="H90" t="s">
         <v>299</v>
@@ -8475,35 +8478,32 @@
       <c r="I90" t="s">
         <v>348</v>
       </c>
-      <c r="J90" t="s">
-        <v>251</v>
-      </c>
       <c r="K90" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L90">
-        <v>4700</v>
+        <v>100</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O90" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q90" t="s">
         <v>378</v>
       </c>
       <c r="R90" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T90" t="s">
         <v>427</v>
@@ -8512,13 +8512,13 @@
         <v>466</v>
       </c>
       <c r="V90" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="W90" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="X90" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="Y90" t="s">
         <v>547</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -115,6 +115,9 @@
     <t>Тернопільська філія АТ КБ "ПРИВАТБАНК"</t>
   </si>
   <si>
+    <t>АТ ПУМБ</t>
+  </si>
+  <si>
     <t xml:space="preserve">АТ "РАЙФФАЙЗЕН БАНК АВАЛЬ" </t>
   </si>
   <si>
@@ -182,9 +185,6 @@
     <t>Публічне акціонерне товариство акціонерний банк "Укргазбанк"</t>
   </si>
   <si>
-    <t>АТ ПУМБ</t>
-  </si>
-  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -200,6 +200,9 @@
     <t>23697280</t>
   </si>
   <si>
+    <t>14282829</t>
+  </si>
+  <si>
     <t>09804119</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
     <t>09322277</t>
   </si>
   <si>
-    <t>14282829</t>
-  </si>
-  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -260,6 +260,9 @@
     <t>UA293387830000026001055129857</t>
   </si>
   <si>
+    <t>UA213348510000000026000109734</t>
+  </si>
+  <si>
     <t>UA323808050000000026005643697</t>
   </si>
   <si>
@@ -347,9 +350,6 @@
     <t>UA413052990000026001026208929</t>
   </si>
   <si>
-    <t>UA213348510000000026000109734</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -404,6 +404,12 @@
     <t>03.06.2021</t>
   </si>
   <si>
+    <t>03.07.2023</t>
+  </si>
+  <si>
+    <t>04.07.2023</t>
+  </si>
+  <si>
     <t>09.05.2022</t>
   </si>
   <si>
@@ -560,12 +566,6 @@
     <t>30.12.2021</t>
   </si>
   <si>
-    <t>03.07.2023</t>
-  </si>
-  <si>
-    <t>04.07.2023</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -620,6 +620,9 @@
     <t>ТЕРНОПІЛЬСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
   </si>
   <si>
+    <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
     <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
   </si>
   <si>
@@ -749,9 +752,6 @@
     <t>ТОВ "ГОВІРСА"</t>
   </si>
   <si>
-    <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -806,6 +806,9 @@
     <t>31.01.2022</t>
   </si>
   <si>
+    <t>24.07.2023</t>
+  </si>
+  <si>
     <t>10.05.2022</t>
   </si>
   <si>
@@ -914,9 +917,6 @@
     <t>22.07.2024</t>
   </si>
   <si>
-    <t>24.07.2023</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -950,6 +950,9 @@
     <t>Маруняк Оксана Іванівна</t>
   </si>
   <si>
+    <t>Ковальчук Володимир Олександрович</t>
+  </si>
+  <si>
     <t>Матвіїв Юрій Ярославович</t>
   </si>
   <si>
@@ -1059,9 +1062,6 @@
   </si>
   <si>
     <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
-  </si>
-  <si>
-    <t>Ковальчук Володимир Олександрович</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1221,6 +1221,9 @@
     <t>ЧОРТКІВСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
   </si>
   <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
   </si>
   <si>
@@ -1302,9 +1305,6 @@
     <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1344,6 +1344,9 @@
     <t>39921438</t>
   </si>
   <si>
+    <t>39479782</t>
+  </si>
+  <si>
     <t>39651598</t>
   </si>
   <si>
@@ -1419,9 +1422,6 @@
     <t>25895860</t>
   </si>
   <si>
-    <t>39479782</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1494,6 +1494,9 @@
     <t>БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!</t>
   </si>
   <si>
+    <t>УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП</t>
+  </si>
+  <si>
     <t>ГОЛОС</t>
   </si>
   <si>
@@ -1533,9 +1536,6 @@
     <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
   </si>
   <si>
-    <t>УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП</t>
-  </si>
-  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -1596,6 +1596,9 @@
     <t>a51f7e70-e9ae-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
     <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
@@ -1660,9 +1663,6 @@
   </si>
   <si>
     <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2239,7 @@
         <v>487</v>
       </c>
       <c r="X3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y3" t="s">
         <v>516</v>
@@ -2310,7 +2310,7 @@
         <v>487</v>
       </c>
       <c r="X4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y4" t="s">
         <v>516</v>
@@ -2381,7 +2381,7 @@
         <v>487</v>
       </c>
       <c r="X5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y5" t="s">
         <v>516</v>
@@ -2452,7 +2452,7 @@
         <v>487</v>
       </c>
       <c r="X6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y6" t="s">
         <v>516</v>
@@ -2523,7 +2523,7 @@
         <v>487</v>
       </c>
       <c r="X7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y7" t="s">
         <v>516</v>
@@ -2549,7 +2549,7 @@
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
         <v>188</v>
@@ -2594,7 +2594,7 @@
         <v>487</v>
       </c>
       <c r="X8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y8" t="s">
         <v>517</v>
@@ -2620,7 +2620,7 @@
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
         <v>188</v>
@@ -2665,7 +2665,7 @@
         <v>487</v>
       </c>
       <c r="X9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y9" t="s">
         <v>517</v>
@@ -2736,7 +2736,7 @@
         <v>487</v>
       </c>
       <c r="X10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y10" t="s">
         <v>517</v>
@@ -2910,7 +2910,7 @@
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
         <v>192</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -3623,7 +3623,7 @@
         <v>201</v>
       </c>
       <c r="G23">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="H23" t="s">
         <v>263</v>
@@ -3632,13 +3632,13 @@
         <v>311</v>
       </c>
       <c r="K23" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L23">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="N23" t="s">
         <v>374</v>
@@ -3647,31 +3647,31 @@
         <v>374</v>
       </c>
       <c r="P23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q23" t="s">
         <v>378</v>
       </c>
       <c r="R23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T23" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="U23" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="V23" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W23" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="Y23" t="s">
         <v>525</v>
@@ -3682,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -3691,25 +3691,25 @@
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
         <v>374</v>
@@ -3724,10 +3724,10 @@
         <v>378</v>
       </c>
       <c r="R24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T24" t="s">
         <v>400</v>
@@ -3745,43 +3745,43 @@
         <v>441</v>
       </c>
       <c r="Y24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25">
-        <v>1500</v>
+        <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L25">
+        <v>10500</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>1500</v>
-      </c>
       <c r="N25" t="s">
         <v>374</v>
       </c>
@@ -3789,31 +3789,31 @@
         <v>374</v>
       </c>
       <c r="P25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q25" t="s">
         <v>378</v>
       </c>
       <c r="R25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="U25" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="V25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="W25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="X25" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
         <v>526</v>
@@ -3830,28 +3830,28 @@
         <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K26" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N26" t="s">
         <v>374</v>
@@ -3860,7 +3860,7 @@
         <v>374</v>
       </c>
       <c r="P26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q26" t="s">
         <v>378</v>
@@ -3878,16 +3878,16 @@
         <v>442</v>
       </c>
       <c r="V26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3901,28 +3901,28 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G27">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K27" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="L27">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N27" t="s">
         <v>374</v>
@@ -3931,7 +3931,7 @@
         <v>374</v>
       </c>
       <c r="P27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q27" t="s">
         <v>378</v>
@@ -3949,48 +3949,48 @@
         <v>442</v>
       </c>
       <c r="V27" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K28" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4014,22 +4014,22 @@
         <v>383</v>
       </c>
       <c r="T28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V28" t="s">
         <v>476</v>
       </c>
       <c r="W28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4046,22 +4046,22 @@
         <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="I29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L29">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>378</v>
       </c>
       <c r="R29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S29" t="s">
         <v>383</v>
@@ -4091,13 +4091,13 @@
         <v>443</v>
       </c>
       <c r="V29" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="W29" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y29" t="s">
         <v>527</v>
@@ -4105,34 +4105,34 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>269</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L30">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4150,25 +4150,25 @@
         <v>378</v>
       </c>
       <c r="R30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S30" t="s">
         <v>383</v>
       </c>
       <c r="T30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X30" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y30" t="s">
         <v>527</v>
@@ -4185,25 +4185,25 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>208</v>
       </c>
       <c r="G31">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
         <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L31">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4233,42 +4233,42 @@
         <v>444</v>
       </c>
       <c r="V31" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
         <v>353</v>
@@ -4298,54 +4298,54 @@
         <v>383</v>
       </c>
       <c r="T32" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U32" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V32" t="s">
         <v>477</v>
       </c>
       <c r="W32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X32" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G33">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
         <v>353</v>
       </c>
       <c r="L33">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4369,54 +4369,54 @@
         <v>383</v>
       </c>
       <c r="T33" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V33" t="s">
         <v>477</v>
       </c>
       <c r="W33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X33" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G34">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
         <v>353</v>
       </c>
       <c r="L34">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4440,27 +4440,27 @@
         <v>383</v>
       </c>
       <c r="T34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V34" t="s">
         <v>477</v>
       </c>
       <c r="W34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X34" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y34" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -4469,7 +4469,7 @@
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>209</v>
@@ -4484,7 +4484,7 @@
         <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4517,16 +4517,16 @@
         <v>445</v>
       </c>
       <c r="V35" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="W35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X35" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y35" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -4537,28 +4537,28 @@
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L36">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4582,27 +4582,27 @@
         <v>383</v>
       </c>
       <c r="T36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V36" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="W36" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X36" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -4617,19 +4617,19 @@
         <v>210</v>
       </c>
       <c r="G37">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
         <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L37">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4659,24 +4659,24 @@
         <v>446</v>
       </c>
       <c r="V37" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="W37" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X37" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y37" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -4688,19 +4688,19 @@
         <v>211</v>
       </c>
       <c r="G38">
-        <v>560000</v>
+        <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
         <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L38">
-        <v>290800</v>
+        <v>800</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4712,31 +4712,31 @@
         <v>374</v>
       </c>
       <c r="P38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q38" t="s">
         <v>378</v>
       </c>
       <c r="R38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T38" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="U38" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="V38" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="W38" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="X38" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Y38" t="s">
         <v>528</v>
@@ -4747,7 +4747,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -4759,19 +4759,19 @@
         <v>211</v>
       </c>
       <c r="G39">
-        <v>560000</v>
+        <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
         <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L39">
-        <v>560000</v>
+        <v>600</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4783,31 +4783,31 @@
         <v>374</v>
       </c>
       <c r="P39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q39" t="s">
         <v>378</v>
       </c>
       <c r="R39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T39" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="U39" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="V39" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="W39" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="X39" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Y39" t="s">
         <v>528</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>62</v>
@@ -4830,7 +4830,7 @@
         <v>212</v>
       </c>
       <c r="G40">
-        <v>200</v>
+        <v>560000</v>
       </c>
       <c r="H40" t="s">
         <v>274</v>
@@ -4839,19 +4839,19 @@
         <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L40">
+        <v>290800</v>
+      </c>
+      <c r="M40">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>200</v>
-      </c>
       <c r="N40" t="s">
         <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P40" t="s">
         <v>377</v>
@@ -4863,22 +4863,22 @@
         <v>380</v>
       </c>
       <c r="S40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T40" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="V40" t="s">
         <v>478</v>
       </c>
       <c r="W40" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Y40" t="s">
         <v>529</v>
@@ -4886,34 +4886,34 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41">
-        <v>5000</v>
+        <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L41">
-        <v>5000</v>
+        <v>560000</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>374</v>
       </c>
       <c r="P41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q41" t="s">
         <v>378</v>
@@ -4934,22 +4934,22 @@
         <v>380</v>
       </c>
       <c r="S41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T41" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="U41" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="V41" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="W41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X41" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Y41" t="s">
         <v>529</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>89</v>
@@ -4969,7 +4969,7 @@
         <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G42">
         <v>200</v>
@@ -4981,22 +4981,22 @@
         <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>200</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42" t="s">
         <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q42" t="s">
         <v>378</v>
@@ -5014,16 +5014,16 @@
         <v>448</v>
       </c>
       <c r="V42" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="W42" t="s">
         <v>487</v>
       </c>
       <c r="X42" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5034,28 +5034,28 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G43">
-        <v>6110</v>
+        <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L43">
-        <v>6110</v>
+        <v>5000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5079,22 +5079,22 @@
         <v>385</v>
       </c>
       <c r="T43" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="U43" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="V43" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="W43" t="s">
         <v>487</v>
       </c>
       <c r="X43" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y43" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5105,28 +5105,28 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G44">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="I44" t="s">
         <v>324</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L44">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         <v>385</v>
       </c>
       <c r="T44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V44" t="s">
         <v>480</v>
@@ -5162,10 +5162,10 @@
         <v>487</v>
       </c>
       <c r="X44" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y44" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5182,22 +5182,22 @@
         <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45">
-        <v>4372</v>
+        <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L45">
-        <v>4372</v>
+        <v>6110</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5227,24 +5227,24 @@
         <v>450</v>
       </c>
       <c r="V45" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="W45" t="s">
         <v>487</v>
       </c>
       <c r="X45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y45" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -5253,43 +5253,43 @@
         <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46">
-        <v>34000</v>
+        <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L46">
-        <v>34000</v>
+        <v>1000</v>
       </c>
       <c r="M46">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
         <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q46" t="s">
         <v>378</v>
       </c>
       <c r="R46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T46" t="s">
         <v>410</v>
@@ -5298,13 +5298,13 @@
         <v>451</v>
       </c>
       <c r="V46" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W46" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="X46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Y46" t="s">
         <v>530</v>
@@ -5312,46 +5312,40 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
         <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G47">
-        <v>6500000</v>
+        <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
-      </c>
-      <c r="J47" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s">
         <v>353</v>
       </c>
       <c r="L47">
-        <v>6500000</v>
+        <v>4372</v>
       </c>
       <c r="M47">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s">
         <v>374</v>
@@ -5369,66 +5363,66 @@
         <v>385</v>
       </c>
       <c r="T47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U47" t="s">
-        <v>246</v>
+        <v>451</v>
       </c>
       <c r="V47" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="W47" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="X47" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="Y47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48">
-        <v>345000</v>
+        <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
         <v>359</v>
       </c>
       <c r="L48">
-        <v>100</v>
+        <v>34000</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="N48" t="s">
         <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P48" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q48" t="s">
         <v>378</v>
@@ -5437,25 +5431,25 @@
         <v>379</v>
       </c>
       <c r="S48" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U48" t="s">
         <v>452</v>
       </c>
       <c r="V48" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="W48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X48" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5463,19 +5457,22 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
         <v>220</v>
       </c>
+      <c r="F49" t="s">
+        <v>246</v>
+      </c>
       <c r="G49">
-        <v>345000</v>
+        <v>6500000</v>
       </c>
       <c r="H49" t="s">
         <v>278</v>
@@ -5483,17 +5480,20 @@
       <c r="I49" t="s">
         <v>328</v>
       </c>
+      <c r="J49" t="s">
+        <v>349</v>
+      </c>
       <c r="K49" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L49">
-        <v>269900</v>
+        <v>6500000</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s">
         <v>374</v>
@@ -5505,25 +5505,25 @@
         <v>378</v>
       </c>
       <c r="R49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T49" t="s">
         <v>412</v>
       </c>
       <c r="U49" t="s">
-        <v>452</v>
+        <v>246</v>
       </c>
       <c r="V49" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="W49" t="s">
         <v>494</v>
       </c>
       <c r="X49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y49" t="s">
         <v>532</v>
@@ -5531,49 +5531,43 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
         <v>221</v>
       </c>
-      <c r="F50" t="s">
-        <v>247</v>
-      </c>
       <c r="G50">
-        <v>130100</v>
+        <v>345000</v>
       </c>
       <c r="H50" t="s">
         <v>279</v>
       </c>
       <c r="I50" t="s">
-        <v>221</v>
-      </c>
-      <c r="J50" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L50">
-        <v>130100</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P50" t="s">
         <v>376</v>
@@ -5588,69 +5582,63 @@
         <v>383</v>
       </c>
       <c r="T50" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U50" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V50" t="s">
         <v>481</v>
       </c>
       <c r="W50" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X50" t="s">
         <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
         <v>221</v>
       </c>
-      <c r="F51" t="s">
-        <v>247</v>
-      </c>
       <c r="G51">
-        <v>52300</v>
+        <v>345000</v>
       </c>
       <c r="H51" t="s">
         <v>279</v>
       </c>
       <c r="I51" t="s">
-        <v>221</v>
-      </c>
-      <c r="J51" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="K51" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L51">
-        <v>52300</v>
+        <v>269900</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P51" t="s">
         <v>376</v>
@@ -5665,51 +5653,51 @@
         <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V51" t="s">
         <v>481</v>
       </c>
       <c r="W51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X51" t="s">
         <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
         <v>247</v>
       </c>
       <c r="G52">
-        <v>127300</v>
+        <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
         <v>247</v>
@@ -5718,7 +5706,7 @@
         <v>353</v>
       </c>
       <c r="L52">
-        <v>127300</v>
+        <v>130100</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5742,51 +5730,51 @@
         <v>383</v>
       </c>
       <c r="T52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V52" t="s">
         <v>481</v>
       </c>
       <c r="W52" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X52" t="s">
         <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
         <v>247</v>
       </c>
       <c r="G53">
-        <v>10000</v>
+        <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J53" t="s">
         <v>247</v>
@@ -5795,7 +5783,7 @@
         <v>353</v>
       </c>
       <c r="L53">
-        <v>10000</v>
+        <v>52300</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5819,22 +5807,22 @@
         <v>383</v>
       </c>
       <c r="T53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V53" t="s">
         <v>481</v>
       </c>
       <c r="W53" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X53" t="s">
         <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5842,37 +5830,37 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
         <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="G54">
-        <v>1000</v>
+        <v>127300</v>
       </c>
       <c r="H54" t="s">
         <v>280</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="K54" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L54">
-        <v>1000</v>
+        <v>127300</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5902,16 +5890,16 @@
         <v>453</v>
       </c>
       <c r="V54" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="W54" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X54" t="s">
         <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5919,40 +5907,46 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>247</v>
       </c>
       <c r="G55">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="I55" t="s">
-        <v>330</v>
+        <v>222</v>
+      </c>
+      <c r="J55" t="s">
+        <v>247</v>
       </c>
       <c r="K55" t="s">
         <v>353</v>
       </c>
       <c r="L55">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P55" t="s">
         <v>376</v>
@@ -5973,16 +5967,16 @@
         <v>453</v>
       </c>
       <c r="V55" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="W55" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X55" t="s">
         <v>508</v>
       </c>
       <c r="Y55" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5990,40 +5984,46 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
       </c>
       <c r="G56">
-        <v>386</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="J56" t="s">
+        <v>56</v>
       </c>
       <c r="K56" t="s">
         <v>359</v>
       </c>
       <c r="L56">
-        <v>386</v>
+        <v>1000</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P56" t="s">
         <v>376</v>
@@ -6032,7 +6032,7 @@
         <v>378</v>
       </c>
       <c r="R56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S56" t="s">
         <v>383</v>
@@ -6044,13 +6044,13 @@
         <v>454</v>
       </c>
       <c r="V56" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="W56" t="s">
         <v>495</v>
       </c>
       <c r="X56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y56" t="s">
         <v>533</v>
@@ -6061,46 +6061,40 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="G57">
-        <v>120</v>
+        <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="K57" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L57">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P57" t="s">
         <v>376</v>
@@ -6109,7 +6103,7 @@
         <v>378</v>
       </c>
       <c r="R57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S57" t="s">
         <v>383</v>
@@ -6121,13 +6115,13 @@
         <v>454</v>
       </c>
       <c r="V57" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="W57" t="s">
         <v>495</v>
       </c>
       <c r="X57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y57" t="s">
         <v>533</v>
@@ -6135,25 +6129,25 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G58">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="H58" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="I58" t="s">
         <v>332</v>
@@ -6162,7 +6156,7 @@
         <v>359</v>
       </c>
       <c r="L58">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6186,22 +6180,22 @@
         <v>383</v>
       </c>
       <c r="T58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U58" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V58" t="s">
         <v>482</v>
       </c>
       <c r="W58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="X58" t="s">
         <v>509</v>
       </c>
       <c r="Y58" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6209,7 +6203,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>97</v>
@@ -6218,31 +6212,37 @@
         <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
       </c>
       <c r="G59">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I59" t="s">
-        <v>333</v>
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>56</v>
       </c>
       <c r="K59" t="s">
         <v>359</v>
       </c>
       <c r="L59">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P59" t="s">
         <v>376</v>
@@ -6263,16 +6263,16 @@
         <v>455</v>
       </c>
       <c r="V59" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="W59" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="X59" t="s">
         <v>509</v>
       </c>
       <c r="Y59" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6280,31 +6280,31 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G60">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="H60" t="s">
         <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K60" t="s">
         <v>359</v>
       </c>
       <c r="L60">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>455</v>
       </c>
       <c r="V60" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="W60" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="X60" t="s">
         <v>509</v>
       </c>
       <c r="Y60" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6357,25 +6357,25 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G61">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="I61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L61">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>380</v>
       </c>
       <c r="S61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T61" t="s">
         <v>416</v>
@@ -6405,13 +6405,13 @@
         <v>456</v>
       </c>
       <c r="V61" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="W61" t="s">
         <v>496</v>
       </c>
       <c r="X61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y61" t="s">
         <v>534</v>
@@ -6428,25 +6428,25 @@
         <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
         <v>229</v>
       </c>
       <c r="G62">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="H62" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="I62" t="s">
         <v>335</v>
       </c>
       <c r="K62" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L62">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>380</v>
       </c>
       <c r="S62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T62" t="s">
         <v>416</v>
@@ -6476,13 +6476,13 @@
         <v>456</v>
       </c>
       <c r="V62" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="W62" t="s">
         <v>496</v>
       </c>
       <c r="X62" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y62" t="s">
         <v>534</v>
@@ -6499,43 +6499,37 @@
         <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" t="s">
-        <v>248</v>
-      </c>
       <c r="G63">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
         <v>336</v>
       </c>
-      <c r="J63" t="s">
-        <v>350</v>
-      </c>
       <c r="K63" t="s">
         <v>353</v>
       </c>
       <c r="L63">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O63" t="s">
         <v>374</v>
       </c>
       <c r="P63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q63" t="s">
         <v>378</v>
@@ -6544,22 +6538,22 @@
         <v>380</v>
       </c>
       <c r="S63" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T63" t="s">
-        <v>230</v>
+        <v>417</v>
       </c>
       <c r="U63" t="s">
-        <v>248</v>
+        <v>457</v>
       </c>
       <c r="V63" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="W63" t="s">
-        <v>230</v>
+        <v>497</v>
       </c>
       <c r="X63" t="s">
-        <v>248</v>
+        <v>510</v>
       </c>
       <c r="Y63" t="s">
         <v>535</v>
@@ -6567,52 +6561,46 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G64">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="H64" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>337</v>
-      </c>
-      <c r="J64" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="K64" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L64">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="M64">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O64" t="s">
         <v>374</v>
       </c>
       <c r="P64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q64" t="s">
         <v>378</v>
@@ -6621,66 +6609,66 @@
         <v>380</v>
       </c>
       <c r="S64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T64" t="s">
         <v>417</v>
       </c>
       <c r="U64" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="V64" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="W64" t="s">
         <v>497</v>
       </c>
       <c r="X64" t="s">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
         <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K65" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L65">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="M65">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N65" t="s">
         <v>375</v>
@@ -6701,19 +6689,19 @@
         <v>383</v>
       </c>
       <c r="T65" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="U65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V65" t="s">
         <v>478</v>
       </c>
       <c r="W65" t="s">
-        <v>497</v>
+        <v>231</v>
       </c>
       <c r="X65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y65" t="s">
         <v>536</v>
@@ -6721,28 +6709,28 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
         <v>249</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I66" t="s">
         <v>338</v>
@@ -6754,10 +6742,10 @@
         <v>369</v>
       </c>
       <c r="L66">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N66" t="s">
         <v>375</v>
@@ -6778,7 +6766,7 @@
         <v>383</v>
       </c>
       <c r="T66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U66" t="s">
         <v>249</v>
@@ -6787,21 +6775,21 @@
         <v>478</v>
       </c>
       <c r="W66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="X66" t="s">
         <v>249</v>
       </c>
       <c r="Y66" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
@@ -6813,43 +6801,43 @@
         <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G67">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="I67" t="s">
         <v>339</v>
       </c>
       <c r="J67" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="K67" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L67">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" t="s">
         <v>375</v>
       </c>
       <c r="O67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P67" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q67" t="s">
         <v>378</v>
       </c>
       <c r="R67" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S67" t="s">
         <v>383</v>
@@ -6858,16 +6846,16 @@
         <v>418</v>
       </c>
       <c r="U67" t="s">
-        <v>457</v>
+        <v>249</v>
       </c>
       <c r="V67" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W67" t="s">
         <v>498</v>
       </c>
       <c r="X67" t="s">
-        <v>511</v>
+        <v>249</v>
       </c>
       <c r="Y67" t="s">
         <v>537</v>
@@ -6875,40 +6863,46 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
       </c>
       <c r="G68">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
         <v>288</v>
       </c>
       <c r="I68" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="J68" t="s">
+        <v>351</v>
       </c>
       <c r="K68" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L68">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O68" t="s">
         <v>374</v>
@@ -6926,93 +6920,99 @@
         <v>383</v>
       </c>
       <c r="T68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U68" t="s">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="V68" t="s">
         <v>478</v>
       </c>
       <c r="W68" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="X68" t="s">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="Y68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
         <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="F69" t="s">
+        <v>250</v>
       </c>
       <c r="G69">
-        <v>369500</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="I69" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="J69" t="s">
+        <v>250</v>
       </c>
       <c r="K69" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L69">
-        <v>369500</v>
+        <v>500</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q69" t="s">
         <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S69" t="s">
         <v>383</v>
       </c>
       <c r="T69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V69" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="X69" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="Y69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7020,7 +7020,7 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>103</v>
@@ -7032,19 +7032,19 @@
         <v>234</v>
       </c>
       <c r="G70">
-        <v>387000</v>
+        <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I70" t="s">
         <v>341</v>
       </c>
       <c r="K70" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L70">
-        <v>387000</v>
+        <v>60000</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
         <v>104</v>
@@ -7103,10 +7103,10 @@
         <v>235</v>
       </c>
       <c r="G71">
-        <v>16000</v>
+        <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I71" t="s">
         <v>342</v>
@@ -7115,7 +7115,7 @@
         <v>359</v>
       </c>
       <c r="L71">
-        <v>16000</v>
+        <v>369500</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7127,13 +7127,13 @@
         <v>374</v>
       </c>
       <c r="P71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q71" t="s">
         <v>378</v>
       </c>
       <c r="R71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S71" t="s">
         <v>383</v>
@@ -7145,13 +7145,13 @@
         <v>460</v>
       </c>
       <c r="V71" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="W71" t="s">
         <v>501</v>
       </c>
       <c r="X71" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="Y71" t="s">
         <v>540</v>
@@ -7159,52 +7159,46 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
         <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
-      </c>
-      <c r="F72" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="G72">
-        <v>5400</v>
+        <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="I72" t="s">
-        <v>343</v>
-      </c>
-      <c r="J72" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K72" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L72">
-        <v>5400</v>
+        <v>387000</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q72" t="s">
         <v>378</v>
@@ -7216,54 +7210,54 @@
         <v>383</v>
       </c>
       <c r="T72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V72" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="X72" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="Y72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G73">
-        <v>6200</v>
+        <v>16000</v>
       </c>
       <c r="H73" t="s">
         <v>292</v>
       </c>
       <c r="I73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s">
         <v>359</v>
       </c>
       <c r="L73">
-        <v>6100</v>
+        <v>16000</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7281,167 +7275,173 @@
         <v>378</v>
       </c>
       <c r="R73" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S73" t="s">
         <v>383</v>
       </c>
       <c r="T73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V73" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="W73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Y73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
         <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
       </c>
       <c r="G74">
-        <v>2800</v>
+        <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="I74" t="s">
-        <v>322</v>
+        <v>344</v>
+      </c>
+      <c r="J74" t="s">
+        <v>352</v>
       </c>
       <c r="K74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="L74">
+        <v>5400</v>
+      </c>
+      <c r="M74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>2800</v>
-      </c>
       <c r="N74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O74" t="s">
         <v>375</v>
       </c>
       <c r="P74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q74" t="s">
         <v>378</v>
       </c>
       <c r="R74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S74" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T74" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="U74" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="V74" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W74" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="X74" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="Y74" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G75">
-        <v>25</v>
+        <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I75" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="K75" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L75">
+        <v>6100</v>
+      </c>
+      <c r="M75">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>25</v>
-      </c>
       <c r="N75" t="s">
         <v>374</v>
       </c>
       <c r="O75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q75" t="s">
         <v>378</v>
       </c>
       <c r="R75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S75" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T75" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="U75" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="V75" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="W75" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="X75" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="Y75" t="s">
         <v>543</v>
@@ -7449,46 +7449,46 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
         <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="I76" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="K76" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L76">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="N76" t="s">
         <v>374</v>
       </c>
       <c r="O76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q76" t="s">
         <v>378</v>
@@ -7500,19 +7500,19 @@
         <v>386</v>
       </c>
       <c r="T76" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="U76" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="V76" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="W76" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="X76" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Y76" t="s">
         <v>544</v>
@@ -7520,46 +7520,46 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
         <v>240</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
         <v>295</v>
       </c>
       <c r="I77" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="K77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L77">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
         <v>374</v>
       </c>
       <c r="O77" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q77" t="s">
         <v>378</v>
@@ -7571,19 +7571,19 @@
         <v>386</v>
       </c>
       <c r="T77" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="U77" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="V77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="W77" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="X77" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Y77" t="s">
         <v>544</v>
@@ -7591,70 +7591,70 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
         <v>241</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="K78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L78">
+        <v>8</v>
+      </c>
+      <c r="M78">
         <v>0</v>
       </c>
-      <c r="M78">
-        <v>100</v>
-      </c>
       <c r="N78" t="s">
         <v>374</v>
       </c>
       <c r="O78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q78" t="s">
         <v>378</v>
       </c>
       <c r="R78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S78" t="s">
         <v>386</v>
       </c>
       <c r="T78" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="U78" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="V78" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="W78" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="X78" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Y78" t="s">
         <v>545</v>
@@ -7662,10 +7662,10 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
         <v>108</v>
@@ -7674,22 +7674,22 @@
         <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G79">
-        <v>4500</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
         <v>346</v>
       </c>
       <c r="K79" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="L79">
-        <v>4500</v>
+        <v>8</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -7707,7 +7707,7 @@
         <v>378</v>
       </c>
       <c r="R79" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="S79" t="s">
         <v>386</v>
@@ -7719,27 +7719,27 @@
         <v>464</v>
       </c>
       <c r="V79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W79" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="X79" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="Y79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
         <v>172</v>
@@ -7748,55 +7748,55 @@
         <v>242</v>
       </c>
       <c r="G80">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
         <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="K80" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L80">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N80" t="s">
         <v>374</v>
       </c>
       <c r="O80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q80" t="s">
         <v>378</v>
       </c>
       <c r="R80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S80" t="s">
         <v>386</v>
       </c>
       <c r="T80" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="U80" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="V80" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="W80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X80" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="Y80" t="s">
         <v>546</v>
@@ -7804,34 +7804,34 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
         <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G81">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="H81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K81" t="s">
         <v>359</v>
       </c>
       <c r="L81">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>386</v>
       </c>
       <c r="T81" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U81" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V81" t="s">
         <v>485</v>
@@ -7870,39 +7870,39 @@
         <v>506</v>
       </c>
       <c r="Y81" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
         <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
         <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G82">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K82" t="s">
         <v>359</v>
       </c>
       <c r="L82">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>386</v>
       </c>
       <c r="T82" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U82" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V82" t="s">
         <v>485</v>
@@ -7941,39 +7941,39 @@
         <v>506</v>
       </c>
       <c r="Y82" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
         <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G83">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="H83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I83" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K83" t="s">
         <v>359</v>
       </c>
       <c r="L83">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>386</v>
       </c>
       <c r="T83" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U83" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V83" t="s">
         <v>485</v>
@@ -8012,39 +8012,39 @@
         <v>506</v>
       </c>
       <c r="Y83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
         <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G84">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="H84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K84" t="s">
         <v>359</v>
       </c>
       <c r="L84">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>386</v>
       </c>
       <c r="T84" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U84" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V84" t="s">
         <v>485</v>
@@ -8083,39 +8083,39 @@
         <v>506</v>
       </c>
       <c r="Y84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
         <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
         <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G85">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="H85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K85" t="s">
         <v>359</v>
       </c>
       <c r="L85">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>386</v>
       </c>
       <c r="T85" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U85" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V85" t="s">
         <v>485</v>
@@ -8154,39 +8154,39 @@
         <v>506</v>
       </c>
       <c r="Y85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
         <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G86">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="H86" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K86" t="s">
         <v>359</v>
       </c>
       <c r="L86">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>386</v>
       </c>
       <c r="T86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U86" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V86" t="s">
         <v>485</v>
@@ -8225,15 +8225,15 @@
         <v>506</v>
       </c>
       <c r="Y86" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>109</v>
@@ -8244,11 +8244,8 @@
       <c r="E87" t="s">
         <v>243</v>
       </c>
-      <c r="F87" t="s">
-        <v>251</v>
-      </c>
       <c r="G87">
-        <v>4537</v>
+        <v>2500</v>
       </c>
       <c r="H87" t="s">
         <v>298</v>
@@ -8256,23 +8253,20 @@
       <c r="I87" t="s">
         <v>347</v>
       </c>
-      <c r="J87" t="s">
-        <v>251</v>
-      </c>
       <c r="K87" t="s">
         <v>359</v>
       </c>
       <c r="L87">
-        <v>4537</v>
+        <v>2500</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P87" t="s">
         <v>376</v>
@@ -8293,7 +8287,7 @@
         <v>465</v>
       </c>
       <c r="V87" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="W87" t="s">
         <v>488</v>
@@ -8302,15 +8296,15 @@
         <v>506</v>
       </c>
       <c r="Y87" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
@@ -8321,11 +8315,8 @@
       <c r="E88" t="s">
         <v>243</v>
       </c>
-      <c r="F88" t="s">
-        <v>251</v>
-      </c>
       <c r="G88">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="H88" t="s">
         <v>298</v>
@@ -8333,23 +8324,20 @@
       <c r="I88" t="s">
         <v>347</v>
       </c>
-      <c r="J88" t="s">
-        <v>251</v>
-      </c>
       <c r="K88" t="s">
         <v>359</v>
       </c>
       <c r="L88">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P88" t="s">
         <v>376</v>
@@ -8370,7 +8358,7 @@
         <v>465</v>
       </c>
       <c r="V88" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="W88" t="s">
         <v>488</v>
@@ -8379,15 +8367,15 @@
         <v>506</v>
       </c>
       <c r="Y88" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
         <v>110</v>
@@ -8398,8 +8386,11 @@
       <c r="E89" t="s">
         <v>244</v>
       </c>
+      <c r="F89" t="s">
+        <v>251</v>
+      </c>
       <c r="G89">
-        <v>5600</v>
+        <v>4537</v>
       </c>
       <c r="H89" t="s">
         <v>299</v>
@@ -8407,32 +8398,35 @@
       <c r="I89" t="s">
         <v>348</v>
       </c>
+      <c r="J89" t="s">
+        <v>251</v>
+      </c>
       <c r="K89" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L89">
-        <v>5600</v>
+        <v>4537</v>
       </c>
       <c r="M89">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q89" t="s">
         <v>378</v>
       </c>
       <c r="R89" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T89" t="s">
         <v>427</v>
@@ -8441,13 +8435,13 @@
         <v>466</v>
       </c>
       <c r="V89" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="W89" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="X89" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="Y89" t="s">
         <v>547</v>
@@ -8455,10 +8449,10 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -8469,8 +8463,11 @@
       <c r="E90" t="s">
         <v>244</v>
       </c>
+      <c r="F90" t="s">
+        <v>251</v>
+      </c>
       <c r="G90">
-        <v>100</v>
+        <v>4700</v>
       </c>
       <c r="H90" t="s">
         <v>299</v>
@@ -8478,32 +8475,35 @@
       <c r="I90" t="s">
         <v>348</v>
       </c>
+      <c r="J90" t="s">
+        <v>251</v>
+      </c>
       <c r="K90" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L90">
-        <v>100</v>
+        <v>4700</v>
       </c>
       <c r="M90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q90" t="s">
         <v>378</v>
       </c>
       <c r="R90" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T90" t="s">
         <v>427</v>
@@ -8512,13 +8512,13 @@
         <v>466</v>
       </c>
       <c r="V90" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="W90" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="X90" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="Y90" t="s">
         <v>547</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="548">
   <si>
     <t>bank_name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>АТ "Міжнародний інвестиційний банк"</t>
-  </si>
-  <si>
-    <t>АТ "МІБ"</t>
   </si>
   <si>
     <t>ПУБЛІНЕ АКЦІОНЕРНЕ ТОВАРИСТВО АКЦІОНЕРНИЙ БАНК "УКРГАЗБАНК"</t>
@@ -146,6 +143,48 @@
     <t>ТВБВ №10013/03 філії ЛОУ АТ "Ощадбанк"</t>
   </si>
   <si>
+    <t>АТ КБ ПРиват</t>
+  </si>
+  <si>
+    <t>АТ "Укрексімбанк"</t>
+  </si>
+  <si>
+    <t>Івано-Франківська Філія АТ КБ "Приватбанк"</t>
+  </si>
+  <si>
+    <t>АТ АКБ "Львів"</t>
+  </si>
+  <si>
+    <t>Фiлiя - Закарпатське обласне управлiння публічного акцiонерного товариства "Державний ощадний банк України"</t>
+  </si>
+  <si>
+    <t>ТВБВ № 10026/016 філії – Головного управління по м. Києву та Київської області АТ «Ощадбанк»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АТ КБ ПРИВАТБАНК </t>
+  </si>
+  <si>
+    <t>Відділення № 42 АТ ПУМБ в м. Київ</t>
+  </si>
+  <si>
+    <t>ПАТ АБ УКРГАЗБАНК</t>
+  </si>
+  <si>
+    <t>АТ КБ "Приват банк"</t>
+  </si>
+  <si>
+    <t>АТ Мегабанк</t>
+  </si>
+  <si>
+    <t>АТ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>Публічне акціонерне товариство акціонерний банк "Укргазбанк"</t>
+  </si>
+  <si>
+    <t>АТ "МІБ"</t>
+  </si>
+  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -173,6 +212,15 @@
     <t>09325703</t>
   </si>
   <si>
+    <t>09801546</t>
+  </si>
+  <si>
+    <t>09312190</t>
+  </si>
+  <si>
+    <t>09322277</t>
+  </si>
+  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -188,72 +236,120 @@
     <t>UA763223130000026009000044718</t>
   </si>
   <si>
+    <t>UA153808050000000026009543306</t>
+  </si>
+  <si>
+    <t>UA503805820000026000010325931</t>
+  </si>
+  <si>
+    <t>UA243805820000026004010318212</t>
+  </si>
+  <si>
+    <t>UA563204780000026003924893295</t>
+  </si>
+  <si>
+    <t>UA293387830000026001055129857</t>
+  </si>
+  <si>
+    <t>UA213348510000000026000109734</t>
+  </si>
+  <si>
+    <t>UA323808050000000026005643697</t>
+  </si>
+  <si>
+    <t>UA893808050000000026001668193</t>
+  </si>
+  <si>
+    <t>UA493808050000000026003742288</t>
+  </si>
+  <si>
+    <t>UA153808050000000026003698086</t>
+  </si>
+  <si>
+    <t>UA863808050000000026000666431</t>
+  </si>
+  <si>
+    <t>UA313808050000000026006697426</t>
+  </si>
+  <si>
+    <t>UA423516290000000002600114005</t>
+  </si>
+  <si>
+    <t>UA033805260000002600800159741</t>
+  </si>
+  <si>
+    <t>UA033223130000026001000047274</t>
+  </si>
+  <si>
+    <t>UA073223130000026009000044990</t>
+  </si>
+  <si>
+    <t>UA723223130000026005000045023</t>
+  </si>
+  <si>
+    <t>UA363052990000026005036218701</t>
+  </si>
+  <si>
+    <t>UA363257960000026009300368164</t>
+  </si>
+  <si>
+    <t>UA923052990000026002043601047</t>
+  </si>
+  <si>
+    <t>UA933223130000026005000045227</t>
+  </si>
+  <si>
+    <t>UA853366770000026005052517967</t>
+  </si>
+  <si>
+    <t>UA113252680000000002600477437</t>
+  </si>
+  <si>
+    <t>UA613123560000026002300713705</t>
+  </si>
+  <si>
+    <t>UA693226690000026003300196863</t>
+  </si>
+  <si>
+    <t>UA473223130000026003000042534</t>
+  </si>
+  <si>
+    <t>UA463052990000026003016807628</t>
+  </si>
+  <si>
+    <t>UA503348510000000026008137708</t>
+  </si>
+  <si>
+    <t>UA503204780000026003924882927</t>
+  </si>
+  <si>
+    <t>UA633052990000026200672595702</t>
+  </si>
+  <si>
+    <t>UA663516290000000002600805183</t>
+  </si>
+  <si>
+    <t>UA363154050000026001052317039</t>
+  </si>
+  <si>
+    <t>UA693808050000000026004671091</t>
+  </si>
+  <si>
+    <t>UA853204780000026001924857727</t>
+  </si>
+  <si>
+    <t>UA413052990000026001026208929</t>
+  </si>
+  <si>
     <t>UA663223130000026002000044845</t>
   </si>
   <si>
     <t>UA583223130000026005000044790</t>
   </si>
   <si>
-    <t>UA153808050000000026009543306</t>
-  </si>
-  <si>
-    <t>UA503805820000026000010325931</t>
-  </si>
-  <si>
-    <t>UA243805820000026004010318212</t>
-  </si>
-  <si>
     <t>UA883805820000026003010318161</t>
   </si>
   <si>
-    <t>UA563204780000026003924893295</t>
-  </si>
-  <si>
-    <t>UA293387830000026001055129857</t>
-  </si>
-  <si>
-    <t>UA213348510000000026000109734</t>
-  </si>
-  <si>
-    <t>UA323808050000000026005643697</t>
-  </si>
-  <si>
-    <t>UA893808050000000026001668193</t>
-  </si>
-  <si>
-    <t>UA493808050000000026003742288</t>
-  </si>
-  <si>
-    <t>UA153808050000000026003698086</t>
-  </si>
-  <si>
-    <t>UA863808050000000026000666431</t>
-  </si>
-  <si>
-    <t>UA313808050000000026006697426</t>
-  </si>
-  <si>
-    <t>UA423516290000000002600114005</t>
-  </si>
-  <si>
-    <t>UA033805260000002600800159741</t>
-  </si>
-  <si>
-    <t>UA033223130000026001000047274</t>
-  </si>
-  <si>
-    <t>UA073223130000026009000044990</t>
-  </si>
-  <si>
-    <t>UA723223130000026005000045023</t>
-  </si>
-  <si>
-    <t>UA363052990000026005036218701</t>
-  </si>
-  <si>
-    <t>UA363257960000026009300368164</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -269,6 +365,195 @@
     <t>11.05.2021</t>
   </si>
   <si>
+    <t>16.03.2021</t>
+  </si>
+  <si>
+    <t>21.09.2020</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>15.09.2021</t>
+  </si>
+  <si>
+    <t>17.09.2021</t>
+  </si>
+  <si>
+    <t>26.01.2022</t>
+  </si>
+  <si>
+    <t>03.06.2021</t>
+  </si>
+  <si>
+    <t>03.07.2023</t>
+  </si>
+  <si>
+    <t>04.07.2023</t>
+  </si>
+  <si>
+    <t>09.05.2022</t>
+  </si>
+  <si>
+    <t>28.12.2020</t>
+  </si>
+  <si>
+    <t>23.02.2021</t>
+  </si>
+  <si>
+    <t>02.02.2021</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>06.04.2021</t>
+  </si>
+  <si>
+    <t>10.03.2021</t>
+  </si>
+  <si>
+    <t>17.03.2021</t>
+  </si>
+  <si>
+    <t>19.03.2021</t>
+  </si>
+  <si>
+    <t>25.05.2021</t>
+  </si>
+  <si>
+    <t>31.03.2021</t>
+  </si>
+  <si>
+    <t>13.04.2021</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>07.10.2020</t>
+  </si>
+  <si>
+    <t>27.08.2023</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
+    <t>08.04.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>31.10.2023</t>
+  </si>
+  <si>
+    <t>21.10.2020</t>
+  </si>
+  <si>
+    <t>07.09.2023</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>11.03.2021</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>02.04.2021</t>
+  </si>
+  <si>
+    <t>18.02.2022</t>
+  </si>
+  <si>
+    <t>28.10.2021</t>
+  </si>
+  <si>
+    <t>13.08.2021</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>02.09.2021</t>
+  </si>
+  <si>
+    <t>19.02.2021</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
+  </si>
+  <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
+    <t>06.12.2021</t>
+  </si>
+  <si>
+    <t>27.01.2022</t>
+  </si>
+  <si>
+    <t>29.04.2022</t>
+  </si>
+  <si>
+    <t>02.05.2022</t>
+  </si>
+  <si>
+    <t>26.12.2022</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>10.03.2023</t>
+  </si>
+  <si>
+    <t>21.06.2023</t>
+  </si>
+  <si>
+    <t>29.12.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
     <t>30.05.2022</t>
   </si>
   <si>
@@ -278,108 +563,9 @@
     <t>02.02.2022</t>
   </si>
   <si>
-    <t>16.03.2021</t>
-  </si>
-  <si>
-    <t>21.09.2020</t>
-  </si>
-  <si>
-    <t>29.06.2021</t>
-  </si>
-  <si>
     <t>21.09.2021</t>
   </si>
   <si>
-    <t>04.06.2021</t>
-  </si>
-  <si>
-    <t>08.07.2021</t>
-  </si>
-  <si>
-    <t>15.09.2021</t>
-  </si>
-  <si>
-    <t>17.09.2021</t>
-  </si>
-  <si>
-    <t>26.01.2022</t>
-  </si>
-  <si>
-    <t>03.06.2021</t>
-  </si>
-  <si>
-    <t>03.07.2023</t>
-  </si>
-  <si>
-    <t>04.07.2023</t>
-  </si>
-  <si>
-    <t>09.05.2022</t>
-  </si>
-  <si>
-    <t>28.12.2020</t>
-  </si>
-  <si>
-    <t>23.02.2021</t>
-  </si>
-  <si>
-    <t>02.02.2021</t>
-  </si>
-  <si>
-    <t>02.01.2021</t>
-  </si>
-  <si>
-    <t>06.04.2021</t>
-  </si>
-  <si>
-    <t>10.03.2021</t>
-  </si>
-  <si>
-    <t>17.03.2021</t>
-  </si>
-  <si>
-    <t>19.03.2021</t>
-  </si>
-  <si>
-    <t>25.05.2021</t>
-  </si>
-  <si>
-    <t>31.03.2021</t>
-  </si>
-  <si>
-    <t>13.04.2021</t>
-  </si>
-  <si>
-    <t>07.09.2020</t>
-  </si>
-  <si>
-    <t>07.10.2020</t>
-  </si>
-  <si>
-    <t>27.08.2023</t>
-  </si>
-  <si>
-    <t>29.12.2023</t>
-  </si>
-  <si>
-    <t>18.12.2023</t>
-  </si>
-  <si>
-    <t>08.04.2023</t>
-  </si>
-  <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>31.10.2023</t>
-  </si>
-  <si>
-    <t>21.10.2020</t>
-  </si>
-  <si>
-    <t>07.09.2023</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -395,111 +581,198 @@
     <t>ЛЮТИК ГЕОРГІЙ ФЛОРОВИЧ</t>
   </si>
   <si>
+    <t>МІТНІЦЬКИЙ ЮРІЙ ГЕОРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПП'ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
+    <t>МУЗИКА ПЕТРО-ВАСИЛЬ МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>НАБОК ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>МАЛЬКОВА ЮЛІЯ АНДРІЇВНА</t>
+  </si>
+  <si>
+    <t>БРУСЕНКО ВІКТОРІЯ СЕРГІЇВНА</t>
+  </si>
+  <si>
+    <t>СОКОЛЬЦОВА ІННА ВОЛОДИМИРІВНА</t>
+  </si>
+  <si>
+    <t>ЧАРИЧАНСЬКА ІРИНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>МАРУНЯК ОКСАНА ІВАНІВНА</t>
+  </si>
+  <si>
+    <t>ТЕРНОПІЛЬСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
+  </si>
+  <si>
+    <t>ЧИЧУЛ ПАВЛО ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛАРЧЕНКОВ ПАВЛО ОЛЕГОВИЧ</t>
+  </si>
+  <si>
+    <t>КУЛИК НАТАЛІЯ ЯРОСЛАВІВНА</t>
+  </si>
+  <si>
+    <t>ШАКАЛО ОЛЬШАНЕЦЬКА ОЛЕСЯ ЯРОСЛАВІВНА</t>
+  </si>
+  <si>
+    <t>ПАПЕВСЬКИЙ ОЛЕКСАНДР РУСЛАНОВИЧ</t>
+  </si>
+  <si>
+    <t>ПОЛТАВЕЦЬ ІЛЛЯ ОЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t>ЯНУШ МАРИНА ПЕТРІВНА</t>
+  </si>
+  <si>
+    <t>СЕРГАН МАРИНА ГРИГОРІВНА</t>
+  </si>
+  <si>
+    <t>ВОЙТЕНКО МАРИНА ПЕТРІВНА</t>
+  </si>
+  <si>
+    <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
+  </si>
+  <si>
+    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
+  </si>
+  <si>
+    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
+  </si>
+  <si>
+    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
+  </si>
+  <si>
+    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
+  </si>
+  <si>
+    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
+  </si>
+  <si>
+    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
+  </si>
+  <si>
+    <t>ГЕМБІК КАТЕРИНА ОЛЕКСАНДРІВНА</t>
+  </si>
+  <si>
+    <t>ТОВ ІННОВАБУД</t>
+  </si>
+  <si>
+    <t>ТРАНЗИТНИЙ РАХУНОК ПРИВАТБАНК М.КИЇВ</t>
+  </si>
+  <si>
+    <t>САРОЯН АЗАТ АБРАМОВИЧ ФОП</t>
+  </si>
+  <si>
+    <t>БАРНЕЦЬКИЙ НАЗАР МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>ІВАНО-ФРАНКІВСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>СОЛОВІЙ ВІРА ЗІНОВІЇВНА</t>
+  </si>
+  <si>
+    <t>ЗАБОЛІТНА ОЛЕНА ЮРІЇВНА</t>
+  </si>
+  <si>
+    <t>ОДНОРІГ ВАЛЕНТИНА МАР'ЯНІВНА</t>
+  </si>
+  <si>
+    <t>ГОЛОВКО НАТАЛІЯ РОМАНІВНА</t>
+  </si>
+  <si>
+    <t>ЛІБЕРАЛЬНА ПАРТІЯ УКРАЇНИ</t>
+  </si>
+  <si>
+    <t>ПП "СИЛА І ЧЕСТЬ"</t>
+  </si>
+  <si>
+    <t>ТОВ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>ЛИТОВЧЕНКО ОЛЕКСІЙ СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ГРИЦЬ ВІТАЛІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ПАВЛОВИЧ ЄВГЕНІЙ ВОЛОДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t>АТ КБ ПРИВАТБАНК</t>
+  </si>
+  <si>
+    <t>БОБРОВ ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖАН НАНГЯЛАЙ ФОП</t>
+  </si>
+  <si>
+    <t>БАРЧУК ДАНИЛО ВІКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>НЕЗДОЛІЙ ГРИГОРІЙ ГРИГОРОВИЧ</t>
+  </si>
+  <si>
+    <t>ДЖУРИНСЬКИЙ ПЕТРО БОРИСОВИЧ</t>
+  </si>
+  <si>
+    <t>МИХАЛЮК ЮРІЙ ПЕТРОВИЧ</t>
+  </si>
+  <si>
+    <t>ТОВ "ГОВІРСА"</t>
+  </si>
+  <si>
     <t>МАНДЗІЙ ОЛЕКСАНДР СЕРГІЙОВИЧ</t>
   </si>
   <si>
     <t>АРКУШЕНКО КАТЕРИНА АНАТОЛІЇВНА</t>
   </si>
   <si>
-    <t>МІТНІЦЬКИЙ ЮРІЙ ГЕОРГІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ПП'ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
-    <t>МУЗИКА ПЕТРО-ВАСИЛЬ МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
     <t>ІВКО АНТОН ВАЛЕРІЙОВИЧ</t>
   </si>
   <si>
-    <t>НАБОК ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>МАЛЬКОВА ЮЛІЯ АНДРІЇВНА</t>
-  </si>
-  <si>
-    <t>БРУСЕНКО ВІКТОРІЯ СЕРГІЇВНА</t>
-  </si>
-  <si>
-    <t>СОКОЛЬЦОВА ІННА ВОЛОДИМИРІВНА</t>
-  </si>
-  <si>
-    <t>ЧАРИЧАНСЬКА ІРИНА ЮРІЇВНА</t>
-  </si>
-  <si>
-    <t>МАРУНЯК ОКСАНА ІВАНІВНА</t>
-  </si>
-  <si>
-    <t>ТЕРНОПІЛЬСЬКА ФІЛІЯ АТ КБ "ПРИВАТБАНК"</t>
-  </si>
-  <si>
-    <t>КОВАЛЬЧУК ВОЛОДИМИР ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>МАТВІЇВ ЮРІЙ ЯРОСЛАВОВИЧ</t>
-  </si>
-  <si>
-    <t>ЧИЧУЛ ПАВЛО ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛАРЧЕНКОВ ПАВЛО ОЛЕГОВИЧ</t>
-  </si>
-  <si>
-    <t>КУЛИК НАТАЛІЯ ЯРОСЛАВІВНА</t>
-  </si>
-  <si>
-    <t>ШАКАЛО ОЛЬШАНЕЦЬКА ОЛЕСЯ ЯРОСЛАВІВНА</t>
-  </si>
-  <si>
-    <t>ПАПЕВСЬКИЙ ОЛЕКСАНДР РУСЛАНОВИЧ</t>
-  </si>
-  <si>
-    <t>ПОЛТАВЕЦЬ ІЛЛЯ ОЛЕКСАНДРОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯНУШ МАРИНА ПЕТРІВНА</t>
-  </si>
-  <si>
-    <t>СЕРГАН МАРИНА ГРИГОРІВНА</t>
-  </si>
-  <si>
-    <t>ВОЙТЕНКО МАРИНА ПЕТРІВНА</t>
-  </si>
-  <si>
-    <t>ШЕВЕТОВСЬКИЙ ВАЛЕНТИН ВАЛЕНТИНОВИЧ</t>
-  </si>
-  <si>
-    <t>ЯЦКОВ МИХАЙЛО ЄВГЕНОВИЧ</t>
-  </si>
-  <si>
-    <t>БЕРЕЖЕЦЬКА ДАР'Я ГЕННАДІЇВНА</t>
-  </si>
-  <si>
-    <t>ФАСТОВЕЦЬ ТЕТЯНА СЕРГІЇВНА</t>
-  </si>
-  <si>
-    <t>ЗАКЛІЦЬКИЙ МИКОЛА АНАТОЛІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>ЛИТОВЧЕНКО ТАМАРА МИКОЛАЇВНА</t>
-  </si>
-  <si>
-    <t>САМОХВАЛОВА ЛАРИСА ФЕЛІКСІВНА</t>
-  </si>
-  <si>
-    <t>ЧЕЛЕБАДЗЕ ОЛЕНА ВАЛЕНТИНІВНА</t>
-  </si>
-  <si>
-    <t>ЛКО ПП "НАРОДНИЙ РУХ УКРАЇНИ"</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
     <t>20806283</t>
   </si>
   <si>
+    <t>40235645</t>
+  </si>
+  <si>
+    <t>00044351</t>
+  </si>
+  <si>
+    <t>33308363</t>
+  </si>
+  <si>
+    <t>02472453</t>
+  </si>
+  <si>
+    <t>44231733</t>
+  </si>
+  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -512,81 +785,138 @@
     <t>29.09.2021</t>
   </si>
   <si>
-    <t>26.12.2022</t>
+    <t>27.01.2021</t>
+  </si>
+  <si>
+    <t>09.07.2021</t>
+  </si>
+  <si>
+    <t>16.09.2021</t>
+  </si>
+  <si>
+    <t>20.09.2021</t>
+  </si>
+  <si>
+    <t>31.01.2022</t>
+  </si>
+  <si>
+    <t>24.07.2023</t>
+  </si>
+  <si>
+    <t>10.05.2022</t>
+  </si>
+  <si>
+    <t>12.01.2021</t>
+  </si>
+  <si>
+    <t>24.02.2021</t>
+  </si>
+  <si>
+    <t>11.01.2021</t>
+  </si>
+  <si>
+    <t>05.03.2021</t>
+  </si>
+  <si>
+    <t>05.01.2021</t>
+  </si>
+  <si>
+    <t>28.05.2021</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>25.01.2022</t>
+  </si>
+  <si>
+    <t>18.09.2023</t>
+  </si>
+  <si>
+    <t>19.12.2023</t>
+  </si>
+  <si>
+    <t>11.04.2023</t>
+  </si>
+  <si>
+    <t>08.09.2023</t>
+  </si>
+  <si>
+    <t>05.02.2021</t>
+  </si>
+  <si>
+    <t>04.02.2021</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>19.04.2021</t>
+  </si>
+  <si>
+    <t>29.10.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>30.08.2021</t>
+  </si>
+  <si>
+    <t>31.08.2021</t>
+  </si>
+  <si>
+    <t>03.03.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
+    <t>22.03.2024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>28.03.2024</t>
+  </si>
+  <si>
+    <t>12.04.2024</t>
+  </si>
+  <si>
+    <t>04.07.2024</t>
+  </si>
+  <si>
+    <t>22.07.2024</t>
   </si>
   <si>
     <t>04.02.2022</t>
   </si>
   <si>
-    <t>27.01.2021</t>
-  </si>
-  <si>
-    <t>30.06.2021</t>
-  </si>
-  <si>
     <t>22.09.2021</t>
   </si>
   <si>
-    <t>09.07.2021</t>
-  </si>
-  <si>
-    <t>16.09.2021</t>
-  </si>
-  <si>
-    <t>20.09.2021</t>
-  </si>
-  <si>
-    <t>31.01.2022</t>
-  </si>
-  <si>
-    <t>24.07.2023</t>
-  </si>
-  <si>
-    <t>10.05.2022</t>
-  </si>
-  <si>
-    <t>12.01.2021</t>
-  </si>
-  <si>
-    <t>24.02.2021</t>
-  </si>
-  <si>
-    <t>11.01.2021</t>
-  </si>
-  <si>
-    <t>05.03.2021</t>
-  </si>
-  <si>
-    <t>05.01.2021</t>
-  </si>
-  <si>
-    <t>28.05.2021</t>
-  </si>
-  <si>
-    <t>09.06.2021</t>
-  </si>
-  <si>
-    <t>02.06.2021</t>
-  </si>
-  <si>
-    <t>22.06.2021</t>
-  </si>
-  <si>
-    <t>25.01.2022</t>
-  </si>
-  <si>
-    <t>18.09.2023</t>
-  </si>
-  <si>
-    <t>19.12.2023</t>
-  </si>
-  <si>
-    <t>11.04.2023</t>
-  </si>
-  <si>
-    <t>08.09.2023</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -599,84 +929,153 @@
     <t>ПП"Європейська Солідарність"</t>
   </si>
   <si>
+    <t>Набок Олексій Анатолійович</t>
+  </si>
+  <si>
+    <t>Малькова Юлія Андріївна</t>
+  </si>
+  <si>
+    <t>Брусенко Вікторія Сергіївна</t>
+  </si>
+  <si>
+    <t>Сокольцова Інна Володимирівна</t>
+  </si>
+  <si>
+    <t>Чаричанська Ірина Юріївна</t>
+  </si>
+  <si>
+    <t>Маруняк Оксана Іванівна</t>
+  </si>
+  <si>
+    <t>Ковальчук Володимир Олександрович</t>
+  </si>
+  <si>
+    <t>Матвіїв Юрій Ярославович</t>
+  </si>
+  <si>
+    <t>Чичул Павло Олександрович</t>
+  </si>
+  <si>
+    <t>Ларченков Павло Олегович</t>
+  </si>
+  <si>
+    <t>Кулик Наталія Ярославівна</t>
+  </si>
+  <si>
+    <t>Шакало-Ольшанецька Олеся Ярославівна</t>
+  </si>
+  <si>
+    <t>Папевський Олександр Русланович</t>
+  </si>
+  <si>
+    <t>Полтавець Ілля Олександрович</t>
+  </si>
+  <si>
+    <t>Януш Марина Петрівна</t>
+  </si>
+  <si>
+    <t>Серган Марина Григорівна</t>
+  </si>
+  <si>
+    <t>Войтенко Марина Петрівна</t>
+  </si>
+  <si>
+    <t>Шеветовський Валентин Валентинович</t>
+  </si>
+  <si>
+    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
+  </si>
+  <si>
+    <t>Фастовець Тетяна Сергіївна</t>
+  </si>
+  <si>
+    <t>Литовченко Тамара Миколаївна</t>
+  </si>
+  <si>
+    <t>Самохвалова Лариса Феліксівна</t>
+  </si>
+  <si>
+    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
+  </si>
+  <si>
+    <t>Коваленко Христина Володимирівна</t>
+  </si>
+  <si>
+    <t>Гембік Катерина Олександрівна</t>
+  </si>
+  <si>
+    <t>Транзитний рахунок Приватбанк м.Київ</t>
+  </si>
+  <si>
+    <t>ФОП Сароян Азат Абрамович</t>
+  </si>
+  <si>
+    <t>Барнецький Назар Михайлович</t>
+  </si>
+  <si>
+    <t>Соловій Віра Зіновіївна</t>
+  </si>
+  <si>
+    <t>Заболітна Олена Юріївна</t>
+  </si>
+  <si>
+    <t>Одноріг Валентина Мар'янівна</t>
+  </si>
+  <si>
+    <t>Головко Наталія Романівна</t>
+  </si>
+  <si>
+    <t>Данильченко Віталій Іванович</t>
+  </si>
+  <si>
+    <t>Панченко Костянтин Володимирович</t>
+  </si>
+  <si>
+    <t>Філонський Валерій Вікторович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ РЕДАКЦІЯ БЕРДИЧІВСЬКОЇ МІСЬКРАЙОННОЇ ГАЗЕТИ "ЗЕМЛЯ БЕРДИЧІВСЬКА"</t>
+  </si>
+  <si>
+    <t>Литовченко Олексій Сергійович</t>
+  </si>
+  <si>
+    <t>Гриць Віталій Юрійович</t>
+  </si>
+  <si>
+    <t>Павлович Євгеній Володимирович</t>
+  </si>
+  <si>
+    <t>ОТВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "БС-АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t>Бобров Олексій Анатолійович</t>
+  </si>
+  <si>
+    <t>Нездолій Григорій Григорович</t>
+  </si>
+  <si>
+    <t>Михалюк Юрій Петрович</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
+  </si>
+  <si>
     <t>Івко Антон Валерійович</t>
   </si>
   <si>
-    <t>Набок Олексій Анатолійович</t>
-  </si>
-  <si>
-    <t>Малькова Юлія Андріївна</t>
-  </si>
-  <si>
-    <t>Брусенко Вікторія Сергіївна</t>
-  </si>
-  <si>
-    <t>Сокольцова Інна Володимирівна</t>
-  </si>
-  <si>
-    <t>Чаричанська Ірина Юріївна</t>
-  </si>
-  <si>
-    <t>Маруняк Оксана Іванівна</t>
-  </si>
-  <si>
-    <t>Ковальчук Володимир Олександрович</t>
-  </si>
-  <si>
-    <t>Матвіїв Юрій Ярославович</t>
-  </si>
-  <si>
-    <t>Чичул Павло Олександрович</t>
-  </si>
-  <si>
-    <t>Ларченков Павло Олегович</t>
-  </si>
-  <si>
-    <t>Кулик Наталія Ярославівна</t>
-  </si>
-  <si>
-    <t>Шакало-Ольшанецька Олеся Ярославівна</t>
-  </si>
-  <si>
-    <t>Папевський Олександр Русланович</t>
-  </si>
-  <si>
-    <t>Полтавець Ілля Олександрович</t>
-  </si>
-  <si>
-    <t>Януш Марина Петрівна</t>
-  </si>
-  <si>
-    <t>Серган Марина Григорівна</t>
-  </si>
-  <si>
-    <t>Войтенко Марина Петрівна</t>
-  </si>
-  <si>
-    <t>Шеветовський Валентин Валентинович</t>
-  </si>
-  <si>
-    <t>ГОЛОВНЕ УПРАВЛІННЯ ДЕРЖАВНОЇ КАЗНАЧЕЙСЬКОЇ СЛУЖБИ УКРАЇНИ У М.КИЄВІ</t>
-  </si>
-  <si>
-    <t>Фастовець Тетяна Сергіївна</t>
-  </si>
-  <si>
-    <t>Литовченко Тамара Миколаївна</t>
-  </si>
-  <si>
-    <t>Самохвалова Лариса Феліксівна</t>
-  </si>
-  <si>
-    <t>Дарницький відділ державної виконавчої служби у місті Києві Центрального міжрегіонального управління Міністрерства юстиції (м.Київ)</t>
-  </si>
-  <si>
-    <t>Коваленко Христина Володимирівна</t>
-  </si>
-  <si>
     <t>2980415485</t>
   </si>
   <si>
+    <t>2908717238</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>39298466</t>
+  </si>
+  <si>
     <t>Повернення помилкових грошових надходжень</t>
   </si>
   <si>
@@ -690,9 +1089,6 @@
   </si>
   <si>
     <t>Повернення помилково перерахованих коштів. Без ПДВ.</t>
-  </si>
-  <si>
-    <t>За рішенням Голови</t>
   </si>
   <si>
     <t>Повернення грошових внесків (чи їх частин)</t>
@@ -729,6 +1125,24 @@
     <t>неналежний платник</t>
   </si>
   <si>
+    <t xml:space="preserve">Вказані неповні дані для ідентифікації </t>
+  </si>
+  <si>
+    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL838134, оплаченого як Добровільний внесок Джан Нангялай 3507313217 вул.Ільфа і Петрова, б.6, кв.9,м.Одеса (внескодавець не є громадянином України)</t>
+  </si>
+  <si>
+    <t>101 UA338999980313010115000026007 Перерахування платежу №@2PL335251, оплаченого як Добровільний внесок Барчук Данило Вікторович 3880708711 вул. Чорновола В'ячеслава, буд. 6  (внескодавець не досяг 18-річного віку)</t>
+  </si>
+  <si>
+    <t>повернення коштів у зв'язку з неможливістю ідентифікувати платника</t>
+  </si>
+  <si>
+    <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
+  </si>
+  <si>
+    <t>За рішенням Голови</t>
+  </si>
+  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -765,6 +1179,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>ТЕРНОПІЛЬСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
   </si>
   <si>
@@ -780,69 +1197,114 @@
     <t>ЧЕРНІВЕЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
+    <t>Попільнянська районна партійна організація Всеукраїнського об'єднання "Батьківщина" Житомирської області</t>
+  </si>
+  <si>
+    <t>КИЇВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ " ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ "БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!"</t>
+  </si>
+  <si>
+    <t>ЧОРТКІВСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ОДЕСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ВІННИЦЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>КИЇВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
+  </si>
+  <si>
+    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
+  </si>
+  <si>
+    <t>Львівська крайова організація Народного Руху України</t>
+  </si>
+  <si>
+    <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ ІВАНО-ФРАНКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>ЛЬВІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ"</t>
+  </si>
+  <si>
+    <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «МАЙБУТНЄ КРАЇНИ»</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «РІДНИЙ ДІМ»</t>
+  </si>
+  <si>
+    <t>МИКОЛАЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ПРОПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "НАШ КРАЙ"</t>
+  </si>
+  <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГРОМАДЯНСЬКА ПОЗИЦІЯ"</t>
+  </si>
+  <si>
+    <t>ЧЕРКАСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
+  </si>
+  <si>
+    <t>Волинська обласна організація Всеукраїнського об'єднання «Батьківщина»</t>
+  </si>
+  <si>
+    <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
+  </si>
+  <si>
     <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
     <t>ОДЕСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
-    <t>Попільнянська районна партійна організація Всеукраїнського об'єднання "Батьківщина" Житомирської області</t>
-  </si>
-  <si>
-    <t>КИЇВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ " ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
     <t>ВІННИЦЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ "БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!"</t>
-  </si>
-  <si>
-    <t>ЧОРТКІВСЬКА МІСЬКА ПАРТІЙНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СИЛА ЛЮДЕЙ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «УКРАЇНСЬКЕ ОБ'ЄДНАННЯ ПАТРІОТІВ - УКРОП»</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «ГОЛОС»</t>
-  </si>
-  <si>
-    <t>ЛЬВІВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ОДЕСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ВІННИЦЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>КИЇВСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ХЕРСОНСЬКА ОБЛАСНА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ГОЛОС"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СЛУГА НАРОДУ»</t>
-  </si>
-  <si>
-    <t>КРИВОРІЗЬКА МІСЬКА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ДНІПРОПЕТРОВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
-  </si>
-  <si>
-    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -858,66 +1320,108 @@
     <t>43671311</t>
   </si>
   <si>
+    <t>33864810</t>
+  </si>
+  <si>
+    <t>39495516</t>
+  </si>
+  <si>
+    <t>39702118</t>
+  </si>
+  <si>
+    <t>40419357</t>
+  </si>
+  <si>
+    <t>39921438</t>
+  </si>
+  <si>
+    <t>39479782</t>
+  </si>
+  <si>
+    <t>39651598</t>
+  </si>
+  <si>
+    <t>43311440</t>
+  </si>
+  <si>
+    <t>43527082</t>
+  </si>
+  <si>
+    <t>43428147</t>
+  </si>
+  <si>
+    <t>43307785</t>
+  </si>
+  <si>
+    <t>43449722</t>
+  </si>
+  <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>43945782</t>
+  </si>
+  <si>
+    <t>43671044</t>
+  </si>
+  <si>
+    <t>43721791</t>
+  </si>
+  <si>
+    <t>38010759</t>
+  </si>
+  <si>
+    <t>36658318</t>
+  </si>
+  <si>
+    <t>36681991</t>
+  </si>
+  <si>
+    <t>40026836</t>
+  </si>
+  <si>
+    <t>40014820</t>
+  </si>
+  <si>
+    <t>43777954</t>
+  </si>
+  <si>
+    <t>36894166</t>
+  </si>
+  <si>
+    <t>40000865</t>
+  </si>
+  <si>
+    <t>39765623</t>
+  </si>
+  <si>
+    <t>43626410</t>
+  </si>
+  <si>
+    <t>40006563</t>
+  </si>
+  <si>
+    <t>37263887</t>
+  </si>
+  <si>
+    <t>43379734</t>
+  </si>
+  <si>
+    <t>25787544</t>
+  </si>
+  <si>
+    <t>25895860</t>
+  </si>
+  <si>
     <t>43675248</t>
   </si>
   <si>
     <t>43676765</t>
   </si>
   <si>
-    <t>33864810</t>
-  </si>
-  <si>
-    <t>39495516</t>
-  </si>
-  <si>
-    <t>39702118</t>
-  </si>
-  <si>
     <t>39508645</t>
   </si>
   <si>
-    <t>40419357</t>
-  </si>
-  <si>
-    <t>39921438</t>
-  </si>
-  <si>
-    <t>39479782</t>
-  </si>
-  <si>
-    <t>39651598</t>
-  </si>
-  <si>
-    <t>43311440</t>
-  </si>
-  <si>
-    <t>43527082</t>
-  </si>
-  <si>
-    <t>43428147</t>
-  </si>
-  <si>
-    <t>43307785</t>
-  </si>
-  <si>
-    <t>43449722</t>
-  </si>
-  <si>
-    <t>40422142</t>
-  </si>
-  <si>
-    <t>43945782</t>
-  </si>
-  <si>
-    <t>43671044</t>
-  </si>
-  <si>
-    <t>43721791</t>
-  </si>
-  <si>
-    <t>38010759</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -933,31 +1437,46 @@
     <t>Чернівецька обл.</t>
   </si>
   <si>
+    <t>Житомирська обл.</t>
+  </si>
+  <si>
+    <t>м.Київ</t>
+  </si>
+  <si>
+    <t>Львівська обл.</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>Одеська обл.</t>
+  </si>
+  <si>
+    <t>Вінницька обл.</t>
+  </si>
+  <si>
+    <t>Київська обл.</t>
+  </si>
+  <si>
+    <t>Дніпропетровська обл.</t>
+  </si>
+  <si>
+    <t>Закарпатська обл.</t>
+  </si>
+  <si>
+    <t>Івано-Франківська обл.</t>
+  </si>
+  <si>
+    <t>Миколаївська обл.</t>
+  </si>
+  <si>
     <t>Хмельницька обл.</t>
   </si>
   <si>
-    <t>Одеська обл.</t>
-  </si>
-  <si>
-    <t>Житомирська обл.</t>
-  </si>
-  <si>
-    <t>м.Київ</t>
-  </si>
-  <si>
-    <t>Львівська обл.</t>
-  </si>
-  <si>
-    <t>Вінницька обл.</t>
-  </si>
-  <si>
-    <t>Україна</t>
-  </si>
-  <si>
-    <t>Київська обл.</t>
-  </si>
-  <si>
-    <t>Дніпропетровська обл.</t>
+    <t>Черкаська обл.</t>
+  </si>
+  <si>
+    <t>Волинська обл.</t>
   </si>
   <si>
     <t>СИЛА ЛЮДЕЙ</t>
@@ -987,6 +1506,36 @@
     <t>НАРОДНИЙ РУХ УКРАЇНИ</t>
   </si>
   <si>
+    <t>ЗА МАЙБУТНЄ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА ГАЛИЦЬКА ПАРТІЯ</t>
+  </si>
+  <si>
+    <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
+  </si>
+  <si>
+    <t>СИЛА І ЧЕСТЬ</t>
+  </si>
+  <si>
+    <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
+  </si>
+  <si>
+    <t>МАЙБУТНЄ КРАЇНИ</t>
+  </si>
+  <si>
+    <t>РІДНИЙ ДІМ</t>
+  </si>
+  <si>
+    <t>ПРОПОЗИЦІЯ</t>
+  </si>
+  <si>
+    <t>НАШ КРАЙ</t>
+  </si>
+  <si>
+    <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
+  </si>
+  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -996,58 +1545,124 @@
     <t>00013209</t>
   </si>
   <si>
+    <t>36088708</t>
+  </si>
+  <si>
+    <t>39481037</t>
+  </si>
+  <si>
+    <t>39610682</t>
+  </si>
+  <si>
+    <t>33547558</t>
+  </si>
+  <si>
+    <t>39550414</t>
+  </si>
+  <si>
+    <t>37724082</t>
+  </si>
+  <si>
+    <t>33492420</t>
+  </si>
+  <si>
     <t>78043b70-d48b-11ee-a5cc-0f6c6369ddf7</t>
   </si>
   <si>
     <t>6e058a80-ead3-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
+  </si>
+  <si>
+    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
+    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
+  </si>
+  <si>
+    <t>7d7b17e0-e854-11ee-90b7-9b9aa9321258</t>
+  </si>
+  <si>
+    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
+  </si>
+  <si>
+    <t>a51f7e70-e9ae-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>42d0b870-eab1-11ee-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>afc73ae0-016c-11ef-bce9-638f8e04ad34</t>
+  </si>
+  <si>
+    <t>70a88900-03d7-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>3cccc650-031e-11ef-a826-5536b50ce648</t>
+  </si>
+  <si>
+    <t>731321a0-032d-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>393f97f0-03ce-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>12cff070-03eb-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>1f89f460-03ea-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>9750ab30-03f2-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>4b8af540-03fa-11ef-95c4-e7bfad33aba2</t>
+  </si>
+  <si>
+    <t>d5e325d0-03fc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>4f853a40-042f-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>80435fc0-0ddc-11ef-ae0a-87878d7061af</t>
+  </si>
+  <si>
+    <t>3618b930-0e05-11ef-938a-5514903835ea</t>
+  </si>
+  <si>
+    <t>180fd7c0-5554-11ef-9f9f-af297e478ff7</t>
+  </si>
+  <si>
+    <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
     <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
   </si>
   <si>
-    <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
-  </si>
-  <si>
-    <t>5a06c400-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
-  </si>
-  <si>
     <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
-  </si>
-  <si>
-    <t>7d7b17e0-e854-11ee-90b7-9b9aa9321258</t>
-  </si>
-  <si>
-    <t>f882f450-e87a-11ee-8b5a-f7f195166b05</t>
-  </si>
-  <si>
-    <t>a51f7e70-e9ae-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>dd3cc1f0-ea94-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>192805d0-eaa9-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>52579800-eab0-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>42d0b870-eab1-11ee-ae0a-87878d7061af</t>
-  </si>
-  <si>
-    <t>0c1e6800-eaba-11ee-bce9-638f8e04ad34</t>
-  </si>
-  <si>
-    <t>02344060-ead0-11ee-a826-5536b50ce648</t>
-  </si>
-  <si>
-    <t>2f36e570-eb72-11ee-95c4-e7bfad33aba2</t>
-  </si>
-  <si>
-    <t>9992e950-eba4-11ee-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +2020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1493,28 +2108,28 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -1523,40 +2138,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q2" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R2" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="S2" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T2" t="s">
-        <v>248</v>
+        <v>387</v>
       </c>
       <c r="U2" t="s">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="V2" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="W2" t="s">
-        <v>313</v>
+        <v>486</v>
       </c>
       <c r="X2" t="s">
-        <v>322</v>
+        <v>505</v>
       </c>
       <c r="Y2" t="s">
-        <v>325</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1564,28 +2179,28 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -1594,40 +2209,40 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O3" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q3" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R3" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S3" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T3" t="s">
-        <v>249</v>
+        <v>388</v>
       </c>
       <c r="U3" t="s">
-        <v>275</v>
+        <v>429</v>
       </c>
       <c r="V3" t="s">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="W3" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X3" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y3" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1635,28 +2250,28 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -1665,40 +2280,40 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O4" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q4" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R4" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S4" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T4" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="U4" t="s">
-        <v>276</v>
+        <v>430</v>
       </c>
       <c r="V4" t="s">
-        <v>301</v>
+        <v>469</v>
       </c>
       <c r="W4" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X4" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y4" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1706,28 +2321,28 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -1736,40 +2351,40 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O5" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q5" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R5" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S5" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T5" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="U5" t="s">
-        <v>277</v>
+        <v>431</v>
       </c>
       <c r="V5" t="s">
-        <v>302</v>
+        <v>470</v>
       </c>
       <c r="W5" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X5" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y5" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1777,28 +2392,28 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="K6" t="s">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -1807,40 +2422,40 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O6" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q6" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R6" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S6" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T6" t="s">
-        <v>252</v>
+        <v>391</v>
       </c>
       <c r="U6" t="s">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="V6" t="s">
-        <v>303</v>
+        <v>471</v>
       </c>
       <c r="W6" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X6" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y6" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1848,28 +2463,28 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -1878,472 +2493,472 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O7" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q7" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R7" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S7" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T7" t="s">
-        <v>252</v>
+        <v>391</v>
       </c>
       <c r="U7" t="s">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="V7" t="s">
-        <v>303</v>
+        <v>471</v>
       </c>
       <c r="W7" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X7" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y7" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="G8">
-        <v>60376.24</v>
+        <v>350</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="L8">
-        <v>60376.24</v>
+        <v>7.17</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O8" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q8" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R8" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S8" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="T8" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="U8" t="s">
-        <v>279</v>
+        <v>433</v>
       </c>
       <c r="V8" t="s">
-        <v>304</v>
+        <v>472</v>
       </c>
       <c r="W8" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
       <c r="X8" t="s">
-        <v>294</v>
+        <v>506</v>
       </c>
       <c r="Y8" t="s">
-        <v>327</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>189</v>
+      </c>
+      <c r="F9" t="s">
+        <v>245</v>
       </c>
       <c r="G9">
-        <v>17524.75</v>
+        <v>1099583</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>303</v>
+      </c>
+      <c r="J9" t="s">
+        <v>245</v>
       </c>
       <c r="K9" t="s">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="L9">
-        <v>17524.75</v>
+        <v>100000</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="O9" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q9" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R9" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S9" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="T9" t="s">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="U9" t="s">
-        <v>279</v>
+        <v>434</v>
       </c>
       <c r="V9" t="s">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="W9" t="s">
-        <v>314</v>
+        <v>489</v>
       </c>
       <c r="X9" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="Y9" t="s">
-        <v>327</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="L10">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O10" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q10" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R10" t="s">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="S10" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="T10" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="U10" t="s">
-        <v>280</v>
+        <v>435</v>
       </c>
       <c r="V10" t="s">
-        <v>305</v>
+        <v>474</v>
       </c>
       <c r="W10" t="s">
-        <v>314</v>
+        <v>489</v>
       </c>
       <c r="X10" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="Y10" t="s">
-        <v>327</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="G11">
-        <v>350</v>
+        <v>150000</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="K11" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L11">
-        <v>7.17</v>
+        <v>150000</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="N11" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O11" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q11" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R11" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="S11" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T11" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="U11" t="s">
-        <v>281</v>
+        <v>436</v>
       </c>
       <c r="V11" t="s">
-        <v>306</v>
+        <v>475</v>
       </c>
       <c r="W11" t="s">
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="X11" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="Y11" t="s">
-        <v>328</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G12">
-        <v>1099583</v>
+        <v>100000</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" t="s">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="K12" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="L12">
         <v>100000</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="N12" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="O12" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q12" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R12" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T12" t="s">
-        <v>256</v>
+        <v>395</v>
       </c>
       <c r="U12" t="s">
-        <v>282</v>
+        <v>436</v>
       </c>
       <c r="V12" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
       <c r="W12" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="X12" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="Y12" t="s">
-        <v>329</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="G13">
-        <v>1600</v>
+        <v>150000</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L13">
-        <v>1600</v>
+        <v>150000</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="N13" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O13" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q13" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R13" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
       <c r="S13" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T13" t="s">
-        <v>257</v>
+        <v>395</v>
       </c>
       <c r="U13" t="s">
-        <v>283</v>
+        <v>436</v>
       </c>
       <c r="V13" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="W13" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="Y13" t="s">
-        <v>330</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2351,283 +2966,283 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="G14">
-        <v>5020</v>
+        <v>160000</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="K14" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L14">
-        <v>5020</v>
+        <v>160000</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="N14" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O14" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q14" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R14" t="s">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="S14" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T14" t="s">
-        <v>258</v>
+        <v>395</v>
       </c>
       <c r="U14" t="s">
-        <v>284</v>
+        <v>436</v>
       </c>
       <c r="V14" t="s">
-        <v>309</v>
+        <v>475</v>
       </c>
       <c r="W14" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="Y14" t="s">
-        <v>331</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="G15">
-        <v>150000</v>
+        <v>950000</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="K15" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="L15">
-        <v>150000</v>
+        <v>950000</v>
       </c>
       <c r="M15">
-        <v>150000</v>
+        <v>950000</v>
       </c>
       <c r="N15" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O15" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P15" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q15" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R15" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S15" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T15" t="s">
-        <v>259</v>
+        <v>395</v>
       </c>
       <c r="U15" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="V15" t="s">
-        <v>310</v>
+        <v>475</v>
       </c>
       <c r="W15" t="s">
-        <v>317</v>
+        <v>490</v>
       </c>
       <c r="X15" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="Y15" t="s">
-        <v>332</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="G16">
-        <v>100000</v>
+        <v>950000</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="K16" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="L16">
-        <v>100000</v>
+        <v>950000</v>
       </c>
       <c r="M16">
-        <v>100000</v>
+        <v>950000</v>
       </c>
       <c r="N16" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O16" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q16" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R16" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S16" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T16" t="s">
-        <v>259</v>
+        <v>395</v>
       </c>
       <c r="U16" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="V16" t="s">
-        <v>310</v>
+        <v>475</v>
       </c>
       <c r="W16" t="s">
-        <v>317</v>
+        <v>490</v>
       </c>
       <c r="X16" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="Y16" t="s">
-        <v>332</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="G17">
-        <v>150000</v>
+        <v>97396.8</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="K17" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="L17">
-        <v>150000</v>
+        <v>97396.8</v>
       </c>
       <c r="M17">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O17" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q17" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R17" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S17" t="s">
+        <v>384</v>
+      </c>
+      <c r="T17" t="s">
+        <v>394</v>
+      </c>
+      <c r="U17" t="s">
+        <v>435</v>
+      </c>
+      <c r="V17" t="s">
+        <v>474</v>
+      </c>
+      <c r="W17" t="s">
+        <v>489</v>
+      </c>
+      <c r="X17" t="s">
         <v>245</v>
       </c>
-      <c r="T17" t="s">
-        <v>259</v>
-      </c>
-      <c r="U17" t="s">
-        <v>285</v>
-      </c>
-      <c r="V17" t="s">
-        <v>310</v>
-      </c>
-      <c r="W17" t="s">
-        <v>317</v>
-      </c>
-      <c r="X17" t="s">
-        <v>285</v>
-      </c>
       <c r="Y17" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2635,212 +3250,218 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>197</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>160000</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="L18">
-        <v>160000</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="O18" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q18" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R18" t="s">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="S18" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T18" t="s">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="U18" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="V18" t="s">
-        <v>310</v>
+        <v>467</v>
       </c>
       <c r="W18" t="s">
-        <v>317</v>
+        <v>486</v>
       </c>
       <c r="X18" t="s">
-        <v>285</v>
+        <v>505</v>
       </c>
       <c r="Y18" t="s">
-        <v>332</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="G19">
-        <v>950000</v>
+        <v>5600</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="K19" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="L19">
-        <v>950000</v>
+        <v>5600</v>
       </c>
       <c r="M19">
-        <v>950000</v>
+        <v>5600</v>
       </c>
       <c r="N19" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O19" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q19" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R19" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S19" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="T19" t="s">
-        <v>259</v>
+        <v>397</v>
       </c>
       <c r="U19" t="s">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="V19" t="s">
-        <v>310</v>
+        <v>475</v>
       </c>
       <c r="W19" t="s">
-        <v>317</v>
+        <v>491</v>
       </c>
       <c r="X19" t="s">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="Y19" t="s">
-        <v>332</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="G20">
-        <v>950000</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="L20">
-        <v>950000</v>
+        <v>100</v>
       </c>
       <c r="M20">
-        <v>950000</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O20" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q20" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R20" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S20" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="T20" t="s">
-        <v>259</v>
+        <v>397</v>
       </c>
       <c r="U20" t="s">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="V20" t="s">
-        <v>310</v>
+        <v>475</v>
       </c>
       <c r="W20" t="s">
-        <v>317</v>
+        <v>491</v>
       </c>
       <c r="X20" t="s">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="Y20" t="s">
-        <v>332</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2848,147 +3469,141 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="G21">
-        <v>97396.8</v>
+        <v>10500</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="K21" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="L21">
-        <v>97396.8</v>
+        <v>10500</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O21" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q21" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R21" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="S21" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="T21" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="U21" t="s">
-        <v>283</v>
+        <v>435</v>
       </c>
       <c r="V21" t="s">
-        <v>308</v>
+        <v>474</v>
       </c>
       <c r="W21" t="s">
-        <v>316</v>
+        <v>489</v>
       </c>
       <c r="X21" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="Y21" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N22" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="O22" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q22" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R22" t="s">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="S22" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T22" t="s">
-        <v>260</v>
+        <v>398</v>
       </c>
       <c r="U22" t="s">
-        <v>286</v>
+        <v>439</v>
       </c>
       <c r="V22" t="s">
-        <v>299</v>
+        <v>475</v>
       </c>
       <c r="W22" t="s">
-        <v>313</v>
+        <v>492</v>
       </c>
       <c r="X22" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
       <c r="Y22" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2996,212 +3611,212 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="G23">
-        <v>5600</v>
+        <v>1500</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>361</v>
       </c>
       <c r="L23">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>5600</v>
+        <v>1500</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O23" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q23" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R23" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S23" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="T23" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="U23" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="V23" t="s">
-        <v>310</v>
+        <v>475</v>
       </c>
       <c r="W23" t="s">
-        <v>318</v>
+        <v>492</v>
       </c>
       <c r="X23" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="Y23" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O24" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q24" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R24" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S24" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="T24" t="s">
-        <v>261</v>
+        <v>399</v>
       </c>
       <c r="U24" t="s">
-        <v>287</v>
+        <v>440</v>
       </c>
       <c r="V24" t="s">
-        <v>310</v>
+        <v>474</v>
       </c>
       <c r="W24" t="s">
-        <v>318</v>
+        <v>492</v>
       </c>
       <c r="X24" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="Y24" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="G25">
-        <v>10500</v>
+        <v>400</v>
       </c>
       <c r="H25" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="L25">
-        <v>10500</v>
+        <v>400</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O25" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q25" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R25" t="s">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="S25" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="T25" t="s">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="U25" t="s">
-        <v>283</v>
+        <v>440</v>
       </c>
       <c r="V25" t="s">
-        <v>308</v>
+        <v>474</v>
       </c>
       <c r="W25" t="s">
-        <v>316</v>
+        <v>492</v>
       </c>
       <c r="X25" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="Y25" t="s">
-        <v>336</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3209,354 +3824,354 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="G26">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>362</v>
       </c>
       <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>400</v>
-      </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O26" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q26" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R26" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="S26" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T26" t="s">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="U26" t="s">
-        <v>288</v>
+        <v>440</v>
       </c>
       <c r="V26" t="s">
-        <v>310</v>
+        <v>474</v>
       </c>
       <c r="W26" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X26" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y26" t="s">
-        <v>337</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="G27">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>358</v>
       </c>
       <c r="L27">
+        <v>200</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>1500</v>
-      </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q27" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R27" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="S27" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T27" t="s">
-        <v>262</v>
+        <v>400</v>
       </c>
       <c r="U27" t="s">
-        <v>288</v>
+        <v>441</v>
       </c>
       <c r="V27" t="s">
-        <v>310</v>
+        <v>476</v>
       </c>
       <c r="W27" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y27" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O28" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q28" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R28" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="S28" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T28" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="U28" t="s">
-        <v>289</v>
+        <v>442</v>
       </c>
       <c r="V28" t="s">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="W28" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X28" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y28" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="G29">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="L29">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O29" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q29" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R29" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="S29" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T29" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="U29" t="s">
-        <v>289</v>
+        <v>442</v>
       </c>
       <c r="V29" t="s">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="W29" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y29" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O30" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q30" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R30" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="S30" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T30" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="U30" t="s">
-        <v>289</v>
+        <v>442</v>
       </c>
       <c r="V30" t="s">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="W30" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y30" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3564,212 +4179,212 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="G31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="L31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O31" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P31" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q31" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R31" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="S31" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T31" t="s">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="U31" t="s">
-        <v>290</v>
+        <v>442</v>
       </c>
       <c r="V31" t="s">
-        <v>305</v>
+        <v>477</v>
       </c>
       <c r="W31" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y31" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G32">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="I32" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="L32">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O32" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q32" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R32" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="S32" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T32" t="s">
-        <v>265</v>
+        <v>401</v>
       </c>
       <c r="U32" t="s">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="V32" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="W32" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y32" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G33">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="L33">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O33" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q33" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R33" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="S33" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T33" t="s">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="U33" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="V33" t="s">
-        <v>309</v>
+        <v>478</v>
       </c>
       <c r="W33" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y33" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3777,70 +4392,70 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="G34">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="L34">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O34" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q34" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R34" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="S34" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T34" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="U34" t="s">
-        <v>291</v>
+        <v>444</v>
       </c>
       <c r="V34" t="s">
-        <v>309</v>
+        <v>468</v>
       </c>
       <c r="W34" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y34" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3848,567 +4463,567 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="L35">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O35" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q35" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R35" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="S35" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="T35" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="U35" t="s">
-        <v>291</v>
+        <v>444</v>
       </c>
       <c r="V35" t="s">
-        <v>309</v>
+        <v>468</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="X35" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="Y35" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="G36">
-        <v>700</v>
+        <v>560000</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L36">
-        <v>700</v>
+        <v>290800</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O36" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q36" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R36" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
       <c r="S36" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="T36" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="U36" t="s">
-        <v>291</v>
+        <v>436</v>
       </c>
       <c r="V36" t="s">
-        <v>309</v>
+        <v>475</v>
       </c>
       <c r="W36" t="s">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="X36" t="s">
-        <v>288</v>
+        <v>436</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="G37">
-        <v>300</v>
+        <v>560000</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="L37">
-        <v>300</v>
+        <v>560000</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q37" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R37" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
       <c r="S37" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="T37" t="s">
-        <v>266</v>
+        <v>395</v>
       </c>
       <c r="U37" t="s">
-        <v>292</v>
+        <v>436</v>
       </c>
       <c r="V37" t="s">
-        <v>311</v>
+        <v>475</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="X37" t="s">
-        <v>288</v>
+        <v>436</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G38">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H38" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="L38">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O38" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q38" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R38" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
       <c r="S38" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="T38" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="U38" t="s">
-        <v>293</v>
+        <v>445</v>
       </c>
       <c r="V38" t="s">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="W38" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
       <c r="X38" t="s">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="G39">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
         <v>211</v>
       </c>
       <c r="K39" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="L39">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q39" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R39" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
       <c r="S39" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="T39" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="U39" t="s">
-        <v>293</v>
+        <v>430</v>
       </c>
       <c r="V39" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="W39" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
       <c r="X39" t="s">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="G40">
-        <v>560000</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="I40" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="L40">
-        <v>290800</v>
+        <v>200</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q40" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R40" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S40" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="T40" t="s">
-        <v>259</v>
+        <v>405</v>
       </c>
       <c r="U40" t="s">
-        <v>285</v>
+        <v>446</v>
       </c>
       <c r="V40" t="s">
-        <v>310</v>
+        <v>479</v>
       </c>
       <c r="W40" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="X40" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="Y40" t="s">
-        <v>339</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="G41">
-        <v>560000</v>
+        <v>6110</v>
       </c>
       <c r="H41" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="I41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="L41">
-        <v>560000</v>
+        <v>6110</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q41" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R41" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S41" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="T41" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="U41" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="V41" t="s">
-        <v>310</v>
+        <v>472</v>
       </c>
       <c r="W41" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="X41" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="Y41" t="s">
-        <v>339</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="G42">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="I42" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="L42">
+        <v>1000</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>200</v>
-      </c>
       <c r="N42" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q42" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R42" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S42" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="T42" t="s">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="U42" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="V42" t="s">
-        <v>310</v>
+        <v>479</v>
       </c>
       <c r="W42" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X42" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4416,425 +5031,437 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="G43">
-        <v>5000</v>
+        <v>4372</v>
       </c>
       <c r="H43" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="L43">
-        <v>5000</v>
+        <v>4372</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q43" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R43" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S43" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="T43" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="U43" t="s">
-        <v>276</v>
+        <v>448</v>
       </c>
       <c r="V43" t="s">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="W43" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
       <c r="X43" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>34000</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="L44">
-        <v>200</v>
+        <v>34000</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="N44" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="Q44" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R44" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S44" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="T44" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s">
-        <v>295</v>
+        <v>449</v>
       </c>
       <c r="V44" t="s">
-        <v>312</v>
+        <v>475</v>
       </c>
       <c r="W44" t="s">
-        <v>314</v>
+        <v>493</v>
       </c>
       <c r="X44" t="s">
-        <v>294</v>
+        <v>449</v>
       </c>
       <c r="Y44" t="s">
-        <v>340</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>217</v>
+      </c>
+      <c r="F45" t="s">
+        <v>246</v>
       </c>
       <c r="G45">
-        <v>6110</v>
+        <v>6500000</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>327</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="L45">
-        <v>6110</v>
+        <v>6500000</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N45" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q45" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R45" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="S45" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="T45" t="s">
-        <v>270</v>
+        <v>409</v>
       </c>
       <c r="U45" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="V45" t="s">
-        <v>306</v>
+        <v>474</v>
       </c>
       <c r="W45" t="s">
-        <v>314</v>
+        <v>494</v>
       </c>
       <c r="X45" t="s">
-        <v>294</v>
+        <v>507</v>
       </c>
       <c r="Y45" t="s">
-        <v>340</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="G46">
-        <v>1000</v>
+        <v>345000</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="K46" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L46">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q46" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R46" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S46" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="T46" t="s">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="U46" t="s">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="V46" t="s">
-        <v>312</v>
+        <v>480</v>
       </c>
       <c r="W46" t="s">
-        <v>314</v>
+        <v>495</v>
       </c>
       <c r="X46" t="s">
-        <v>294</v>
+        <v>508</v>
       </c>
       <c r="Y46" t="s">
-        <v>340</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="G47">
-        <v>4372</v>
+        <v>345000</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L47">
-        <v>4372</v>
+        <v>269900</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="Q47" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R47" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="S47" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="T47" t="s">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="U47" t="s">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="V47" t="s">
-        <v>312</v>
+        <v>480</v>
       </c>
       <c r="W47" t="s">
-        <v>314</v>
+        <v>495</v>
       </c>
       <c r="X47" t="s">
-        <v>294</v>
+        <v>508</v>
       </c>
       <c r="Y47" t="s">
-        <v>340</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>219</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
       </c>
       <c r="G48">
-        <v>34000</v>
+        <v>130100</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="J48" t="s">
+        <v>247</v>
       </c>
       <c r="K48" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="L48">
-        <v>34000</v>
+        <v>130100</v>
       </c>
       <c r="M48">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="O48" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="Q48" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="R48" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="S48" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="T48" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="U48" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="V48" t="s">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="W48" t="s">
-        <v>320</v>
+        <v>495</v>
       </c>
       <c r="X48" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4842,76 +5469,3059 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49">
+        <v>52300</v>
+      </c>
+      <c r="H49" t="s">
+        <v>278</v>
+      </c>
+      <c r="I49" t="s">
+        <v>219</v>
+      </c>
+      <c r="J49" t="s">
+        <v>247</v>
+      </c>
+      <c r="K49" t="s">
+        <v>353</v>
+      </c>
+      <c r="L49">
+        <v>52300</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>375</v>
+      </c>
+      <c r="O49" t="s">
+        <v>375</v>
+      </c>
+      <c r="P49" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>378</v>
+      </c>
+      <c r="R49" t="s">
+        <v>379</v>
+      </c>
+      <c r="S49" t="s">
+        <v>383</v>
+      </c>
+      <c r="T49" t="s">
+        <v>410</v>
+      </c>
+      <c r="U49" t="s">
+        <v>450</v>
+      </c>
+      <c r="V49" t="s">
+        <v>480</v>
+      </c>
+      <c r="W49" t="s">
+        <v>495</v>
+      </c>
+      <c r="X49" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50">
+        <v>127300</v>
+      </c>
+      <c r="H50" t="s">
+        <v>278</v>
+      </c>
+      <c r="I50" t="s">
+        <v>219</v>
+      </c>
+      <c r="J50" t="s">
+        <v>247</v>
+      </c>
+      <c r="K50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50">
+        <v>127300</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s">
+        <v>375</v>
+      </c>
+      <c r="P50" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>378</v>
+      </c>
+      <c r="R50" t="s">
+        <v>379</v>
+      </c>
+      <c r="S50" t="s">
+        <v>383</v>
+      </c>
+      <c r="T50" t="s">
+        <v>410</v>
+      </c>
+      <c r="U50" t="s">
+        <v>450</v>
+      </c>
+      <c r="V50" t="s">
+        <v>480</v>
+      </c>
+      <c r="W50" t="s">
+        <v>495</v>
+      </c>
+      <c r="X50" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>247</v>
+      </c>
+      <c r="G51">
+        <v>10000</v>
+      </c>
+      <c r="H51" t="s">
+        <v>278</v>
+      </c>
+      <c r="I51" t="s">
+        <v>219</v>
+      </c>
+      <c r="J51" t="s">
+        <v>247</v>
+      </c>
+      <c r="K51" t="s">
+        <v>353</v>
+      </c>
+      <c r="L51">
+        <v>10000</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" t="s">
+        <v>375</v>
+      </c>
+      <c r="P51" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>378</v>
+      </c>
+      <c r="R51" t="s">
+        <v>379</v>
+      </c>
+      <c r="S51" t="s">
+        <v>383</v>
+      </c>
+      <c r="T51" t="s">
+        <v>410</v>
+      </c>
+      <c r="U51" t="s">
+        <v>450</v>
+      </c>
+      <c r="V51" t="s">
+        <v>480</v>
+      </c>
+      <c r="W51" t="s">
+        <v>495</v>
+      </c>
+      <c r="X51" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" t="s">
+        <v>329</v>
+      </c>
+      <c r="J52" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52">
+        <v>1000</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>375</v>
+      </c>
+      <c r="O52" t="s">
+        <v>375</v>
+      </c>
+      <c r="P52" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>378</v>
+      </c>
+      <c r="R52" t="s">
+        <v>379</v>
+      </c>
+      <c r="S52" t="s">
+        <v>383</v>
+      </c>
+      <c r="T52" t="s">
+        <v>411</v>
+      </c>
+      <c r="U52" t="s">
+        <v>451</v>
+      </c>
+      <c r="V52" t="s">
+        <v>472</v>
+      </c>
+      <c r="W52" t="s">
+        <v>495</v>
+      </c>
+      <c r="X52" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53">
+        <v>50000</v>
+      </c>
+      <c r="H53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
+        <v>330</v>
+      </c>
+      <c r="K53" t="s">
+        <v>353</v>
+      </c>
+      <c r="L53">
+        <v>20000</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>374</v>
+      </c>
+      <c r="O53" t="s">
+        <v>374</v>
+      </c>
+      <c r="P53" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>378</v>
+      </c>
+      <c r="R53" t="s">
+        <v>379</v>
+      </c>
+      <c r="S53" t="s">
+        <v>383</v>
+      </c>
+      <c r="T53" t="s">
+        <v>411</v>
+      </c>
+      <c r="U53" t="s">
+        <v>451</v>
+      </c>
+      <c r="V53" t="s">
+        <v>472</v>
+      </c>
+      <c r="W53" t="s">
+        <v>495</v>
+      </c>
+      <c r="X53" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54">
+        <v>386</v>
+      </c>
+      <c r="H54" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" t="s">
+        <v>331</v>
+      </c>
+      <c r="K54" t="s">
+        <v>358</v>
+      </c>
+      <c r="L54">
+        <v>386</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>374</v>
+      </c>
+      <c r="O54" t="s">
+        <v>374</v>
+      </c>
+      <c r="P54" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>378</v>
+      </c>
+      <c r="R54" t="s">
+        <v>380</v>
+      </c>
+      <c r="S54" t="s">
+        <v>383</v>
+      </c>
+      <c r="T54" t="s">
+        <v>412</v>
+      </c>
+      <c r="U54" t="s">
+        <v>452</v>
+      </c>
+      <c r="V54" t="s">
+        <v>481</v>
+      </c>
+      <c r="W54" t="s">
+        <v>496</v>
+      </c>
+      <c r="X54" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55">
+        <v>120</v>
+      </c>
+      <c r="H55" t="s">
+        <v>280</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" t="s">
+        <v>358</v>
+      </c>
+      <c r="L55">
+        <v>120</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>375</v>
+      </c>
+      <c r="O55" t="s">
+        <v>375</v>
+      </c>
+      <c r="P55" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>378</v>
+      </c>
+      <c r="R55" t="s">
+        <v>380</v>
+      </c>
+      <c r="S55" t="s">
+        <v>383</v>
+      </c>
+      <c r="T55" t="s">
+        <v>412</v>
+      </c>
+      <c r="U55" t="s">
+        <v>452</v>
+      </c>
+      <c r="V55" t="s">
+        <v>481</v>
+      </c>
+      <c r="W55" t="s">
+        <v>496</v>
+      </c>
+      <c r="X55" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56">
+        <v>350</v>
+      </c>
+      <c r="H56" t="s">
+        <v>281</v>
+      </c>
+      <c r="I56" t="s">
+        <v>332</v>
+      </c>
+      <c r="K56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L56">
+        <v>350</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="O56" t="s">
+        <v>374</v>
+      </c>
+      <c r="P56" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>378</v>
+      </c>
+      <c r="R56" t="s">
+        <v>380</v>
+      </c>
+      <c r="S56" t="s">
+        <v>383</v>
+      </c>
+      <c r="T56" t="s">
+        <v>412</v>
+      </c>
+      <c r="U56" t="s">
+        <v>452</v>
+      </c>
+      <c r="V56" t="s">
+        <v>481</v>
+      </c>
+      <c r="W56" t="s">
+        <v>496</v>
+      </c>
+      <c r="X56" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+      <c r="H57" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" t="s">
+        <v>333</v>
+      </c>
+      <c r="K57" t="s">
+        <v>358</v>
+      </c>
+      <c r="L57">
+        <v>500</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>374</v>
+      </c>
+      <c r="O57" t="s">
+        <v>374</v>
+      </c>
+      <c r="P57" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>378</v>
+      </c>
+      <c r="R57" t="s">
+        <v>380</v>
+      </c>
+      <c r="S57" t="s">
+        <v>383</v>
+      </c>
+      <c r="T57" t="s">
+        <v>413</v>
+      </c>
+      <c r="U57" t="s">
+        <v>453</v>
+      </c>
+      <c r="V57" t="s">
+        <v>474</v>
+      </c>
+      <c r="W57" t="s">
+        <v>496</v>
+      </c>
+      <c r="X57" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58">
+        <v>1200</v>
+      </c>
+      <c r="H58" t="s">
+        <v>282</v>
+      </c>
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+      <c r="K58" t="s">
+        <v>358</v>
+      </c>
+      <c r="L58">
+        <v>1200</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>374</v>
+      </c>
+      <c r="O58" t="s">
+        <v>374</v>
+      </c>
+      <c r="P58" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>378</v>
+      </c>
+      <c r="R58" t="s">
+        <v>380</v>
+      </c>
+      <c r="S58" t="s">
+        <v>383</v>
+      </c>
+      <c r="T58" t="s">
+        <v>413</v>
+      </c>
+      <c r="U58" t="s">
+        <v>453</v>
+      </c>
+      <c r="V58" t="s">
+        <v>474</v>
+      </c>
+      <c r="W58" t="s">
+        <v>496</v>
+      </c>
+      <c r="X58" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59">
+        <v>3100</v>
+      </c>
+      <c r="H59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I59" t="s">
+        <v>335</v>
+      </c>
+      <c r="K59" t="s">
+        <v>353</v>
+      </c>
+      <c r="L59">
+        <v>3100</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>374</v>
+      </c>
+      <c r="O59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P59" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>378</v>
+      </c>
+      <c r="R59" t="s">
+        <v>380</v>
+      </c>
+      <c r="S59" t="s">
+        <v>384</v>
+      </c>
+      <c r="T59" t="s">
+        <v>414</v>
+      </c>
+      <c r="U59" t="s">
+        <v>454</v>
+      </c>
+      <c r="V59" t="s">
+        <v>480</v>
+      </c>
+      <c r="W59" t="s">
+        <v>497</v>
+      </c>
+      <c r="X59" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60">
+        <v>12000</v>
+      </c>
+      <c r="H60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" t="s">
+        <v>353</v>
+      </c>
+      <c r="L60">
+        <v>12000</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>374</v>
+      </c>
+      <c r="O60" t="s">
+        <v>374</v>
+      </c>
+      <c r="P60" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>378</v>
+      </c>
+      <c r="R60" t="s">
+        <v>380</v>
+      </c>
+      <c r="S60" t="s">
+        <v>384</v>
+      </c>
+      <c r="T60" t="s">
+        <v>414</v>
+      </c>
+      <c r="U60" t="s">
+        <v>454</v>
+      </c>
+      <c r="V60" t="s">
+        <v>480</v>
+      </c>
+      <c r="W60" t="s">
+        <v>497</v>
+      </c>
+      <c r="X60" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61">
+        <v>2500</v>
+      </c>
+      <c r="H61" t="s">
+        <v>283</v>
+      </c>
+      <c r="I61" t="s">
+        <v>336</v>
+      </c>
+      <c r="J61" t="s">
+        <v>350</v>
+      </c>
+      <c r="K61" t="s">
+        <v>353</v>
+      </c>
+      <c r="L61">
+        <v>2500</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>375</v>
+      </c>
+      <c r="O61" t="s">
+        <v>374</v>
+      </c>
+      <c r="P61" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>378</v>
+      </c>
+      <c r="R61" t="s">
+        <v>380</v>
+      </c>
+      <c r="S61" t="s">
+        <v>383</v>
+      </c>
+      <c r="T61" t="s">
+        <v>228</v>
+      </c>
+      <c r="U61" t="s">
+        <v>248</v>
+      </c>
+      <c r="V61" t="s">
+        <v>475</v>
+      </c>
+      <c r="W61" t="s">
+        <v>228</v>
+      </c>
+      <c r="X61" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
+        <v>284</v>
+      </c>
+      <c r="I62" t="s">
+        <v>337</v>
+      </c>
+      <c r="J62" t="s">
+        <v>351</v>
+      </c>
+      <c r="K62" t="s">
+        <v>368</v>
+      </c>
+      <c r="L62">
+        <v>40</v>
+      </c>
+      <c r="M62">
+        <v>40</v>
+      </c>
+      <c r="N62" t="s">
+        <v>375</v>
+      </c>
+      <c r="O62" t="s">
+        <v>374</v>
+      </c>
+      <c r="P62" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>378</v>
+      </c>
+      <c r="R62" t="s">
+        <v>380</v>
+      </c>
+      <c r="S62" t="s">
+        <v>383</v>
+      </c>
+      <c r="T62" t="s">
+        <v>415</v>
+      </c>
+      <c r="U62" t="s">
+        <v>249</v>
+      </c>
+      <c r="V62" t="s">
+        <v>475</v>
+      </c>
+      <c r="W62" t="s">
+        <v>498</v>
+      </c>
+      <c r="X62" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63" t="s">
+        <v>285</v>
+      </c>
+      <c r="I63" t="s">
+        <v>338</v>
+      </c>
+      <c r="J63" t="s">
+        <v>351</v>
+      </c>
+      <c r="K63" t="s">
+        <v>368</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="N63" t="s">
+        <v>375</v>
+      </c>
+      <c r="O63" t="s">
+        <v>374</v>
+      </c>
+      <c r="P63" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>378</v>
+      </c>
+      <c r="R63" t="s">
+        <v>380</v>
+      </c>
+      <c r="S63" t="s">
+        <v>383</v>
+      </c>
+      <c r="T63" t="s">
+        <v>415</v>
+      </c>
+      <c r="U63" t="s">
+        <v>249</v>
+      </c>
+      <c r="V63" t="s">
+        <v>475</v>
+      </c>
+      <c r="W63" t="s">
+        <v>498</v>
+      </c>
+      <c r="X63" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" t="s">
+        <v>338</v>
+      </c>
+      <c r="J64" t="s">
+        <v>351</v>
+      </c>
+      <c r="K64" t="s">
+        <v>368</v>
+      </c>
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>100</v>
+      </c>
+      <c r="N64" t="s">
+        <v>375</v>
+      </c>
+      <c r="O64" t="s">
+        <v>374</v>
+      </c>
+      <c r="P64" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>378</v>
+      </c>
+      <c r="R64" t="s">
+        <v>380</v>
+      </c>
+      <c r="S64" t="s">
+        <v>383</v>
+      </c>
+      <c r="T64" t="s">
+        <v>415</v>
+      </c>
+      <c r="U64" t="s">
+        <v>249</v>
+      </c>
+      <c r="V64" t="s">
+        <v>475</v>
+      </c>
+      <c r="W64" t="s">
+        <v>498</v>
+      </c>
+      <c r="X64" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65">
+        <v>500</v>
+      </c>
+      <c r="H65" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" t="s">
+        <v>339</v>
+      </c>
+      <c r="J65" t="s">
+        <v>250</v>
+      </c>
+      <c r="K65" t="s">
+        <v>353</v>
+      </c>
+      <c r="L65">
+        <v>500</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>375</v>
+      </c>
+      <c r="O65" t="s">
+        <v>375</v>
+      </c>
+      <c r="P65" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>378</v>
+      </c>
+      <c r="R65" t="s">
+        <v>382</v>
+      </c>
+      <c r="S65" t="s">
+        <v>383</v>
+      </c>
+      <c r="T65" t="s">
+        <v>416</v>
+      </c>
+      <c r="U65" t="s">
+        <v>455</v>
+      </c>
+      <c r="V65" t="s">
+        <v>472</v>
+      </c>
+      <c r="W65" t="s">
+        <v>499</v>
+      </c>
+      <c r="X65" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66">
+        <v>60000</v>
+      </c>
+      <c r="H66" t="s">
+        <v>287</v>
+      </c>
+      <c r="I66" t="s">
+        <v>340</v>
+      </c>
+      <c r="K66" t="s">
+        <v>353</v>
+      </c>
+      <c r="L66">
+        <v>60000</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>374</v>
+      </c>
+      <c r="O66" t="s">
+        <v>374</v>
+      </c>
+      <c r="P66" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>378</v>
+      </c>
+      <c r="R66" t="s">
+        <v>380</v>
+      </c>
+      <c r="S66" t="s">
+        <v>383</v>
+      </c>
+      <c r="T66" t="s">
+        <v>417</v>
+      </c>
+      <c r="U66" t="s">
+        <v>456</v>
+      </c>
+      <c r="V66" t="s">
+        <v>475</v>
+      </c>
+      <c r="W66" t="s">
+        <v>500</v>
+      </c>
+      <c r="X66" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67">
+        <v>369500</v>
+      </c>
+      <c r="H67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I67" t="s">
+        <v>341</v>
+      </c>
+      <c r="K67" t="s">
+        <v>358</v>
+      </c>
+      <c r="L67">
+        <v>369500</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>374</v>
+      </c>
+      <c r="O67" t="s">
+        <v>374</v>
+      </c>
+      <c r="P67" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>378</v>
+      </c>
+      <c r="R67" t="s">
+        <v>380</v>
+      </c>
+      <c r="S67" t="s">
+        <v>383</v>
+      </c>
+      <c r="T67" t="s">
+        <v>418</v>
+      </c>
+      <c r="U67" t="s">
+        <v>457</v>
+      </c>
+      <c r="V67" t="s">
+        <v>475</v>
+      </c>
+      <c r="W67" t="s">
+        <v>501</v>
+      </c>
+      <c r="X67" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68">
+        <v>387000</v>
+      </c>
+      <c r="H68" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K68" t="s">
+        <v>358</v>
+      </c>
+      <c r="L68">
+        <v>387000</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>374</v>
+      </c>
+      <c r="O68" t="s">
+        <v>374</v>
+      </c>
+      <c r="P68" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>378</v>
+      </c>
+      <c r="R68" t="s">
+        <v>380</v>
+      </c>
+      <c r="S68" t="s">
+        <v>383</v>
+      </c>
+      <c r="T68" t="s">
+        <v>418</v>
+      </c>
+      <c r="U68" t="s">
+        <v>457</v>
+      </c>
+      <c r="V68" t="s">
+        <v>475</v>
+      </c>
+      <c r="W68" t="s">
+        <v>501</v>
+      </c>
+      <c r="X68" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" t="s">
         <v>51</v>
       </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49">
-        <v>6500000</v>
-      </c>
-      <c r="H49" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" t="s">
-        <v>218</v>
-      </c>
-      <c r="J49" t="s">
-        <v>219</v>
-      </c>
-      <c r="K49" t="s">
-        <v>220</v>
-      </c>
-      <c r="L49">
-        <v>6500000</v>
-      </c>
-      <c r="M49">
-        <v>6500000</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69">
+        <v>16000</v>
+      </c>
+      <c r="H69" t="s">
+        <v>290</v>
+      </c>
+      <c r="I69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K69" t="s">
+        <v>358</v>
+      </c>
+      <c r="L69">
+        <v>16000</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>374</v>
+      </c>
+      <c r="O69" t="s">
+        <v>374</v>
+      </c>
+      <c r="P69" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>378</v>
+      </c>
+      <c r="R69" t="s">
+        <v>381</v>
+      </c>
+      <c r="S69" t="s">
+        <v>383</v>
+      </c>
+      <c r="T69" t="s">
+        <v>419</v>
+      </c>
+      <c r="U69" t="s">
+        <v>458</v>
+      </c>
+      <c r="V69" t="s">
+        <v>482</v>
+      </c>
+      <c r="W69" t="s">
+        <v>502</v>
+      </c>
+      <c r="X69" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70">
+        <v>5400</v>
+      </c>
+      <c r="H70" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" t="s">
+        <v>343</v>
+      </c>
+      <c r="J70" t="s">
+        <v>352</v>
+      </c>
+      <c r="K70" t="s">
+        <v>353</v>
+      </c>
+      <c r="L70">
+        <v>5400</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>375</v>
+      </c>
+      <c r="O70" t="s">
+        <v>375</v>
+      </c>
+      <c r="P70" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>378</v>
+      </c>
+      <c r="R70" t="s">
+        <v>380</v>
+      </c>
+      <c r="S70" t="s">
+        <v>383</v>
+      </c>
+      <c r="T70" t="s">
+        <v>420</v>
+      </c>
+      <c r="U70" t="s">
+        <v>459</v>
+      </c>
+      <c r="V70" t="s">
+        <v>472</v>
+      </c>
+      <c r="W70" t="s">
+        <v>503</v>
+      </c>
+      <c r="X70" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71">
+        <v>6200</v>
+      </c>
+      <c r="H71" t="s">
+        <v>291</v>
+      </c>
+      <c r="I71" t="s">
+        <v>344</v>
+      </c>
+      <c r="K71" t="s">
+        <v>358</v>
+      </c>
+      <c r="L71">
+        <v>6100</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>374</v>
+      </c>
+      <c r="O71" t="s">
+        <v>374</v>
+      </c>
+      <c r="P71" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>378</v>
+      </c>
+      <c r="R71" t="s">
+        <v>380</v>
+      </c>
+      <c r="S71" t="s">
+        <v>383</v>
+      </c>
+      <c r="T71" t="s">
+        <v>421</v>
+      </c>
+      <c r="U71" t="s">
+        <v>460</v>
+      </c>
+      <c r="V71" t="s">
+        <v>483</v>
+      </c>
+      <c r="W71" t="s">
+        <v>504</v>
+      </c>
+      <c r="X71" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72">
+        <v>2800</v>
+      </c>
+      <c r="H72" t="s">
+        <v>292</v>
+      </c>
+      <c r="I72" t="s">
+        <v>322</v>
+      </c>
+      <c r="K72" t="s">
+        <v>369</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>2800</v>
+      </c>
+      <c r="N72" t="s">
+        <v>374</v>
+      </c>
+      <c r="O72" t="s">
+        <v>375</v>
+      </c>
+      <c r="P72" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>378</v>
+      </c>
+      <c r="R72" t="s">
+        <v>379</v>
+      </c>
+      <c r="S72" t="s">
+        <v>386</v>
+      </c>
+      <c r="T72" t="s">
+        <v>404</v>
+      </c>
+      <c r="U72" t="s">
+        <v>445</v>
+      </c>
+      <c r="V72" t="s">
+        <v>475</v>
+      </c>
+      <c r="W72" t="s">
+        <v>487</v>
+      </c>
+      <c r="X72" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" t="s">
         <v>237</v>
       </c>
-      <c r="O49" t="s">
-        <v>236</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s">
+        <v>293</v>
+      </c>
+      <c r="I73" t="s">
+        <v>322</v>
+      </c>
+      <c r="K73" t="s">
+        <v>370</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>374</v>
+      </c>
+      <c r="O73" t="s">
+        <v>375</v>
+      </c>
+      <c r="P73" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>378</v>
+      </c>
+      <c r="R73" t="s">
+        <v>379</v>
+      </c>
+      <c r="S73" t="s">
+        <v>386</v>
+      </c>
+      <c r="T73" t="s">
+        <v>404</v>
+      </c>
+      <c r="U73" t="s">
+        <v>445</v>
+      </c>
+      <c r="V73" t="s">
+        <v>475</v>
+      </c>
+      <c r="W73" t="s">
+        <v>487</v>
+      </c>
+      <c r="X73" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
         <v>238</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74" t="s">
+        <v>168</v>
+      </c>
+      <c r="I74" t="s">
+        <v>345</v>
+      </c>
+      <c r="K74" t="s">
+        <v>371</v>
+      </c>
+      <c r="L74">
+        <v>8</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>374</v>
+      </c>
+      <c r="O74" t="s">
+        <v>374</v>
+      </c>
+      <c r="P74" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>378</v>
+      </c>
+      <c r="R74" t="s">
+        <v>379</v>
+      </c>
+      <c r="S74" t="s">
+        <v>386</v>
+      </c>
+      <c r="T74" t="s">
+        <v>422</v>
+      </c>
+      <c r="U74" t="s">
+        <v>461</v>
+      </c>
+      <c r="V74" t="s">
+        <v>484</v>
+      </c>
+      <c r="W74" t="s">
+        <v>492</v>
+      </c>
+      <c r="X74" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>238</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>294</v>
+      </c>
+      <c r="I75" t="s">
+        <v>345</v>
+      </c>
+      <c r="K75" t="s">
+        <v>371</v>
+      </c>
+      <c r="L75">
+        <v>8</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>374</v>
+      </c>
+      <c r="O75" t="s">
+        <v>374</v>
+      </c>
+      <c r="P75" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>378</v>
+      </c>
+      <c r="R75" t="s">
+        <v>379</v>
+      </c>
+      <c r="S75" t="s">
+        <v>386</v>
+      </c>
+      <c r="T75" t="s">
+        <v>422</v>
+      </c>
+      <c r="U75" t="s">
+        <v>461</v>
+      </c>
+      <c r="V75" t="s">
+        <v>484</v>
+      </c>
+      <c r="W75" t="s">
+        <v>492</v>
+      </c>
+      <c r="X75" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" t="s">
+        <v>239</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76" t="s">
+        <v>295</v>
+      </c>
+      <c r="I76" t="s">
+        <v>322</v>
+      </c>
+      <c r="K76" t="s">
+        <v>372</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>100</v>
+      </c>
+      <c r="N76" t="s">
+        <v>374</v>
+      </c>
+      <c r="O76" t="s">
+        <v>375</v>
+      </c>
+      <c r="P76" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>378</v>
+      </c>
+      <c r="R76" t="s">
+        <v>381</v>
+      </c>
+      <c r="S76" t="s">
+        <v>386</v>
+      </c>
+      <c r="T76" t="s">
+        <v>404</v>
+      </c>
+      <c r="U76" t="s">
+        <v>445</v>
+      </c>
+      <c r="V76" t="s">
+        <v>475</v>
+      </c>
+      <c r="W76" t="s">
+        <v>487</v>
+      </c>
+      <c r="X76" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
         <v>240</v>
       </c>
-      <c r="R49" t="s">
+      <c r="G77">
+        <v>4500</v>
+      </c>
+      <c r="H77" t="s">
+        <v>296</v>
+      </c>
+      <c r="I77" t="s">
+        <v>346</v>
+      </c>
+      <c r="K77" t="s">
+        <v>358</v>
+      </c>
+      <c r="L77">
+        <v>4500</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>374</v>
+      </c>
+      <c r="O77" t="s">
+        <v>374</v>
+      </c>
+      <c r="P77" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>378</v>
+      </c>
+      <c r="R77" t="s">
+        <v>382</v>
+      </c>
+      <c r="S77" t="s">
+        <v>386</v>
+      </c>
+      <c r="T77" t="s">
+        <v>423</v>
+      </c>
+      <c r="U77" t="s">
+        <v>462</v>
+      </c>
+      <c r="V77" t="s">
+        <v>485</v>
+      </c>
+      <c r="W77" t="s">
+        <v>488</v>
+      </c>
+      <c r="X77" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78">
+        <v>2000</v>
+      </c>
+      <c r="H78" t="s">
+        <v>296</v>
+      </c>
+      <c r="I78" t="s">
+        <v>346</v>
+      </c>
+      <c r="K78" t="s">
+        <v>358</v>
+      </c>
+      <c r="L78">
+        <v>2000</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>374</v>
+      </c>
+      <c r="O78" t="s">
+        <v>374</v>
+      </c>
+      <c r="P78" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>378</v>
+      </c>
+      <c r="R78" t="s">
+        <v>382</v>
+      </c>
+      <c r="S78" t="s">
+        <v>386</v>
+      </c>
+      <c r="T78" t="s">
+        <v>423</v>
+      </c>
+      <c r="U78" t="s">
+        <v>462</v>
+      </c>
+      <c r="V78" t="s">
+        <v>485</v>
+      </c>
+      <c r="W78" t="s">
+        <v>488</v>
+      </c>
+      <c r="X78" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I79" t="s">
+        <v>346</v>
+      </c>
+      <c r="K79" t="s">
+        <v>358</v>
+      </c>
+      <c r="L79">
+        <v>1000</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>374</v>
+      </c>
+      <c r="O79" t="s">
+        <v>374</v>
+      </c>
+      <c r="P79" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>378</v>
+      </c>
+      <c r="R79" t="s">
+        <v>382</v>
+      </c>
+      <c r="S79" t="s">
+        <v>386</v>
+      </c>
+      <c r="T79" t="s">
+        <v>423</v>
+      </c>
+      <c r="U79" t="s">
+        <v>462</v>
+      </c>
+      <c r="V79" t="s">
+        <v>485</v>
+      </c>
+      <c r="W79" t="s">
+        <v>488</v>
+      </c>
+      <c r="X79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80">
+        <v>4000</v>
+      </c>
+      <c r="H80" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" t="s">
+        <v>346</v>
+      </c>
+      <c r="K80" t="s">
+        <v>358</v>
+      </c>
+      <c r="L80">
+        <v>4000</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>374</v>
+      </c>
+      <c r="O80" t="s">
+        <v>374</v>
+      </c>
+      <c r="P80" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>378</v>
+      </c>
+      <c r="R80" t="s">
+        <v>382</v>
+      </c>
+      <c r="S80" t="s">
+        <v>386</v>
+      </c>
+      <c r="T80" t="s">
+        <v>423</v>
+      </c>
+      <c r="U80" t="s">
+        <v>462</v>
+      </c>
+      <c r="V80" t="s">
+        <v>485</v>
+      </c>
+      <c r="W80" t="s">
+        <v>488</v>
+      </c>
+      <c r="X80" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81">
+        <v>3300</v>
+      </c>
+      <c r="H81" t="s">
+        <v>296</v>
+      </c>
+      <c r="I81" t="s">
+        <v>346</v>
+      </c>
+      <c r="K81" t="s">
+        <v>358</v>
+      </c>
+      <c r="L81">
+        <v>3300</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>374</v>
+      </c>
+      <c r="O81" t="s">
+        <v>374</v>
+      </c>
+      <c r="P81" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>378</v>
+      </c>
+      <c r="R81" t="s">
+        <v>382</v>
+      </c>
+      <c r="S81" t="s">
+        <v>386</v>
+      </c>
+      <c r="T81" t="s">
+        <v>423</v>
+      </c>
+      <c r="U81" t="s">
+        <v>462</v>
+      </c>
+      <c r="V81" t="s">
+        <v>485</v>
+      </c>
+      <c r="W81" t="s">
+        <v>488</v>
+      </c>
+      <c r="X81" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82">
+        <v>2900</v>
+      </c>
+      <c r="H82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" t="s">
+        <v>346</v>
+      </c>
+      <c r="K82" t="s">
+        <v>358</v>
+      </c>
+      <c r="L82">
+        <v>2900</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>374</v>
+      </c>
+      <c r="O82" t="s">
+        <v>374</v>
+      </c>
+      <c r="P82" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>378</v>
+      </c>
+      <c r="R82" t="s">
+        <v>382</v>
+      </c>
+      <c r="S82" t="s">
+        <v>386</v>
+      </c>
+      <c r="T82" t="s">
+        <v>423</v>
+      </c>
+      <c r="U82" t="s">
+        <v>462</v>
+      </c>
+      <c r="V82" t="s">
+        <v>485</v>
+      </c>
+      <c r="W82" t="s">
+        <v>488</v>
+      </c>
+      <c r="X82" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83">
+        <v>2500</v>
+      </c>
+      <c r="H83" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" t="s">
+        <v>346</v>
+      </c>
+      <c r="K83" t="s">
+        <v>358</v>
+      </c>
+      <c r="L83">
+        <v>2500</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>374</v>
+      </c>
+      <c r="O83" t="s">
+        <v>374</v>
+      </c>
+      <c r="P83" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>378</v>
+      </c>
+      <c r="R83" t="s">
+        <v>382</v>
+      </c>
+      <c r="S83" t="s">
+        <v>386</v>
+      </c>
+      <c r="T83" t="s">
+        <v>423</v>
+      </c>
+      <c r="U83" t="s">
+        <v>462</v>
+      </c>
+      <c r="V83" t="s">
+        <v>485</v>
+      </c>
+      <c r="W83" t="s">
+        <v>488</v>
+      </c>
+      <c r="X83" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84">
+        <v>2500</v>
+      </c>
+      <c r="H84" t="s">
+        <v>296</v>
+      </c>
+      <c r="I84" t="s">
+        <v>346</v>
+      </c>
+      <c r="K84" t="s">
+        <v>358</v>
+      </c>
+      <c r="L84">
+        <v>2500</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>374</v>
+      </c>
+      <c r="O84" t="s">
+        <v>374</v>
+      </c>
+      <c r="P84" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>378</v>
+      </c>
+      <c r="R84" t="s">
+        <v>382</v>
+      </c>
+      <c r="S84" t="s">
+        <v>386</v>
+      </c>
+      <c r="T84" t="s">
+        <v>423</v>
+      </c>
+      <c r="U84" t="s">
+        <v>462</v>
+      </c>
+      <c r="V84" t="s">
+        <v>485</v>
+      </c>
+      <c r="W84" t="s">
+        <v>488</v>
+      </c>
+      <c r="X84" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>241</v>
+      </c>
+      <c r="F85" t="s">
+        <v>251</v>
+      </c>
+      <c r="G85">
+        <v>4537</v>
+      </c>
+      <c r="H85" t="s">
+        <v>297</v>
+      </c>
+      <c r="I85" t="s">
+        <v>347</v>
+      </c>
+      <c r="J85" t="s">
+        <v>251</v>
+      </c>
+      <c r="K85" t="s">
+        <v>358</v>
+      </c>
+      <c r="L85">
+        <v>4537</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>375</v>
+      </c>
+      <c r="O85" t="s">
+        <v>375</v>
+      </c>
+      <c r="P85" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>378</v>
+      </c>
+      <c r="R85" t="s">
+        <v>382</v>
+      </c>
+      <c r="S85" t="s">
+        <v>386</v>
+      </c>
+      <c r="T85" t="s">
+        <v>424</v>
+      </c>
+      <c r="U85" t="s">
+        <v>463</v>
+      </c>
+      <c r="V85" t="s">
+        <v>473</v>
+      </c>
+      <c r="W85" t="s">
+        <v>488</v>
+      </c>
+      <c r="X85" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86">
+        <v>4700</v>
+      </c>
+      <c r="H86" t="s">
+        <v>297</v>
+      </c>
+      <c r="I86" t="s">
+        <v>347</v>
+      </c>
+      <c r="J86" t="s">
+        <v>251</v>
+      </c>
+      <c r="K86" t="s">
+        <v>358</v>
+      </c>
+      <c r="L86">
+        <v>4700</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>375</v>
+      </c>
+      <c r="O86" t="s">
+        <v>375</v>
+      </c>
+      <c r="P86" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>378</v>
+      </c>
+      <c r="R86" t="s">
+        <v>382</v>
+      </c>
+      <c r="S86" t="s">
+        <v>386</v>
+      </c>
+      <c r="T86" t="s">
+        <v>424</v>
+      </c>
+      <c r="U86" t="s">
+        <v>463</v>
+      </c>
+      <c r="V86" t="s">
+        <v>473</v>
+      </c>
+      <c r="W86" t="s">
+        <v>488</v>
+      </c>
+      <c r="X86" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>179</v>
+      </c>
+      <c r="E87" t="s">
         <v>242</v>
       </c>
-      <c r="S49" t="s">
-        <v>247</v>
-      </c>
-      <c r="T49" t="s">
-        <v>273</v>
-      </c>
-      <c r="U49" t="s">
-        <v>160</v>
-      </c>
-      <c r="V49" t="s">
-        <v>308</v>
-      </c>
-      <c r="W49" t="s">
-        <v>321</v>
-      </c>
-      <c r="X49" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>342</v>
+      <c r="G87">
+        <v>60376.24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" t="s">
+        <v>242</v>
+      </c>
+      <c r="K87" t="s">
+        <v>373</v>
+      </c>
+      <c r="L87">
+        <v>60376.24</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>374</v>
+      </c>
+      <c r="O87" t="s">
+        <v>374</v>
+      </c>
+      <c r="P87" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>378</v>
+      </c>
+      <c r="R87" t="s">
+        <v>380</v>
+      </c>
+      <c r="S87" t="s">
+        <v>384</v>
+      </c>
+      <c r="T87" t="s">
+        <v>425</v>
+      </c>
+      <c r="U87" t="s">
+        <v>464</v>
+      </c>
+      <c r="V87" t="s">
+        <v>483</v>
+      </c>
+      <c r="W87" t="s">
+        <v>487</v>
+      </c>
+      <c r="X87" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88">
+        <v>17524.75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" t="s">
+        <v>242</v>
+      </c>
+      <c r="K88" t="s">
+        <v>373</v>
+      </c>
+      <c r="L88">
+        <v>17524.75</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>374</v>
+      </c>
+      <c r="O88" t="s">
+        <v>374</v>
+      </c>
+      <c r="P88" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>378</v>
+      </c>
+      <c r="R88" t="s">
+        <v>380</v>
+      </c>
+      <c r="S88" t="s">
+        <v>384</v>
+      </c>
+      <c r="T88" t="s">
+        <v>425</v>
+      </c>
+      <c r="U88" t="s">
+        <v>464</v>
+      </c>
+      <c r="V88" t="s">
+        <v>483</v>
+      </c>
+      <c r="W88" t="s">
+        <v>487</v>
+      </c>
+      <c r="X88" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89">
+        <v>200</v>
+      </c>
+      <c r="H89" t="s">
+        <v>298</v>
+      </c>
+      <c r="I89" t="s">
+        <v>243</v>
+      </c>
+      <c r="K89" t="s">
+        <v>356</v>
+      </c>
+      <c r="L89">
+        <v>200</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>374</v>
+      </c>
+      <c r="O89" t="s">
+        <v>374</v>
+      </c>
+      <c r="P89" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>378</v>
+      </c>
+      <c r="R89" t="s">
+        <v>380</v>
+      </c>
+      <c r="S89" t="s">
+        <v>384</v>
+      </c>
+      <c r="T89" t="s">
+        <v>426</v>
+      </c>
+      <c r="U89" t="s">
+        <v>465</v>
+      </c>
+      <c r="V89" t="s">
+        <v>476</v>
+      </c>
+      <c r="W89" t="s">
+        <v>487</v>
+      </c>
+      <c r="X89" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90">
+        <v>5020</v>
+      </c>
+      <c r="H90" t="s">
+        <v>299</v>
+      </c>
+      <c r="I90" t="s">
+        <v>348</v>
+      </c>
+      <c r="K90" t="s">
+        <v>353</v>
+      </c>
+      <c r="L90">
+        <v>5020</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>374</v>
+      </c>
+      <c r="O90" t="s">
+        <v>374</v>
+      </c>
+      <c r="P90" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>378</v>
+      </c>
+      <c r="R90" t="s">
+        <v>382</v>
+      </c>
+      <c r="S90" t="s">
+        <v>383</v>
+      </c>
+      <c r="T90" t="s">
+        <v>427</v>
+      </c>
+      <c r="U90" t="s">
+        <v>466</v>
+      </c>
+      <c r="V90" t="s">
+        <v>477</v>
+      </c>
+      <c r="W90" t="s">
+        <v>489</v>
+      </c>
+      <c r="X90" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -106,6 +106,9 @@
     <t>АТ "Міжнародний інвестиційний банк"</t>
   </si>
   <si>
+    <t>АТ "МІБ"</t>
+  </si>
+  <si>
     <t>ПУБЛІНЕ АКЦІОНЕРНЕ ТОВАРИСТВО АКЦІОНЕРНИЙ БАНК "УКРГАЗБАНК"</t>
   </si>
   <si>
@@ -182,9 +185,6 @@
     <t>Публічне акціонерне товариство акціонерний банк "Укргазбанк"</t>
   </si>
   <si>
-    <t>АТ "МІБ"</t>
-  </si>
-  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -245,6 +245,9 @@
     <t>UA243805820000026004010318212</t>
   </si>
   <si>
+    <t>UA883805820000026003010318161</t>
+  </si>
+  <si>
     <t>UA563204780000026003924893295</t>
   </si>
   <si>
@@ -347,9 +350,6 @@
     <t>UA583223130000026005000044790</t>
   </si>
   <si>
-    <t>UA883805820000026003010318161</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -374,6 +374,9 @@
     <t>29.06.2021</t>
   </si>
   <si>
+    <t>21.09.2021</t>
+  </si>
+  <si>
     <t>04.06.2021</t>
   </si>
   <si>
@@ -563,9 +566,6 @@
     <t>02.02.2022</t>
   </si>
   <si>
-    <t>21.09.2021</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -590,6 +590,9 @@
     <t>МУЗИКА ПЕТРО-ВАСИЛЬ МИХАЙЛОВИЧ</t>
   </si>
   <si>
+    <t>ІВКО АНТОН ВАЛЕРІЙОВИЧ</t>
+  </si>
+  <si>
     <t>НАБОК ОЛЕКСІЙ АНАТОЛІЙОВИЧ</t>
   </si>
   <si>
@@ -749,9 +752,6 @@
     <t>АРКУШЕНКО КАТЕРИНА АНАТОЛІЇВНА</t>
   </si>
   <si>
-    <t>ІВКО АНТОН ВАЛЕРІЙОВИЧ</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -788,6 +788,9 @@
     <t>27.01.2021</t>
   </si>
   <si>
+    <t>22.09.2021</t>
+  </si>
+  <si>
     <t>09.07.2021</t>
   </si>
   <si>
@@ -914,9 +917,6 @@
     <t>04.02.2022</t>
   </si>
   <si>
-    <t>22.09.2021</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -929,6 +929,9 @@
     <t>ПП"Європейська Солідарність"</t>
   </si>
   <si>
+    <t>Івко Антон Валерійович</t>
+  </si>
+  <si>
     <t>Набок Олексій Анатолійович</t>
   </si>
   <si>
@@ -1059,9 +1062,6 @@
   </si>
   <si>
     <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
-  </si>
-  <si>
-    <t>Івко Антон Валерійович</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1206,6 +1206,9 @@
     <t>ЛЬВІВСЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ " ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
   </si>
   <si>
+    <t>ВІННИЦЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
+  </si>
+  <si>
     <t>ПОЛІТИЧНА ПАРТІЯ "БЛОК КЕРНЕСА – УСПІШНИЙ ХАРКІВ!"</t>
   </si>
   <si>
@@ -1302,9 +1305,6 @@
     <t>ОДЕСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
-    <t>ВІННИЦЬКА ТЕРИТОРІАЛЬНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЄВРОПЕЙСЬКА СОЛІДАРНІСТЬ"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1329,6 +1329,9 @@
     <t>39702118</t>
   </si>
   <si>
+    <t>39508645</t>
+  </si>
+  <si>
     <t>40419357</t>
   </si>
   <si>
@@ -1419,9 +1422,6 @@
     <t>43676765</t>
   </si>
   <si>
-    <t>39508645</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1446,15 +1446,15 @@
     <t>Львівська обл.</t>
   </si>
   <si>
+    <t>Вінницька обл.</t>
+  </si>
+  <si>
     <t>Україна</t>
   </si>
   <si>
     <t>Одеська обл.</t>
   </si>
   <si>
-    <t>Вінницька обл.</t>
-  </si>
-  <si>
     <t>Київська обл.</t>
   </si>
   <si>
@@ -1581,6 +1581,9 @@
     <t>7d40dcd0-e78a-11ee-af95-b364b0fb06da</t>
   </si>
   <si>
+    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
+  </si>
+  <si>
     <t>7d7b17e0-e854-11ee-90b7-9b9aa9321258</t>
   </si>
   <si>
@@ -1660,9 +1663,6 @@
   </si>
   <si>
     <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
-  </si>
-  <si>
-    <t>e9491cd0-e78a-11ee-b85a-75bf4892cf79</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2194,7 @@
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>301</v>
@@ -2239,7 +2239,7 @@
         <v>487</v>
       </c>
       <c r="X3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y3" t="s">
         <v>516</v>
@@ -2310,7 +2310,7 @@
         <v>487</v>
       </c>
       <c r="X4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y4" t="s">
         <v>516</v>
@@ -2381,7 +2381,7 @@
         <v>487</v>
       </c>
       <c r="X5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y5" t="s">
         <v>516</v>
@@ -2452,7 +2452,7 @@
         <v>487</v>
       </c>
       <c r="X6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y6" t="s">
         <v>516</v>
@@ -2523,7 +2523,7 @@
         <v>487</v>
       </c>
       <c r="X7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y7" t="s">
         <v>516</v>
@@ -2697,7 +2697,7 @@
         <v>1600</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
         <v>190</v>
@@ -2753,7 +2753,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -2765,22 +2765,22 @@
         <v>191</v>
       </c>
       <c r="G11">
-        <v>150000</v>
+        <v>5020</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
         <v>304</v>
       </c>
       <c r="K11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L11">
-        <v>150000</v>
+        <v>5020</v>
       </c>
       <c r="M11">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
         <v>374</v>
@@ -2789,13 +2789,13 @@
         <v>374</v>
       </c>
       <c r="P11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q11" t="s">
         <v>378</v>
       </c>
       <c r="R11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S11" t="s">
         <v>383</v>
@@ -2810,10 +2810,10 @@
         <v>475</v>
       </c>
       <c r="W11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X11" t="s">
-        <v>436</v>
+        <v>245</v>
       </c>
       <c r="Y11" t="s">
         <v>520</v>
@@ -2821,25 +2821,25 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
         <v>192</v>
       </c>
       <c r="G12">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
         <v>305</v>
@@ -2848,10 +2848,10 @@
         <v>358</v>
       </c>
       <c r="L12">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="M12">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="N12" t="s">
         <v>374</v>
@@ -2872,45 +2872,45 @@
         <v>383</v>
       </c>
       <c r="T12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W12" t="s">
         <v>490</v>
       </c>
       <c r="X12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>193</v>
       </c>
       <c r="G13">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
         <v>306</v>
@@ -2919,10 +2919,10 @@
         <v>358</v>
       </c>
       <c r="L13">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M13">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="N13" t="s">
         <v>374</v>
@@ -2943,33 +2943,33 @@
         <v>383</v>
       </c>
       <c r="T13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W13" t="s">
         <v>490</v>
       </c>
       <c r="X13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -2978,10 +2978,10 @@
         <v>194</v>
       </c>
       <c r="G14">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
         <v>307</v>
@@ -2990,10 +2990,10 @@
         <v>358</v>
       </c>
       <c r="L14">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="M14">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="N14" t="s">
         <v>374</v>
@@ -3014,33 +3014,33 @@
         <v>383</v>
       </c>
       <c r="T14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W14" t="s">
         <v>490</v>
       </c>
       <c r="X14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>121</v>
@@ -3049,7 +3049,7 @@
         <v>195</v>
       </c>
       <c r="G15">
-        <v>950000</v>
+        <v>160000</v>
       </c>
       <c r="H15" t="s">
         <v>258</v>
@@ -3061,10 +3061,10 @@
         <v>358</v>
       </c>
       <c r="L15">
-        <v>950000</v>
+        <v>160000</v>
       </c>
       <c r="M15">
-        <v>950000</v>
+        <v>160000</v>
       </c>
       <c r="N15" t="s">
         <v>374</v>
@@ -3085,39 +3085,39 @@
         <v>383</v>
       </c>
       <c r="T15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W15" t="s">
         <v>490</v>
       </c>
       <c r="X15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y15" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16">
         <v>950000</v>
@@ -3126,7 +3126,7 @@
         <v>259</v>
       </c>
       <c r="I16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K16" t="s">
         <v>358</v>
@@ -3156,33 +3156,33 @@
         <v>383</v>
       </c>
       <c r="T16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W16" t="s">
         <v>490</v>
       </c>
       <c r="X16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
@@ -3191,7 +3191,7 @@
         <v>196</v>
       </c>
       <c r="G17">
-        <v>97396.8</v>
+        <v>950000</v>
       </c>
       <c r="H17" t="s">
         <v>260</v>
@@ -3200,13 +3200,13 @@
         <v>309</v>
       </c>
       <c r="K17" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L17">
-        <v>97396.8</v>
+        <v>950000</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>950000</v>
       </c>
       <c r="N17" t="s">
         <v>374</v>
@@ -3215,31 +3215,31 @@
         <v>374</v>
       </c>
       <c r="P17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q17" t="s">
         <v>378</v>
       </c>
       <c r="R17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U17" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="V17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="X17" t="s">
-        <v>245</v>
+        <v>437</v>
       </c>
       <c r="Y17" t="s">
         <v>521</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
@@ -3261,35 +3261,29 @@
       <c r="E18" t="s">
         <v>197</v>
       </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
       <c r="G18">
-        <v>100</v>
+        <v>97396.8</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="K18" t="s">
         <v>353</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>97396.8</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P18" t="s">
         <v>376</v>
@@ -3298,25 +3292,25 @@
         <v>378</v>
       </c>
       <c r="R18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="V18" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="W18" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="X18" t="s">
-        <v>505</v>
+        <v>245</v>
       </c>
       <c r="Y18" t="s">
         <v>522</v>
@@ -3327,7 +3321,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>78</v>
@@ -3338,41 +3332,47 @@
       <c r="E19" t="s">
         <v>198</v>
       </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
       <c r="G19">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>310</v>
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>353</v>
       </c>
       <c r="L19">
-        <v>5600</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q19" t="s">
         <v>378</v>
       </c>
       <c r="R19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T19" t="s">
         <v>397</v>
@@ -3381,13 +3381,13 @@
         <v>438</v>
       </c>
       <c r="V19" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="W19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="X19" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="Y19" t="s">
         <v>523</v>
@@ -3395,37 +3395,37 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K20" t="s">
         <v>353</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="N20" t="s">
         <v>374</v>
@@ -3446,33 +3446,33 @@
         <v>385</v>
       </c>
       <c r="T20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="U20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W20" t="s">
         <v>491</v>
       </c>
       <c r="X20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y20" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>127</v>
@@ -3481,7 +3481,7 @@
         <v>199</v>
       </c>
       <c r="G21">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
         <v>262</v>
@@ -3490,13 +3490,13 @@
         <v>311</v>
       </c>
       <c r="K21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L21">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
         <v>374</v>
@@ -3505,31 +3505,31 @@
         <v>374</v>
       </c>
       <c r="P21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q21" t="s">
         <v>378</v>
       </c>
       <c r="R21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T21" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="U21" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="V21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="X21" t="s">
-        <v>245</v>
+        <v>439</v>
       </c>
       <c r="Y21" t="s">
         <v>524</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -3552,7 +3552,7 @@
         <v>200</v>
       </c>
       <c r="G22">
-        <v>400</v>
+        <v>10500</v>
       </c>
       <c r="H22" t="s">
         <v>263</v>
@@ -3561,14 +3561,14 @@
         <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L22">
+        <v>10500</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>400</v>
-      </c>
       <c r="N22" t="s">
         <v>374</v>
       </c>
@@ -3576,31 +3576,31 @@
         <v>374</v>
       </c>
       <c r="P22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q22" t="s">
         <v>378</v>
       </c>
       <c r="R22" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="U22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="V22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="X22" t="s">
-        <v>439</v>
+        <v>245</v>
       </c>
       <c r="Y22" t="s">
         <v>525</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -3623,7 +3623,7 @@
         <v>201</v>
       </c>
       <c r="G23">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="H23" t="s">
         <v>264</v>
@@ -3632,13 +3632,13 @@
         <v>313</v>
       </c>
       <c r="K23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="N23" t="s">
         <v>374</v>
@@ -3659,22 +3659,22 @@
         <v>383</v>
       </c>
       <c r="T23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V23" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W23" t="s">
         <v>492</v>
       </c>
       <c r="X23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y23" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -3688,13 +3688,13 @@
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>202</v>
       </c>
       <c r="G24">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="H24" t="s">
         <v>265</v>
@@ -3703,13 +3703,13 @@
         <v>314</v>
       </c>
       <c r="K24" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N24" t="s">
         <v>374</v>
@@ -3718,7 +3718,7 @@
         <v>374</v>
       </c>
       <c r="P24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q24" t="s">
         <v>378</v>
@@ -3736,36 +3736,36 @@
         <v>440</v>
       </c>
       <c r="V24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W24" t="s">
         <v>492</v>
       </c>
       <c r="X24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
         <v>203</v>
       </c>
       <c r="G25">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
         <v>266</v>
@@ -3777,7 +3777,7 @@
         <v>353</v>
       </c>
       <c r="L25">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>383</v>
       </c>
       <c r="T25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V25" t="s">
         <v>474</v>
@@ -3813,21 +3813,21 @@
         <v>492</v>
       </c>
       <c r="X25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>131</v>
@@ -3836,7 +3836,7 @@
         <v>204</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
         <v>267</v>
@@ -3845,10 +3845,10 @@
         <v>316</v>
       </c>
       <c r="K26" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>383</v>
       </c>
       <c r="T26" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V26" t="s">
         <v>474</v>
@@ -3884,10 +3884,10 @@
         <v>492</v>
       </c>
       <c r="X26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3907,19 +3907,19 @@
         <v>205</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="I27" t="s">
         <v>317</v>
       </c>
       <c r="K27" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L27">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>378</v>
       </c>
       <c r="R27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S27" t="s">
         <v>383</v>
@@ -3949,13 +3949,13 @@
         <v>441</v>
       </c>
       <c r="V27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W27" t="s">
         <v>492</v>
       </c>
       <c r="X27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y27" t="s">
         <v>526</v>
@@ -3978,19 +3978,19 @@
         <v>206</v>
       </c>
       <c r="G28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="I28" t="s">
         <v>318</v>
       </c>
       <c r="K28" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4026,42 +4026,42 @@
         <v>492</v>
       </c>
       <c r="X28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K29" t="s">
         <v>353</v>
       </c>
       <c r="L29">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4085,54 +4085,54 @@
         <v>383</v>
       </c>
       <c r="T29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W29" t="s">
         <v>492</v>
       </c>
       <c r="X29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K30" t="s">
         <v>353</v>
       </c>
       <c r="L30">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4156,48 +4156,48 @@
         <v>383</v>
       </c>
       <c r="T30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W30" t="s">
         <v>492</v>
       </c>
       <c r="X30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y30" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G31">
         <v>300</v>
       </c>
       <c r="H31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
         <v>353</v>
@@ -4227,54 +4227,54 @@
         <v>383</v>
       </c>
       <c r="T31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W31" t="s">
         <v>492</v>
       </c>
       <c r="X31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G32">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
         <v>353</v>
       </c>
       <c r="L32">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4298,27 +4298,27 @@
         <v>383</v>
       </c>
       <c r="T32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W32" t="s">
         <v>492</v>
       </c>
       <c r="X32" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y32" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
@@ -4333,7 +4333,7 @@
         <v>207</v>
       </c>
       <c r="G33">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H33" t="s">
         <v>269</v>
@@ -4342,10 +4342,10 @@
         <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L33">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4375,21 +4375,21 @@
         <v>443</v>
       </c>
       <c r="V33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="W33" t="s">
         <v>492</v>
       </c>
       <c r="X33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -4404,7 +4404,7 @@
         <v>208</v>
       </c>
       <c r="G34">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H34" t="s">
         <v>270</v>
@@ -4413,10 +4413,10 @@
         <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L34">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4446,48 +4446,48 @@
         <v>444</v>
       </c>
       <c r="V34" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="W34" t="s">
         <v>492</v>
       </c>
       <c r="X34" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y34" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G35">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H35" t="s">
         <v>271</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L35">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>383</v>
       </c>
       <c r="T35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U35" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V35" t="s">
         <v>468</v>
@@ -4523,18 +4523,18 @@
         <v>492</v>
       </c>
       <c r="X35" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y35" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>85</v>
@@ -4546,7 +4546,7 @@
         <v>209</v>
       </c>
       <c r="G36">
-        <v>560000</v>
+        <v>600</v>
       </c>
       <c r="H36" t="s">
         <v>272</v>
@@ -4555,10 +4555,10 @@
         <v>321</v>
       </c>
       <c r="K36" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L36">
-        <v>290800</v>
+        <v>600</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4570,31 +4570,31 @@
         <v>374</v>
       </c>
       <c r="P36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q36" t="s">
         <v>378</v>
       </c>
       <c r="R36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T36" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="U36" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="V36" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="W36" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="X36" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y36" t="s">
         <v>527</v>
@@ -4602,34 +4602,34 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G37">
         <v>560000</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s">
         <v>358</v>
       </c>
       <c r="L37">
-        <v>560000</v>
+        <v>290800</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4653,22 +4653,22 @@
         <v>384</v>
       </c>
       <c r="T37" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W37" t="s">
         <v>490</v>
       </c>
       <c r="X37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y37" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4676,7 +4676,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>86</v>
@@ -4688,28 +4688,28 @@
         <v>210</v>
       </c>
       <c r="G38">
-        <v>200</v>
+        <v>560000</v>
       </c>
       <c r="H38" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I38" t="s">
         <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L38">
+        <v>560000</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="M38">
-        <v>200</v>
-      </c>
       <c r="N38" t="s">
         <v>374</v>
       </c>
       <c r="O38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P38" t="s">
         <v>377</v>
@@ -4721,22 +4721,22 @@
         <v>380</v>
       </c>
       <c r="S38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T38" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="U38" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="V38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W38" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X38" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Y38" t="s">
         <v>528</v>
@@ -4744,13 +4744,13 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>142</v>
@@ -4759,31 +4759,31 @@
         <v>211</v>
       </c>
       <c r="G39">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>274</v>
       </c>
       <c r="I39" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="K39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L39">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N39" t="s">
         <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q39" t="s">
         <v>378</v>
@@ -4795,22 +4795,22 @@
         <v>385</v>
       </c>
       <c r="T39" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="U39" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="V39" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="W39" t="s">
         <v>487</v>
       </c>
       <c r="X39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4821,7 +4821,7 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>143</v>
@@ -4830,19 +4830,19 @@
         <v>212</v>
       </c>
       <c r="G40">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="I40" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L40">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>385</v>
       </c>
       <c r="T40" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="U40" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="V40" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="W40" t="s">
         <v>487</v>
       </c>
       <c r="X40" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4901,19 +4901,19 @@
         <v>213</v>
       </c>
       <c r="G41">
-        <v>6110</v>
+        <v>200</v>
       </c>
       <c r="H41" t="s">
         <v>275</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
         <v>356</v>
       </c>
       <c r="L41">
-        <v>6110</v>
+        <v>200</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4943,16 +4943,16 @@
         <v>447</v>
       </c>
       <c r="V41" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="W41" t="s">
         <v>487</v>
       </c>
       <c r="X41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4972,19 +4972,19 @@
         <v>214</v>
       </c>
       <c r="G42">
-        <v>1000</v>
+        <v>6110</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L42">
-        <v>1000</v>
+        <v>6110</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         <v>448</v>
       </c>
       <c r="V42" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W42" t="s">
         <v>487</v>
       </c>
       <c r="X42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5034,7 +5034,7 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>146</v>
@@ -5043,10 +5043,10 @@
         <v>215</v>
       </c>
       <c r="G43">
-        <v>4372</v>
+        <v>1000</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I43" t="s">
         <v>325</v>
@@ -5055,7 +5055,7 @@
         <v>353</v>
       </c>
       <c r="L43">
-        <v>4372</v>
+        <v>1000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5079,10 +5079,10 @@
         <v>385</v>
       </c>
       <c r="T43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U43" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="V43" t="s">
         <v>479</v>
@@ -5091,18 +5091,18 @@
         <v>487</v>
       </c>
       <c r="X43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y43" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
@@ -5114,40 +5114,40 @@
         <v>216</v>
       </c>
       <c r="G44">
-        <v>34000</v>
+        <v>4372</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="I44" t="s">
         <v>326</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L44">
-        <v>34000</v>
+        <v>4372</v>
       </c>
       <c r="M44">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N44" t="s">
         <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q44" t="s">
         <v>378</v>
       </c>
       <c r="R44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S44" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T44" t="s">
         <v>408</v>
@@ -5156,13 +5156,13 @@
         <v>449</v>
       </c>
       <c r="V44" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="W44" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="X44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Y44" t="s">
         <v>529</v>
@@ -5173,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>91</v>
@@ -5184,62 +5184,56 @@
       <c r="E45" t="s">
         <v>217</v>
       </c>
-      <c r="F45" t="s">
-        <v>246</v>
-      </c>
       <c r="G45">
-        <v>6500000</v>
+        <v>34000</v>
       </c>
       <c r="H45" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I45" t="s">
         <v>327</v>
       </c>
-      <c r="J45" t="s">
-        <v>349</v>
-      </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L45">
-        <v>6500000</v>
+        <v>34000</v>
       </c>
       <c r="M45">
-        <v>6500000</v>
+        <v>34000</v>
       </c>
       <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
         <v>375</v>
       </c>
-      <c r="O45" t="s">
-        <v>374</v>
-      </c>
       <c r="P45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q45" t="s">
         <v>378</v>
       </c>
       <c r="R45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T45" t="s">
         <v>409</v>
       </c>
       <c r="U45" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="V45" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X45" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="Y45" t="s">
         <v>530</v>
@@ -5250,7 +5244,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -5261,8 +5255,11 @@
       <c r="E46" t="s">
         <v>218</v>
       </c>
+      <c r="F46" t="s">
+        <v>246</v>
+      </c>
       <c r="G46">
-        <v>345000</v>
+        <v>6500000</v>
       </c>
       <c r="H46" t="s">
         <v>277</v>
@@ -5270,17 +5267,20 @@
       <c r="I46" t="s">
         <v>328</v>
       </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
       <c r="K46" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L46">
-        <v>100</v>
+        <v>6500000</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O46" t="s">
         <v>374</v>
@@ -5292,25 +5292,25 @@
         <v>378</v>
       </c>
       <c r="R46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S46" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T46" t="s">
         <v>410</v>
       </c>
       <c r="U46" t="s">
-        <v>450</v>
+        <v>246</v>
       </c>
       <c r="V46" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="W46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y46" t="s">
         <v>531</v>
@@ -5318,34 +5318,34 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G47">
         <v>345000</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K47" t="s">
         <v>358</v>
       </c>
       <c r="L47">
-        <v>269900</v>
+        <v>100</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5369,10 +5369,10 @@
         <v>383</v>
       </c>
       <c r="T47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U47" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V47" t="s">
         <v>480</v>
@@ -5384,54 +5384,48 @@
         <v>508</v>
       </c>
       <c r="Y47" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
         <v>219</v>
       </c>
-      <c r="F48" t="s">
-        <v>247</v>
-      </c>
       <c r="G48">
-        <v>130100</v>
+        <v>345000</v>
       </c>
       <c r="H48" t="s">
         <v>278</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
-      </c>
-      <c r="J48" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="K48" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L48">
-        <v>130100</v>
+        <v>269900</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P48" t="s">
         <v>376</v>
@@ -5446,10 +5440,10 @@
         <v>383</v>
       </c>
       <c r="T48" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U48" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V48" t="s">
         <v>480</v>
@@ -5461,36 +5455,36 @@
         <v>508</v>
       </c>
       <c r="Y48" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
         <v>247</v>
       </c>
       <c r="G49">
-        <v>52300</v>
+        <v>130100</v>
       </c>
       <c r="H49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J49" t="s">
         <v>247</v>
@@ -5499,7 +5493,7 @@
         <v>353</v>
       </c>
       <c r="L49">
-        <v>52300</v>
+        <v>130100</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5523,10 +5517,10 @@
         <v>383</v>
       </c>
       <c r="T49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U49" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V49" t="s">
         <v>480</v>
@@ -5538,36 +5532,36 @@
         <v>508</v>
       </c>
       <c r="Y49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s">
         <v>247</v>
       </c>
       <c r="G50">
-        <v>127300</v>
+        <v>52300</v>
       </c>
       <c r="H50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J50" t="s">
         <v>247</v>
@@ -5576,7 +5570,7 @@
         <v>353</v>
       </c>
       <c r="L50">
-        <v>127300</v>
+        <v>52300</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5600,10 +5594,10 @@
         <v>383</v>
       </c>
       <c r="T50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U50" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V50" t="s">
         <v>480</v>
@@ -5615,36 +5609,36 @@
         <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
         <v>247</v>
       </c>
       <c r="G51">
-        <v>10000</v>
+        <v>127300</v>
       </c>
       <c r="H51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J51" t="s">
         <v>247</v>
@@ -5653,7 +5647,7 @@
         <v>353</v>
       </c>
       <c r="L51">
-        <v>10000</v>
+        <v>127300</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5677,10 +5671,10 @@
         <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V51" t="s">
         <v>480</v>
@@ -5692,7 +5686,7 @@
         <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5700,7 +5694,7 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
         <v>93</v>
@@ -5712,25 +5706,25 @@
         <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="G52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H52" t="s">
         <v>279</v>
       </c>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5760,7 +5754,7 @@
         <v>451</v>
       </c>
       <c r="V52" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="W52" t="s">
         <v>495</v>
@@ -5769,48 +5763,54 @@
         <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
         <v>221</v>
       </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
       <c r="G53">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="H53" t="s">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="I53" t="s">
         <v>330</v>
       </c>
+      <c r="J53" t="s">
+        <v>56</v>
+      </c>
       <c r="K53" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L53">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O53" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P53" t="s">
         <v>376</v>
@@ -5825,10 +5825,10 @@
         <v>383</v>
       </c>
       <c r="T53" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U53" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V53" t="s">
         <v>472</v>
@@ -5840,7 +5840,7 @@
         <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5848,31 +5848,31 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
         <v>222</v>
       </c>
       <c r="G54">
-        <v>386</v>
+        <v>50000</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I54" t="s">
         <v>331</v>
       </c>
       <c r="K54" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L54">
-        <v>386</v>
+        <v>20000</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>378</v>
       </c>
       <c r="R54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S54" t="s">
         <v>383</v>
@@ -5902,13 +5902,13 @@
         <v>452</v>
       </c>
       <c r="V54" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="W54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
         <v>532</v>
@@ -5916,13 +5916,13 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>152</v>
@@ -5930,35 +5930,29 @@
       <c r="E55" t="s">
         <v>223</v>
       </c>
-      <c r="F55" t="s">
-        <v>56</v>
-      </c>
       <c r="G55">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="H55" t="s">
-        <v>280</v>
+        <v>152</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="K55" t="s">
         <v>358</v>
       </c>
       <c r="L55">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P55" t="s">
         <v>376</v>
@@ -5973,10 +5967,10 @@
         <v>383</v>
       </c>
       <c r="T55" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U55" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V55" t="s">
         <v>481</v>
@@ -5988,18 +5982,18 @@
         <v>509</v>
       </c>
       <c r="Y55" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
         <v>153</v>
@@ -6007,29 +6001,35 @@
       <c r="E56" t="s">
         <v>224</v>
       </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
       <c r="G56">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
         <v>281</v>
       </c>
       <c r="I56" t="s">
-        <v>332</v>
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>56</v>
       </c>
       <c r="K56" t="s">
         <v>358</v>
       </c>
       <c r="L56">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P56" t="s">
         <v>376</v>
@@ -6044,10 +6044,10 @@
         <v>383</v>
       </c>
       <c r="T56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U56" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V56" t="s">
         <v>481</v>
@@ -6059,7 +6059,7 @@
         <v>509</v>
       </c>
       <c r="Y56" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -6067,7 +6067,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
@@ -6079,7 +6079,7 @@
         <v>225</v>
       </c>
       <c r="G57">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H57" t="s">
         <v>282</v>
@@ -6091,7 +6091,7 @@
         <v>358</v>
       </c>
       <c r="L57">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>453</v>
       </c>
       <c r="V57" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="W57" t="s">
         <v>496</v>
@@ -6130,30 +6130,30 @@
         <v>509</v>
       </c>
       <c r="Y57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
         <v>226</v>
       </c>
       <c r="G58">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="H58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I58" t="s">
         <v>334</v>
@@ -6162,7 +6162,7 @@
         <v>358</v>
       </c>
       <c r="L58">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>383</v>
       </c>
       <c r="T58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U58" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V58" t="s">
         <v>474</v>
@@ -6201,7 +6201,7 @@
         <v>509</v>
       </c>
       <c r="Y58" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6209,7 +6209,7 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>96</v>
@@ -6221,19 +6221,19 @@
         <v>227</v>
       </c>
       <c r="G59">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="I59" t="s">
         <v>335</v>
       </c>
       <c r="K59" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L59">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -6254,7 +6254,7 @@
         <v>380</v>
       </c>
       <c r="S59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T59" t="s">
         <v>414</v>
@@ -6263,13 +6263,13 @@
         <v>454</v>
       </c>
       <c r="V59" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="W59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y59" t="s">
         <v>533</v>
@@ -6277,34 +6277,34 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G60">
-        <v>12000</v>
+        <v>3100</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K60" t="s">
         <v>353</v>
       </c>
       <c r="L60">
-        <v>12000</v>
+        <v>3100</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6328,10 +6328,10 @@
         <v>384</v>
       </c>
       <c r="T60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U60" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V60" t="s">
         <v>480</v>
@@ -6343,7 +6343,7 @@
         <v>510</v>
       </c>
       <c r="Y60" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6351,7 +6351,7 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>97</v>
@@ -6362,38 +6362,32 @@
       <c r="E61" t="s">
         <v>228</v>
       </c>
-      <c r="F61" t="s">
-        <v>248</v>
-      </c>
       <c r="G61">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="H61" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="I61" t="s">
         <v>336</v>
       </c>
-      <c r="J61" t="s">
-        <v>350</v>
-      </c>
       <c r="K61" t="s">
         <v>353</v>
       </c>
       <c r="L61">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O61" t="s">
         <v>374</v>
       </c>
       <c r="P61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q61" t="s">
         <v>378</v>
@@ -6402,22 +6396,22 @@
         <v>380</v>
       </c>
       <c r="S61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T61" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="U61" t="s">
-        <v>248</v>
+        <v>455</v>
       </c>
       <c r="V61" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="W61" t="s">
-        <v>228</v>
+        <v>497</v>
       </c>
       <c r="X61" t="s">
-        <v>248</v>
+        <v>510</v>
       </c>
       <c r="Y61" t="s">
         <v>534</v>
@@ -6425,25 +6419,25 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
         <v>229</v>
       </c>
       <c r="F62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G62">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="H62" t="s">
         <v>284</v>
@@ -6452,16 +6446,16 @@
         <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K62" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="L62">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="M62">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N62" t="s">
         <v>375</v>
@@ -6482,19 +6476,19 @@
         <v>383</v>
       </c>
       <c r="T62" t="s">
-        <v>415</v>
+        <v>229</v>
       </c>
       <c r="U62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V62" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W62" t="s">
-        <v>498</v>
+        <v>229</v>
       </c>
       <c r="X62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y62" t="s">
         <v>535</v>
@@ -6502,25 +6496,25 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
         <v>249</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
         <v>285</v>
@@ -6535,10 +6529,10 @@
         <v>368</v>
       </c>
       <c r="L63">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M63">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N63" t="s">
         <v>375</v>
@@ -6559,13 +6553,13 @@
         <v>383</v>
       </c>
       <c r="T63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U63" t="s">
         <v>249</v>
       </c>
       <c r="V63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W63" t="s">
         <v>498</v>
@@ -6574,24 +6568,24 @@
         <v>249</v>
       </c>
       <c r="Y63" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
         <v>249</v>
@@ -6603,7 +6597,7 @@
         <v>286</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J64" t="s">
         <v>351</v>
@@ -6636,13 +6630,13 @@
         <v>383</v>
       </c>
       <c r="T64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U64" t="s">
         <v>249</v>
       </c>
       <c r="V64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W64" t="s">
         <v>498</v>
@@ -6651,15 +6645,15 @@
         <v>249</v>
       </c>
       <c r="Y64" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
         <v>99</v>
@@ -6671,43 +6665,43 @@
         <v>230</v>
       </c>
       <c r="F65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G65">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="I65" t="s">
         <v>339</v>
       </c>
       <c r="J65" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="K65" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L65">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N65" t="s">
         <v>375</v>
       </c>
       <c r="O65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q65" t="s">
         <v>378</v>
       </c>
       <c r="R65" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S65" t="s">
         <v>383</v>
@@ -6716,16 +6710,16 @@
         <v>416</v>
       </c>
       <c r="U65" t="s">
-        <v>455</v>
+        <v>249</v>
       </c>
       <c r="V65" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="W65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="X65" t="s">
-        <v>511</v>
+        <v>249</v>
       </c>
       <c r="Y65" t="s">
         <v>536</v>
@@ -6736,7 +6730,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
         <v>100</v>
@@ -6747,38 +6741,44 @@
       <c r="E66" t="s">
         <v>231</v>
       </c>
+      <c r="F66" t="s">
+        <v>250</v>
+      </c>
       <c r="G66">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="H66" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="I66" t="s">
         <v>340</v>
       </c>
+      <c r="J66" t="s">
+        <v>250</v>
+      </c>
       <c r="K66" t="s">
         <v>353</v>
       </c>
       <c r="L66">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O66" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q66" t="s">
         <v>378</v>
       </c>
       <c r="R66" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S66" t="s">
         <v>383</v>
@@ -6790,13 +6790,13 @@
         <v>456</v>
       </c>
       <c r="V66" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="W66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="X66" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="Y66" t="s">
         <v>537</v>
@@ -6807,7 +6807,7 @@
         <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
@@ -6819,7 +6819,7 @@
         <v>232</v>
       </c>
       <c r="G67">
-        <v>369500</v>
+        <v>60000</v>
       </c>
       <c r="H67" t="s">
         <v>288</v>
@@ -6828,10 +6828,10 @@
         <v>341</v>
       </c>
       <c r="K67" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L67">
-        <v>369500</v>
+        <v>60000</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -6861,10 +6861,10 @@
         <v>457</v>
       </c>
       <c r="V67" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="X67" t="s">
         <v>457</v>
@@ -6875,34 +6875,34 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G68">
-        <v>387000</v>
+        <v>369500</v>
       </c>
       <c r="H68" t="s">
         <v>289</v>
       </c>
       <c r="I68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
         <v>358</v>
       </c>
       <c r="L68">
-        <v>387000</v>
+        <v>369500</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -6926,22 +6926,22 @@
         <v>383</v>
       </c>
       <c r="T68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V68" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W68" t="s">
         <v>501</v>
       </c>
       <c r="X68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y68" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6949,7 +6949,7 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
         <v>102</v>
@@ -6961,7 +6961,7 @@
         <v>233</v>
       </c>
       <c r="G69">
-        <v>16000</v>
+        <v>387000</v>
       </c>
       <c r="H69" t="s">
         <v>290</v>
@@ -6973,7 +6973,7 @@
         <v>358</v>
       </c>
       <c r="L69">
-        <v>16000</v>
+        <v>387000</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6985,13 +6985,13 @@
         <v>374</v>
       </c>
       <c r="P69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q69" t="s">
         <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S69" t="s">
         <v>383</v>
@@ -7003,13 +7003,13 @@
         <v>458</v>
       </c>
       <c r="V69" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="W69" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="X69" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
       <c r="Y69" t="s">
         <v>539</v>
@@ -7020,7 +7020,7 @@
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
         <v>103</v>
@@ -7031,35 +7031,29 @@
       <c r="E70" t="s">
         <v>234</v>
       </c>
-      <c r="F70" t="s">
-        <v>56</v>
-      </c>
       <c r="G70">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="H70" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="I70" t="s">
         <v>343</v>
       </c>
-      <c r="J70" t="s">
-        <v>352</v>
-      </c>
       <c r="K70" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L70">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P70" t="s">
         <v>376</v>
@@ -7068,7 +7062,7 @@
         <v>378</v>
       </c>
       <c r="R70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S70" t="s">
         <v>383</v>
@@ -7080,13 +7074,13 @@
         <v>459</v>
       </c>
       <c r="V70" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="W70" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X70" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y70" t="s">
         <v>540</v>
@@ -7097,40 +7091,46 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
         <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
         <v>235</v>
       </c>
+      <c r="F71" t="s">
+        <v>56</v>
+      </c>
       <c r="G71">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="H71" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="I71" t="s">
         <v>344</v>
       </c>
+      <c r="J71" t="s">
+        <v>352</v>
+      </c>
       <c r="K71" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L71">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O71" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P71" t="s">
         <v>376</v>
@@ -7151,13 +7151,13 @@
         <v>460</v>
       </c>
       <c r="V71" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="W71" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="X71" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y71" t="s">
         <v>541</v>
@@ -7165,70 +7165,70 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
         <v>236</v>
       </c>
       <c r="G72">
-        <v>2800</v>
+        <v>6200</v>
       </c>
       <c r="H72" t="s">
         <v>292</v>
       </c>
       <c r="I72" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="K72" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L72">
+        <v>6100</v>
+      </c>
+      <c r="M72">
         <v>0</v>
       </c>
-      <c r="M72">
-        <v>2800</v>
-      </c>
       <c r="N72" t="s">
         <v>374</v>
       </c>
       <c r="O72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q72" t="s">
         <v>378</v>
       </c>
       <c r="R72" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S72" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T72" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="U72" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="V72" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="W72" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="X72" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="Y72" t="s">
         <v>542</v>
@@ -7236,13 +7236,13 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
         <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
         <v>166</v>
@@ -7251,22 +7251,22 @@
         <v>237</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>2800</v>
       </c>
       <c r="H73" t="s">
         <v>293</v>
       </c>
       <c r="I73" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>25</v>
+        <v>2800</v>
       </c>
       <c r="N73" t="s">
         <v>374</v>
@@ -7287,33 +7287,33 @@
         <v>386</v>
       </c>
       <c r="T73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V73" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W73" t="s">
         <v>487</v>
       </c>
       <c r="X73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y73" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
         <v>167</v>
@@ -7322,31 +7322,31 @@
         <v>238</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="I74" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="K74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N74" t="s">
         <v>374</v>
       </c>
       <c r="O74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q74" t="s">
         <v>378</v>
@@ -7358,19 +7358,19 @@
         <v>386</v>
       </c>
       <c r="T74" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="U74" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="V74" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="W74" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="X74" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Y74" t="s">
         <v>543</v>
@@ -7378,28 +7378,28 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
         <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G75">
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="I75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K75" t="s">
         <v>371</v>
@@ -7429,10 +7429,10 @@
         <v>386</v>
       </c>
       <c r="T75" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U75" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V75" t="s">
         <v>484</v>
@@ -7441,21 +7441,21 @@
         <v>492</v>
       </c>
       <c r="X75" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y75" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
         <v>168</v>
@@ -7464,55 +7464,55 @@
         <v>239</v>
       </c>
       <c r="G76">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
         <v>295</v>
       </c>
       <c r="I76" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="K76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>100</v>
-      </c>
       <c r="N76" t="s">
         <v>374</v>
       </c>
       <c r="O76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q76" t="s">
         <v>378</v>
       </c>
       <c r="R76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S76" t="s">
         <v>386</v>
       </c>
       <c r="T76" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="U76" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="V76" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="W76" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="X76" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Y76" t="s">
         <v>544</v>
@@ -7520,13 +7520,13 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
         <v>169</v>
@@ -7535,55 +7535,55 @@
         <v>240</v>
       </c>
       <c r="G77">
-        <v>4500</v>
+        <v>100</v>
       </c>
       <c r="H77" t="s">
         <v>296</v>
       </c>
       <c r="I77" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="K77" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L77">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N77" t="s">
         <v>374</v>
       </c>
       <c r="O77" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q77" t="s">
         <v>378</v>
       </c>
       <c r="R77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S77" t="s">
         <v>386</v>
       </c>
       <c r="T77" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="U77" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="V77" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="W77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X77" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="Y77" t="s">
         <v>545</v>
@@ -7591,34 +7591,34 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G78">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="H78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K78" t="s">
         <v>358</v>
       </c>
       <c r="L78">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>386</v>
       </c>
       <c r="T78" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V78" t="s">
         <v>485</v>
@@ -7657,39 +7657,39 @@
         <v>506</v>
       </c>
       <c r="Y78" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G79">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I79" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K79" t="s">
         <v>358</v>
       </c>
       <c r="L79">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -7713,10 +7713,10 @@
         <v>386</v>
       </c>
       <c r="T79" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U79" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V79" t="s">
         <v>485</v>
@@ -7728,39 +7728,39 @@
         <v>506</v>
       </c>
       <c r="Y79" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G80">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="H80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K80" t="s">
         <v>358</v>
       </c>
       <c r="L80">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -7784,10 +7784,10 @@
         <v>386</v>
       </c>
       <c r="T80" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V80" t="s">
         <v>485</v>
@@ -7799,39 +7799,39 @@
         <v>506</v>
       </c>
       <c r="Y80" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G81">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="H81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K81" t="s">
         <v>358</v>
       </c>
       <c r="L81">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>386</v>
       </c>
       <c r="T81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U81" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V81" t="s">
         <v>485</v>
@@ -7870,39 +7870,39 @@
         <v>506</v>
       </c>
       <c r="Y81" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
         <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
         <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G82">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="H82" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K82" t="s">
         <v>358</v>
       </c>
       <c r="L82">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>386</v>
       </c>
       <c r="T82" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V82" t="s">
         <v>485</v>
@@ -7941,39 +7941,39 @@
         <v>506</v>
       </c>
       <c r="Y82" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
         <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G83">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="H83" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I83" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K83" t="s">
         <v>358</v>
       </c>
       <c r="L83">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>386</v>
       </c>
       <c r="T83" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U83" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V83" t="s">
         <v>485</v>
@@ -8012,33 +8012,33 @@
         <v>506</v>
       </c>
       <c r="Y83" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G84">
         <v>2500</v>
       </c>
       <c r="H84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K84" t="s">
         <v>358</v>
@@ -8068,10 +8068,10 @@
         <v>386</v>
       </c>
       <c r="T84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V84" t="s">
         <v>485</v>
@@ -8083,15 +8083,15 @@
         <v>506</v>
       </c>
       <c r="Y84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
         <v>107</v>
@@ -8102,11 +8102,8 @@
       <c r="E85" t="s">
         <v>241</v>
       </c>
-      <c r="F85" t="s">
-        <v>251</v>
-      </c>
       <c r="G85">
-        <v>4537</v>
+        <v>2500</v>
       </c>
       <c r="H85" t="s">
         <v>297</v>
@@ -8114,23 +8111,20 @@
       <c r="I85" t="s">
         <v>347</v>
       </c>
-      <c r="J85" t="s">
-        <v>251</v>
-      </c>
       <c r="K85" t="s">
         <v>358</v>
       </c>
       <c r="L85">
-        <v>4537</v>
+        <v>2500</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P85" t="s">
         <v>376</v>
@@ -8151,7 +8145,7 @@
         <v>463</v>
       </c>
       <c r="V85" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="W85" t="s">
         <v>488</v>
@@ -8160,36 +8154,36 @@
         <v>506</v>
       </c>
       <c r="Y85" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
         <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F86" t="s">
         <v>251</v>
       </c>
       <c r="G86">
-        <v>4700</v>
+        <v>4537</v>
       </c>
       <c r="H86" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J86" t="s">
         <v>251</v>
@@ -8198,7 +8192,7 @@
         <v>358</v>
       </c>
       <c r="L86">
-        <v>4700</v>
+        <v>4537</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8222,10 +8216,10 @@
         <v>386</v>
       </c>
       <c r="T86" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U86" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V86" t="s">
         <v>473</v>
@@ -8237,15 +8231,15 @@
         <v>506</v>
       </c>
       <c r="Y86" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
         <v>108</v>
@@ -8256,29 +8250,35 @@
       <c r="E87" t="s">
         <v>242</v>
       </c>
+      <c r="F87" t="s">
+        <v>251</v>
+      </c>
       <c r="G87">
-        <v>60376.24</v>
+        <v>4700</v>
       </c>
       <c r="H87" t="s">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>242</v>
+        <v>348</v>
+      </c>
+      <c r="J87" t="s">
+        <v>251</v>
       </c>
       <c r="K87" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="L87">
-        <v>60376.24</v>
+        <v>4700</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P87" t="s">
         <v>376</v>
@@ -8287,10 +8287,10 @@
         <v>378</v>
       </c>
       <c r="R87" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S87" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="T87" t="s">
         <v>425</v>
@@ -8299,13 +8299,13 @@
         <v>464</v>
       </c>
       <c r="V87" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="W87" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="X87" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="Y87" t="s">
         <v>546</v>
@@ -8319,28 +8319,28 @@
         <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
         <v>180</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G88">
-        <v>17524.75</v>
+        <v>60376.24</v>
       </c>
       <c r="H88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K88" t="s">
         <v>373</v>
       </c>
       <c r="L88">
-        <v>17524.75</v>
+        <v>60376.24</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8364,10 +8364,10 @@
         <v>384</v>
       </c>
       <c r="T88" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U88" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V88" t="s">
         <v>483</v>
@@ -8376,10 +8376,10 @@
         <v>487</v>
       </c>
       <c r="X88" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y88" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -8399,19 +8399,19 @@
         <v>243</v>
       </c>
       <c r="G89">
-        <v>200</v>
+        <v>17524.75</v>
       </c>
       <c r="H89" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="I89" t="s">
         <v>243</v>
       </c>
       <c r="K89" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L89">
-        <v>200</v>
+        <v>17524.75</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8441,24 +8441,24 @@
         <v>465</v>
       </c>
       <c r="V89" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="W89" t="s">
         <v>487</v>
       </c>
       <c r="X89" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y89" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -8470,19 +8470,19 @@
         <v>244</v>
       </c>
       <c r="G90">
-        <v>5020</v>
+        <v>200</v>
       </c>
       <c r="H90" t="s">
         <v>299</v>
       </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="K90" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L90">
-        <v>5020</v>
+        <v>200</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8500,10 +8500,10 @@
         <v>378</v>
       </c>
       <c r="R90" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S90" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T90" t="s">
         <v>427</v>
@@ -8515,10 +8515,10 @@
         <v>477</v>
       </c>
       <c r="W90" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="X90" t="s">
-        <v>245</v>
+        <v>446</v>
       </c>
       <c r="Y90" t="s">
         <v>547</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -236,6 +236,12 @@
     <t>UA763223130000026009000044718</t>
   </si>
   <si>
+    <t>UA663223130000026002000044845</t>
+  </si>
+  <si>
+    <t>UA583223130000026005000044790</t>
+  </si>
+  <si>
     <t>UA153808050000000026009543306</t>
   </si>
   <si>
@@ -344,12 +350,6 @@
     <t>UA413052990000026001026208929</t>
   </si>
   <si>
-    <t>UA663223130000026002000044845</t>
-  </si>
-  <si>
-    <t>UA583223130000026005000044790</t>
-  </si>
-  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -365,6 +365,15 @@
     <t>11.05.2021</t>
   </si>
   <si>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>02.02.2022</t>
+  </si>
+  <si>
     <t>16.03.2021</t>
   </si>
   <si>
@@ -557,15 +566,6 @@
     <t>30.12.2021</t>
   </si>
   <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>03.06.2022</t>
-  </si>
-  <si>
-    <t>02.02.2022</t>
-  </si>
-  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -581,6 +581,12 @@
     <t>ЛЮТИК ГЕОРГІЙ ФЛОРОВИЧ</t>
   </si>
   <si>
+    <t>МАНДЗІЙ ОЛЕКСАНДР СЕРГІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>АРКУШЕНКО КАТЕРИНА АНАТОЛІЇВНА</t>
+  </si>
+  <si>
     <t>МІТНІЦЬКИЙ ЮРІЙ ГЕОРГІЙОВИЧ</t>
   </si>
   <si>
@@ -746,12 +752,6 @@
     <t>ТОВ "ГОВІРСА"</t>
   </si>
   <si>
-    <t>МАНДЗІЙ ОЛЕКСАНДР СЕРГІЙОВИЧ</t>
-  </si>
-  <si>
-    <t>АРКУШЕНКО КАТЕРИНА АНАТОЛІЇВНА</t>
-  </si>
-  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -785,6 +785,9 @@
     <t>29.09.2021</t>
   </si>
   <si>
+    <t>04.02.2022</t>
+  </si>
+  <si>
     <t>27.01.2021</t>
   </si>
   <si>
@@ -914,9 +917,6 @@
     <t>22.07.2024</t>
   </si>
   <si>
-    <t>04.02.2022</t>
-  </si>
-  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>Повернення помилково перерахованих коштів. Без ПДВ.</t>
+  </si>
+  <si>
+    <t>За рішенням Голови</t>
   </si>
   <si>
     <t>Повернення грошових внесків (чи їх частин)</t>
@@ -1140,9 +1143,6 @@
     <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
   </si>
   <si>
-    <t>За рішенням Голови</t>
-  </si>
-  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -1197,6 +1197,12 @@
     <t>ЧЕРНІВЕЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
   </si>
   <si>
+    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>ОДЕСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
     <t>Попільнянська районна партійна організація Всеукраїнського об'єднання "Батьківщина" Житомирської області</t>
   </si>
   <si>
@@ -1299,12 +1305,6 @@
     <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
   </si>
   <si>
-    <t>ХМЕЛЬНИЦЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
-    <t>ОДЕСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
-  </si>
-  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1320,6 +1320,12 @@
     <t>43671311</t>
   </si>
   <si>
+    <t>43675248</t>
+  </si>
+  <si>
+    <t>43676765</t>
+  </si>
+  <si>
     <t>33864810</t>
   </si>
   <si>
@@ -1416,12 +1422,6 @@
     <t>25895860</t>
   </si>
   <si>
-    <t>43675248</t>
-  </si>
-  <si>
-    <t>43676765</t>
-  </si>
-  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1437,6 +1437,12 @@
     <t>Чернівецька обл.</t>
   </si>
   <si>
+    <t>Хмельницька обл.</t>
+  </si>
+  <si>
+    <t>Одеська обл.</t>
+  </si>
+  <si>
     <t>Житомирська обл.</t>
   </si>
   <si>
@@ -1452,9 +1458,6 @@
     <t>Україна</t>
   </si>
   <si>
-    <t>Одеська обл.</t>
-  </si>
-  <si>
     <t>Київська обл.</t>
   </si>
   <si>
@@ -1470,9 +1473,6 @@
     <t>Миколаївська обл.</t>
   </si>
   <si>
-    <t>Хмельницька обл.</t>
-  </si>
-  <si>
     <t>Черкаська обл.</t>
   </si>
   <si>
@@ -1572,6 +1572,9 @@
     <t>6e058a80-ead3-11ee-ae0a-87878d7061af</t>
   </si>
   <si>
+    <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
+  </si>
+  <si>
     <t>1d67bc60-e6b9-11ee-90b7-9b9aa9321258</t>
   </si>
   <si>
@@ -1660,9 +1663,6 @@
   </si>
   <si>
     <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
-  </si>
-  <si>
-    <t>e1a30e30-ead4-11ee-938a-5514903835ea</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2194,7 @@
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
         <v>301</v>
@@ -2239,7 +2239,7 @@
         <v>487</v>
       </c>
       <c r="X3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y3" t="s">
         <v>516</v>
@@ -2310,7 +2310,7 @@
         <v>487</v>
       </c>
       <c r="X4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y4" t="s">
         <v>516</v>
@@ -2381,7 +2381,7 @@
         <v>487</v>
       </c>
       <c r="X5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y5" t="s">
         <v>516</v>
@@ -2452,7 +2452,7 @@
         <v>487</v>
       </c>
       <c r="X6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y6" t="s">
         <v>516</v>
@@ -2523,7 +2523,7 @@
         <v>487</v>
       </c>
       <c r="X7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y7" t="s">
         <v>516</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -2546,19 +2546,19 @@
         <v>188</v>
       </c>
       <c r="G8">
-        <v>350</v>
+        <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L8">
-        <v>7.17</v>
+        <v>60376.24</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>378</v>
       </c>
       <c r="R8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T8" t="s">
         <v>392</v>
@@ -2591,10 +2591,10 @@
         <v>472</v>
       </c>
       <c r="W8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X8" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="Y8" t="s">
         <v>517</v>
@@ -2602,49 +2602,43 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="G9">
-        <v>1099583</v>
+        <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
-      </c>
-      <c r="J9" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
         <v>358</v>
       </c>
       <c r="L9">
-        <v>100000</v>
+        <v>17524.75</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P9" t="s">
         <v>376</v>
@@ -2653,60 +2647,60 @@
         <v>378</v>
       </c>
       <c r="R9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="X9" t="s">
-        <v>245</v>
+        <v>448</v>
       </c>
       <c r="Y9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L10">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2724,60 +2718,60 @@
         <v>378</v>
       </c>
       <c r="R10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="X10" t="s">
-        <v>245</v>
+        <v>448</v>
       </c>
       <c r="Y10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11">
-        <v>5020</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
         <v>353</v>
       </c>
       <c r="L11">
-        <v>5020</v>
+        <v>7.17</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2795,134 +2789,140 @@
         <v>378</v>
       </c>
       <c r="R11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="S11" t="s">
         <v>383</v>
       </c>
       <c r="T11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X11" t="s">
-        <v>245</v>
+        <v>506</v>
       </c>
       <c r="Y11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
       </c>
       <c r="G12">
-        <v>150000</v>
+        <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="J12" t="s">
+        <v>245</v>
       </c>
       <c r="K12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L12">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M12">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q12" t="s">
         <v>378</v>
       </c>
       <c r="R12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S12" t="s">
         <v>383</v>
       </c>
       <c r="T12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X12" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="Y12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13">
-        <v>100000</v>
+        <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L13">
-        <v>100000</v>
+        <v>1600</v>
       </c>
       <c r="M13">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
         <v>374</v>
@@ -2931,13 +2931,13 @@
         <v>374</v>
       </c>
       <c r="P13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q13" t="s">
         <v>378</v>
       </c>
       <c r="R13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S13" t="s">
         <v>383</v>
@@ -2952,48 +2952,48 @@
         <v>476</v>
       </c>
       <c r="W13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X13" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="Y13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G14">
-        <v>150000</v>
+        <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L14">
-        <v>150000</v>
+        <v>5020</v>
       </c>
       <c r="M14">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
         <v>374</v>
@@ -3002,31 +3002,31 @@
         <v>374</v>
       </c>
       <c r="P14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q14" t="s">
         <v>378</v>
       </c>
       <c r="R14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S14" t="s">
         <v>383</v>
       </c>
       <c r="T14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X14" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="Y14" t="s">
         <v>521</v>
@@ -3040,31 +3040,31 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L15">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="M15">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="N15" t="s">
         <v>374</v>
@@ -3085,22 +3085,22 @@
         <v>383</v>
       </c>
       <c r="T15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W15" t="s">
         <v>490</v>
       </c>
       <c r="X15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Y15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3111,31 +3111,31 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16">
-        <v>950000</v>
+        <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L16">
-        <v>950000</v>
+        <v>100000</v>
       </c>
       <c r="M16">
-        <v>950000</v>
+        <v>100000</v>
       </c>
       <c r="N16" t="s">
         <v>374</v>
@@ -3156,22 +3156,22 @@
         <v>383</v>
       </c>
       <c r="T16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V16" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W16" t="s">
         <v>490</v>
       </c>
       <c r="X16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Y16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3182,7 +3182,7 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
@@ -3191,22 +3191,22 @@
         <v>196</v>
       </c>
       <c r="G17">
-        <v>950000</v>
+        <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L17">
-        <v>950000</v>
+        <v>150000</v>
       </c>
       <c r="M17">
-        <v>950000</v>
+        <v>150000</v>
       </c>
       <c r="N17" t="s">
         <v>374</v>
@@ -3227,33 +3227,33 @@
         <v>383</v>
       </c>
       <c r="T17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="U17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="V17" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W17" t="s">
         <v>490</v>
       </c>
       <c r="X17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Y17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
@@ -3262,22 +3262,22 @@
         <v>197</v>
       </c>
       <c r="G18">
-        <v>97396.8</v>
+        <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K18" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L18">
-        <v>97396.8</v>
+        <v>160000</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="N18" t="s">
         <v>374</v>
@@ -3286,31 +3286,31 @@
         <v>374</v>
       </c>
       <c r="P18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q18" t="s">
         <v>378</v>
       </c>
       <c r="R18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T18" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="U18" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="V18" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="X18" t="s">
-        <v>245</v>
+        <v>439</v>
       </c>
       <c r="Y18" t="s">
         <v>522</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>125</v>
@@ -3332,73 +3332,67 @@
       <c r="E19" t="s">
         <v>198</v>
       </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
       <c r="G19">
-        <v>100</v>
+        <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="K19" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>950000</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q19" t="s">
         <v>378</v>
       </c>
       <c r="R19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S19" t="s">
         <v>383</v>
       </c>
       <c r="T19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="U19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V19" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="W19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="X19" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="Y19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -3407,25 +3401,25 @@
         <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20">
-        <v>5600</v>
+        <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K20" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L20">
-        <v>5600</v>
+        <v>950000</v>
       </c>
       <c r="M20">
-        <v>5600</v>
+        <v>950000</v>
       </c>
       <c r="N20" t="s">
         <v>374</v>
@@ -3443,7 +3437,7 @@
         <v>380</v>
       </c>
       <c r="S20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T20" t="s">
         <v>398</v>
@@ -3452,27 +3446,27 @@
         <v>439</v>
       </c>
       <c r="V20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="X20" t="s">
         <v>439</v>
       </c>
       <c r="Y20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>127</v>
@@ -3481,22 +3475,22 @@
         <v>199</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>97396.8</v>
       </c>
       <c r="H21" t="s">
         <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K21" t="s">
         <v>353</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>97396.8</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" t="s">
         <v>374</v>
@@ -3505,45 +3499,45 @@
         <v>374</v>
       </c>
       <c r="P21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q21" t="s">
         <v>378</v>
       </c>
       <c r="R21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="V21" t="s">
         <v>476</v>
       </c>
       <c r="W21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="X21" t="s">
-        <v>439</v>
+        <v>245</v>
       </c>
       <c r="Y21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>128</v>
@@ -3551,29 +3545,35 @@
       <c r="E22" t="s">
         <v>200</v>
       </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
       <c r="G22">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
-        <v>312</v>
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L22">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P22" t="s">
         <v>376</v>
@@ -3585,36 +3585,36 @@
         <v>381</v>
       </c>
       <c r="S22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T22" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="U22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="V22" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="W22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="X22" t="s">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="Y22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -3623,22 +3623,22 @@
         <v>201</v>
       </c>
       <c r="G23">
-        <v>400</v>
+        <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K23" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="M23">
-        <v>400</v>
+        <v>5600</v>
       </c>
       <c r="N23" t="s">
         <v>374</v>
@@ -3653,63 +3653,63 @@
         <v>378</v>
       </c>
       <c r="R23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S23" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V23" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
         <v>374</v>
@@ -3724,60 +3724,60 @@
         <v>378</v>
       </c>
       <c r="R24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25">
-        <v>200</v>
+        <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K25" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L25">
-        <v>200</v>
+        <v>10500</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3795,25 +3795,25 @@
         <v>378</v>
       </c>
       <c r="R25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="U25" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="V25" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="X25" t="s">
-        <v>440</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
         <v>526</v>
@@ -3821,38 +3821,38 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K26" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>400</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26" t="s">
         <v>374</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>374</v>
       </c>
       <c r="P26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q26" t="s">
         <v>378</v>
@@ -3872,57 +3872,57 @@
         <v>383</v>
       </c>
       <c r="T26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V26" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W26" t="s">
         <v>492</v>
       </c>
       <c r="X26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K27" t="s">
         <v>362</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N27" t="s">
         <v>374</v>
@@ -3931,7 +3931,7 @@
         <v>374</v>
       </c>
       <c r="P27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q27" t="s">
         <v>378</v>
@@ -3943,51 +3943,51 @@
         <v>383</v>
       </c>
       <c r="T27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V27" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="W27" t="s">
         <v>492</v>
       </c>
       <c r="X27" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K28" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -4008,25 +4008,25 @@
         <v>378</v>
       </c>
       <c r="R28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S28" t="s">
         <v>383</v>
       </c>
       <c r="T28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W28" t="s">
         <v>492</v>
       </c>
       <c r="X28" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y28" t="s">
         <v>527</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -4046,22 +4046,22 @@
         <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K29" t="s">
         <v>353</v>
       </c>
       <c r="L29">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>378</v>
       </c>
       <c r="R29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S29" t="s">
         <v>383</v>
@@ -4091,13 +4091,13 @@
         <v>443</v>
       </c>
       <c r="V29" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W29" t="s">
         <v>492</v>
       </c>
       <c r="X29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y29" t="s">
         <v>527</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -4114,25 +4114,25 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
         <v>207</v>
       </c>
       <c r="G30">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>269</v>
       </c>
       <c r="I30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L30">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>378</v>
       </c>
       <c r="R30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S30" t="s">
         <v>383</v>
@@ -4162,13 +4162,13 @@
         <v>443</v>
       </c>
       <c r="V30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W30" t="s">
         <v>492</v>
       </c>
       <c r="X30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y30" t="s">
         <v>527</v>
@@ -4176,34 +4176,34 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G31">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L31">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4227,22 +4227,22 @@
         <v>383</v>
       </c>
       <c r="T31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="W31" t="s">
         <v>492</v>
       </c>
       <c r="X31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4253,19 +4253,19 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>319</v>
@@ -4298,22 +4298,22 @@
         <v>383</v>
       </c>
       <c r="T32" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="U32" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="V32" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="W32" t="s">
         <v>492</v>
       </c>
       <c r="X32" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -4324,19 +4324,19 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G33">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
         <v>319</v>
@@ -4345,7 +4345,7 @@
         <v>353</v>
       </c>
       <c r="L33">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4369,39 +4369,39 @@
         <v>383</v>
       </c>
       <c r="T33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="U33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="V33" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="W33" t="s">
         <v>492</v>
       </c>
       <c r="X33" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G34">
         <v>300</v>
@@ -4410,10 +4410,10 @@
         <v>270</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -4440,27 +4440,27 @@
         <v>383</v>
       </c>
       <c r="T34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W34" t="s">
         <v>492</v>
       </c>
       <c r="X34" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y34" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -4469,25 +4469,25 @@
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>209</v>
       </c>
       <c r="G35">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L35">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4517,21 +4517,21 @@
         <v>445</v>
       </c>
       <c r="V35" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="W35" t="s">
         <v>492</v>
       </c>
       <c r="X35" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y35" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>58</v>
@@ -4546,19 +4546,19 @@
         <v>209</v>
       </c>
       <c r="G36">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L36">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4588,24 +4588,24 @@
         <v>445</v>
       </c>
       <c r="V36" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="W36" t="s">
         <v>492</v>
       </c>
       <c r="X36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>86</v>
@@ -4617,19 +4617,19 @@
         <v>210</v>
       </c>
       <c r="G37">
-        <v>560000</v>
+        <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L37">
-        <v>290800</v>
+        <v>300</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4641,31 +4641,31 @@
         <v>374</v>
       </c>
       <c r="P37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q37" t="s">
         <v>378</v>
       </c>
       <c r="R37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T37" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="U37" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="V37" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="W37" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="X37" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Y37" t="s">
         <v>528</v>
@@ -4673,34 +4673,34 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G38">
-        <v>560000</v>
+        <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L38">
-        <v>560000</v>
+        <v>800</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4712,31 +4712,31 @@
         <v>374</v>
       </c>
       <c r="P38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q38" t="s">
         <v>378</v>
       </c>
       <c r="R38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T38" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="U38" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="V38" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="W38" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="X38" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Y38" t="s">
         <v>528</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -4759,69 +4759,69 @@
         <v>211</v>
       </c>
       <c r="G39">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
         <v>366</v>
       </c>
       <c r="L39">
+        <v>600</v>
+      </c>
+      <c r="M39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>200</v>
-      </c>
       <c r="N39" t="s">
         <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q39" t="s">
         <v>378</v>
       </c>
       <c r="R39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="U39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V39" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="W39" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="X39" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Y39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>143</v>
@@ -4830,19 +4830,19 @@
         <v>212</v>
       </c>
       <c r="G40">
-        <v>5000</v>
+        <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="I40" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L40">
-        <v>5000</v>
+        <v>290800</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>374</v>
       </c>
       <c r="P40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q40" t="s">
         <v>378</v>
@@ -4863,22 +4863,22 @@
         <v>380</v>
       </c>
       <c r="S40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T40" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="U40" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="V40" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="W40" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X40" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Y40" t="s">
         <v>529</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
@@ -4898,22 +4898,22 @@
         <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41">
-        <v>200</v>
+        <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L41">
-        <v>200</v>
+        <v>560000</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>374</v>
       </c>
       <c r="P41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q41" t="s">
         <v>378</v>
@@ -4934,22 +4934,22 @@
         <v>380</v>
       </c>
       <c r="S41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T41" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U41" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="V41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X41" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Y41" t="s">
         <v>529</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>89</v>
@@ -4969,34 +4969,34 @@
         <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G42">
-        <v>6110</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I42" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L42">
-        <v>6110</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s">
         <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q42" t="s">
         <v>378</v>
@@ -5014,16 +5014,16 @@
         <v>448</v>
       </c>
       <c r="V42" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="W42" t="s">
         <v>487</v>
       </c>
       <c r="X42" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5034,28 +5034,28 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G43">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L43">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5079,22 +5079,22 @@
         <v>385</v>
       </c>
       <c r="T43" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="U43" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="V43" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="W43" t="s">
         <v>487</v>
       </c>
       <c r="X43" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y43" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5111,22 +5111,22 @@
         <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G44">
-        <v>4372</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c r="I44" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L44">
-        <v>4372</v>
+        <v>200</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5156,24 +5156,24 @@
         <v>449</v>
       </c>
       <c r="V44" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="W44" t="s">
         <v>487</v>
       </c>
       <c r="X44" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y44" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>91</v>
@@ -5182,43 +5182,43 @@
         <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45">
-        <v>34000</v>
+        <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I45" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L45">
-        <v>34000</v>
+        <v>6110</v>
       </c>
       <c r="M45">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
         <v>374</v>
       </c>
       <c r="O45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q45" t="s">
         <v>378</v>
       </c>
       <c r="R45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S45" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T45" t="s">
         <v>409</v>
@@ -5227,13 +5227,13 @@
         <v>450</v>
       </c>
       <c r="V45" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W45" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="X45" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Y45" t="s">
         <v>530</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -5253,34 +5253,28 @@
         <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="G46">
-        <v>6500000</v>
+        <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>328</v>
-      </c>
-      <c r="J46" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s">
         <v>353</v>
       </c>
       <c r="L46">
-        <v>6500000</v>
+        <v>1000</v>
       </c>
       <c r="M46">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s">
         <v>374</v>
@@ -5301,51 +5295,51 @@
         <v>410</v>
       </c>
       <c r="U46" t="s">
-        <v>246</v>
+        <v>451</v>
       </c>
       <c r="V46" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="W46" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="X46" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="Y46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
         <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47">
-        <v>345000</v>
+        <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L47">
-        <v>100</v>
+        <v>4372</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5363,13 +5357,13 @@
         <v>378</v>
       </c>
       <c r="R47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S47" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U47" t="s">
         <v>451</v>
@@ -5378,18 +5372,18 @@
         <v>480</v>
       </c>
       <c r="W47" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="X47" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="Y47" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -5398,37 +5392,37 @@
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
         <v>219</v>
       </c>
       <c r="G48">
-        <v>345000</v>
+        <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L48">
-        <v>269900</v>
+        <v>34000</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="N48" t="s">
         <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P48" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q48" t="s">
         <v>378</v>
@@ -5437,72 +5431,72 @@
         <v>379</v>
       </c>
       <c r="S48" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T48" t="s">
         <v>411</v>
       </c>
       <c r="U48" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V48" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="W48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="X48" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
         <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G49">
-        <v>130100</v>
+        <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="K49" t="s">
         <v>353</v>
       </c>
       <c r="L49">
-        <v>130100</v>
+        <v>6500000</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N49" t="s">
         <v>375</v>
       </c>
       <c r="O49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P49" t="s">
         <v>376</v>
@@ -5511,25 +5505,25 @@
         <v>378</v>
       </c>
       <c r="R49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U49" t="s">
-        <v>451</v>
+        <v>246</v>
       </c>
       <c r="V49" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y49" t="s">
         <v>532</v>
@@ -5543,43 +5537,37 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G50">
-        <v>52300</v>
+        <v>345000</v>
       </c>
       <c r="H50" t="s">
         <v>279</v>
       </c>
       <c r="I50" t="s">
-        <v>220</v>
-      </c>
-      <c r="J50" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L50">
-        <v>52300</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P50" t="s">
         <v>376</v>
@@ -5594,13 +5582,13 @@
         <v>383</v>
       </c>
       <c r="T50" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="U50" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="V50" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W50" t="s">
         <v>495</v>
@@ -5609,7 +5597,7 @@
         <v>508</v>
       </c>
       <c r="Y50" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5620,43 +5608,37 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G51">
-        <v>127300</v>
+        <v>345000</v>
       </c>
       <c r="H51" t="s">
         <v>279</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
-      </c>
-      <c r="J51" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="K51" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L51">
-        <v>127300</v>
+        <v>269900</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P51" t="s">
         <v>376</v>
@@ -5671,13 +5653,13 @@
         <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="U51" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="V51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W51" t="s">
         <v>495</v>
@@ -5686,7 +5668,7 @@
         <v>508</v>
       </c>
       <c r="Y51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5697,25 +5679,25 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
         <v>247</v>
       </c>
       <c r="G52">
-        <v>10000</v>
+        <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
         <v>247</v>
@@ -5724,7 +5706,7 @@
         <v>353</v>
       </c>
       <c r="L52">
-        <v>10000</v>
+        <v>130100</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5748,13 +5730,13 @@
         <v>383</v>
       </c>
       <c r="T52" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="U52" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="V52" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W52" t="s">
         <v>495</v>
@@ -5763,45 +5745,45 @@
         <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="G53">
-        <v>1000</v>
+        <v>52300</v>
       </c>
       <c r="H53" t="s">
         <v>280</v>
       </c>
       <c r="I53" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="K53" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L53">
-        <v>1000</v>
+        <v>52300</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5825,13 +5807,13 @@
         <v>383</v>
       </c>
       <c r="T53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V53" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="W53" t="s">
         <v>495</v>
@@ -5840,48 +5822,54 @@
         <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
         <v>222</v>
       </c>
+      <c r="F54" t="s">
+        <v>247</v>
+      </c>
       <c r="G54">
-        <v>50000</v>
+        <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="I54" t="s">
-        <v>331</v>
+        <v>222</v>
+      </c>
+      <c r="J54" t="s">
+        <v>247</v>
       </c>
       <c r="K54" t="s">
         <v>353</v>
       </c>
       <c r="L54">
-        <v>20000</v>
+        <v>127300</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P54" t="s">
         <v>376</v>
@@ -5896,13 +5884,13 @@
         <v>383</v>
       </c>
       <c r="T54" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V54" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="W54" t="s">
         <v>495</v>
@@ -5911,12 +5899,12 @@
         <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -5925,34 +5913,40 @@
         <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>247</v>
       </c>
       <c r="G55">
-        <v>386</v>
+        <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="I55" t="s">
-        <v>332</v>
+        <v>222</v>
+      </c>
+      <c r="J55" t="s">
+        <v>247</v>
       </c>
       <c r="K55" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L55">
-        <v>386</v>
+        <v>10000</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P55" t="s">
         <v>376</v>
@@ -5961,7 +5955,7 @@
         <v>378</v>
       </c>
       <c r="R55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S55" t="s">
         <v>383</v>
@@ -5976,10 +5970,10 @@
         <v>481</v>
       </c>
       <c r="W55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y55" t="s">
         <v>533</v>
@@ -5987,40 +5981,40 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
         <v>56</v>
       </c>
       <c r="G56">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="s">
         <v>281</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
       </c>
       <c r="K56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L56">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -6038,25 +6032,25 @@
         <v>378</v>
       </c>
       <c r="R56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S56" t="s">
         <v>383</v>
       </c>
       <c r="T56" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U56" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V56" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="W56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y56" t="s">
         <v>533</v>
@@ -6064,34 +6058,34 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G57">
-        <v>350</v>
+        <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>282</v>
+        <v>138</v>
       </c>
       <c r="I57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K57" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L57">
-        <v>350</v>
+        <v>20000</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6109,25 +6103,25 @@
         <v>378</v>
       </c>
       <c r="R57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S57" t="s">
         <v>383</v>
       </c>
       <c r="T57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U57" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V57" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="W57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y57" t="s">
         <v>533</v>
@@ -6135,34 +6129,34 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
         <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G58">
-        <v>500</v>
+        <v>386</v>
       </c>
       <c r="H58" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="I58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L58">
-        <v>500</v>
+        <v>386</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -6186,13 +6180,13 @@
         <v>383</v>
       </c>
       <c r="T58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U58" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V58" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="W58" t="s">
         <v>496</v>
@@ -6201,48 +6195,54 @@
         <v>509</v>
       </c>
       <c r="Y58" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
       </c>
       <c r="G59">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I59" t="s">
-        <v>335</v>
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>56</v>
       </c>
       <c r="K59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L59">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P59" t="s">
         <v>376</v>
@@ -6257,13 +6257,13 @@
         <v>383</v>
       </c>
       <c r="T59" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U59" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V59" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="W59" t="s">
         <v>496</v>
@@ -6272,39 +6272,39 @@
         <v>509</v>
       </c>
       <c r="Y59" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G60">
-        <v>3100</v>
+        <v>350</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K60" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L60">
-        <v>3100</v>
+        <v>350</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -6325,7 +6325,7 @@
         <v>380</v>
       </c>
       <c r="S60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T60" t="s">
         <v>415</v>
@@ -6334,13 +6334,13 @@
         <v>455</v>
       </c>
       <c r="V60" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="W60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y60" t="s">
         <v>534</v>
@@ -6348,34 +6348,34 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
         <v>228</v>
       </c>
       <c r="G61">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="I61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L61">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6396,22 +6396,22 @@
         <v>380</v>
       </c>
       <c r="S61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U61" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V61" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y61" t="s">
         <v>534</v>
@@ -6419,52 +6419,46 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
         <v>229</v>
       </c>
-      <c r="F62" t="s">
-        <v>248</v>
-      </c>
       <c r="G62">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="H62" t="s">
         <v>284</v>
       </c>
       <c r="I62" t="s">
-        <v>337</v>
-      </c>
-      <c r="J62" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L62">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s">
         <v>374</v>
       </c>
       <c r="P62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q62" t="s">
         <v>378</v>
@@ -6476,72 +6470,66 @@
         <v>383</v>
       </c>
       <c r="T62" t="s">
-        <v>229</v>
+        <v>416</v>
       </c>
       <c r="U62" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="V62" t="s">
         <v>476</v>
       </c>
       <c r="W62" t="s">
-        <v>229</v>
+        <v>496</v>
       </c>
       <c r="X62" t="s">
-        <v>248</v>
+        <v>509</v>
       </c>
       <c r="Y62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
         <v>230</v>
       </c>
-      <c r="F63" t="s">
-        <v>249</v>
-      </c>
       <c r="G63">
-        <v>40</v>
+        <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>338</v>
-      </c>
-      <c r="J63" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="K63" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>3100</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O63" t="s">
         <v>374</v>
       </c>
       <c r="P63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q63" t="s">
         <v>378</v>
@@ -6550,75 +6538,69 @@
         <v>380</v>
       </c>
       <c r="S63" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U63" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="V63" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="W63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X63" t="s">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="Y63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
         <v>230</v>
       </c>
-      <c r="F64" t="s">
-        <v>249</v>
-      </c>
       <c r="G64">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="H64" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>339</v>
-      </c>
-      <c r="J64" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="K64" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="L64">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="M64">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O64" t="s">
         <v>374</v>
       </c>
       <c r="P64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q64" t="s">
         <v>378</v>
@@ -6627,66 +6609,66 @@
         <v>380</v>
       </c>
       <c r="S64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T64" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U64" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="V64" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="W64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X64" t="s">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K65" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="L65">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="M65">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N65" t="s">
         <v>375</v>
@@ -6707,19 +6689,19 @@
         <v>383</v>
       </c>
       <c r="T65" t="s">
-        <v>416</v>
+        <v>231</v>
       </c>
       <c r="U65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V65" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W65" t="s">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="X65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y65" t="s">
         <v>536</v>
@@ -6727,76 +6709,76 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G66">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="I66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J66" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="K66" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L66">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N66" t="s">
         <v>375</v>
       </c>
       <c r="O66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P66" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q66" t="s">
         <v>378</v>
       </c>
       <c r="R66" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S66" t="s">
         <v>383</v>
       </c>
       <c r="T66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U66" t="s">
-        <v>456</v>
+        <v>249</v>
       </c>
       <c r="V66" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="W66" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="X66" t="s">
-        <v>511</v>
+        <v>249</v>
       </c>
       <c r="Y66" t="s">
         <v>537</v>
@@ -6804,10 +6786,10 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
@@ -6818,26 +6800,32 @@
       <c r="E67" t="s">
         <v>232</v>
       </c>
+      <c r="F67" t="s">
+        <v>249</v>
+      </c>
       <c r="G67">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I67" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="J67" t="s">
+        <v>351</v>
       </c>
       <c r="K67" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L67">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O67" t="s">
         <v>374</v>
@@ -6858,57 +6846,63 @@
         <v>418</v>
       </c>
       <c r="U67" t="s">
-        <v>457</v>
+        <v>249</v>
       </c>
       <c r="V67" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W67" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="X67" t="s">
-        <v>457</v>
+        <v>249</v>
       </c>
       <c r="Y67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
       </c>
       <c r="G68">
-        <v>369500</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I68" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="J68" t="s">
+        <v>351</v>
       </c>
       <c r="K68" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="L68">
-        <v>369500</v>
+        <v>100</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O68" t="s">
         <v>374</v>
@@ -6926,30 +6920,30 @@
         <v>383</v>
       </c>
       <c r="T68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U68" t="s">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="V68" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W68" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="X68" t="s">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="Y68" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
         <v>102</v>
@@ -6960,38 +6954,44 @@
       <c r="E69" t="s">
         <v>233</v>
       </c>
+      <c r="F69" t="s">
+        <v>250</v>
+      </c>
       <c r="G69">
-        <v>387000</v>
+        <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="I69" t="s">
-        <v>342</v>
+        <v>340</v>
+      </c>
+      <c r="J69" t="s">
+        <v>250</v>
       </c>
       <c r="K69" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L69">
-        <v>387000</v>
+        <v>500</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q69" t="s">
         <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S69" t="s">
         <v>383</v>
@@ -7003,24 +7003,24 @@
         <v>458</v>
       </c>
       <c r="V69" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W69" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="X69" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="Y69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>103</v>
@@ -7032,19 +7032,19 @@
         <v>234</v>
       </c>
       <c r="G70">
-        <v>16000</v>
+        <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K70" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L70">
-        <v>16000</v>
+        <v>60000</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -7056,13 +7056,13 @@
         <v>374</v>
       </c>
       <c r="P70" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q70" t="s">
         <v>378</v>
       </c>
       <c r="R70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S70" t="s">
         <v>383</v>
@@ -7074,24 +7074,24 @@
         <v>459</v>
       </c>
       <c r="V70" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="W70" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="X70" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="Y70" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
         <v>104</v>
@@ -7102,38 +7102,32 @@
       <c r="E71" t="s">
         <v>235</v>
       </c>
-      <c r="F71" t="s">
-        <v>56</v>
-      </c>
       <c r="G71">
-        <v>5400</v>
+        <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
-      </c>
-      <c r="J71" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K71" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L71">
-        <v>5400</v>
+        <v>369500</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q71" t="s">
         <v>378</v>
@@ -7151,48 +7145,48 @@
         <v>460</v>
       </c>
       <c r="V71" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="W71" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="X71" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="Y71" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G72">
-        <v>6200</v>
+        <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I72" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L72">
-        <v>6100</v>
+        <v>387000</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -7204,7 +7198,7 @@
         <v>374</v>
       </c>
       <c r="P72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q72" t="s">
         <v>378</v>
@@ -7216,196 +7210,202 @@
         <v>383</v>
       </c>
       <c r="T72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="W72" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="X72" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="Y72" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G73">
-        <v>2800</v>
+        <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I73" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L73">
+        <v>16000</v>
+      </c>
+      <c r="M73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>2800</v>
-      </c>
       <c r="N73" t="s">
         <v>374</v>
       </c>
       <c r="O73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q73" t="s">
         <v>378</v>
       </c>
       <c r="R73" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S73" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T73" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="U73" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="V73" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="W73" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="X73" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="Y73" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
       </c>
       <c r="G74">
-        <v>25</v>
+        <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="I74" t="s">
-        <v>323</v>
+        <v>344</v>
+      </c>
+      <c r="J74" t="s">
+        <v>352</v>
       </c>
       <c r="K74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="L74">
+        <v>5400</v>
+      </c>
+      <c r="M74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>25</v>
-      </c>
       <c r="N74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O74" t="s">
         <v>375</v>
       </c>
       <c r="P74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q74" t="s">
         <v>378</v>
       </c>
       <c r="R74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S74" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T74" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="U74" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="V74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W74" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="X74" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="Y74" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="I75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K75" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L75">
-        <v>8</v>
+        <v>6100</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -7423,72 +7423,72 @@
         <v>378</v>
       </c>
       <c r="R75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S75" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T75" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U75" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V75" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="W75" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="X75" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="Y75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
         <v>239</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I76" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="K76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L76">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="N76" t="s">
         <v>374</v>
       </c>
       <c r="O76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q76" t="s">
         <v>378</v>
@@ -7500,19 +7500,19 @@
         <v>386</v>
       </c>
       <c r="T76" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="U76" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="V76" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="W76" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="X76" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Y76" t="s">
         <v>544</v>
@@ -7526,31 +7526,31 @@
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
         <v>240</v>
       </c>
       <c r="G77">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I77" t="s">
         <v>323</v>
       </c>
       <c r="K77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
         <v>374</v>
@@ -7565,60 +7565,60 @@
         <v>378</v>
       </c>
       <c r="R77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S77" t="s">
         <v>386</v>
       </c>
       <c r="T77" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="U77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="V77" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W77" t="s">
         <v>487</v>
       </c>
       <c r="X77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
         <v>241</v>
       </c>
       <c r="G78">
-        <v>4500</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="I78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K78" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L78">
-        <v>4500</v>
+        <v>8</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -7636,39 +7636,39 @@
         <v>378</v>
       </c>
       <c r="R78" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="S78" t="s">
         <v>386</v>
       </c>
       <c r="T78" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V78" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W78" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="X78" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="Y78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
         <v>171</v>
@@ -7677,19 +7677,19 @@
         <v>241</v>
       </c>
       <c r="G79">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K79" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L79">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -7707,96 +7707,96 @@
         <v>378</v>
       </c>
       <c r="R79" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="S79" t="s">
         <v>386</v>
       </c>
       <c r="T79" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U79" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W79" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="X79" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="Y79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
         <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G80">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
         <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="K80" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="L80">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N80" t="s">
         <v>374</v>
       </c>
       <c r="O80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q80" t="s">
         <v>378</v>
       </c>
       <c r="R80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S80" t="s">
         <v>386</v>
       </c>
       <c r="T80" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="U80" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="V80" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="W80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X80" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="Y80" t="s">
         <v>546</v>
@@ -7810,28 +7810,28 @@
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
         <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G81">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="H81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I81" t="s">
         <v>347</v>
       </c>
       <c r="K81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L81">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>386</v>
       </c>
       <c r="T81" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U81" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V81" t="s">
         <v>485</v>
@@ -7870,7 +7870,7 @@
         <v>506</v>
       </c>
       <c r="Y81" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -7881,28 +7881,28 @@
         <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
         <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G82">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="H82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I82" t="s">
         <v>347</v>
       </c>
       <c r="K82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L82">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>386</v>
       </c>
       <c r="T82" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U82" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V82" t="s">
         <v>485</v>
@@ -7941,7 +7941,7 @@
         <v>506</v>
       </c>
       <c r="Y82" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7952,28 +7952,28 @@
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
         <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G83">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="H83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I83" t="s">
         <v>347</v>
       </c>
       <c r="K83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L83">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>386</v>
       </c>
       <c r="T83" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U83" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V83" t="s">
         <v>485</v>
@@ -8012,7 +8012,7 @@
         <v>506</v>
       </c>
       <c r="Y83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -8023,28 +8023,28 @@
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
         <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G84">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="H84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I84" t="s">
         <v>347</v>
       </c>
       <c r="K84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L84">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>386</v>
       </c>
       <c r="T84" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U84" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V84" t="s">
         <v>485</v>
@@ -8083,7 +8083,7 @@
         <v>506</v>
       </c>
       <c r="Y84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -8094,28 +8094,28 @@
         <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
         <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G85">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="H85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I85" t="s">
         <v>347</v>
       </c>
       <c r="K85" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L85">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>386</v>
       </c>
       <c r="T85" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U85" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="V85" t="s">
         <v>485</v>
@@ -8154,54 +8154,48 @@
         <v>506</v>
       </c>
       <c r="Y85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
         <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
-      </c>
-      <c r="F86" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G86">
-        <v>4537</v>
+        <v>2900</v>
       </c>
       <c r="H86" t="s">
         <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>348</v>
-      </c>
-      <c r="J86" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="K86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L86">
-        <v>4537</v>
+        <v>2900</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P86" t="s">
         <v>376</v>
@@ -8216,13 +8210,13 @@
         <v>386</v>
       </c>
       <c r="T86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U86" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V86" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="W86" t="s">
         <v>488</v>
@@ -8231,54 +8225,48 @@
         <v>506</v>
       </c>
       <c r="Y86" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
         <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
-      </c>
-      <c r="F87" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G87">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="H87" t="s">
         <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>348</v>
-      </c>
-      <c r="J87" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="K87" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L87">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P87" t="s">
         <v>376</v>
@@ -8293,13 +8281,13 @@
         <v>386</v>
       </c>
       <c r="T87" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V87" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="W87" t="s">
         <v>488</v>
@@ -8308,15 +8296,15 @@
         <v>506</v>
       </c>
       <c r="Y87" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
@@ -8328,19 +8316,19 @@
         <v>243</v>
       </c>
       <c r="G88">
-        <v>60376.24</v>
+        <v>2500</v>
       </c>
       <c r="H88" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="K88" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L88">
-        <v>60376.24</v>
+        <v>2500</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8358,10 +8346,10 @@
         <v>378</v>
       </c>
       <c r="R88" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S88" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="T88" t="s">
         <v>426</v>
@@ -8370,13 +8358,13 @@
         <v>465</v>
       </c>
       <c r="V88" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="W88" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="X88" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="Y88" t="s">
         <v>547</v>
@@ -8384,43 +8372,49 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
         <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F89" t="s">
+        <v>251</v>
       </c>
       <c r="G89">
-        <v>17524.75</v>
+        <v>4537</v>
       </c>
       <c r="H89" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="I89" t="s">
-        <v>243</v>
+        <v>348</v>
+      </c>
+      <c r="J89" t="s">
+        <v>251</v>
       </c>
       <c r="K89" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L89">
-        <v>17524.75</v>
+        <v>4537</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P89" t="s">
         <v>376</v>
@@ -8429,25 +8423,25 @@
         <v>378</v>
       </c>
       <c r="R89" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S89" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="T89" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U89" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="V89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="W89" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="X89" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="Y89" t="s">
         <v>547</v>
@@ -8455,10 +8449,10 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -8469,29 +8463,35 @@
       <c r="E90" t="s">
         <v>244</v>
       </c>
+      <c r="F90" t="s">
+        <v>251</v>
+      </c>
       <c r="G90">
-        <v>200</v>
+        <v>4700</v>
       </c>
       <c r="H90" t="s">
         <v>299</v>
       </c>
       <c r="I90" t="s">
-        <v>244</v>
+        <v>348</v>
+      </c>
+      <c r="J90" t="s">
+        <v>251</v>
       </c>
       <c r="K90" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L90">
-        <v>200</v>
+        <v>4700</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P90" t="s">
         <v>376</v>
@@ -8500,10 +8500,10 @@
         <v>378</v>
       </c>
       <c r="R90" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S90" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="T90" t="s">
         <v>427</v>
@@ -8512,13 +8512,13 @@
         <v>466</v>
       </c>
       <c r="V90" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="X90" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="Y90" t="s">
         <v>547</v>

--- a/data/excel_tables/9.3_false_donations_info.xlsx
+++ b/data/excel_tables/9.3_false_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="598">
   <si>
     <t>bank_name</t>
   </si>
@@ -185,6 +185,12 @@
     <t>Публічне акціонерне товариство акціонерний банк "Укргазбанк"</t>
   </si>
   <si>
+    <t xml:space="preserve"> АКЦIОНЕРНЕ ТОВАРИСТВО КОМЕРЦIЙНИЙ БАНК "ПРИВАТБАНК"</t>
+  </si>
+  <si>
+    <t>АТ КБ «ПриватБанк»</t>
+  </si>
+  <si>
     <t>14360570</t>
   </si>
   <si>
@@ -221,6 +227,12 @@
     <t>09322277</t>
   </si>
   <si>
+    <t>40422142</t>
+  </si>
+  <si>
+    <t>46305299</t>
+  </si>
+  <si>
     <t>UA923387830000026005055131982</t>
   </si>
   <si>
@@ -350,6 +362,21 @@
     <t>UA413052990000026001026208929</t>
   </si>
   <si>
+    <t>UA513515330000026007045911392</t>
+  </si>
+  <si>
+    <t>UA723223130000026000000047424</t>
+  </si>
+  <si>
+    <t>UA463052990000026001035009261</t>
+  </si>
+  <si>
+    <t>UA193052990000026007030103865</t>
+  </si>
+  <si>
+    <t>UA103052990000026008040127294</t>
+  </si>
+  <si>
     <t>22.10.2020</t>
   </si>
   <si>
@@ -566,6 +593,30 @@
     <t>30.12.2021</t>
   </si>
   <si>
+    <t>03.07.2024</t>
+  </si>
+  <si>
+    <t>09.07.2024</t>
+  </si>
+  <si>
+    <t>08.11.2024</t>
+  </si>
+  <si>
+    <t>07.02.2024</t>
+  </si>
+  <si>
+    <t>14.03.2024</t>
+  </si>
+  <si>
+    <t>03.04.2024</t>
+  </si>
+  <si>
+    <t>25.03.2024</t>
+  </si>
+  <si>
+    <t>07.07.2023</t>
+  </si>
+  <si>
     <t>ТВАРДИЙ ЮРІЙ МИХАЙЛОВИЧ</t>
   </si>
   <si>
@@ -752,6 +803,21 @@
     <t>ТОВ "ГОВІРСА"</t>
   </si>
   <si>
+    <t>РЄЗНІКОВ СЕРГІЙ ЮРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>СЛУГА НАРОДУ ПП</t>
+  </si>
+  <si>
+    <t>ПРАТ "ОБОЛОНЬ"</t>
+  </si>
+  <si>
+    <t>ЗІНЧЕНКО МИКОЛА АНДРІЙОВИЧ</t>
+  </si>
+  <si>
+    <t>САМОЙЛЕНКО КАТЕРИНА МИХАЙЛІВНА</t>
+  </si>
+  <si>
     <t>21715714</t>
   </si>
   <si>
@@ -773,6 +839,9 @@
     <t>44231733</t>
   </si>
   <si>
+    <t>05391057</t>
+  </si>
+  <si>
     <t>12.02.2021</t>
   </si>
   <si>
@@ -917,6 +986,21 @@
     <t>22.07.2024</t>
   </si>
   <si>
+    <t>22.10.2024</t>
+  </si>
+  <si>
+    <t>12.11.2024</t>
+  </si>
+  <si>
+    <t>14.11.2024</t>
+  </si>
+  <si>
+    <t>17.12.2024</t>
+  </si>
+  <si>
+    <t>30.10.2024</t>
+  </si>
+  <si>
     <t>Твардий Юрій Михайлович</t>
   </si>
   <si>
@@ -1062,6 +1146,21 @@
   </si>
   <si>
     <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ГОВІРСА"</t>
+  </si>
+  <si>
+    <t>Рєзніков Сергій Юрійович</t>
+  </si>
+  <si>
+    <t>СЛУГА НАРОДУ ПОЛІТИЧНА ПАРТІЯ</t>
+  </si>
+  <si>
+    <t>ПрАТ "Оболонь"</t>
+  </si>
+  <si>
+    <t>Зінченко Микола Андрійович</t>
+  </si>
+  <si>
+    <t>Самойленко Катерина Михайлівна</t>
   </si>
   <si>
     <t>2980415485</t>
@@ -1143,6 +1242,9 @@
     <t>101 UA033805260000002600800159741 Перерахування платежу №@2PL584236, оплаченого як Добровільний внесок Джуринський П. Б.;2661712872;вул. Краснова, буд. 11а, кв. 24, м. Одеса (добровільна відмова від внеску, по внескодавцю є кримінальна справа)</t>
   </si>
   <si>
+    <t>Повернення помилково зарахованих коштів згідно платіжного доручення № 1151 від 08.11.2024р. Без ПДВ</t>
+  </si>
+  <si>
     <t>Фізична особа</t>
   </si>
   <si>
@@ -1170,6 +1272,9 @@
     <t>3 квартал</t>
   </si>
   <si>
+    <t>4 квартал</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
@@ -1257,7 +1362,7 @@
     <t>ПОЛІТИЧНА ПАРТІЯ «БДЖОЛА»</t>
   </si>
   <si>
-    <t>Львівська крайова організація Народного Руху України</t>
+    <t>Львівська крайова організація політичної партії "Народний Рух України"</t>
   </si>
   <si>
     <t>ЗАКАРПАТСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ЗА МАЙБУТНЄ</t>
@@ -1275,7 +1380,7 @@
     <t>Хустська міська організація Політичної Партії "Українська Стратегія Гройсмана"</t>
   </si>
   <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «СИЛА І ЧЕСТЬ»</t>
+    <t>ПОЛІТИЧНА ПАРТІЯ «КОНСЕРВАТИВНО-ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ»</t>
   </si>
   <si>
     <t>ЖИТОМИРСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА"</t>
@@ -1305,6 +1410,21 @@
     <t>Оболонська районна партійна організація Всеукраїнського об'єднання "Батьківщина" в м.Києві</t>
   </si>
   <si>
+    <t>ХАРКІВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "ВСЕУКРАЇНСЬКЕ ОБ'ЄДНАННЯ "БАТЬКІВЩИНА"</t>
+  </si>
+  <si>
+    <t>ТЕРНОПІЛЬСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "СЛУГА НАРОДУ"</t>
+  </si>
+  <si>
+    <t>Київська міська організація Народного Руху України</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ "КОМАНДА ІГОРЯ САПОЖКА – "ЄДНІСТЬ"</t>
+  </si>
+  <si>
+    <t>КИЇВСЬКА ОБЛАСНА ОРГАНІЗАЦІЯ ПОЛІТИЧНОЇ ПАРТІЇ "КОМАНДА ІГОРЯ САПОЖКА - "ЄДНІСТЬ"</t>
+  </si>
+  <si>
     <t>40053063</t>
   </si>
   <si>
@@ -1365,9 +1485,6 @@
     <t>43449722</t>
   </si>
   <si>
-    <t>40422142</t>
-  </si>
-  <si>
     <t>43945782</t>
   </si>
   <si>
@@ -1422,6 +1539,21 @@
     <t>25895860</t>
   </si>
   <si>
+    <t>25792203</t>
+  </si>
+  <si>
+    <t>43723249</t>
+  </si>
+  <si>
+    <t>21656532</t>
+  </si>
+  <si>
+    <t>39341474</t>
+  </si>
+  <si>
+    <t>43764332</t>
+  </si>
+  <si>
     <t>Тернопільська обл.</t>
   </si>
   <si>
@@ -1479,6 +1611,9 @@
     <t>Волинська обл.</t>
   </si>
   <si>
+    <t>Харківська обл.</t>
+  </si>
+  <si>
     <t>СИЛА ЛЮДЕЙ</t>
   </si>
   <si>
@@ -1515,7 +1650,7 @@
     <t>УКРАЇНСЬКА СТРАТЕГІЯ ГРОЙСМАНА</t>
   </si>
   <si>
-    <t>СИЛА І ЧЕСТЬ</t>
+    <t>КОНСЕРВАТИВНО-ДЕМОКРАТИЧНА ПАРТІЯ УКРАЇНИ СИЛА І ЧЕСТЬ</t>
   </si>
   <si>
     <t>УДАР (УКРАЇНСЬКИЙ ДЕМОКРАТИЧНИЙ АЛЬЯНС ЗА РЕФОРМИ) ВІТАЛІЯ КЛИЧКА</t>
@@ -1536,6 +1671,9 @@
     <t>ГРОМАДЯНСЬКА ПОЗИЦІЯ</t>
   </si>
   <si>
+    <t>КОМАНДА ІГОРЯ САПОЖКА – ЄДНІСТЬ</t>
+  </si>
+  <si>
     <t>39378656</t>
   </si>
   <si>
@@ -1663,6 +1801,18 @@
   </si>
   <si>
     <t>8bfa2260-9d13-11ef-b2b8-41c0413be8f6</t>
+  </si>
+  <si>
+    <t>d1d26b60-e54f-11ef-8519-99527ea3bb0b</t>
+  </si>
+  <si>
+    <t>34271330-e55d-11ef-90d5-ff8d5b0be14c</t>
+  </si>
+  <si>
+    <t>185d6920-e6ec-11ef-9c87-13513ebc86d2</t>
+  </si>
+  <si>
+    <t>52f64ae0-e799-11ef-a7f9-4fd7247b299f</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2108,28 +2258,28 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="K2" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -2138,40 +2288,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O2" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P2" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q2" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R2" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S2" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T2" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="U2" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="V2" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="W2" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="X2" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="Y2" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2179,28 +2329,28 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="K3" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="L3">
         <v>3000</v>
@@ -2209,40 +2359,40 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O3" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P3" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q3" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R3" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S3" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T3" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="U3" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="V3" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="W3" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X3" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2250,28 +2400,28 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G4">
         <v>19000</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K4" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="L4">
         <v>19000</v>
@@ -2280,40 +2430,40 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O4" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P4" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q4" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R4" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S4" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T4" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="U4" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="V4" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="W4" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X4" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2321,28 +2471,28 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K5" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -2351,40 +2501,40 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O5" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P5" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q5" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R5" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S5" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T5" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="U5" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="V5" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="W5" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X5" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2392,28 +2542,28 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G6">
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K6" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="L6">
         <v>5000</v>
@@ -2422,40 +2572,40 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O6" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P6" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q6" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R6" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S6" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T6" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="U6" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="V6" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="W6" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X6" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2463,28 +2613,28 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G7">
         <v>2186</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="L7">
         <v>2186</v>
@@ -2493,40 +2643,40 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="U7" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="V7" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="W7" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X7" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2534,28 +2684,28 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G8">
         <v>60376.24</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="L8">
         <v>60376.24</v>
@@ -2564,40 +2714,40 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O8" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P8" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q8" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R8" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S8" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T8" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="U8" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="V8" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="W8" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X8" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2605,28 +2755,28 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G9">
         <v>17524.75</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K9" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="L9">
         <v>17524.75</v>
@@ -2635,40 +2785,40 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O9" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P9" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q9" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R9" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S9" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T9" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="U9" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="V9" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="W9" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X9" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2676,28 +2826,28 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G10">
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K10" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="L10">
         <v>200</v>
@@ -2706,40 +2856,40 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O10" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P10" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q10" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R10" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S10" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T10" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="U10" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="V10" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="W10" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X10" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2747,28 +2897,28 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G11">
         <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="K11" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L11">
         <v>7.17</v>
@@ -2777,40 +2927,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O11" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P11" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q11" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R11" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S11" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T11" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="U11" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="V11" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="W11" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X11" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y11" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2818,34 +2968,34 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G12">
         <v>1099583</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="I12" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="J12" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="K12" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L12">
         <v>100000</v>
@@ -2854,40 +3004,40 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O12" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P12" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q12" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R12" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S12" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T12" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="U12" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="V12" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="W12" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="X12" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="Y12" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2895,28 +3045,28 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G13">
         <v>1600</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K13" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L13">
         <v>1600</v>
@@ -2925,40 +3075,40 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O13" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P13" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q13" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R13" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S13" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T13" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="U13" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="V13" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W13" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="X13" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="Y13" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2966,28 +3116,28 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G14">
         <v>5020</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I14" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="K14" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L14">
         <v>5020</v>
@@ -2996,40 +3146,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O14" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P14" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q14" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R14" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S14" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T14" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="U14" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="V14" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="W14" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="X14" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="Y14" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -3037,28 +3187,28 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G15">
         <v>150000</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="K15" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L15">
         <v>150000</v>
@@ -3067,40 +3217,40 @@
         <v>150000</v>
       </c>
       <c r="N15" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O15" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P15" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q15" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R15" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S15" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T15" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U15" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V15" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W15" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X15" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y15" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3108,28 +3258,28 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G16">
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="K16" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L16">
         <v>100000</v>
@@ -3138,40 +3288,40 @@
         <v>100000</v>
       </c>
       <c r="N16" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O16" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P16" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q16" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R16" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S16" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T16" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U16" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V16" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W16" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X16" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y16" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3179,28 +3329,28 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G17">
         <v>150000</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="K17" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L17">
         <v>150000</v>
@@ -3209,40 +3359,40 @@
         <v>150000</v>
       </c>
       <c r="N17" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O17" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P17" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q17" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R17" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S17" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T17" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U17" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V17" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W17" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X17" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y17" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3250,28 +3400,28 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G18">
         <v>160000</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="I18" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="K18" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L18">
         <v>160000</v>
@@ -3280,40 +3430,40 @@
         <v>160000</v>
       </c>
       <c r="N18" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O18" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P18" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q18" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R18" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S18" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T18" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U18" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V18" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W18" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X18" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y18" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3321,28 +3471,28 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G19">
         <v>950000</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="I19" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="K19" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L19">
         <v>950000</v>
@@ -3351,40 +3501,40 @@
         <v>950000</v>
       </c>
       <c r="N19" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O19" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P19" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q19" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R19" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S19" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T19" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U19" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V19" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W19" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X19" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y19" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -3392,28 +3542,28 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G20">
         <v>950000</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="K20" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L20">
         <v>950000</v>
@@ -3422,40 +3572,40 @@
         <v>950000</v>
       </c>
       <c r="N20" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O20" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P20" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q20" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R20" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S20" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T20" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U20" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V20" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W20" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X20" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y20" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3463,28 +3613,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G21">
         <v>97396.8</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I21" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="K21" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L21">
         <v>97396.8</v>
@@ -3493,40 +3643,40 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O21" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P21" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q21" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R21" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S21" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T21" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="U21" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="V21" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W21" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="X21" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="Y21" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -3534,34 +3684,34 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -3570,40 +3720,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O22" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P22" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q22" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R22" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S22" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T22" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="U22" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="V22" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="W22" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="X22" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="Y22" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -3611,28 +3761,28 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>5600</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="I23" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="K23" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L23">
         <v>5600</v>
@@ -3641,40 +3791,40 @@
         <v>5600</v>
       </c>
       <c r="N23" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O23" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P23" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q23" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R23" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S23" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T23" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="U23" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="V23" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W23" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="X23" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="Y23" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -3682,28 +3832,28 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="K24" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -3712,40 +3862,40 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O24" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P24" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q24" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R24" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S24" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T24" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="U24" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="V24" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W24" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="X24" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="Y24" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3753,28 +3903,28 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G25">
         <v>10500</v>
       </c>
       <c r="H25" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="I25" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="K25" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="L25">
         <v>10500</v>
@@ -3783,40 +3933,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O25" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P25" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q25" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R25" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S25" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T25" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="U25" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="V25" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W25" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3824,28 +3974,28 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G26">
         <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I26" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="K26" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3854,40 +4004,40 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O26" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P26" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q26" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R26" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S26" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T26" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="U26" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="V26" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W26" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X26" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y26" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3895,28 +4045,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G27">
         <v>1500</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I27" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K27" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3925,40 +4075,40 @@
         <v>1500</v>
       </c>
       <c r="N27" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O27" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P27" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q27" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R27" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S27" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T27" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="U27" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="V27" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W27" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X27" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y27" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3966,28 +4116,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G28">
         <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="I28" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="K28" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3996,40 +4146,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O28" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P28" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q28" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R28" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S28" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T28" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="U28" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="V28" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W28" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X28" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y28" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4037,28 +4187,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G29">
         <v>400</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I29" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="K29" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L29">
         <v>400</v>
@@ -4067,40 +4217,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O29" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P29" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q29" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R29" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S29" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T29" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="U29" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="V29" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W29" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X29" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y29" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4108,28 +4258,28 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I30" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="K30" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -4138,40 +4288,40 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O30" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P30" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q30" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R30" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S30" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T30" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="U30" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="V30" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W30" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X30" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y30" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4179,28 +4329,28 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="K31" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -4209,40 +4359,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O31" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P31" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q31" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R31" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S31" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T31" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="U31" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="V31" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="W31" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X31" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y31" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -4250,28 +4400,28 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G32">
         <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K32" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L32">
         <v>300</v>
@@ -4280,40 +4430,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O32" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P32" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q32" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R32" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S32" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T32" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="U32" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="V32" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="W32" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X32" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y32" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -4321,28 +4471,28 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G33">
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L33">
         <v>600</v>
@@ -4351,40 +4501,40 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O33" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P33" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q33" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R33" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S33" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T33" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="U33" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="V33" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="W33" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X33" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y33" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -4392,28 +4542,28 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G34">
         <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L34">
         <v>300</v>
@@ -4422,40 +4572,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O34" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P34" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q34" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R34" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S34" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T34" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="U34" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="V34" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="W34" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X34" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y34" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -4463,28 +4613,28 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K35" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L35">
         <v>300</v>
@@ -4493,40 +4643,40 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O35" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P35" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q35" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R35" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S35" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T35" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="U35" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="V35" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="W35" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X35" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y35" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -4534,28 +4684,28 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G36">
         <v>700</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K36" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L36">
         <v>700</v>
@@ -4564,40 +4714,40 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O36" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P36" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q36" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R36" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S36" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T36" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="U36" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="V36" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="W36" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X36" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y36" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -4605,28 +4755,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G37">
         <v>300</v>
       </c>
       <c r="H37" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="L37">
         <v>300</v>
@@ -4635,40 +4785,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O37" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P37" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q37" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R37" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S37" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T37" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="U37" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="V37" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="W37" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X37" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y37" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4676,28 +4826,28 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G38">
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="L38">
         <v>800</v>
@@ -4706,40 +4856,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O38" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P38" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q38" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R38" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S38" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T38" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="U38" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="V38" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="W38" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X38" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y38" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4747,28 +4897,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G39">
         <v>600</v>
       </c>
       <c r="H39" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="L39">
         <v>600</v>
@@ -4777,40 +4927,40 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O39" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P39" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q39" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R39" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S39" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T39" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="U39" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="V39" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="W39" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X39" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y39" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4818,28 +4968,28 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G40">
         <v>560000</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L40">
         <v>290800</v>
@@ -4848,40 +4998,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O40" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P40" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q40" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R40" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S40" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T40" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U40" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V40" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W40" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X40" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y40" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4889,28 +5039,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G41">
         <v>560000</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L41">
         <v>560000</v>
@@ -4919,40 +5069,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P41" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q41" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R41" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S41" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T41" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="U41" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="V41" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W41" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="X41" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="Y41" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4960,28 +5110,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G42">
         <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4990,40 +5140,40 @@
         <v>200</v>
       </c>
       <c r="N42" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P42" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q42" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R42" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S42" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T42" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="U42" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="V42" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W42" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X42" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y42" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5031,28 +5181,28 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G43">
         <v>5000</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="L43">
         <v>5000</v>
@@ -5061,40 +5211,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O43" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P43" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q43" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R43" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S43" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T43" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="U43" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="V43" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="W43" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X43" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y43" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5102,28 +5252,28 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G44">
         <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="L44">
         <v>200</v>
@@ -5132,40 +5282,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O44" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q44" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R44" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S44" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T44" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="U44" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="V44" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="W44" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X44" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y44" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5173,28 +5323,28 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G45">
         <v>6110</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="I45" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="L45">
         <v>6110</v>
@@ -5203,40 +5353,40 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O45" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P45" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q45" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R45" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S45" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T45" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="U45" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="V45" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="W45" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X45" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y45" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -5244,28 +5394,28 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G46">
         <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -5274,40 +5424,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P46" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q46" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R46" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S46" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T46" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="U46" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="V46" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="W46" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X46" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y46" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -5315,28 +5465,28 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G47">
         <v>4372</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="K47" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L47">
         <v>4372</v>
@@ -5345,40 +5495,40 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P47" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q47" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R47" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S47" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T47" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="U47" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="V47" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="W47" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X47" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y47" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -5386,28 +5536,28 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G48">
         <v>34000</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="K48" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L48">
         <v>34000</v>
@@ -5416,40 +5566,40 @@
         <v>34000</v>
       </c>
       <c r="N48" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P48" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q48" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R48" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S48" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T48" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="U48" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="V48" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W48" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="X48" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="Y48" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5457,34 +5607,34 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G49">
         <v>6500000</v>
       </c>
       <c r="H49" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="I49" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="J49" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L49">
         <v>6500000</v>
@@ -5493,40 +5643,40 @@
         <v>6500000</v>
       </c>
       <c r="N49" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P49" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q49" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R49" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S49" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="T49" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="U49" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="V49" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W49" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="X49" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="Y49" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -5534,28 +5684,28 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G50">
         <v>345000</v>
       </c>
       <c r="H50" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="K50" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L50">
         <v>100</v>
@@ -5564,40 +5714,40 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P50" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q50" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R50" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S50" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T50" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="U50" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="V50" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W50" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X50" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y50" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5605,28 +5755,28 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G51">
         <v>345000</v>
       </c>
       <c r="H51" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="I51" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L51">
         <v>269900</v>
@@ -5635,40 +5785,40 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O51" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P51" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q51" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R51" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S51" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T51" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="U51" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="V51" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W51" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X51" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y51" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5676,34 +5826,34 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G52">
         <v>130100</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I52" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J52" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L52">
         <v>130100</v>
@@ -5712,40 +5862,40 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P52" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q52" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R52" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S52" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T52" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="U52" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="V52" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W52" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X52" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y52" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -5753,34 +5903,34 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G53">
         <v>52300</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J53" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="K53" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L53">
         <v>52300</v>
@@ -5789,40 +5939,40 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O53" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P53" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q53" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R53" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S53" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T53" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="U53" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="V53" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W53" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X53" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y53" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5830,34 +5980,34 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G54">
         <v>127300</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I54" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J54" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="K54" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L54">
         <v>127300</v>
@@ -5866,40 +6016,40 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O54" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P54" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q54" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R54" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S54" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T54" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="U54" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="V54" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W54" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X54" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y54" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5907,34 +6057,34 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G55">
         <v>10000</v>
       </c>
       <c r="H55" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I55" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J55" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="K55" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L55">
         <v>10000</v>
@@ -5943,40 +6093,40 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O55" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P55" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q55" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R55" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S55" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T55" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="U55" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="V55" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W55" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X55" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y55" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5984,34 +6134,34 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G56">
         <v>1000</v>
       </c>
       <c r="H56" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -6020,40 +6170,40 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O56" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P56" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q56" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R56" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S56" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T56" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="U56" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="V56" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="W56" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X56" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y56" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -6061,28 +6211,28 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G57">
         <v>50000</v>
       </c>
       <c r="H57" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="K57" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L57">
         <v>20000</v>
@@ -6091,40 +6241,40 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O57" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P57" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q57" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R57" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S57" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T57" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="U57" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="V57" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="W57" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="X57" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="Y57" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -6132,28 +6282,28 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G58">
         <v>386</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="K58" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L58">
         <v>386</v>
@@ -6162,40 +6312,40 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O58" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P58" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q58" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R58" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S58" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T58" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="U58" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="V58" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="W58" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="X58" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="Y58" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6203,34 +6353,34 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G59">
         <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L59">
         <v>120</v>
@@ -6239,40 +6389,40 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O59" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P59" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q59" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R59" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S59" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T59" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="U59" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="V59" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="W59" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="X59" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="Y59" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -6280,28 +6430,28 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G60">
         <v>350</v>
       </c>
       <c r="H60" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="I60" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="K60" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L60">
         <v>350</v>
@@ -6310,40 +6460,40 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P60" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q60" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R60" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S60" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T60" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="U60" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="V60" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="W60" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="X60" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="Y60" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6351,28 +6501,28 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G61">
         <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I61" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="K61" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L61">
         <v>500</v>
@@ -6381,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O61" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P61" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q61" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R61" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S61" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T61" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="U61" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="V61" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W61" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="Y61" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -6422,28 +6572,28 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G62">
         <v>1200</v>
       </c>
       <c r="H62" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="K62" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L62">
         <v>1200</v>
@@ -6452,40 +6602,40 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O62" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P62" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q62" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R62" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S62" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T62" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="U62" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="V62" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="W62" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="X62" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="Y62" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -6493,28 +6643,28 @@
         <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G63">
         <v>3100</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I63" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="K63" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L63">
         <v>3100</v>
@@ -6523,40 +6673,40 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O63" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P63" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q63" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R63" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S63" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T63" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="U63" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="V63" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W63" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="X63" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="Y63" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6564,28 +6714,28 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G64">
         <v>12000</v>
       </c>
       <c r="H64" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I64" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="K64" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L64">
         <v>12000</v>
@@ -6594,40 +6744,40 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O64" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P64" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q64" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R64" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S64" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="T64" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="U64" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="V64" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="W64" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="X64" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="Y64" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -6635,34 +6785,34 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="G65">
         <v>2500</v>
       </c>
       <c r="H65" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="I65" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="J65" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="K65" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L65">
         <v>2500</v>
@@ -6671,40 +6821,40 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O65" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P65" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q65" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R65" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S65" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T65" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="U65" t="s">
+        <v>270</v>
+      </c>
+      <c r="V65" t="s">
+        <v>522</v>
+      </c>
+      <c r="W65" t="s">
         <v>248</v>
       </c>
-      <c r="V65" t="s">
-        <v>478</v>
-      </c>
-      <c r="W65" t="s">
-        <v>231</v>
-      </c>
       <c r="X65" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="Y65" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -6712,34 +6862,34 @@
         <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="G66">
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="I66" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="J66" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="K66" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="L66">
         <v>40</v>
@@ -6748,40 +6898,40 @@
         <v>40</v>
       </c>
       <c r="N66" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O66" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P66" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q66" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R66" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S66" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T66" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="U66" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="V66" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W66" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="X66" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Y66" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6789,34 +6939,34 @@
         <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F67" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="G67">
         <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="I67" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="J67" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="K67" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -6825,40 +6975,40 @@
         <v>100</v>
       </c>
       <c r="N67" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O67" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P67" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q67" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R67" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S67" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T67" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="U67" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="V67" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W67" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="X67" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Y67" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -6866,34 +7016,34 @@
         <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="G68">
         <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="I68" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="J68" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="K68" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -6902,40 +7052,40 @@
         <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O68" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P68" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q68" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R68" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S68" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T68" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="U68" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="V68" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W68" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="X68" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Y68" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6943,34 +7093,34 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F69" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G69">
         <v>500</v>
       </c>
       <c r="H69" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I69" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="J69" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="K69" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L69">
         <v>500</v>
@@ -6979,40 +7129,40 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O69" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P69" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q69" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R69" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S69" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T69" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="U69" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="V69" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="W69" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="X69" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="Y69" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7020,28 +7170,28 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G70">
         <v>60000</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="I70" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="K70" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L70">
         <v>60000</v>
@@ -7050,40 +7200,40 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O70" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P70" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q70" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R70" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S70" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T70" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="U70" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="V70" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W70" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="X70" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="Y70" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -7091,28 +7241,28 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G71">
         <v>369500</v>
       </c>
       <c r="H71" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="I71" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K71" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L71">
         <v>369500</v>
@@ -7121,40 +7271,40 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O71" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P71" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q71" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R71" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S71" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T71" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="U71" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="V71" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W71" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="X71" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="Y71" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7162,28 +7312,28 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G72">
         <v>387000</v>
       </c>
       <c r="H72" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="I72" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K72" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L72">
         <v>387000</v>
@@ -7192,40 +7342,40 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O72" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P72" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q72" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R72" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S72" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T72" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="U72" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="V72" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W72" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="X72" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="Y72" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -7233,28 +7383,28 @@
         <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G73">
         <v>16000</v>
       </c>
       <c r="H73" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="I73" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="K73" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L73">
         <v>16000</v>
@@ -7263,40 +7413,40 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O73" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P73" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q73" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R73" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S73" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T73" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="U73" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="V73" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="W73" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="X73" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="Y73" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -7304,34 +7454,34 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G74">
         <v>5400</v>
       </c>
       <c r="H74" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="I74" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="J74" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="K74" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L74">
         <v>5400</v>
@@ -7340,40 +7490,40 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O74" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P74" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q74" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R74" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S74" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T74" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="U74" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="V74" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="W74" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="X74" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="Y74" t="s">
-        <v>542</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -7381,28 +7531,28 @@
         <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G75">
         <v>6200</v>
       </c>
       <c r="H75" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="I75" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="K75" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L75">
         <v>6100</v>
@@ -7411,40 +7561,40 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O75" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P75" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q75" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R75" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="S75" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="T75" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="U75" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="V75" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="W75" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="X75" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="Y75" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -7452,28 +7602,28 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="G76">
         <v>2800</v>
       </c>
       <c r="H76" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="I76" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="K76" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7482,40 +7632,40 @@
         <v>2800</v>
       </c>
       <c r="N76" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O76" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P76" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q76" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R76" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S76" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T76" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="U76" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="V76" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W76" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X76" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y76" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -7523,28 +7673,28 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G77">
         <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="I77" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="K77" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7553,40 +7703,40 @@
         <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O77" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P77" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q77" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R77" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S77" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T77" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="U77" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="V77" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W77" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X77" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y77" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -7594,28 +7744,28 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G78">
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I78" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="K78" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="L78">
         <v>8</v>
@@ -7624,40 +7774,40 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O78" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P78" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q78" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R78" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S78" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T78" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="U78" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="V78" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="W78" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X78" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y78" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7665,28 +7815,28 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G79">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="I79" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="K79" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="L79">
         <v>8</v>
@@ -7695,40 +7845,40 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O79" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P79" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q79" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R79" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S79" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T79" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="U79" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="V79" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="W79" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="X79" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Y79" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -7736,28 +7886,28 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G80">
         <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="I80" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="K80" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7766,40 +7916,40 @@
         <v>100</v>
       </c>
       <c r="N80" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O80" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P80" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q80" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R80" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="S80" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T80" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="U80" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="V80" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="W80" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="X80" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="Y80" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -7807,28 +7957,28 @@
         <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G81">
         <v>4500</v>
       </c>
       <c r="H81" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I81" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K81" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L81">
         <v>4500</v>
@@ -7837,40 +7987,40 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O81" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P81" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q81" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R81" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S81" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T81" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U81" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V81" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W81" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X81" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y81" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -7878,28 +8028,28 @@
         <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G82">
         <v>2000</v>
       </c>
       <c r="H82" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K82" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L82">
         <v>2000</v>
@@ -7908,40 +8058,40 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O82" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P82" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q82" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R82" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S82" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T82" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U82" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V82" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W82" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X82" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y82" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7949,28 +8099,28 @@
         <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G83">
         <v>1000</v>
       </c>
       <c r="H83" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I83" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K83" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L83">
         <v>1000</v>
@@ -7979,40 +8129,40 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O83" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P83" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q83" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R83" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S83" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T83" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U83" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V83" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W83" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X83" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y83" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -8020,28 +8170,28 @@
         <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G84">
         <v>4000</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I84" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K84" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L84">
         <v>4000</v>
@@ -8050,40 +8200,40 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O84" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P84" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q84" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R84" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S84" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T84" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U84" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V84" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W84" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X84" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y84" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -8091,28 +8241,28 @@
         <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G85">
         <v>3300</v>
       </c>
       <c r="H85" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I85" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K85" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L85">
         <v>3300</v>
@@ -8121,40 +8271,40 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O85" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P85" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q85" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R85" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S85" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T85" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U85" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V85" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W85" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X85" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y85" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -8162,28 +8312,28 @@
         <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E86" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G86">
         <v>2900</v>
       </c>
       <c r="H86" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I86" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K86" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L86">
         <v>2900</v>
@@ -8192,40 +8342,40 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O86" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P86" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q86" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R86" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S86" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T86" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U86" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V86" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W86" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X86" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y86" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -8233,28 +8383,28 @@
         <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E87" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G87">
         <v>2500</v>
       </c>
       <c r="H87" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I87" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K87" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L87">
         <v>2500</v>
@@ -8263,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O87" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P87" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q87" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R87" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S87" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T87" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U87" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V87" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W87" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X87" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y87" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -8304,28 +8454,28 @@
         <v>55</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G88">
         <v>2500</v>
       </c>
       <c r="H88" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I88" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K88" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L88">
         <v>2500</v>
@@ -8334,40 +8484,40 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="O88" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="P88" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q88" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R88" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S88" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T88" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="U88" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="V88" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="W88" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X88" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y88" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -8375,34 +8525,34 @@
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G89">
         <v>4537</v>
       </c>
       <c r="H89" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="I89" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J89" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="K89" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L89">
         <v>4537</v>
@@ -8411,40 +8561,40 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O89" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P89" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q89" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="R89" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="S89" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="T89" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="U89" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="V89" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="W89" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="X89" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="Y89" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -8452,34 +8602,34 @@
         <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F90" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G90">
         <v>4700</v>
       </c>
       <c r="H90" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J90" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="K90" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L90">
         <v>4700</v>
@@ -8488,40 +8638,845 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O90" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="P90" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="Q90" t="s">
+        <v>412</v>
+      </c>
+      <c r="R90" t="s">
+        <v>416</v>
+      </c>
+      <c r="S90" t="s">
+        <v>421</v>
+      </c>
+      <c r="T90" t="s">
+        <v>462</v>
+      </c>
+      <c r="U90" t="s">
+        <v>505</v>
+      </c>
+      <c r="V90" t="s">
+        <v>519</v>
+      </c>
+      <c r="W90" t="s">
+        <v>533</v>
+      </c>
+      <c r="X90" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="s">
+        <v>262</v>
+      </c>
+      <c r="G91">
+        <v>250</v>
+      </c>
+      <c r="H91" t="s">
+        <v>323</v>
+      </c>
+      <c r="I91" t="s">
+        <v>377</v>
+      </c>
+      <c r="K91" t="s">
+        <v>392</v>
+      </c>
+      <c r="L91">
+        <v>250</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>408</v>
+      </c>
+      <c r="O91" t="s">
+        <v>408</v>
+      </c>
+      <c r="P91" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>412</v>
+      </c>
+      <c r="R91" t="s">
+        <v>417</v>
+      </c>
+      <c r="S91" t="s">
+        <v>421</v>
+      </c>
+      <c r="T91" t="s">
+        <v>463</v>
+      </c>
+      <c r="U91" t="s">
+        <v>506</v>
+      </c>
+      <c r="V91" t="s">
+        <v>530</v>
+      </c>
+      <c r="W91" t="s">
+        <v>533</v>
+      </c>
+      <c r="X91" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" t="s">
+        <v>262</v>
+      </c>
+      <c r="G92">
+        <v>1750</v>
+      </c>
+      <c r="H92" t="s">
+        <v>323</v>
+      </c>
+      <c r="I92" t="s">
+        <v>377</v>
+      </c>
+      <c r="K92" t="s">
+        <v>392</v>
+      </c>
+      <c r="L92">
+        <v>1750</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>408</v>
+      </c>
+      <c r="O92" t="s">
+        <v>408</v>
+      </c>
+      <c r="P92" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>412</v>
+      </c>
+      <c r="R92" t="s">
+        <v>417</v>
+      </c>
+      <c r="S92" t="s">
+        <v>421</v>
+      </c>
+      <c r="T92" t="s">
+        <v>463</v>
+      </c>
+      <c r="U92" t="s">
+        <v>506</v>
+      </c>
+      <c r="V92" t="s">
+        <v>530</v>
+      </c>
+      <c r="W92" t="s">
+        <v>533</v>
+      </c>
+      <c r="X92" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93">
+        <v>2000</v>
+      </c>
+      <c r="H93" t="s">
+        <v>323</v>
+      </c>
+      <c r="I93" t="s">
+        <v>377</v>
+      </c>
+      <c r="K93" t="s">
+        <v>392</v>
+      </c>
+      <c r="L93">
+        <v>2000</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>408</v>
+      </c>
+      <c r="O93" t="s">
+        <v>408</v>
+      </c>
+      <c r="P93" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>412</v>
+      </c>
+      <c r="R93" t="s">
+        <v>417</v>
+      </c>
+      <c r="S93" t="s">
+        <v>421</v>
+      </c>
+      <c r="T93" t="s">
+        <v>463</v>
+      </c>
+      <c r="U93" t="s">
+        <v>506</v>
+      </c>
+      <c r="V93" t="s">
+        <v>530</v>
+      </c>
+      <c r="W93" t="s">
+        <v>533</v>
+      </c>
+      <c r="X93" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94">
+        <v>500000</v>
+      </c>
+      <c r="H94" t="s">
+        <v>324</v>
+      </c>
+      <c r="I94" t="s">
         <v>378</v>
       </c>
-      <c r="R90" t="s">
-        <v>382</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="J94" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" t="s">
+        <v>407</v>
+      </c>
+      <c r="L94">
+        <v>500000</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>409</v>
+      </c>
+      <c r="O94" t="s">
+        <v>409</v>
+      </c>
+      <c r="P94" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>412</v>
+      </c>
+      <c r="R94" t="s">
+        <v>417</v>
+      </c>
+      <c r="S94" t="s">
+        <v>421</v>
+      </c>
+      <c r="T94" t="s">
+        <v>464</v>
+      </c>
+      <c r="U94" t="s">
+        <v>507</v>
+      </c>
+      <c r="V94" t="s">
+        <v>511</v>
+      </c>
+      <c r="W94" t="s">
+        <v>532</v>
+      </c>
+      <c r="X94" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" t="s">
+        <v>274</v>
+      </c>
+      <c r="G95">
+        <v>27000</v>
+      </c>
+      <c r="H95" t="s">
+        <v>325</v>
+      </c>
+      <c r="I95" t="s">
+        <v>379</v>
+      </c>
+      <c r="J95" t="s">
+        <v>274</v>
+      </c>
+      <c r="K95" t="s">
         <v>386</v>
       </c>
-      <c r="T90" t="s">
-        <v>427</v>
-      </c>
-      <c r="U90" t="s">
+      <c r="L95">
+        <v>27000</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>409</v>
+      </c>
+      <c r="O95" t="s">
+        <v>409</v>
+      </c>
+      <c r="P95" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>412</v>
+      </c>
+      <c r="R95" t="s">
+        <v>417</v>
+      </c>
+      <c r="S95" t="s">
+        <v>421</v>
+      </c>
+      <c r="T95" t="s">
+        <v>465</v>
+      </c>
+      <c r="U95" t="s">
+        <v>508</v>
+      </c>
+      <c r="V95" t="s">
+        <v>519</v>
+      </c>
+      <c r="W95" t="s">
+        <v>539</v>
+      </c>
+      <c r="X95" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" t="s">
+        <v>264</v>
+      </c>
+      <c r="F96" t="s">
+        <v>274</v>
+      </c>
+      <c r="G96">
+        <v>55100</v>
+      </c>
+      <c r="H96" t="s">
+        <v>325</v>
+      </c>
+      <c r="I96" t="s">
+        <v>379</v>
+      </c>
+      <c r="J96" t="s">
+        <v>274</v>
+      </c>
+      <c r="K96" t="s">
+        <v>386</v>
+      </c>
+      <c r="L96">
+        <v>55100</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>409</v>
+      </c>
+      <c r="O96" t="s">
+        <v>409</v>
+      </c>
+      <c r="P96" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>412</v>
+      </c>
+      <c r="R96" t="s">
+        <v>417</v>
+      </c>
+      <c r="S96" t="s">
+        <v>421</v>
+      </c>
+      <c r="T96" t="s">
+        <v>465</v>
+      </c>
+      <c r="U96" t="s">
+        <v>508</v>
+      </c>
+      <c r="V96" t="s">
+        <v>519</v>
+      </c>
+      <c r="W96" t="s">
+        <v>539</v>
+      </c>
+      <c r="X96" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F97" t="s">
+        <v>274</v>
+      </c>
+      <c r="G97">
+        <v>145000</v>
+      </c>
+      <c r="H97" t="s">
+        <v>326</v>
+      </c>
+      <c r="I97" t="s">
+        <v>379</v>
+      </c>
+      <c r="J97" t="s">
+        <v>274</v>
+      </c>
+      <c r="K97" t="s">
+        <v>386</v>
+      </c>
+      <c r="L97">
+        <v>145000</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>409</v>
+      </c>
+      <c r="O97" t="s">
+        <v>409</v>
+      </c>
+      <c r="P97" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>412</v>
+      </c>
+      <c r="R97" t="s">
+        <v>417</v>
+      </c>
+      <c r="S97" t="s">
+        <v>421</v>
+      </c>
+      <c r="T97" t="s">
+        <v>465</v>
+      </c>
+      <c r="U97" t="s">
+        <v>508</v>
+      </c>
+      <c r="V97" t="s">
+        <v>519</v>
+      </c>
+      <c r="W97" t="s">
+        <v>539</v>
+      </c>
+      <c r="X97" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98">
+        <v>5000</v>
+      </c>
+      <c r="H98" t="s">
+        <v>327</v>
+      </c>
+      <c r="I98" t="s">
+        <v>380</v>
+      </c>
+      <c r="K98" t="s">
+        <v>392</v>
+      </c>
+      <c r="L98">
+        <v>5000</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>408</v>
+      </c>
+      <c r="O98" t="s">
+        <v>408</v>
+      </c>
+      <c r="P98" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>412</v>
+      </c>
+      <c r="R98" t="s">
+        <v>417</v>
+      </c>
+      <c r="S98" t="s">
+        <v>421</v>
+      </c>
+      <c r="T98" t="s">
         <v>466</v>
       </c>
-      <c r="V90" t="s">
-        <v>475</v>
-      </c>
-      <c r="W90" t="s">
-        <v>488</v>
-      </c>
-      <c r="X90" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>547</v>
+      <c r="U98" t="s">
+        <v>509</v>
+      </c>
+      <c r="V98" t="s">
+        <v>522</v>
+      </c>
+      <c r="W98" t="s">
+        <v>550</v>
+      </c>
+      <c r="X98" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" t="s">
+        <v>266</v>
+      </c>
+      <c r="G99">
+        <v>5000</v>
+      </c>
+      <c r="H99" t="s">
+        <v>327</v>
+      </c>
+      <c r="I99" t="s">
+        <v>381</v>
+      </c>
+      <c r="K99" t="s">
+        <v>392</v>
+      </c>
+      <c r="L99">
+        <v>5000</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>408</v>
+      </c>
+      <c r="O99" t="s">
+        <v>408</v>
+      </c>
+      <c r="P99" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>412</v>
+      </c>
+      <c r="R99" t="s">
+        <v>417</v>
+      </c>
+      <c r="S99" t="s">
+        <v>421</v>
+      </c>
+      <c r="T99" t="s">
+        <v>466</v>
+      </c>
+      <c r="U99" t="s">
+        <v>509</v>
+      </c>
+      <c r="V99" t="s">
+        <v>522</v>
+      </c>
+      <c r="W99" t="s">
+        <v>550</v>
+      </c>
+      <c r="X99" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100">
+        <v>5000</v>
+      </c>
+      <c r="H100" t="s">
+        <v>327</v>
+      </c>
+      <c r="I100" t="s">
+        <v>380</v>
+      </c>
+      <c r="K100" t="s">
+        <v>392</v>
+      </c>
+      <c r="L100">
+        <v>5000</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>408</v>
+      </c>
+      <c r="O100" t="s">
+        <v>408</v>
+      </c>
+      <c r="P100" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>412</v>
+      </c>
+      <c r="R100" t="s">
+        <v>417</v>
+      </c>
+      <c r="S100" t="s">
+        <v>421</v>
+      </c>
+      <c r="T100" t="s">
+        <v>467</v>
+      </c>
+      <c r="U100" t="s">
+        <v>510</v>
+      </c>
+      <c r="V100" t="s">
+        <v>523</v>
+      </c>
+      <c r="W100" t="s">
+        <v>550</v>
+      </c>
+      <c r="X100" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101">
+        <v>5000</v>
+      </c>
+      <c r="H101" t="s">
+        <v>327</v>
+      </c>
+      <c r="I101" t="s">
+        <v>380</v>
+      </c>
+      <c r="K101" t="s">
+        <v>392</v>
+      </c>
+      <c r="L101">
+        <v>5000</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>408</v>
+      </c>
+      <c r="O101" t="s">
+        <v>408</v>
+      </c>
+      <c r="P101" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>412</v>
+      </c>
+      <c r="R101" t="s">
+        <v>417</v>
+      </c>
+      <c r="S101" t="s">
+        <v>421</v>
+      </c>
+      <c r="T101" t="s">
+        <v>467</v>
+      </c>
+      <c r="U101" t="s">
+        <v>510</v>
+      </c>
+      <c r="V101" t="s">
+        <v>523</v>
+      </c>
+      <c r="W101" t="s">
+        <v>550</v>
+      </c>
+      <c r="X101" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
